--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>trideni</t>
   </si>
@@ -158,6 +158,12 @@
     <t>8.–14. 2. 2021</t>
   </si>
   <si>
+    <t>15.–21. 2. 2021</t>
+  </si>
+  <si>
+    <t>22.–28. 2. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -248,10 +254,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU62"/>
+  <dimension ref="A1:AW62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,16 +782,22 @@
       <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
         <v>22.5</v>
@@ -919,16 +931,22 @@
       <c r="AU2" t="n">
         <v>13</v>
       </c>
+      <c r="AV2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1062,16 +1080,22 @@
       <c r="AU3" t="n">
         <v>6</v>
       </c>
+      <c r="AV3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -1205,16 +1229,22 @@
       <c r="AU4" t="n">
         <v>5.5</v>
       </c>
+      <c r="AV4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
         <v>27.5</v>
@@ -1348,16 +1378,22 @@
       <c r="AU5" t="n">
         <v>16.5</v>
       </c>
+      <c r="AV5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
         <v>28.5</v>
@@ -1491,16 +1527,22 @@
       <c r="AU6" t="n">
         <v>17</v>
       </c>
+      <c r="AV6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>13.5</v>
@@ -1634,16 +1676,22 @@
       <c r="AU7" t="n">
         <v>8</v>
       </c>
+      <c r="AV7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
@@ -1777,16 +1825,22 @@
       <c r="AU8" t="n">
         <v>15</v>
       </c>
+      <c r="AV8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
         <v>22.5</v>
@@ -1920,16 +1974,22 @@
       <c r="AU9" t="n">
         <v>13</v>
       </c>
+      <c r="AV9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="n">
         <v>22</v>
@@ -2063,16 +2123,22 @@
       <c r="AU10" t="n">
         <v>12.5</v>
       </c>
+      <c r="AV10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" t="n">
         <v>39.5</v>
@@ -2206,16 +2272,22 @@
       <c r="AU11" t="n">
         <v>16</v>
       </c>
+      <c r="AV11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -2349,16 +2421,22 @@
       <c r="AU12" t="n">
         <v>13</v>
       </c>
+      <c r="AV12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -2492,16 +2570,22 @@
       <c r="AU13" t="n">
         <v>10.5</v>
       </c>
+      <c r="AV13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
@@ -2635,16 +2719,22 @@
       <c r="AU14" t="n">
         <v>14</v>
       </c>
+      <c r="AV14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" t="n">
         <v>20.5</v>
@@ -2778,16 +2868,22 @@
       <c r="AU15" t="n">
         <v>12.5</v>
       </c>
+      <c r="AV15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>22.5</v>
@@ -2921,16 +3017,22 @@
       <c r="AU16" t="n">
         <v>13.5</v>
       </c>
+      <c r="AV16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" t="n">
         <v>23.5</v>
@@ -3064,16 +3166,22 @@
       <c r="AU17" t="n">
         <v>12.5</v>
       </c>
+      <c r="AV17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
         <v>21.5</v>
@@ -3207,16 +3315,22 @@
       <c r="AU18" t="n">
         <v>12.5</v>
       </c>
+      <c r="AV18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
@@ -3350,16 +3464,22 @@
       <c r="AU19" t="n">
         <v>13</v>
       </c>
+      <c r="AV19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
@@ -3487,16 +3607,22 @@
       <c r="AU20" t="n">
         <v>23.5</v>
       </c>
+      <c r="AV20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
         <v>10.5</v>
@@ -3624,16 +3750,22 @@
       <c r="AU21" t="n">
         <v>13</v>
       </c>
+      <c r="AV21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -3761,16 +3893,22 @@
       <c r="AU22" t="n">
         <v>7.5</v>
       </c>
+      <c r="AV22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" t="n">
         <v>4.5</v>
@@ -3898,16 +4036,22 @@
       <c r="AU23" t="n">
         <v>6</v>
       </c>
+      <c r="AV23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
@@ -4041,16 +4185,22 @@
       <c r="AU24" t="n">
         <v>9</v>
       </c>
+      <c r="AV24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>20</v>
@@ -4184,16 +4334,22 @@
       <c r="AU25" t="n">
         <v>10</v>
       </c>
+      <c r="AV25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
@@ -4327,16 +4483,22 @@
       <c r="AU26" t="n">
         <v>4</v>
       </c>
+      <c r="AV26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -4470,16 +4632,22 @@
       <c r="AU27" t="n">
         <v>10</v>
       </c>
+      <c r="AV27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
@@ -4613,16 +4781,22 @@
       <c r="AU28" t="n">
         <v>6</v>
       </c>
+      <c r="AV28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
@@ -4756,16 +4930,22 @@
       <c r="AU29" t="n">
         <v>6</v>
       </c>
+      <c r="AV29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D30" t="n">
         <v>25</v>
@@ -4899,16 +5079,22 @@
       <c r="AU30" t="n">
         <v>10</v>
       </c>
+      <c r="AV30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -5042,16 +5228,22 @@
       <c r="AU31" t="n">
         <v>6</v>
       </c>
+      <c r="AV31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -5185,16 +5377,22 @@
       <c r="AU32" t="n">
         <v>5</v>
       </c>
+      <c r="AV32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
@@ -5328,16 +5526,22 @@
       <c r="AU33" t="n">
         <v>8</v>
       </c>
+      <c r="AV33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -5471,16 +5675,22 @@
       <c r="AU34" t="n">
         <v>5</v>
       </c>
+      <c r="AV34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -5614,16 +5824,22 @@
       <c r="AU35" t="n">
         <v>6</v>
       </c>
+      <c r="AV35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" t="n">
         <v>12</v>
@@ -5757,16 +5973,22 @@
       <c r="AU36" t="n">
         <v>6</v>
       </c>
+      <c r="AV36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -5900,16 +6122,22 @@
       <c r="AU37" t="n">
         <v>7</v>
       </c>
+      <c r="AV37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -6043,16 +6271,22 @@
       <c r="AU38" t="n">
         <v>6</v>
       </c>
+      <c r="AV38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" t="n">
         <v>10</v>
@@ -6180,16 +6414,22 @@
       <c r="AU39" t="n">
         <v>15</v>
       </c>
+      <c r="AV39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40" t="n">
         <v>6</v>
@@ -6317,16 +6557,22 @@
       <c r="AU40" t="n">
         <v>10</v>
       </c>
+      <c r="AV40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -6454,16 +6700,22 @@
       <c r="AU41" t="n">
         <v>5</v>
       </c>
+      <c r="AV41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -6591,16 +6843,22 @@
       <c r="AU42" t="n">
         <v>3</v>
       </c>
+      <c r="AV42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
         <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
       </c>
       <c r="D43" t="n">
         <v>9</v>
@@ -6734,16 +6992,22 @@
       <c r="AU43" t="n">
         <v>8</v>
       </c>
+      <c r="AV43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" t="n">
         <v>8.5</v>
@@ -6877,16 +7141,22 @@
       <c r="AU44" t="n">
         <v>6</v>
       </c>
+      <c r="AV44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D45" t="n">
         <v>4</v>
@@ -7020,16 +7290,22 @@
       <c r="AU45" t="n">
         <v>3.5</v>
       </c>
+      <c r="AV45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" t="n">
         <v>7.5</v>
@@ -7163,16 +7439,22 @@
       <c r="AU46" t="n">
         <v>6.5</v>
       </c>
+      <c r="AV46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
@@ -7306,16 +7588,22 @@
       <c r="AU47" t="n">
         <v>6</v>
       </c>
+      <c r="AV47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" t="n">
         <v>6.5</v>
@@ -7449,16 +7737,22 @@
       <c r="AU48" t="n">
         <v>4.5</v>
       </c>
+      <c r="AV48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" t="n">
         <v>11.5</v>
@@ -7592,16 +7886,22 @@
       <c r="AU49" t="n">
         <v>7</v>
       </c>
+      <c r="AV49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
         <v>7.5</v>
@@ -7735,16 +8035,22 @@
       <c r="AU50" t="n">
         <v>4.5</v>
       </c>
+      <c r="AV50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" t="n">
         <v>7</v>
@@ -7878,16 +8184,22 @@
       <c r="AU51" t="n">
         <v>4</v>
       </c>
+      <c r="AV51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D52" t="n">
         <v>7.5</v>
@@ -8021,16 +8333,22 @@
       <c r="AU52" t="n">
         <v>6</v>
       </c>
+      <c r="AV52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D53" t="n">
         <v>6.5</v>
@@ -8164,16 +8482,22 @@
       <c r="AU53" t="n">
         <v>5</v>
       </c>
+      <c r="AV53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:49">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D54" t="n">
         <v>7</v>
@@ -8307,16 +8631,22 @@
       <c r="AU54" t="n">
         <v>6</v>
       </c>
+      <c r="AV54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:49">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -8450,16 +8780,22 @@
       <c r="AU55" t="n">
         <v>4</v>
       </c>
+      <c r="AV55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:49">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D56" t="n">
         <v>6.5</v>
@@ -8593,16 +8929,22 @@
       <c r="AU56" t="n">
         <v>5.5</v>
       </c>
+      <c r="AV56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:49">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D57" t="n">
         <v>6.5</v>
@@ -8736,16 +9078,22 @@
       <c r="AU57" t="n">
         <v>5</v>
       </c>
+      <c r="AV57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:49">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F58" t="n">
         <v>5</v>
@@ -8873,16 +9221,22 @@
       <c r="AU58" t="n">
         <v>7.5</v>
       </c>
+      <c r="AV58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:49">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F59" t="n">
         <v>4.5</v>
@@ -9010,16 +9364,22 @@
       <c r="AU59" t="n">
         <v>5.5</v>
       </c>
+      <c r="AV59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:49">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F60" t="n">
         <v>3.5</v>
@@ -9147,16 +9507,22 @@
       <c r="AU60" t="n">
         <v>5.5</v>
       </c>
+      <c r="AV60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:49">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F61" t="n">
         <v>3.5</v>
@@ -9284,10 +9650,16 @@
       <c r="AU61" t="n">
         <v>4.5</v>
       </c>
+      <c r="AV61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:49">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -9301,7 +9673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT22"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9309,7 +9681,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9448,13 +9820,19 @@
       <c r="AT1" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AU1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>1986</v>
@@ -9588,13 +9966,19 @@
       <c r="AT2" t="n">
         <v>1889</v>
       </c>
+      <c r="AU2" t="n">
+        <v>1915</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1924</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
         <v>457</v>
@@ -9728,13 +10112,19 @@
       <c r="AT3" t="n">
         <v>435</v>
       </c>
+      <c r="AU3" t="n">
+        <v>444</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>449</v>
+      </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
         <v>712</v>
@@ -9868,13 +10258,19 @@
       <c r="AT4" t="n">
         <v>674</v>
       </c>
+      <c r="AU4" t="n">
+        <v>669</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>670</v>
+      </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
         <v>817</v>
@@ -10008,13 +10404,19 @@
       <c r="AT5" t="n">
         <v>780</v>
       </c>
+      <c r="AU5" t="n">
+        <v>802</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>805</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>433</v>
@@ -10148,13 +10550,19 @@
       <c r="AT6" t="n">
         <v>370</v>
       </c>
+      <c r="AU6" t="n">
+        <v>335</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>341</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>550</v>
@@ -10288,13 +10696,19 @@
       <c r="AT7" t="n">
         <v>633</v>
       </c>
+      <c r="AU7" t="n">
+        <v>597</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>598</v>
+      </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
         <v>1003</v>
@@ -10428,13 +10842,19 @@
       <c r="AT8" t="n">
         <v>886</v>
       </c>
+      <c r="AU8" t="n">
+        <v>983</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>985</v>
+      </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:48">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -10568,13 +10988,19 @@
       <c r="AT9" t="n">
         <v>634</v>
       </c>
+      <c r="AU9" t="n">
+        <v>640</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>645</v>
+      </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:48">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -10708,13 +11134,19 @@
       <c r="AT10" t="n">
         <v>618</v>
       </c>
+      <c r="AU10" t="n">
+        <v>680</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>682</v>
+      </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:48">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="n">
         <v>1922</v>
@@ -10848,13 +11280,19 @@
       <c r="AT11" t="n">
         <v>637</v>
       </c>
+      <c r="AU11" t="n">
+        <v>595</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>597</v>
+      </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:48">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" t="n">
         <v>971</v>
@@ -10988,13 +11426,19 @@
       <c r="AT12" t="n">
         <v>916</v>
       </c>
+      <c r="AU12" t="n">
+        <v>940</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>945</v>
+      </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:48">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="n">
         <v>1015</v>
@@ -11128,13 +11572,19 @@
       <c r="AT13" t="n">
         <v>973</v>
       </c>
+      <c r="AU13" t="n">
+        <v>975</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>979</v>
+      </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:48">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
         <v>1038</v>
@@ -11268,13 +11718,19 @@
       <c r="AT14" t="n">
         <v>984</v>
       </c>
+      <c r="AU14" t="n">
+        <v>991</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:48">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" t="n">
         <v>452</v>
@@ -11408,13 +11864,19 @@
       <c r="AT15" t="n">
         <v>434</v>
       </c>
+      <c r="AU15" t="n">
+        <v>443</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>443</v>
+      </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="n">
         <v>227</v>
@@ -11548,13 +12010,19 @@
       <c r="AT16" t="n">
         <v>224</v>
       </c>
+      <c r="AU16" t="n">
+        <v>232</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>231</v>
+      </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="n">
         <v>269</v>
@@ -11688,13 +12156,19 @@
       <c r="AT17" t="n">
         <v>247</v>
       </c>
+      <c r="AU17" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>249</v>
+      </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
@@ -11824,13 +12298,19 @@
       <c r="AT18" t="n">
         <v>653</v>
       </c>
+      <c r="AU18" t="n">
+        <v>669</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>674</v>
+      </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s"/>
@@ -11960,13 +12440,19 @@
       <c r="AT19" t="n">
         <v>91</v>
       </c>
+      <c r="AU19" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="s"/>
@@ -11983,7 +12469,7 @@
         <v>321</v>
       </c>
       <c r="I20" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J20" t="n">
         <v>273</v>
@@ -11995,7 +12481,7 @@
         <v>203</v>
       </c>
       <c r="M20" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N20" t="n">
         <v>158</v>
@@ -12007,7 +12493,7 @@
         <v>121</v>
       </c>
       <c r="Q20" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R20" t="n">
         <v>94</v>
@@ -12037,7 +12523,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB20" t="n">
         <v>104</v>
@@ -12055,7 +12541,7 @@
         <v>192</v>
       </c>
       <c r="AG20" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH20" t="n">
         <v>192</v>
@@ -12067,13 +12553,13 @@
         <v>185</v>
       </c>
       <c r="AK20" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL20" t="n">
         <v>143</v>
       </c>
       <c r="AM20" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN20" t="n">
         <v>136</v>
@@ -12085,29 +12571,35 @@
         <v>92</v>
       </c>
       <c r="AQ20" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AR20" t="n">
         <v>144</v>
       </c>
       <c r="AS20" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AT20" t="n">
         <v>157</v>
       </c>
+      <c r="AU20" t="n">
+        <v>146</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>147</v>
+      </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s"/>
       <c r="E21" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F21" t="n">
         <v>299</v>
@@ -12119,7 +12611,7 @@
         <v>287</v>
       </c>
       <c r="I21" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J21" t="n">
         <v>253</v>
@@ -12131,7 +12623,7 @@
         <v>177</v>
       </c>
       <c r="M21" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N21" t="n">
         <v>155</v>
@@ -12143,7 +12635,7 @@
         <v>84</v>
       </c>
       <c r="Q21" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R21" t="n">
         <v>88</v>
@@ -12173,7 +12665,7 @@
         <v>79</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB21" t="n">
         <v>95</v>
@@ -12191,7 +12683,7 @@
         <v>122</v>
       </c>
       <c r="AG21" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH21" t="n">
         <v>145</v>
@@ -12203,13 +12695,13 @@
         <v>140</v>
       </c>
       <c r="AK21" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL21" t="n">
         <v>94</v>
       </c>
       <c r="AM21" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
         <v>96</v>
@@ -12221,7 +12713,7 @@
         <v>600</v>
       </c>
       <c r="AQ21" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AR21" t="n">
         <v>119</v>
@@ -12232,10 +12724,16 @@
       <c r="AT21" t="n">
         <v>123</v>
       </c>
+      <c r="AU21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>120</v>
+      </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:48">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -12282,6 +12780,8 @@
       <c r="AR22" t="s"/>
       <c r="AS22" t="s"/>
       <c r="AT22" t="s"/>
+      <c r="AU22" t="s"/>
+      <c r="AV22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>trideni</t>
   </si>
@@ -164,6 +164,12 @@
     <t>22.–28. 2. 2021</t>
   </si>
   <si>
+    <t>1.–7. 3. 2021</t>
+  </si>
+  <si>
+    <t>8.–14. 3. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -254,10 +260,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW62"/>
+  <dimension ref="A1:AY62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,16 +794,22 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
         <v>22.5</v>
@@ -937,16 +949,22 @@
       <c r="AW2" t="n">
         <v>12</v>
       </c>
+      <c r="AX2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1086,16 +1104,22 @@
       <c r="AW3" t="n">
         <v>6</v>
       </c>
+      <c r="AX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -1104,7 +1128,7 @@
         <v>5.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>3.5</v>
@@ -1215,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR4" t="n">
         <v>5.5</v>
@@ -1235,16 +1259,22 @@
       <c r="AW4" t="n">
         <v>5</v>
       </c>
+      <c r="AX4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>27.5</v>
@@ -1384,16 +1414,22 @@
       <c r="AW5" t="n">
         <v>14</v>
       </c>
+      <c r="AX5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
         <v>28.5</v>
@@ -1533,16 +1569,22 @@
       <c r="AW6" t="n">
         <v>16.5</v>
       </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
         <v>13.5</v>
@@ -1682,16 +1724,22 @@
       <c r="AW7" t="n">
         <v>7.5</v>
       </c>
+      <c r="AX7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
@@ -1831,16 +1879,22 @@
       <c r="AW8" t="n">
         <v>14.5</v>
       </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
         <v>22.5</v>
@@ -1980,16 +2034,22 @@
       <c r="AW9" t="n">
         <v>12</v>
       </c>
+      <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
         <v>22</v>
@@ -2129,16 +2189,22 @@
       <c r="AW10" t="n">
         <v>11.5</v>
       </c>
+      <c r="AX10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
         <v>39.5</v>
@@ -2278,16 +2344,22 @@
       <c r="AW11" t="n">
         <v>16</v>
       </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -2427,16 +2499,22 @@
       <c r="AW12" t="n">
         <v>10.5</v>
       </c>
+      <c r="AX12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -2576,16 +2654,22 @@
       <c r="AW13" t="n">
         <v>9.5</v>
       </c>
+      <c r="AX13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
@@ -2725,16 +2809,22 @@
       <c r="AW14" t="n">
         <v>13.5</v>
       </c>
+      <c r="AX14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
         <v>20.5</v>
@@ -2874,16 +2964,22 @@
       <c r="AW15" t="n">
         <v>10.5</v>
       </c>
+      <c r="AX15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" t="n">
         <v>22.5</v>
@@ -3023,16 +3119,22 @@
       <c r="AW16" t="n">
         <v>12.5</v>
       </c>
+      <c r="AX16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
         <v>23.5</v>
@@ -3172,16 +3274,22 @@
       <c r="AW17" t="n">
         <v>11.5</v>
       </c>
+      <c r="AX17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
         <v>21.5</v>
@@ -3321,16 +3429,22 @@
       <c r="AW18" t="n">
         <v>11.5</v>
       </c>
+      <c r="AX18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
@@ -3470,16 +3584,22 @@
       <c r="AW19" t="n">
         <v>11.5</v>
       </c>
+      <c r="AX19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
@@ -3613,16 +3733,22 @@
       <c r="AW20" t="n">
         <v>21.5</v>
       </c>
+      <c r="AX20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" t="n">
         <v>10.5</v>
@@ -3756,16 +3882,22 @@
       <c r="AW21" t="n">
         <v>13.5</v>
       </c>
+      <c r="AX21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -3899,16 +4031,22 @@
       <c r="AW22" t="n">
         <v>7</v>
       </c>
+      <c r="AX22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n">
         <v>4.5</v>
@@ -4042,16 +4180,22 @@
       <c r="AW23" t="n">
         <v>8</v>
       </c>
+      <c r="AX23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
@@ -4191,16 +4335,22 @@
       <c r="AW24" t="n">
         <v>8</v>
       </c>
+      <c r="AX24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
       </c>
       <c r="D25" t="n">
         <v>20</v>
@@ -4340,16 +4490,22 @@
       <c r="AW25" t="n">
         <v>8</v>
       </c>
+      <c r="AX25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
@@ -4489,16 +4645,22 @@
       <c r="AW26" t="n">
         <v>4</v>
       </c>
+      <c r="AX26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -4638,16 +4800,22 @@
       <c r="AW27" t="n">
         <v>8</v>
       </c>
+      <c r="AX27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
@@ -4787,16 +4955,22 @@
       <c r="AW28" t="n">
         <v>6</v>
       </c>
+      <c r="AX28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
@@ -4936,16 +5110,22 @@
       <c r="AW29" t="n">
         <v>5</v>
       </c>
+      <c r="AX29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
         <v>25</v>
@@ -5085,16 +5265,22 @@
       <c r="AW30" t="n">
         <v>10</v>
       </c>
+      <c r="AX30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -5234,16 +5420,22 @@
       <c r="AW31" t="n">
         <v>5</v>
       </c>
+      <c r="AX31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -5383,16 +5575,22 @@
       <c r="AW32" t="n">
         <v>5</v>
       </c>
+      <c r="AX32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
@@ -5532,16 +5730,22 @@
       <c r="AW33" t="n">
         <v>7</v>
       </c>
+      <c r="AX33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -5681,16 +5885,22 @@
       <c r="AW34" t="n">
         <v>5</v>
       </c>
+      <c r="AX34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -5830,16 +6040,22 @@
       <c r="AW35" t="n">
         <v>6</v>
       </c>
+      <c r="AX35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" t="n">
         <v>12</v>
@@ -5979,16 +6195,22 @@
       <c r="AW36" t="n">
         <v>6</v>
       </c>
+      <c r="AX36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -6128,16 +6350,22 @@
       <c r="AW37" t="n">
         <v>6</v>
       </c>
+      <c r="AX37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -6277,16 +6505,22 @@
       <c r="AW38" t="n">
         <v>5</v>
       </c>
+      <c r="AX38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F39" t="n">
         <v>10</v>
@@ -6420,16 +6654,22 @@
       <c r="AW39" t="n">
         <v>15</v>
       </c>
+      <c r="AX39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" t="n">
         <v>6</v>
@@ -6563,16 +6803,22 @@
       <c r="AW40" t="n">
         <v>10</v>
       </c>
+      <c r="AX40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -6706,16 +6952,22 @@
       <c r="AW41" t="n">
         <v>5</v>
       </c>
+      <c r="AX41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -6849,16 +7101,22 @@
       <c r="AW42" t="n">
         <v>3</v>
       </c>
+      <c r="AX42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
         <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
       </c>
       <c r="D43" t="n">
         <v>9</v>
@@ -6885,7 +7143,7 @@
         <v>6.5</v>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M43" t="n">
         <v>7.5</v>
@@ -6918,7 +7176,7 @@
         <v>12.5</v>
       </c>
       <c r="W43" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X43" t="n">
         <v>12.5</v>
@@ -6936,13 +7194,13 @@
         <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
         <v>9.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF43" t="n">
         <v>7.5</v>
@@ -6978,7 +7236,7 @@
         <v>10</v>
       </c>
       <c r="AQ43" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AR43" t="n">
         <v>8.5</v>
@@ -6998,16 +7256,22 @@
       <c r="AW43" t="n">
         <v>7</v>
       </c>
+      <c r="AX43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" t="n">
         <v>8.5</v>
@@ -7025,7 +7289,7 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>5.5</v>
@@ -7037,7 +7301,7 @@
         <v>6.5</v>
       </c>
       <c r="M44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N44" t="n">
         <v>7.5</v>
@@ -7094,10 +7358,10 @@
         <v>8</v>
       </c>
       <c r="AF44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG44" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>6</v>
       </c>
       <c r="AH44" t="n">
         <v>6</v>
@@ -7109,7 +7373,7 @@
         <v>5.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AL44" t="n">
         <v>6.5</v>
@@ -7127,7 +7391,7 @@
         <v>7</v>
       </c>
       <c r="AQ44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AR44" t="n">
         <v>6</v>
@@ -7147,19 +7411,25 @@
       <c r="AW44" t="n">
         <v>6</v>
       </c>
+      <c r="AX44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E45" t="n">
         <v>3.5</v>
@@ -7192,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -7204,7 +7474,7 @@
         <v>6</v>
       </c>
       <c r="S45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -7246,7 +7516,7 @@
         <v>3.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AH45" t="n">
         <v>3.5</v>
@@ -7276,7 +7546,7 @@
         <v>5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR45" t="n">
         <v>3</v>
@@ -7296,16 +7566,22 @@
       <c r="AW45" t="n">
         <v>3</v>
       </c>
+      <c r="AX45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:51">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D46" t="n">
         <v>7.5</v>
@@ -7317,7 +7593,7 @@
         <v>4.5</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
         <v>5</v>
@@ -7335,7 +7611,7 @@
         <v>6.5</v>
       </c>
       <c r="M46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N46" t="n">
         <v>7.5</v>
@@ -7383,7 +7659,7 @@
         <v>10</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD46" t="n">
         <v>9.5</v>
@@ -7392,7 +7668,7 @@
         <v>9</v>
       </c>
       <c r="AF46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG46" t="n">
         <v>7.5</v>
@@ -7425,7 +7701,7 @@
         <v>9</v>
       </c>
       <c r="AQ46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR46" t="n">
         <v>7.5</v>
@@ -7445,16 +7721,22 @@
       <c r="AW46" t="n">
         <v>6</v>
       </c>
+      <c r="AX46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
@@ -7469,10 +7751,10 @@
         <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
         <v>4.5</v>
@@ -7529,7 +7811,7 @@
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC47" t="n">
         <v>7.5</v>
@@ -7538,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="AE47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG47" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>5</v>
       </c>
       <c r="AH47" t="n">
         <v>5</v>
@@ -7574,7 +7856,7 @@
         <v>6.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AR47" t="n">
         <v>5</v>
@@ -7583,7 +7865,7 @@
         <v>5</v>
       </c>
       <c r="AT47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AU47" t="n">
         <v>6</v>
@@ -7594,16 +7876,22 @@
       <c r="AW47" t="n">
         <v>5</v>
       </c>
+      <c r="AX47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:51">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D48" t="n">
         <v>6.5</v>
@@ -7624,7 +7912,7 @@
         <v>3.5</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>4</v>
@@ -7633,7 +7921,7 @@
         <v>4.5</v>
       </c>
       <c r="M48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
         <v>5.5</v>
@@ -7654,10 +7942,10 @@
         <v>7</v>
       </c>
       <c r="T48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
@@ -7666,7 +7954,7 @@
         <v>8</v>
       </c>
       <c r="X48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y48" t="n">
         <v>8</v>
@@ -7723,7 +8011,7 @@
         <v>6.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AR48" t="n">
         <v>4.5</v>
@@ -7743,16 +8031,22 @@
       <c r="AW48" t="n">
         <v>4.5</v>
       </c>
+      <c r="AX48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:51">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
         <v>11.5</v>
@@ -7770,7 +8064,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
         <v>6</v>
@@ -7845,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="AH49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ49" t="n">
         <v>6</v>
@@ -7872,7 +8166,7 @@
         <v>8.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AR49" t="n">
         <v>6.5</v>
@@ -7892,16 +8186,22 @@
       <c r="AW49" t="n">
         <v>6.5</v>
       </c>
+      <c r="AX49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:51">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50" t="n">
         <v>7.5</v>
@@ -7913,10 +8213,10 @@
         <v>4.5</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
         <v>4.5</v>
@@ -7928,7 +8228,7 @@
         <v>5.5</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M50" t="n">
         <v>7</v>
@@ -8021,7 +8321,7 @@
         <v>6</v>
       </c>
       <c r="AQ50" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AR50" t="n">
         <v>5</v>
@@ -8041,16 +8341,22 @@
       <c r="AW50" t="n">
         <v>4.5</v>
       </c>
+      <c r="AX50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" t="n">
         <v>7</v>
@@ -8062,7 +8368,7 @@
         <v>3.5</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
@@ -8077,16 +8383,16 @@
         <v>4.5</v>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N51" t="n">
         <v>6</v>
       </c>
       <c r="O51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P51" t="n">
         <v>7.5</v>
@@ -8170,7 +8476,7 @@
         <v>6</v>
       </c>
       <c r="AQ51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AR51" t="n">
         <v>5</v>
@@ -8190,19 +8496,25 @@
       <c r="AW51" t="n">
         <v>4</v>
       </c>
+      <c r="AX51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:51">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>6</v>
@@ -8319,7 +8631,7 @@
         <v>7</v>
       </c>
       <c r="AQ52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AR52" t="n">
         <v>6</v>
@@ -8339,16 +8651,22 @@
       <c r="AW52" t="n">
         <v>5</v>
       </c>
+      <c r="AX52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:51">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D53" t="n">
         <v>6.5</v>
@@ -8360,10 +8678,10 @@
         <v>3.5</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
         <v>3.5</v>
@@ -8372,13 +8690,13 @@
         <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L53" t="n">
         <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N53" t="n">
         <v>6</v>
@@ -8387,7 +8705,7 @@
         <v>6</v>
       </c>
       <c r="P53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q53" t="n">
         <v>7.5</v>
@@ -8396,13 +8714,13 @@
         <v>8</v>
       </c>
       <c r="S53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="T53" t="n">
         <v>9.5</v>
       </c>
       <c r="U53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V53" t="n">
         <v>9</v>
@@ -8414,13 +8732,13 @@
         <v>9</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z53" t="n">
         <v>8</v>
       </c>
       <c r="AA53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB53" t="n">
         <v>7.5</v>
@@ -8444,7 +8762,7 @@
         <v>5</v>
       </c>
       <c r="AI53" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ53" t="n">
         <v>4.5</v>
@@ -8468,7 +8786,7 @@
         <v>7</v>
       </c>
       <c r="AQ53" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AR53" t="n">
         <v>5</v>
@@ -8488,16 +8806,22 @@
       <c r="AW53" t="n">
         <v>4.5</v>
       </c>
+      <c r="AX53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:51">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
         <v>7</v>
@@ -8509,7 +8833,7 @@
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
         <v>4.5</v>
@@ -8524,7 +8848,7 @@
         <v>5</v>
       </c>
       <c r="L54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>6</v>
@@ -8533,7 +8857,7 @@
         <v>6.5</v>
       </c>
       <c r="O54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P54" t="n">
         <v>8</v>
@@ -8617,7 +8941,7 @@
         <v>7.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AR54" t="n">
         <v>5.5</v>
@@ -8635,18 +8959,24 @@
         <v>5.5</v>
       </c>
       <c r="AW54" t="n">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>4.5</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:51">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -8655,7 +8985,7 @@
         <v>5.5</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -8667,10 +8997,10 @@
         <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L55" t="n">
         <v>5</v>
@@ -8697,7 +9027,7 @@
         <v>8.5</v>
       </c>
       <c r="T55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U55" t="n">
         <v>9</v>
@@ -8766,7 +9096,7 @@
         <v>6</v>
       </c>
       <c r="AQ55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AR55" t="n">
         <v>5.5</v>
@@ -8786,16 +9116,22 @@
       <c r="AW55" t="n">
         <v>4.5</v>
       </c>
+      <c r="AX55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:51">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
         <v>6.5</v>
@@ -8855,7 +9191,7 @@
         <v>9.5</v>
       </c>
       <c r="W56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X56" t="n">
         <v>9.5</v>
@@ -8882,10 +9218,10 @@
         <v>7</v>
       </c>
       <c r="AF56" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH56" t="n">
         <v>5</v>
@@ -8915,7 +9251,7 @@
         <v>6</v>
       </c>
       <c r="AQ56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AR56" t="n">
         <v>5.5</v>
@@ -8935,16 +9271,22 @@
       <c r="AW56" t="n">
         <v>5</v>
       </c>
+      <c r="AX56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:51">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D57" t="n">
         <v>6.5</v>
@@ -8956,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>3.5</v>
@@ -8968,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L57" t="n">
         <v>5</v>
@@ -9064,7 +9406,7 @@
         <v>7</v>
       </c>
       <c r="AQ57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR57" t="n">
         <v>5</v>
@@ -9084,22 +9426,28 @@
       <c r="AW57" t="n">
         <v>4.5</v>
       </c>
+      <c r="AX57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:51">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F58" t="n">
         <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>6</v>
@@ -9138,7 +9486,7 @@
         <v>10.5</v>
       </c>
       <c r="T58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U58" t="n">
         <v>11</v>
@@ -9207,7 +9555,7 @@
         <v>8</v>
       </c>
       <c r="AQ58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AR58" t="n">
         <v>7</v>
@@ -9227,16 +9575,22 @@
       <c r="AW58" t="n">
         <v>7</v>
       </c>
+      <c r="AX58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:51">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F59" t="n">
         <v>4.5</v>
@@ -9245,10 +9599,10 @@
         <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
         <v>5.5</v>
@@ -9350,7 +9704,7 @@
         <v>9</v>
       </c>
       <c r="AQ59" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AR59" t="n">
         <v>5</v>
@@ -9370,19 +9724,25 @@
       <c r="AW59" t="n">
         <v>4.5</v>
       </c>
+      <c r="AX59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:51">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F60" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
         <v>3.5</v>
@@ -9424,7 +9784,7 @@
         <v>8</v>
       </c>
       <c r="T60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U60" t="n">
         <v>9</v>
@@ -9442,28 +9802,28 @@
         <v>9</v>
       </c>
       <c r="Z60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB60" t="n">
         <v>8</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD60" t="n">
         <v>7.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH60" t="n">
         <v>5</v>
@@ -9493,7 +9853,7 @@
         <v>7.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR60" t="n">
         <v>5.5</v>
@@ -9513,16 +9873,22 @@
       <c r="AW60" t="n">
         <v>5</v>
       </c>
+      <c r="AX60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:51">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F61" t="n">
         <v>3.5</v>
@@ -9531,13 +9897,13 @@
         <v>3.5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
         <v>3.5</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K61" t="n">
         <v>4.5</v>
@@ -9600,7 +9966,7 @@
         <v>6</v>
       </c>
       <c r="AE61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF61" t="n">
         <v>4.5</v>
@@ -9609,7 +9975,7 @@
         <v>4</v>
       </c>
       <c r="AH61" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AI61" t="n">
         <v>4</v>
@@ -9636,7 +10002,7 @@
         <v>7</v>
       </c>
       <c r="AQ61" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AR61" t="n">
         <v>4.5</v>
@@ -9656,10 +10022,16 @@
       <c r="AW61" t="n">
         <v>4</v>
       </c>
+      <c r="AX61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:51">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -9673,7 +10045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV22"/>
+  <dimension ref="A1:AX22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9681,7 +10053,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:50">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9826,13 +10198,19 @@
       <c r="AV1" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="AW1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
         <v>1986</v>
@@ -9972,13 +10350,19 @@
       <c r="AV2" t="n">
         <v>1924</v>
       </c>
+      <c r="AW2" t="n">
+        <v>1878</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1872</v>
+      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
         <v>457</v>
@@ -10118,13 +10502,19 @@
       <c r="AV3" t="n">
         <v>449</v>
       </c>
+      <c r="AW3" t="n">
+        <v>438</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>431</v>
+      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
         <v>712</v>
@@ -10264,13 +10654,19 @@
       <c r="AV4" t="n">
         <v>670</v>
       </c>
+      <c r="AW4" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>666</v>
+      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
         <v>817</v>
@@ -10410,13 +10806,19 @@
       <c r="AV5" t="n">
         <v>805</v>
       </c>
+      <c r="AW5" t="n">
+        <v>765</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>775</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
         <v>433</v>
@@ -10556,13 +10958,19 @@
       <c r="AV6" t="n">
         <v>341</v>
       </c>
+      <c r="AW6" t="n">
+        <v>318</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>316</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
         <v>550</v>
@@ -10702,13 +11110,19 @@
       <c r="AV7" t="n">
         <v>598</v>
       </c>
+      <c r="AW7" t="n">
+        <v>627</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>619</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
         <v>1003</v>
@@ -10848,13 +11262,19 @@
       <c r="AV8" t="n">
         <v>985</v>
       </c>
+      <c r="AW8" t="n">
+        <v>933</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>937</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -10994,13 +11414,19 @@
       <c r="AV9" t="n">
         <v>645</v>
       </c>
+      <c r="AW9" t="n">
+        <v>629</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>627</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -11140,13 +11566,19 @@
       <c r="AV10" t="n">
         <v>682</v>
       </c>
+      <c r="AW10" t="n">
+        <v>698</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>692</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:50">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="n">
         <v>1922</v>
@@ -11286,13 +11718,19 @@
       <c r="AV11" t="n">
         <v>597</v>
       </c>
+      <c r="AW11" t="n">
+        <v>551</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>553</v>
+      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" t="n">
         <v>971</v>
@@ -11432,13 +11870,19 @@
       <c r="AV12" t="n">
         <v>945</v>
       </c>
+      <c r="AW12" t="n">
+        <v>911</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>909</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
         <v>1015</v>
@@ -11578,13 +12022,19 @@
       <c r="AV13" t="n">
         <v>979</v>
       </c>
+      <c r="AW13" t="n">
+        <v>967</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>963</v>
+      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="n">
         <v>1038</v>
@@ -11724,13 +12174,19 @@
       <c r="AV14" t="n">
         <v>1001</v>
       </c>
+      <c r="AW14" t="n">
+        <v>983</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>978</v>
+      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" t="n">
         <v>452</v>
@@ -11870,13 +12326,19 @@
       <c r="AV15" t="n">
         <v>443</v>
       </c>
+      <c r="AW15" t="n">
+        <v>422</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>425</v>
+      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="n">
         <v>227</v>
@@ -12016,13 +12478,19 @@
       <c r="AV16" t="n">
         <v>231</v>
       </c>
+      <c r="AW16" t="n">
+        <v>226</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>225</v>
+      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="n">
         <v>269</v>
@@ -12162,13 +12630,19 @@
       <c r="AV17" t="n">
         <v>249</v>
       </c>
+      <c r="AW17" t="n">
+        <v>247</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>244</v>
+      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
@@ -12304,13 +12778,19 @@
       <c r="AV18" t="n">
         <v>674</v>
       </c>
+      <c r="AW18" t="n">
+        <v>592</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>586</v>
+      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s"/>
@@ -12446,13 +12926,19 @@
       <c r="AV19" t="n">
         <v>91</v>
       </c>
+      <c r="AW19" t="n">
+        <v>103</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>103</v>
+      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:50">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="s"/>
@@ -12588,13 +13074,19 @@
       <c r="AV20" t="n">
         <v>147</v>
       </c>
+      <c r="AW20" t="n">
+        <v>192</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>187</v>
+      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s"/>
@@ -12730,10 +13222,16 @@
       <c r="AV21" t="n">
         <v>120</v>
       </c>
+      <c r="AW21" t="n">
+        <v>145</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>145</v>
+      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -12782,6 +13280,8 @@
       <c r="AT22" t="s"/>
       <c r="AU22" t="s"/>
       <c r="AV22" t="s"/>
+      <c r="AW22" t="s"/>
+      <c r="AX22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>trideni</t>
   </si>
@@ -170,6 +170,12 @@
     <t>8.–14. 3. 2021</t>
   </si>
   <si>
+    <t>15.–21. 3. 2021</t>
+  </si>
+  <si>
+    <t>22.–28. 3. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -260,17 +266,19 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -333,11 +341,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -638,7 +647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY62"/>
+  <dimension ref="A1:BA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,7 +655,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,16 +809,22 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
         <v>22.5</v>
@@ -955,16 +970,22 @@
       <c r="AY2" t="n">
         <v>10.5</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:53">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1110,16 +1131,22 @@
       <c r="AY3" t="n">
         <v>5</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -1265,16 +1292,22 @@
       <c r="AY4" t="n">
         <v>4.5</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
         <v>27.5</v>
@@ -1420,16 +1453,22 @@
       <c r="AY5" t="n">
         <v>12.5</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:53">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
         <v>28.5</v>
@@ -1570,21 +1609,27 @@
         <v>16.5</v>
       </c>
       <c r="AX6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>15</v>
       </c>
-      <c r="AY6" t="n">
-        <v>14.5</v>
+      <c r="BA6" t="n">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:53">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
         <v>13.5</v>
@@ -1730,16 +1775,22 @@
       <c r="AY7" t="n">
         <v>6.5</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:53">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
@@ -1885,16 +1936,22 @@
       <c r="AY8" t="n">
         <v>12.5</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:53">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
         <v>22.5</v>
@@ -2040,16 +2097,22 @@
       <c r="AY9" t="n">
         <v>10.5</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:53">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
         <v>22</v>
@@ -2195,16 +2258,22 @@
       <c r="AY10" t="n">
         <v>9.5</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:53">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
         <v>39.5</v>
@@ -2345,21 +2414,27 @@
         <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>13.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>14.5</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:53">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -2503,18 +2578,24 @@
         <v>9.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>9.5</v>
+        <v>9</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:53">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -2660,16 +2741,22 @@
       <c r="AY13" t="n">
         <v>8.5</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:53">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
@@ -2815,16 +2902,22 @@
       <c r="AY14" t="n">
         <v>12</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:53">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
         <v>20.5</v>
@@ -2970,16 +3063,22 @@
       <c r="AY15" t="n">
         <v>9</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:53">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
         <v>22.5</v>
@@ -3125,16 +3224,22 @@
       <c r="AY16" t="n">
         <v>10.5</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:53">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
         <v>23.5</v>
@@ -3275,21 +3380,27 @@
         <v>11.5</v>
       </c>
       <c r="AX17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AY17" t="n">
-        <v>10</v>
-      </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:53">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" t="n">
         <v>21.5</v>
@@ -3435,16 +3546,22 @@
       <c r="AY18" t="n">
         <v>11</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:53">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
@@ -3590,16 +3707,22 @@
       <c r="AY19" t="n">
         <v>11</v>
       </c>
+      <c r="AZ19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:53">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
@@ -3734,21 +3857,27 @@
         <v>21.5</v>
       </c>
       <c r="AX20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="BA20" t="n">
         <v>22</v>
       </c>
-      <c r="AY20" t="n">
-        <v>22</v>
-      </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:53">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" t="n">
         <v>10.5</v>
@@ -3888,16 +4017,22 @@
       <c r="AY21" t="n">
         <v>10</v>
       </c>
+      <c r="AZ21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:53">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -4037,16 +4172,22 @@
       <c r="AY22" t="n">
         <v>5.5</v>
       </c>
+      <c r="AZ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:53">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" t="n">
         <v>4.5</v>
@@ -4186,16 +4327,22 @@
       <c r="AY23" t="n">
         <v>4.5</v>
       </c>
+      <c r="AZ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:53">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
@@ -4341,16 +4488,22 @@
       <c r="AY24" t="n">
         <v>6</v>
       </c>
+      <c r="AZ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:53">
       <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
       <c r="D25" t="n">
         <v>20</v>
@@ -4496,16 +4649,22 @@
       <c r="AY25" t="n">
         <v>6</v>
       </c>
+      <c r="AZ25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:53">
       <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
@@ -4651,16 +4810,22 @@
       <c r="AY26" t="n">
         <v>3</v>
       </c>
+      <c r="AZ26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:53">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -4806,16 +4971,22 @@
       <c r="AY27" t="n">
         <v>6</v>
       </c>
+      <c r="AZ27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:53">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
@@ -4961,16 +5132,22 @@
       <c r="AY28" t="n">
         <v>5</v>
       </c>
+      <c r="AZ28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:53">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
@@ -5116,16 +5293,22 @@
       <c r="AY29" t="n">
         <v>5</v>
       </c>
+      <c r="AZ29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA29" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:53">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30" t="n">
         <v>25</v>
@@ -5271,16 +5454,22 @@
       <c r="AY30" t="n">
         <v>6</v>
       </c>
+      <c r="AZ30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:53">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -5426,16 +5615,22 @@
       <c r="AY31" t="n">
         <v>5</v>
       </c>
+      <c r="AZ31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:53">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -5581,16 +5776,22 @@
       <c r="AY32" t="n">
         <v>4</v>
       </c>
+      <c r="AZ32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:53">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
@@ -5736,16 +5937,22 @@
       <c r="AY33" t="n">
         <v>6</v>
       </c>
+      <c r="AZ33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:53">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -5891,16 +6098,22 @@
       <c r="AY34" t="n">
         <v>4</v>
       </c>
+      <c r="AZ34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:53">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -6046,16 +6259,22 @@
       <c r="AY35" t="n">
         <v>5</v>
       </c>
+      <c r="AZ35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:53">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D36" t="n">
         <v>12</v>
@@ -6201,16 +6420,22 @@
       <c r="AY36" t="n">
         <v>5</v>
       </c>
+      <c r="AZ36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:53">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -6356,16 +6581,22 @@
       <c r="AY37" t="n">
         <v>6</v>
       </c>
+      <c r="AZ37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:53">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -6511,16 +6742,22 @@
       <c r="AY38" t="n">
         <v>5</v>
       </c>
+      <c r="AZ38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:53">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F39" t="n">
         <v>10</v>
@@ -6660,16 +6897,22 @@
       <c r="AY39" t="n">
         <v>12</v>
       </c>
+      <c r="AZ39" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:53">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F40" t="n">
         <v>6</v>
@@ -6809,16 +7052,22 @@
       <c r="AY40" t="n">
         <v>8</v>
       </c>
+      <c r="AZ40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:53">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -6958,16 +7207,22 @@
       <c r="AY41" t="n">
         <v>4</v>
       </c>
+      <c r="AZ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:53">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -7107,16 +7362,22 @@
       <c r="AY42" t="n">
         <v>3</v>
       </c>
+      <c r="AZ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:53">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
         <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>55</v>
       </c>
       <c r="D43" t="n">
         <v>9</v>
@@ -7262,16 +7523,22 @@
       <c r="AY43" t="n">
         <v>6.5</v>
       </c>
+      <c r="AZ43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:53">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D44" t="n">
         <v>8.5</v>
@@ -7417,16 +7684,22 @@
       <c r="AY44" t="n">
         <v>5.5</v>
       </c>
+      <c r="AZ44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:53">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" t="n">
         <v>4.5</v>
@@ -7572,16 +7845,22 @@
       <c r="AY45" t="n">
         <v>2.5</v>
       </c>
+      <c r="AZ45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:53">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D46" t="n">
         <v>7.5</v>
@@ -7727,16 +8006,22 @@
       <c r="AY46" t="n">
         <v>6</v>
       </c>
+      <c r="AZ46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:53">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
@@ -7882,16 +8167,22 @@
       <c r="AY47" t="n">
         <v>4.5</v>
       </c>
+      <c r="AZ47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:53">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D48" t="n">
         <v>6.5</v>
@@ -8037,16 +8328,22 @@
       <c r="AY48" t="n">
         <v>4</v>
       </c>
+      <c r="AZ48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:53">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D49" t="n">
         <v>11.5</v>
@@ -8192,16 +8489,22 @@
       <c r="AY49" t="n">
         <v>6</v>
       </c>
+      <c r="AZ49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:53">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D50" t="n">
         <v>7.5</v>
@@ -8347,16 +8650,22 @@
       <c r="AY50" t="n">
         <v>3.5</v>
       </c>
+      <c r="AZ50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:53">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D51" t="n">
         <v>7</v>
@@ -8502,16 +8811,22 @@
       <c r="AY51" t="n">
         <v>4</v>
       </c>
+      <c r="AZ51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:53">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -8657,16 +8972,22 @@
       <c r="AY52" t="n">
         <v>5.5</v>
       </c>
+      <c r="AZ52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" t="n">
         <v>6.5</v>
@@ -8812,16 +9133,22 @@
       <c r="AY53" t="n">
         <v>4</v>
       </c>
+      <c r="AZ53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:53">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D54" t="n">
         <v>7</v>
@@ -8967,16 +9294,22 @@
       <c r="AY54" t="n">
         <v>4.5</v>
       </c>
+      <c r="AZ54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:53">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -9122,16 +9455,22 @@
       <c r="AY55" t="n">
         <v>4</v>
       </c>
+      <c r="AZ55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:53">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D56" t="n">
         <v>6.5</v>
@@ -9277,16 +9616,22 @@
       <c r="AY56" t="n">
         <v>5</v>
       </c>
+      <c r="AZ56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:53">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D57" t="n">
         <v>6.5</v>
@@ -9432,16 +9777,22 @@
       <c r="AY57" t="n">
         <v>4</v>
       </c>
+      <c r="AZ57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA57" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:53">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F58" t="n">
         <v>5</v>
@@ -9581,16 +9932,22 @@
       <c r="AY58" t="n">
         <v>7</v>
       </c>
+      <c r="AZ58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:53">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F59" t="n">
         <v>4.5</v>
@@ -9730,16 +10087,22 @@
       <c r="AY59" t="n">
         <v>4</v>
       </c>
+      <c r="AZ59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:53">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F60" t="n">
         <v>4</v>
@@ -9879,16 +10242,22 @@
       <c r="AY60" t="n">
         <v>4</v>
       </c>
+      <c r="AZ60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:53">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F61" t="n">
         <v>3.5</v>
@@ -10028,10 +10397,16 @@
       <c r="AY61" t="n">
         <v>3.5</v>
       </c>
+      <c r="AZ61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:53">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -10045,7 +10420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10053,164 +10428,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:52">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AY1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
         <v>1986</v>
@@ -10351,18 +10732,24 @@
         <v>1924</v>
       </c>
       <c r="AW2" t="n">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="AX2" t="n">
-        <v>1872</v>
+        <v>1869</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1834</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1840</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="n">
         <v>457</v>
@@ -10508,13 +10895,19 @@
       <c r="AX3" t="n">
         <v>431</v>
       </c>
+      <c r="AY3" t="n">
+        <v>412</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>420</v>
+      </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
         <v>712</v>
@@ -10655,18 +11048,24 @@
         <v>670</v>
       </c>
       <c r="AW4" t="n">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AX4" t="n">
-        <v>666</v>
+        <v>663</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>663</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>653</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" t="n">
         <v>817</v>
@@ -10807,18 +11206,24 @@
         <v>805</v>
       </c>
       <c r="AW5" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AX5" t="n">
         <v>775</v>
       </c>
+      <c r="AY5" t="n">
+        <v>759</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>767</v>
+      </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" t="n">
         <v>433</v>
@@ -10964,13 +11369,19 @@
       <c r="AX6" t="n">
         <v>316</v>
       </c>
+      <c r="AY6" t="n">
+        <v>353</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>356</v>
+      </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:52">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
         <v>550</v>
@@ -11111,18 +11522,24 @@
         <v>598</v>
       </c>
       <c r="AW7" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AX7" t="n">
-        <v>619</v>
+        <v>616</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>635</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>639</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" t="n">
         <v>1003</v>
@@ -11268,13 +11685,19 @@
       <c r="AX8" t="n">
         <v>937</v>
       </c>
+      <c r="AY8" t="n">
+        <v>846</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>845</v>
+      </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:52">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -11415,18 +11838,24 @@
         <v>645</v>
       </c>
       <c r="AW9" t="n">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AX9" t="n">
-        <v>627</v>
+        <v>625</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>574</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>575</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:52">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -11567,18 +11996,24 @@
         <v>682</v>
       </c>
       <c r="AW10" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AX10" t="n">
-        <v>692</v>
+        <v>691</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>693</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>694</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:52">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
         <v>1922</v>
@@ -11719,18 +12154,24 @@
         <v>597</v>
       </c>
       <c r="AW11" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AX11" t="n">
         <v>553</v>
       </c>
+      <c r="AY11" t="n">
+        <v>567</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>571</v>
+      </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
         <v>971</v>
@@ -11871,18 +12312,24 @@
         <v>945</v>
       </c>
       <c r="AW12" t="n">
+        <v>907</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>906</v>
+      </c>
+      <c r="AY12" t="n">
         <v>911</v>
       </c>
-      <c r="AX12" t="n">
-        <v>909</v>
+      <c r="AZ12" t="n">
+        <v>910</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:52">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="n">
         <v>1015</v>
@@ -12023,18 +12470,24 @@
         <v>979</v>
       </c>
       <c r="AW13" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AX13" t="n">
         <v>963</v>
       </c>
+      <c r="AY13" t="n">
+        <v>923</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>930</v>
+      </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:52">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" t="n">
         <v>1038</v>
@@ -12175,18 +12628,24 @@
         <v>1001</v>
       </c>
       <c r="AW14" t="n">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AX14" t="n">
-        <v>978</v>
+        <v>976</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>967</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>974</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:52">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="n">
         <v>452</v>
@@ -12327,18 +12786,24 @@
         <v>443</v>
       </c>
       <c r="AW15" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AX15" t="n">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>403</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:52">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" t="n">
         <v>227</v>
@@ -12484,13 +12949,19 @@
       <c r="AX16" t="n">
         <v>225</v>
       </c>
+      <c r="AY16" t="n">
+        <v>222</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:52">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" t="n">
         <v>269</v>
@@ -12636,13 +13107,19 @@
       <c r="AX17" t="n">
         <v>244</v>
       </c>
+      <c r="AY17" t="n">
+        <v>242</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>242</v>
+      </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:52">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
@@ -12779,18 +13256,24 @@
         <v>674</v>
       </c>
       <c r="AW18" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AX18" t="n">
-        <v>586</v>
+        <v>583</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>618</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>616</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:52">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s"/>
@@ -12932,13 +13415,19 @@
       <c r="AX19" t="n">
         <v>103</v>
       </c>
+      <c r="AY19" t="n">
+        <v>105</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>105</v>
+      </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:52">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="s"/>
@@ -13075,18 +13564,24 @@
         <v>147</v>
       </c>
       <c r="AW20" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AX20" t="n">
         <v>187</v>
       </c>
+      <c r="AY20" t="n">
+        <v>164</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>165</v>
+      </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:52">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s"/>
@@ -13226,12 +13721,18 @@
         <v>145</v>
       </c>
       <c r="AX21" t="n">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>135</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:52">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -13282,6 +13783,8 @@
       <c r="AV22" t="s"/>
       <c r="AW22" t="s"/>
       <c r="AX22" t="s"/>
+      <c r="AY22" t="s"/>
+      <c r="AZ22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>trideni</t>
   </si>
@@ -176,6 +176,18 @@
     <t>22.–28. 3. 2021</t>
   </si>
   <si>
+    <t>29. 3.–4. 4. 2021</t>
+  </si>
+  <si>
+    <t>5.–11. 4. 2021</t>
+  </si>
+  <si>
+    <t>19.–25. 4. 2021</t>
+  </si>
+  <si>
+    <t>26. 4.–2. 5. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -266,19 +278,17 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -341,12 +351,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -647,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA62"/>
+  <dimension ref="A1:BE62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,7 +664,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,16 +824,28 @@
       <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
         <v>22.5</v>
@@ -976,16 +997,28 @@
       <c r="BA2" t="n">
         <v>11.5</v>
       </c>
+      <c r="BB2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -1137,16 +1170,28 @@
       <c r="BA3" t="n">
         <v>5</v>
       </c>
+      <c r="BB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -1298,16 +1343,28 @@
       <c r="BA4" t="n">
         <v>4.5</v>
       </c>
+      <c r="BB4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
       </c>
       <c r="D5" t="n">
         <v>27.5</v>
@@ -1459,16 +1516,28 @@
       <c r="BA5" t="n">
         <v>13.5</v>
       </c>
+      <c r="BB5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>28.5</v>
@@ -1620,16 +1689,28 @@
       <c r="BA6" t="n">
         <v>15</v>
       </c>
+      <c r="BB6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>17.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
         <v>13.5</v>
@@ -1781,16 +1862,28 @@
       <c r="BA7" t="n">
         <v>7</v>
       </c>
+      <c r="BB7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>23</v>
@@ -1942,16 +2035,28 @@
       <c r="BA8" t="n">
         <v>13</v>
       </c>
+      <c r="BB8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>17</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
         <v>22.5</v>
@@ -2103,16 +2208,28 @@
       <c r="BA9" t="n">
         <v>11</v>
       </c>
+      <c r="BB9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
         <v>22</v>
@@ -2264,16 +2381,28 @@
       <c r="BA10" t="n">
         <v>11.5</v>
       </c>
+      <c r="BB10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D11" t="n">
         <v>39.5</v>
@@ -2425,16 +2554,28 @@
       <c r="BA11" t="n">
         <v>14.5</v>
       </c>
+      <c r="BB11" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>17.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
@@ -2586,16 +2727,28 @@
       <c r="BA12" t="n">
         <v>11</v>
       </c>
+      <c r="BB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:57">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -2747,16 +2900,28 @@
       <c r="BA13" t="n">
         <v>9.5</v>
       </c>
+      <c r="BB13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:57">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14" t="n">
         <v>24</v>
@@ -2908,16 +3073,28 @@
       <c r="BA14" t="n">
         <v>13</v>
       </c>
+      <c r="BB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>15</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>15.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:57">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
         <v>20.5</v>
@@ -3069,16 +3246,28 @@
       <c r="BA15" t="n">
         <v>10</v>
       </c>
+      <c r="BB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:57">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
         <v>22.5</v>
@@ -3230,16 +3419,28 @@
       <c r="BA16" t="n">
         <v>11.5</v>
       </c>
+      <c r="BB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:57">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" t="n">
         <v>23.5</v>
@@ -3391,16 +3592,28 @@
       <c r="BA17" t="n">
         <v>10.5</v>
       </c>
+      <c r="BB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:57">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" t="n">
         <v>21.5</v>
@@ -3552,16 +3765,28 @@
       <c r="BA18" t="n">
         <v>12.5</v>
       </c>
+      <c r="BB18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:57">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
@@ -3713,16 +3938,28 @@
       <c r="BA19" t="n">
         <v>11.5</v>
       </c>
+      <c r="BB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:57">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
@@ -3868,16 +4105,28 @@
       <c r="BA20" t="n">
         <v>22</v>
       </c>
+      <c r="BB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>22</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:57">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" t="n">
         <v>10.5</v>
@@ -4023,16 +4272,28 @@
       <c r="BA21" t="n">
         <v>13.5</v>
       </c>
+      <c r="BB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:57">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -4178,16 +4439,28 @@
       <c r="BA22" t="n">
         <v>6</v>
       </c>
+      <c r="BB22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:57">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F23" t="n">
         <v>4.5</v>
@@ -4333,16 +4606,28 @@
       <c r="BA23" t="n">
         <v>5</v>
       </c>
+      <c r="BB23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:57">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
@@ -4494,16 +4779,28 @@
       <c r="BA24" t="n">
         <v>7</v>
       </c>
+      <c r="BB24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:57">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
       </c>
       <c r="D25" t="n">
         <v>20</v>
@@ -4655,16 +4952,28 @@
       <c r="BA25" t="n">
         <v>8</v>
       </c>
+      <c r="BB25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:57">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
@@ -4816,16 +5125,28 @@
       <c r="BA26" t="n">
         <v>4</v>
       </c>
+      <c r="BB26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:57">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -4977,16 +5298,28 @@
       <c r="BA27" t="n">
         <v>7</v>
       </c>
+      <c r="BB27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:57">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
@@ -5138,16 +5471,28 @@
       <c r="BA28" t="n">
         <v>5</v>
       </c>
+      <c r="BB28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:57">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
@@ -5296,19 +5641,31 @@
       <c r="AZ29" t="n">
         <v>5</v>
       </c>
-      <c r="BA29" s="2" t="n">
-        <v>5</v>
+      <c r="BA29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:57">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D30" t="n">
         <v>25</v>
@@ -5460,16 +5817,28 @@
       <c r="BA30" t="n">
         <v>7</v>
       </c>
+      <c r="BB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:57">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -5621,16 +5990,28 @@
       <c r="BA31" t="n">
         <v>5</v>
       </c>
+      <c r="BB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:57">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -5782,16 +6163,28 @@
       <c r="BA32" t="n">
         <v>5</v>
       </c>
+      <c r="BB32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:57">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
@@ -5943,16 +6336,28 @@
       <c r="BA33" t="n">
         <v>7</v>
       </c>
+      <c r="BB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:57">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -6104,16 +6509,28 @@
       <c r="BA34" t="n">
         <v>5</v>
       </c>
+      <c r="BB34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:57">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -6265,16 +6682,28 @@
       <c r="BA35" t="n">
         <v>5</v>
       </c>
+      <c r="BB35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:57">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D36" t="n">
         <v>12</v>
@@ -6426,16 +6855,28 @@
       <c r="BA36" t="n">
         <v>5</v>
       </c>
+      <c r="BB36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:57">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -6587,16 +7028,28 @@
       <c r="BA37" t="n">
         <v>6</v>
       </c>
+      <c r="BB37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:57">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -6748,16 +7201,28 @@
       <c r="BA38" t="n">
         <v>5</v>
       </c>
+      <c r="BB38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:57">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F39" t="n">
         <v>10</v>
@@ -6903,16 +7368,28 @@
       <c r="BA39" t="n">
         <v>14</v>
       </c>
+      <c r="BB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>15</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:57">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F40" t="n">
         <v>6</v>
@@ -7058,16 +7535,28 @@
       <c r="BA40" t="n">
         <v>10</v>
       </c>
+      <c r="BB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:57">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -7213,16 +7702,28 @@
       <c r="BA41" t="n">
         <v>5</v>
       </c>
+      <c r="BB41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:57">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -7368,16 +7869,28 @@
       <c r="BA42" t="n">
         <v>4</v>
       </c>
+      <c r="BB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:57">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D43" t="n">
         <v>9</v>
@@ -7529,16 +8042,28 @@
       <c r="BA43" t="n">
         <v>6.5</v>
       </c>
+      <c r="BB43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:57">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D44" t="n">
         <v>8.5</v>
@@ -7690,16 +8215,28 @@
       <c r="BA44" t="n">
         <v>5.5</v>
       </c>
+      <c r="BB44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:57">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
       </c>
       <c r="D45" t="n">
         <v>4.5</v>
@@ -7851,16 +8388,28 @@
       <c r="BA45" t="n">
         <v>3</v>
       </c>
+      <c r="BB45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:57">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D46" t="n">
         <v>7.5</v>
@@ -8012,16 +8561,28 @@
       <c r="BA46" t="n">
         <v>6.5</v>
       </c>
+      <c r="BB46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:57">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D47" t="n">
         <v>7</v>
@@ -8173,16 +8734,28 @@
       <c r="BA47" t="n">
         <v>4.5</v>
       </c>
+      <c r="BB47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:57">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D48" t="n">
         <v>6.5</v>
@@ -8334,16 +8907,28 @@
       <c r="BA48" t="n">
         <v>4</v>
       </c>
+      <c r="BB48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:57">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
         <v>11.5</v>
@@ -8495,16 +9080,28 @@
       <c r="BA49" t="n">
         <v>6</v>
       </c>
+      <c r="BB49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:57">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
         <v>7.5</v>
@@ -8656,16 +9253,28 @@
       <c r="BA50" t="n">
         <v>4</v>
       </c>
+      <c r="BB50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:57">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D51" t="n">
         <v>7</v>
@@ -8817,16 +9426,28 @@
       <c r="BA51" t="n">
         <v>4.5</v>
       </c>
+      <c r="BB51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:57">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -8978,16 +9599,28 @@
       <c r="BA52" t="n">
         <v>5</v>
       </c>
+      <c r="BB52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:57">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D53" t="n">
         <v>6.5</v>
@@ -9139,16 +9772,28 @@
       <c r="BA53" t="n">
         <v>4.5</v>
       </c>
+      <c r="BB53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:57">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D54" t="n">
         <v>7</v>
@@ -9300,16 +9945,28 @@
       <c r="BA54" t="n">
         <v>5</v>
       </c>
+      <c r="BB54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:57">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -9461,16 +10118,28 @@
       <c r="BA55" t="n">
         <v>4</v>
       </c>
+      <c r="BB55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:57">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D56" t="n">
         <v>6.5</v>
@@ -9622,16 +10291,28 @@
       <c r="BA56" t="n">
         <v>5.5</v>
       </c>
+      <c r="BB56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D57" t="n">
         <v>6.5</v>
@@ -9780,19 +10461,31 @@
       <c r="AZ57" t="n">
         <v>4</v>
       </c>
-      <c r="BA57" s="2" t="n">
+      <c r="BA57" t="n">
         <v>4</v>
       </c>
+      <c r="BB57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:57">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F58" t="n">
         <v>5</v>
@@ -9938,16 +10631,28 @@
       <c r="BA58" t="n">
         <v>6.5</v>
       </c>
+      <c r="BB58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:57">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F59" t="n">
         <v>4.5</v>
@@ -10093,16 +10798,28 @@
       <c r="BA59" t="n">
         <v>4</v>
       </c>
+      <c r="BB59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:57">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F60" t="n">
         <v>4</v>
@@ -10248,16 +10965,28 @@
       <c r="BA60" t="n">
         <v>4</v>
       </c>
+      <c r="BB60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:57">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F61" t="n">
         <v>3.5</v>
@@ -10403,10 +11132,22 @@
       <c r="BA61" t="n">
         <v>4.5</v>
       </c>
+      <c r="BB61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:57">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -10420,7 +11161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10428,170 +11169,182 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:56">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="BA1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:56">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
         <v>1986</v>
@@ -10743,13 +11496,25 @@
       <c r="AZ2" t="n">
         <v>1840</v>
       </c>
+      <c r="BA2" t="n">
+        <v>1832</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1815</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1820</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
         <v>457</v>
@@ -10901,13 +11666,25 @@
       <c r="AZ3" t="n">
         <v>420</v>
       </c>
+      <c r="BA3" t="n">
+        <v>421</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>419</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>414</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>413</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:56">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
         <v>712</v>
@@ -11059,13 +11836,25 @@
       <c r="AZ4" t="n">
         <v>653</v>
       </c>
+      <c r="BA4" t="n">
+        <v>637</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>640</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>652</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>653</v>
+      </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
         <v>817</v>
@@ -11217,13 +12006,25 @@
       <c r="AZ5" t="n">
         <v>767</v>
       </c>
+      <c r="BA5" t="n">
+        <v>774</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>770</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>749</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>754</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
         <v>433</v>
@@ -11375,13 +12176,25 @@
       <c r="AZ6" t="n">
         <v>356</v>
       </c>
+      <c r="BA6" t="n">
+        <v>364</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>362</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>418</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>422</v>
+      </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
         <v>550</v>
@@ -11533,13 +12346,25 @@
       <c r="AZ7" t="n">
         <v>639</v>
       </c>
+      <c r="BA7" t="n">
+        <v>640</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>639</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>710</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>711</v>
+      </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
         <v>1003</v>
@@ -11691,13 +12516,25 @@
       <c r="AZ8" t="n">
         <v>845</v>
       </c>
+      <c r="BA8" t="n">
+        <v>828</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>828</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>687</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>687</v>
+      </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:56">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -11849,13 +12686,25 @@
       <c r="AZ9" t="n">
         <v>575</v>
       </c>
+      <c r="BA9" t="n">
+        <v>496</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>491</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>445</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>448</v>
+      </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:56">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -12007,13 +12856,25 @@
       <c r="AZ10" t="n">
         <v>694</v>
       </c>
+      <c r="BA10" t="n">
+        <v>653</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>653</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>556</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>561</v>
+      </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:56">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" t="n">
         <v>1922</v>
@@ -12165,13 +13026,25 @@
       <c r="AZ11" t="n">
         <v>571</v>
       </c>
+      <c r="BA11" t="n">
+        <v>683</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>685</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>814</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>811</v>
+      </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:56">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
         <v>971</v>
@@ -12323,13 +13196,25 @@
       <c r="AZ12" t="n">
         <v>910</v>
       </c>
+      <c r="BA12" t="n">
+        <v>898</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>896</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>890</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>892</v>
+      </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:56">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
         <v>1015</v>
@@ -12481,13 +13366,25 @@
       <c r="AZ13" t="n">
         <v>930</v>
       </c>
+      <c r="BA13" t="n">
+        <v>934</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>933</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>925</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>928</v>
+      </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:56">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" t="n">
         <v>1038</v>
@@ -12639,13 +13536,25 @@
       <c r="AZ14" t="n">
         <v>974</v>
       </c>
+      <c r="BA14" t="n">
+        <v>959</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>954</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>940</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>945</v>
+      </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:56">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C15" t="n">
         <v>452</v>
@@ -12797,13 +13706,25 @@
       <c r="AZ15" t="n">
         <v>404</v>
       </c>
+      <c r="BA15" t="n">
+        <v>410</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>411</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>411</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>414</v>
+      </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:56">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C16" t="n">
         <v>227</v>
@@ -12955,13 +13876,25 @@
       <c r="AZ16" t="n">
         <v>220</v>
       </c>
+      <c r="BA16" t="n">
+        <v>222</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>224</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>218</v>
+      </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:56">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C17" t="n">
         <v>269</v>
@@ -13113,13 +14046,25 @@
       <c r="AZ17" t="n">
         <v>242</v>
       </c>
+      <c r="BA17" t="n">
+        <v>241</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>240</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>244</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>243</v>
+      </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:56">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
@@ -13267,13 +14212,25 @@
       <c r="AZ18" t="n">
         <v>616</v>
       </c>
+      <c r="BA18" t="n">
+        <v>624</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>624</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>693</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>693</v>
+      </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:56">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s"/>
@@ -13421,13 +14378,25 @@
       <c r="AZ19" t="n">
         <v>105</v>
       </c>
+      <c r="BA19" t="n">
+        <v>85</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>85</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>88</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>87</v>
+      </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:56">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="s"/>
@@ -13575,13 +14544,25 @@
       <c r="AZ20" t="n">
         <v>165</v>
       </c>
+      <c r="BA20" t="n">
+        <v>159</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>158</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>127</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>127</v>
+      </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:56">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s"/>
@@ -13729,10 +14710,22 @@
       <c r="AZ21" t="n">
         <v>133</v>
       </c>
+      <c r="BA21" t="n">
+        <v>121</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>123</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>76</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>77</v>
+      </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:56">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -13785,6 +14778,10 @@
       <c r="AX22" t="s"/>
       <c r="AY22" t="s"/>
       <c r="AZ22" t="s"/>
+      <c r="BA22" t="s"/>
+      <c r="BB22" t="s"/>
+      <c r="BC22" t="s"/>
+      <c r="BD22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>trideni</t>
   </si>
@@ -194,6 +194,12 @@
     <t>17.–23. 5. 2021</t>
   </si>
   <si>
+    <t>7.–13. 6. 2021</t>
+  </si>
+  <si>
+    <t>14.–20. 6. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -287,10 +293,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG82"/>
+  <dimension ref="A1:BI82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +679,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,16 +857,22 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:61">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
         <v>22.5</v>
@@ -1030,16 +1042,22 @@
       <c r="BG2" t="n">
         <v>16</v>
       </c>
+      <c r="BH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:61">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
         <v>22.5</v>
@@ -1209,16 +1227,22 @@
       <c r="BG3" t="n">
         <v>5.5</v>
       </c>
+      <c r="BH3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:61">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -1388,16 +1412,22 @@
       <c r="BG4" t="n">
         <v>7.5</v>
       </c>
+      <c r="BH4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:61">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -1567,16 +1597,22 @@
       <c r="BG5" t="n">
         <v>2.5</v>
       </c>
+      <c r="BH5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:61">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
         <v>27.5</v>
@@ -1746,16 +1782,22 @@
       <c r="BG6" t="n">
         <v>22</v>
       </c>
+      <c r="BH6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:61">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
         <v>28.5</v>
@@ -1925,16 +1967,22 @@
       <c r="BG7" t="n">
         <v>20</v>
       </c>
+      <c r="BH7" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:61">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
         <v>13.5</v>
@@ -2104,16 +2152,22 @@
       <c r="BG8" t="n">
         <v>9.5</v>
       </c>
+      <c r="BH8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:61">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" t="n">
         <v>23</v>
@@ -2283,16 +2337,22 @@
       <c r="BG9" t="n">
         <v>19</v>
       </c>
+      <c r="BH9" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:61">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
         <v>22.5</v>
@@ -2462,16 +2522,22 @@
       <c r="BG10" t="n">
         <v>15.5</v>
       </c>
+      <c r="BH10" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:61">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
         <v>22</v>
@@ -2641,16 +2707,22 @@
       <c r="BG11" t="n">
         <v>14.5</v>
       </c>
+      <c r="BH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:61">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" t="n">
         <v>39.5</v>
@@ -2820,16 +2892,22 @@
       <c r="BG12" t="n">
         <v>20.5</v>
       </c>
+      <c r="BH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:61">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" t="n">
         <v>26</v>
@@ -2999,16 +3077,22 @@
       <c r="BG13" t="n">
         <v>14.5</v>
       </c>
+      <c r="BH13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:61">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
         <v>22</v>
@@ -3178,16 +3262,22 @@
       <c r="BG14" t="n">
         <v>15</v>
       </c>
+      <c r="BH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>17.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:61">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="n">
         <v>24</v>
@@ -3357,16 +3447,22 @@
       <c r="BG15" t="n">
         <v>17</v>
       </c>
+      <c r="BH15" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:61">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
         <v>20.5</v>
@@ -3536,16 +3632,22 @@
       <c r="BG16" t="n">
         <v>15</v>
       </c>
+      <c r="BH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>18.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:61">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
         <v>22.5</v>
@@ -3715,16 +3817,22 @@
       <c r="BG17" t="n">
         <v>16</v>
       </c>
+      <c r="BH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>19.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:61">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" t="n">
         <v>23.5</v>
@@ -3894,16 +4002,22 @@
       <c r="BG18" t="n">
         <v>15.5</v>
       </c>
+      <c r="BH18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:61">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
         <v>21.5</v>
@@ -4073,16 +4187,22 @@
       <c r="BG19" t="n">
         <v>18</v>
       </c>
+      <c r="BH19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:61">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" t="n">
         <v>21</v>
@@ -4252,16 +4372,22 @@
       <c r="BG20" t="n">
         <v>15.5</v>
       </c>
+      <c r="BH20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:61">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" t="n">
         <v>18</v>
@@ -4425,16 +4551,22 @@
       <c r="BG21" t="n">
         <v>24</v>
       </c>
+      <c r="BH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:61">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" t="n">
         <v>10.5</v>
@@ -4598,16 +4730,22 @@
       <c r="BG22" t="n">
         <v>16.5</v>
       </c>
+      <c r="BH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>19.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:61">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" t="n">
         <v>4</v>
@@ -4771,16 +4909,22 @@
       <c r="BG23" t="n">
         <v>11.5</v>
       </c>
+      <c r="BH23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:61">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" t="n">
         <v>4.5</v>
@@ -4944,16 +5088,22 @@
       <c r="BG24" t="n">
         <v>14.5</v>
       </c>
+      <c r="BH24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:61">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" t="n">
         <v>27.5</v>
@@ -5123,16 +5273,22 @@
       <c r="BG25" t="n">
         <v>11.5</v>
       </c>
+      <c r="BH25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:61">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" t="n">
         <v>28.5</v>
@@ -5302,16 +5458,22 @@
       <c r="BG26" t="n">
         <v>6</v>
       </c>
+      <c r="BH26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:61">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27" t="n">
         <v>13.5</v>
@@ -5481,16 +5643,22 @@
       <c r="BG27" t="n">
         <v>1.5</v>
       </c>
+      <c r="BH27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:61">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D28" t="n">
         <v>23</v>
@@ -5660,16 +5828,22 @@
       <c r="BG28" t="n">
         <v>7.5</v>
       </c>
+      <c r="BH28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:61">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" t="n">
         <v>22.5</v>
@@ -5839,16 +6013,22 @@
       <c r="BG29" t="n">
         <v>5</v>
       </c>
+      <c r="BH29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:61">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D30" t="n">
         <v>22</v>
@@ -6018,16 +6198,22 @@
       <c r="BG30" t="n">
         <v>4</v>
       </c>
+      <c r="BH30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:61">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" t="n">
         <v>39.5</v>
@@ -6197,16 +6383,22 @@
       <c r="BG31" t="n">
         <v>6</v>
       </c>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:61">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" t="n">
         <v>26</v>
@@ -6376,16 +6568,22 @@
       <c r="BG32" t="n">
         <v>4.5</v>
       </c>
+      <c r="BH32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:61">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" t="n">
         <v>22</v>
@@ -6555,16 +6753,22 @@
       <c r="BG33" t="n">
         <v>5.5</v>
       </c>
+      <c r="BH33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:59">
+    <row r="34" spans="1:61">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D34" t="n">
         <v>24</v>
@@ -6734,16 +6938,22 @@
       <c r="BG34" t="n">
         <v>6</v>
       </c>
+      <c r="BH34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:61">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D35" t="n">
         <v>20.5</v>
@@ -6913,16 +7123,22 @@
       <c r="BG35" t="n">
         <v>5</v>
       </c>
+      <c r="BH35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:61">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D36" t="n">
         <v>22.5</v>
@@ -7092,16 +7308,22 @@
       <c r="BG36" t="n">
         <v>5.5</v>
       </c>
+      <c r="BH36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:61">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D37" t="n">
         <v>23.5</v>
@@ -7271,16 +7493,22 @@
       <c r="BG37" t="n">
         <v>5.5</v>
       </c>
+      <c r="BH37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:61">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38" t="n">
         <v>21.5</v>
@@ -7450,16 +7678,22 @@
       <c r="BG38" t="n">
         <v>7</v>
       </c>
+      <c r="BH38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:61">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D39" t="n">
         <v>21</v>
@@ -7629,16 +7863,22 @@
       <c r="BG39" t="n">
         <v>4</v>
       </c>
+      <c r="BH39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:61">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" t="n">
         <v>18</v>
@@ -7802,16 +8042,22 @@
       <c r="BG40" t="n">
         <v>8</v>
       </c>
+      <c r="BH40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:61">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F41" t="n">
         <v>10.5</v>
@@ -7975,16 +8221,22 @@
       <c r="BG41" t="n">
         <v>4</v>
       </c>
+      <c r="BH41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:61">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F42" t="n">
         <v>4</v>
@@ -8148,16 +8400,22 @@
       <c r="BG42" t="n">
         <v>5</v>
       </c>
+      <c r="BH42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="1:61">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F43" t="n">
         <v>4.5</v>
@@ -8321,16 +8579,22 @@
       <c r="BG43" t="n">
         <v>2.5</v>
       </c>
+      <c r="BH43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:61">
       <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
         <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
       </c>
       <c r="D44" t="n">
         <v>9</v>
@@ -8500,16 +8764,22 @@
       <c r="BG44" t="n">
         <v>10.5</v>
       </c>
+      <c r="BH44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>15.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:61">
       <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
         <v>65</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
       </c>
       <c r="D45" t="n">
         <v>8.5</v>
@@ -8679,16 +8949,22 @@
       <c r="BG45" t="n">
         <v>9</v>
       </c>
+      <c r="BH45" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="1:61">
       <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
         <v>65</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>63</v>
       </c>
       <c r="D46" t="n">
         <v>4.5</v>
@@ -8858,16 +9134,22 @@
       <c r="BG46" t="n">
         <v>5</v>
       </c>
+      <c r="BH46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="1:61">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D47" t="n">
         <v>7.5</v>
@@ -9037,16 +9319,22 @@
       <c r="BG47" t="n">
         <v>10</v>
       </c>
+      <c r="BH47" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:61">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D48" t="n">
         <v>7</v>
@@ -9216,16 +9504,22 @@
       <c r="BG48" t="n">
         <v>7.5</v>
       </c>
+      <c r="BH48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:59">
+    <row r="49" spans="1:61">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49" t="n">
         <v>6.5</v>
@@ -9395,16 +9689,22 @@
       <c r="BG49" t="n">
         <v>6.5</v>
       </c>
+      <c r="BH49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" spans="1:59">
+    <row r="50" spans="1:61">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D50" t="n">
         <v>11.5</v>
@@ -9574,16 +9874,22 @@
       <c r="BG50" t="n">
         <v>9.5</v>
       </c>
+      <c r="BH50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>15.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:59">
+    <row r="51" spans="1:61">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D51" t="n">
         <v>7.5</v>
@@ -9753,16 +10059,22 @@
       <c r="BG51" t="n">
         <v>6.5</v>
       </c>
+      <c r="BH51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="52" spans="1:59">
+    <row r="52" spans="1:61">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -9932,16 +10244,22 @@
       <c r="BG52" t="n">
         <v>7.5</v>
       </c>
+      <c r="BH52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:59">
+    <row r="53" spans="1:61">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -10111,16 +10429,22 @@
       <c r="BG53" t="n">
         <v>8.5</v>
       </c>
+      <c r="BH53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:59">
+    <row r="54" spans="1:61">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D54" t="n">
         <v>6.5</v>
@@ -10290,16 +10614,22 @@
       <c r="BG54" t="n">
         <v>7</v>
       </c>
+      <c r="BH54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="55" spans="1:59">
+    <row r="55" spans="1:61">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -10469,16 +10799,22 @@
       <c r="BG55" t="n">
         <v>8</v>
       </c>
+      <c r="BH55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:61">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56" t="n">
         <v>7</v>
@@ -10648,16 +10984,22 @@
       <c r="BG56" t="n">
         <v>7.5</v>
       </c>
+      <c r="BH56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:61">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D57" t="n">
         <v>6.5</v>
@@ -10827,16 +11169,22 @@
       <c r="BG57" t="n">
         <v>8</v>
       </c>
+      <c r="BH57" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="58" spans="1:59">
+    <row r="58" spans="1:61">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D58" t="n">
         <v>6.5</v>
@@ -11006,16 +11354,22 @@
       <c r="BG58" t="n">
         <v>7.5</v>
       </c>
+      <c r="BH58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="1:61">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F59" t="n">
         <v>5</v>
@@ -11179,16 +11533,22 @@
       <c r="BG59" t="n">
         <v>10</v>
       </c>
+      <c r="BH59" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="60" spans="1:59">
+    <row r="60" spans="1:61">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F60" t="n">
         <v>4.5</v>
@@ -11352,16 +11712,22 @@
       <c r="BG60" t="n">
         <v>7</v>
       </c>
+      <c r="BH60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="61" spans="1:59">
+    <row r="61" spans="1:61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F61" t="n">
         <v>4</v>
@@ -11525,16 +11891,22 @@
       <c r="BG61" t="n">
         <v>6.5</v>
       </c>
+      <c r="BH61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="62" spans="1:59">
+    <row r="62" spans="1:61">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F62" t="n">
         <v>3.5</v>
@@ -11698,16 +12070,22 @@
       <c r="BG62" t="n">
         <v>7</v>
       </c>
+      <c r="BH62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="63" spans="1:59">
+    <row r="63" spans="1:61">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
         <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>64</v>
       </c>
       <c r="D63" t="n">
         <v>9</v>
@@ -11877,16 +12255,22 @@
       <c r="BG63" t="n">
         <v>5.5</v>
       </c>
+      <c r="BH63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="64" spans="1:59">
+    <row r="64" spans="1:61">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D64" t="n">
         <v>8.5</v>
@@ -12056,16 +12440,22 @@
       <c r="BG64" t="n">
         <v>3</v>
       </c>
+      <c r="BH64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="65" spans="1:59">
+    <row r="65" spans="1:61">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D65" t="n">
         <v>4.5</v>
@@ -12235,16 +12625,22 @@
       <c r="BG65" t="n">
         <v>1</v>
       </c>
+      <c r="BH65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="1:61">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D66" t="n">
         <v>7.5</v>
@@ -12414,16 +12810,22 @@
       <c r="BG66" t="n">
         <v>4</v>
       </c>
+      <c r="BH66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="67" spans="1:59">
+    <row r="67" spans="1:61">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D67" t="n">
         <v>7</v>
@@ -12593,16 +12995,22 @@
       <c r="BG67" t="n">
         <v>2.5</v>
       </c>
+      <c r="BH67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:59">
+    <row r="68" spans="1:61">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D68" t="n">
         <v>6.5</v>
@@ -12772,16 +13180,22 @@
       <c r="BG68" t="n">
         <v>2</v>
       </c>
+      <c r="BH68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:59">
+    <row r="69" spans="1:61">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D69" t="n">
         <v>11.5</v>
@@ -12951,16 +13365,22 @@
       <c r="BG69" t="n">
         <v>3</v>
       </c>
+      <c r="BH69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="70" spans="1:59">
+    <row r="70" spans="1:61">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D70" t="n">
         <v>7.5</v>
@@ -13130,16 +13550,22 @@
       <c r="BG70" t="n">
         <v>2</v>
       </c>
+      <c r="BH70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="1:61">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D71" t="n">
         <v>7</v>
@@ -13309,16 +13735,22 @@
       <c r="BG71" t="n">
         <v>3</v>
       </c>
+      <c r="BH71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="72" spans="1:59">
+    <row r="72" spans="1:61">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D72" t="n">
         <v>7</v>
@@ -13488,16 +13920,22 @@
       <c r="BG72" t="n">
         <v>3</v>
       </c>
+      <c r="BH72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="73" spans="1:59">
+    <row r="73" spans="1:61">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D73" t="n">
         <v>6.5</v>
@@ -13667,16 +14105,22 @@
       <c r="BG73" t="n">
         <v>2.5</v>
       </c>
+      <c r="BH73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:61">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D74" t="n">
         <v>7</v>
@@ -13846,16 +14290,22 @@
       <c r="BG74" t="n">
         <v>3</v>
       </c>
+      <c r="BH74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="75" spans="1:59">
+    <row r="75" spans="1:61">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D75" t="n">
         <v>7</v>
@@ -14025,16 +14475,22 @@
       <c r="BG75" t="n">
         <v>3</v>
       </c>
+      <c r="BH75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="76" spans="1:59">
+    <row r="76" spans="1:61">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D76" t="n">
         <v>6.5</v>
@@ -14204,16 +14660,22 @@
       <c r="BG76" t="n">
         <v>3</v>
       </c>
+      <c r="BH76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:59">
+    <row r="77" spans="1:61">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D77" t="n">
         <v>6.5</v>
@@ -14383,16 +14845,22 @@
       <c r="BG77" t="n">
         <v>2</v>
       </c>
+      <c r="BH77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="78" spans="1:59">
+    <row r="78" spans="1:61">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F78" t="n">
         <v>5</v>
@@ -14556,16 +15024,22 @@
       <c r="BG78" t="n">
         <v>3.5</v>
       </c>
+      <c r="BH78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="79" spans="1:59">
+    <row r="79" spans="1:61">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F79" t="n">
         <v>4.5</v>
@@ -14729,16 +15203,22 @@
       <c r="BG79" t="n">
         <v>2.5</v>
       </c>
+      <c r="BH79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="80" spans="1:59">
+    <row r="80" spans="1:61">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F80" t="n">
         <v>4</v>
@@ -14902,16 +15382,22 @@
       <c r="BG80" t="n">
         <v>2.5</v>
       </c>
+      <c r="BH80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="81" spans="1:59">
+    <row r="81" spans="1:61">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F81" t="n">
         <v>3.5</v>
@@ -15075,10 +15561,16 @@
       <c r="BG81" t="n">
         <v>2</v>
       </c>
+      <c r="BH81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:59">
+    <row r="82" spans="1:61">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -15092,7 +15584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF22"/>
+  <dimension ref="A1:BH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15100,7 +15592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:60">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15275,13 +15767,19 @@
       <c r="BF1" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="BG1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:60">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
         <v>1986</v>
@@ -15451,13 +15949,19 @@
       <c r="BF2" t="n">
         <v>1735</v>
       </c>
+      <c r="BG2" t="n">
+        <v>1686</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1689</v>
+      </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:60">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
         <v>457</v>
@@ -15627,13 +16131,19 @@
       <c r="BF3" t="n">
         <v>404</v>
       </c>
+      <c r="BG3" t="n">
+        <v>394</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>394</v>
+      </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:60">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
         <v>712</v>
@@ -15803,13 +16313,19 @@
       <c r="BF4" t="n">
         <v>610</v>
       </c>
+      <c r="BG4" t="n">
+        <v>607</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>602</v>
+      </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:60">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
         <v>817</v>
@@ -15979,13 +16495,19 @@
       <c r="BF5" t="n">
         <v>721</v>
       </c>
+      <c r="BG5" t="n">
+        <v>685</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>693</v>
+      </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:60">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
         <v>433</v>
@@ -16155,13 +16677,19 @@
       <c r="BF6" t="n">
         <v>480</v>
       </c>
+      <c r="BG6" t="n">
+        <v>528</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>522</v>
+      </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:60">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="n">
         <v>550</v>
@@ -16331,13 +16859,19 @@
       <c r="BF7" t="n">
         <v>707</v>
       </c>
+      <c r="BG7" t="n">
+        <v>687</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>699</v>
+      </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:60">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="n">
         <v>1003</v>
@@ -16507,13 +17041,19 @@
       <c r="BF8" t="n">
         <v>548</v>
       </c>
+      <c r="BG8" t="n">
+        <v>471</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>468</v>
+      </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:60">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -16683,13 +17223,19 @@
       <c r="BF9" t="n">
         <v>390</v>
       </c>
+      <c r="BG9" t="n">
+        <v>339</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>338</v>
+      </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:60">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -16859,13 +17405,19 @@
       <c r="BF10" t="n">
         <v>484</v>
       </c>
+      <c r="BG10" t="n">
+        <v>390</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>386</v>
+      </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:60">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
         <v>1922</v>
@@ -17035,13 +17587,19 @@
       <c r="BF11" t="n">
         <v>861</v>
       </c>
+      <c r="BG11" t="n">
+        <v>957</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>965</v>
+      </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:60">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" t="n">
         <v>971</v>
@@ -17211,13 +17769,19 @@
       <c r="BF12" t="n">
         <v>863</v>
       </c>
+      <c r="BG12" t="n">
+        <v>843</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>847</v>
+      </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:60">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="n">
         <v>1015</v>
@@ -17387,13 +17951,19 @@
       <c r="BF13" t="n">
         <v>872</v>
       </c>
+      <c r="BG13" t="n">
+        <v>843</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>842</v>
+      </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:60">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" t="n">
         <v>1038</v>
@@ -17563,13 +18133,19 @@
       <c r="BF14" t="n">
         <v>890</v>
       </c>
+      <c r="BG14" t="n">
+        <v>870</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>879</v>
+      </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:60">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
         <v>452</v>
@@ -17739,13 +18315,19 @@
       <c r="BF15" t="n">
         <v>404</v>
       </c>
+      <c r="BG15" t="n">
+        <v>389</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>386</v>
+      </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:60">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
         <v>227</v>
@@ -17915,13 +18497,19 @@
       <c r="BF16" t="n">
         <v>205</v>
       </c>
+      <c r="BG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>197</v>
+      </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:60">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
         <v>269</v>
@@ -18091,13 +18679,19 @@
       <c r="BF17" t="n">
         <v>236</v>
       </c>
+      <c r="BG17" t="n">
+        <v>226</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>227</v>
+      </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:60">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
@@ -18263,13 +18857,19 @@
       <c r="BF18" t="n">
         <v>694</v>
       </c>
+      <c r="BG18" t="n">
+        <v>722</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>719</v>
+      </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:60">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s"/>
@@ -18435,13 +19035,19 @@
       <c r="BF19" t="n">
         <v>72</v>
       </c>
+      <c r="BG19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>84</v>
+      </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:60">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="s"/>
@@ -18607,13 +19213,19 @@
       <c r="BF20" t="n">
         <v>101</v>
       </c>
+      <c r="BG20" t="n">
+        <v>84</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>84</v>
+      </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:60">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s"/>
@@ -18779,10 +19391,16 @@
       <c r="BF21" t="n">
         <v>70</v>
       </c>
+      <c r="BG21" t="n">
+        <v>58</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:60">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -18841,6 +19459,8 @@
       <c r="BD22" t="s"/>
       <c r="BE22" t="s"/>
       <c r="BF22" t="s"/>
+      <c r="BG22" t="s"/>
+      <c r="BH22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,293 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>2.–8. 3. 2020</t>
-  </si>
-  <si>
-    <t>9.–15. 3. 2020</t>
-  </si>
-  <si>
-    <t>16.–22. 3. 2020</t>
-  </si>
-  <si>
-    <t>23.–29. 3. 2020</t>
-  </si>
-  <si>
-    <t>30. 3.–5. 4. 2020</t>
-  </si>
-  <si>
-    <t>6.–12. 4. 2020</t>
-  </si>
-  <si>
-    <t>13.–19. 4. 2020</t>
-  </si>
-  <si>
-    <t>20.–26. 4. 2020</t>
-  </si>
-  <si>
-    <t>27. 4.–3. 5. 2020</t>
-  </si>
-  <si>
-    <t>4.–10. 5. 2020</t>
-  </si>
-  <si>
-    <t>11.–17. 5. 2020</t>
-  </si>
-  <si>
-    <t>18.–24. 5. 2020</t>
-  </si>
-  <si>
-    <t>25.–31. 5. 2020</t>
-  </si>
-  <si>
-    <t>1.–7. 6. 2020</t>
-  </si>
-  <si>
-    <t>15.–21. 6. 2020</t>
-  </si>
-  <si>
-    <t>22.–28. 6. 2020</t>
-  </si>
-  <si>
-    <t>6.–12. 7. 2020</t>
-  </si>
-  <si>
-    <t>13.–19. 7. 2020</t>
-  </si>
-  <si>
-    <t>27. 7.–2. 8. 2020</t>
-  </si>
-  <si>
-    <t>3.–9. 8. 2020</t>
-  </si>
-  <si>
-    <t>17.–23. 8. 2020</t>
-  </si>
-  <si>
-    <t>24.–30. 8. 2020</t>
-  </si>
-  <si>
-    <t>31. 8.–6. 9. 2020</t>
-  </si>
-  <si>
-    <t>7.–13. 9. 2020</t>
-  </si>
-  <si>
-    <t>14.–20. 9. 2020</t>
-  </si>
-  <si>
-    <t>21.–27. 9. 2020</t>
-  </si>
-  <si>
-    <t>28. 9.–4. 10. 2020</t>
-  </si>
-  <si>
-    <t>5.–11. 10. 2020</t>
-  </si>
-  <si>
-    <t>12.–18. 10. 2020</t>
-  </si>
-  <si>
-    <t>19.–25. 10. 2020</t>
-  </si>
-  <si>
-    <t>26. 10.–1. 11. 2020</t>
-  </si>
-  <si>
-    <t>2.–8. 11. 2020</t>
-  </si>
-  <si>
-    <t>9.–15. 11. 2020</t>
-  </si>
-  <si>
-    <t>16.–22. 11. 2020</t>
-  </si>
-  <si>
-    <t>23.–29. 11. 2020</t>
-  </si>
-  <si>
-    <t>30. 11.–6. 12. 2020</t>
-  </si>
-  <si>
-    <t>7.–13. 12. 2020</t>
-  </si>
-  <si>
-    <t>14.–20. 12. 2020</t>
-  </si>
-  <si>
-    <t>21.–27. 12. 2020</t>
-  </si>
-  <si>
-    <t>28. 12.–3. 1. 2021</t>
-  </si>
-  <si>
-    <t>11.–17. 1. 2021</t>
-  </si>
-  <si>
-    <t>18.–24. 1. 2021</t>
-  </si>
-  <si>
-    <t>1.–7. 2. 2021</t>
-  </si>
-  <si>
-    <t>8.–14. 2. 2021</t>
-  </si>
-  <si>
-    <t>15.–21. 2. 2021</t>
-  </si>
-  <si>
-    <t>22.–28. 2. 2021</t>
-  </si>
-  <si>
-    <t>1.–7. 3. 2021</t>
-  </si>
-  <si>
-    <t>8.–14. 3. 2021</t>
-  </si>
-  <si>
-    <t>15.–21. 3. 2021</t>
-  </si>
-  <si>
-    <t>22.–28. 3. 2021</t>
-  </si>
-  <si>
-    <t>29. 3.–4. 4. 2021</t>
-  </si>
-  <si>
-    <t>5.–11. 4. 2021</t>
-  </si>
-  <si>
-    <t>19.–25. 4. 2021</t>
-  </si>
-  <si>
-    <t>26. 4.–2. 5. 2021</t>
-  </si>
-  <si>
-    <t>10.–16. 5. 2021</t>
-  </si>
-  <si>
-    <t>17.–23. 5. 2021</t>
-  </si>
-  <si>
-    <t>7.–13. 6. 2021</t>
-  </si>
-  <si>
-    <t>14.–20. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Průměrný počet osob v podstatném kontaktu</t>
-  </si>
-  <si>
-    <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
-  </si>
-  <si>
-    <t>Průměrný počet delších kontaktů bez roušky</t>
-  </si>
-  <si>
-    <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Obavy ohledně koronaviru</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné starosti</t>
-  </si>
-  <si>
-    <t>Velké starosti</t>
-  </si>
-  <si>
-    <t>Znalost nakaženého</t>
-  </si>
-  <si>
-    <t>Ano, v přímém či nepřímém kontaktu</t>
-  </si>
-  <si>
-    <t>Ano, ale nebyli v kontaktu</t>
-  </si>
-  <si>
-    <t>Nezná nakaženého</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Velikost místa bydliště</t>
-  </si>
-  <si>
-    <t>Méně než 20 000 obyvatel</t>
-  </si>
-  <si>
-    <t>20 000 až 99 999 obyvatel</t>
-  </si>
-  <si>
-    <t>100 000 a více obyvatel</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>Práce na home office</t>
-  </si>
-  <si>
-    <t>Plná osobní přítomnost v práci</t>
-  </si>
-  <si>
-    <t>Půl napůl osobní přítomnost a home office</t>
-  </si>
-  <si>
-    <t>Plný home office</t>
-  </si>
-  <si>
-    <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -671,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI82"/>
+  <dimension ref="A1:BK82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,200 +459,338 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:61">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2.–8. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>9.–15. 3. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>16.–22. 3. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>23.–29. 3. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3.–5. 4. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>6.–12. 4. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13.–19. 4. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>20.–26. 4. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>27. 4.–3. 5. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>4.–10. 5. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>11.–17. 5. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>18.–24. 5. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>25.–31. 5. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1.–7. 6. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 6. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 6. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6.–12. 7. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>13.–19. 7. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>27. 7.–2. 8. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>3.–9. 8. 2020</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>17.–23. 8. 2020</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>24.–30. 8. 2020</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>31. 8.–6. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>21.–27. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9.–4. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>5.–11. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>12.–18. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>19.–25. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>26. 10.–1. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2.–8. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>9.–15. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>16.–22. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>23.–29. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11.–6. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>21.–27. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12.–3. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>11.–17. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>18.–24. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1.–7. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>8.–14. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1.–7. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>8.–14. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 3. 2021</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 3. 2021</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>29. 3.–4. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>5.–11. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>19.–25. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>26. 4.–2. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>10.–16. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>17.–23. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>5.–11. 7. 2021</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>12.–18. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:61">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>22.5</v>
@@ -1048,16 +966,28 @@
       <c r="BI2" t="n">
         <v>20</v>
       </c>
+      <c r="BJ2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:61">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>22.5</v>
@@ -1233,16 +1163,28 @@
       <c r="BI3" t="n">
         <v>4</v>
       </c>
+      <c r="BJ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:61">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -1418,16 +1360,28 @@
       <c r="BI4" t="n">
         <v>11.5</v>
       </c>
+      <c r="BJ4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:61">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -1603,16 +1557,28 @@
       <c r="BI5" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:61">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>27.5</v>
@@ -1788,16 +1754,28 @@
       <c r="BI6" t="n">
         <v>25.5</v>
       </c>
+      <c r="BJ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:61">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>28.5</v>
@@ -1973,16 +1951,28 @@
       <c r="BI7" t="n">
         <v>24</v>
       </c>
+      <c r="BJ7" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:61">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>13.5</v>
@@ -2158,16 +2148,28 @@
       <c r="BI8" t="n">
         <v>13</v>
       </c>
+      <c r="BJ8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:61">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>23</v>
@@ -2343,16 +2345,28 @@
       <c r="BI9" t="n">
         <v>25</v>
       </c>
+      <c r="BJ9" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:61">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>22.5</v>
@@ -2528,16 +2542,28 @@
       <c r="BI10" t="n">
         <v>19</v>
       </c>
+      <c r="BJ10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:61">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>22</v>
@@ -2713,16 +2739,28 @@
       <c r="BI11" t="n">
         <v>16</v>
       </c>
+      <c r="BJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:61">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>39.5</v>
@@ -2898,16 +2936,28 @@
       <c r="BI12" t="n">
         <v>27</v>
       </c>
+      <c r="BJ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:61">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>26</v>
@@ -3083,16 +3133,28 @@
       <c r="BI13" t="n">
         <v>20</v>
       </c>
+      <c r="BJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="14" spans="1:61">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>22</v>
@@ -3268,16 +3330,28 @@
       <c r="BI14" t="n">
         <v>17.5</v>
       </c>
+      <c r="BJ14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:61">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>24</v>
@@ -3453,16 +3527,28 @@
       <c r="BI15" t="n">
         <v>21.5</v>
       </c>
+      <c r="BJ15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:61">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>20.5</v>
@@ -3638,16 +3724,28 @@
       <c r="BI16" t="n">
         <v>18.5</v>
       </c>
+      <c r="BJ16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" spans="1:61">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>22.5</v>
@@ -3823,16 +3921,28 @@
       <c r="BI17" t="n">
         <v>19.5</v>
       </c>
+      <c r="BJ17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row r="18" spans="1:61">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>23.5</v>
@@ -4008,16 +4118,28 @@
       <c r="BI18" t="n">
         <v>21.5</v>
       </c>
+      <c r="BJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:61">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>21.5</v>
@@ -4193,16 +4315,28 @@
       <c r="BI19" t="n">
         <v>20.5</v>
       </c>
+      <c r="BJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:61">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>21</v>
@@ -4378,16 +4512,28 @@
       <c r="BI20" t="n">
         <v>19</v>
       </c>
+      <c r="BJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="21" spans="1:61">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>18</v>
@@ -4557,16 +4703,28 @@
       <c r="BI21" t="n">
         <v>29</v>
       </c>
+      <c r="BJ21" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>26.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:61">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>10.5</v>
@@ -4736,16 +4894,28 @@
       <c r="BI22" t="n">
         <v>19.5</v>
       </c>
+      <c r="BJ22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>19.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:61">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>4</v>
@@ -4915,16 +5085,28 @@
       <c r="BI23" t="n">
         <v>13.5</v>
       </c>
+      <c r="BJ23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="1:61">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Průměrný počet osob v podstatném kontaktu</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>4.5</v>
@@ -5094,16 +5276,28 @@
       <c r="BI24" t="n">
         <v>10.5</v>
       </c>
+      <c r="BJ24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:61">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>27.5</v>
@@ -5279,16 +5473,28 @@
       <c r="BI25" t="n">
         <v>8</v>
       </c>
+      <c r="BJ25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:61">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>28.5</v>
@@ -5464,16 +5670,28 @@
       <c r="BI26" t="n">
         <v>4.5</v>
       </c>
+      <c r="BJ26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:61">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>13.5</v>
@@ -5649,16 +5867,28 @@
       <c r="BI27" t="n">
         <v>1.5</v>
       </c>
+      <c r="BJ27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:61">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>23</v>
@@ -5834,16 +6064,28 @@
       <c r="BI28" t="n">
         <v>6.5</v>
       </c>
+      <c r="BJ28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:61">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>22.5</v>
@@ -6019,16 +6261,28 @@
       <c r="BI29" t="n">
         <v>3.5</v>
       </c>
+      <c r="BJ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:61">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>22</v>
@@ -6204,16 +6458,28 @@
       <c r="BI30" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:61">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>39.5</v>
@@ -6389,16 +6655,28 @@
       <c r="BI31" t="n">
         <v>4.5</v>
       </c>
+      <c r="BJ31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:61">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>26</v>
@@ -6574,16 +6852,28 @@
       <c r="BI32" t="n">
         <v>3.5</v>
       </c>
+      <c r="BJ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:61">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>22</v>
@@ -6759,16 +7049,28 @@
       <c r="BI33" t="n">
         <v>4</v>
       </c>
+      <c r="BJ33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:61">
-      <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>24</v>
@@ -6944,16 +7246,28 @@
       <c r="BI34" t="n">
         <v>4</v>
       </c>
+      <c r="BJ34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:61">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>20.5</v>
@@ -7129,16 +7443,28 @@
       <c r="BI35" t="n">
         <v>4</v>
       </c>
+      <c r="BJ35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="36" spans="1:61">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>22.5</v>
@@ -7314,16 +7640,28 @@
       <c r="BI36" t="n">
         <v>4</v>
       </c>
+      <c r="BJ36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="37" spans="1:61">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>23.5</v>
@@ -7499,16 +7837,28 @@
       <c r="BI37" t="n">
         <v>5</v>
       </c>
+      <c r="BJ37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:61">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>21.5</v>
@@ -7684,16 +8034,28 @@
       <c r="BI38" t="n">
         <v>5</v>
       </c>
+      <c r="BJ38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="39" spans="1:61">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>21</v>
@@ -7869,16 +8231,28 @@
       <c r="BI39" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:61">
-      <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="F40" t="n">
         <v>18</v>
@@ -8048,16 +8422,28 @@
       <c r="BI40" t="n">
         <v>5.5</v>
       </c>
+      <c r="BJ40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="41" spans="1:61">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="F41" t="n">
         <v>10.5</v>
@@ -8227,16 +8613,28 @@
       <c r="BI41" t="n">
         <v>3.5</v>
       </c>
+      <c r="BJ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:61">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>4</v>
@@ -8406,16 +8804,28 @@
       <c r="BI42" t="n">
         <v>4</v>
       </c>
+      <c r="BJ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:61">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+        </is>
       </c>
       <c r="F43" t="n">
         <v>4.5</v>
@@ -8585,16 +8995,28 @@
       <c r="BI43" t="n">
         <v>1.5</v>
       </c>
+      <c r="BJ43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" spans="1:61">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>9</v>
@@ -8770,16 +9192,28 @@
       <c r="BI44" t="n">
         <v>15.5</v>
       </c>
+      <c r="BJ44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:61">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>8.5</v>
@@ -8955,16 +9389,28 @@
       <c r="BI45" t="n">
         <v>13</v>
       </c>
+      <c r="BJ45" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="46" spans="1:61">
-      <c r="A46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>4.5</v>
@@ -9140,16 +9586,28 @@
       <c r="BI46" t="n">
         <v>7.5</v>
       </c>
+      <c r="BJ46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="47" spans="1:61">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>7.5</v>
@@ -9325,16 +9783,28 @@
       <c r="BI47" t="n">
         <v>15</v>
       </c>
+      <c r="BJ47" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="48" spans="1:61">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" t="s">
-        <v>65</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>7</v>
@@ -9510,16 +9980,28 @@
       <c r="BI48" t="n">
         <v>10.5</v>
       </c>
+      <c r="BJ48" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="49" spans="1:61">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>6.5</v>
@@ -9695,16 +10177,28 @@
       <c r="BI49" t="n">
         <v>8</v>
       </c>
+      <c r="BJ49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:61">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>11.5</v>
@@ -9880,16 +10374,28 @@
       <c r="BI50" t="n">
         <v>15.5</v>
       </c>
+      <c r="BJ50" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="51" spans="1:61">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>7.5</v>
@@ -10065,16 +10571,28 @@
       <c r="BI51" t="n">
         <v>9.5</v>
       </c>
+      <c r="BJ51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="52" spans="1:61">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -10250,16 +10768,28 @@
       <c r="BI52" t="n">
         <v>10.5</v>
       </c>
+      <c r="BJ52" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="53" spans="1:61">
-      <c r="A53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -10435,16 +10965,28 @@
       <c r="BI53" t="n">
         <v>12.5</v>
       </c>
+      <c r="BJ53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:61">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>6.5</v>
@@ -10620,16 +11162,28 @@
       <c r="BI54" t="n">
         <v>10</v>
       </c>
+      <c r="BJ54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:61">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -10805,16 +11359,28 @@
       <c r="BI55" t="n">
         <v>11.5</v>
       </c>
+      <c r="BJ55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="56" spans="1:61">
-      <c r="A56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>7</v>
@@ -10990,16 +11556,28 @@
       <c r="BI56" t="n">
         <v>11.5</v>
       </c>
+      <c r="BJ56" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="57" spans="1:61">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>6.5</v>
@@ -11175,16 +11753,28 @@
       <c r="BI57" t="n">
         <v>12.5</v>
       </c>
+      <c r="BJ57" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="58" spans="1:61">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>6.5</v>
@@ -11360,16 +11950,28 @@
       <c r="BI58" t="n">
         <v>10</v>
       </c>
+      <c r="BJ58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="59" spans="1:61">
-      <c r="A59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="F59" t="n">
         <v>5</v>
@@ -11539,16 +12141,28 @@
       <c r="BI59" t="n">
         <v>15</v>
       </c>
+      <c r="BJ59" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>13.5</v>
+      </c>
     </row>
-    <row r="60" spans="1:61">
-      <c r="A60" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="F60" t="n">
         <v>4.5</v>
@@ -11718,16 +12332,28 @@
       <c r="BI60" t="n">
         <v>11.5</v>
       </c>
+      <c r="BJ60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="61" spans="1:61">
-      <c r="A61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="F61" t="n">
         <v>4</v>
@@ -11897,16 +12523,28 @@
       <c r="BI61" t="n">
         <v>7.5</v>
       </c>
+      <c r="BJ61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="62" spans="1:61">
-      <c r="A62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky</t>
+        </is>
       </c>
       <c r="F62" t="n">
         <v>3.5</v>
@@ -12076,16 +12714,28 @@
       <c r="BI62" t="n">
         <v>7.5</v>
       </c>
+      <c r="BJ62" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="63" spans="1:61">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>66</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>9</v>
@@ -12261,16 +12911,28 @@
       <c r="BI63" t="n">
         <v>5</v>
       </c>
+      <c r="BJ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="64" spans="1:61">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>66</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>8.5</v>
@@ -12446,16 +13108,28 @@
       <c r="BI64" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="65" spans="1:61">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>66</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>4.5</v>
@@ -12631,16 +13305,28 @@
       <c r="BI65" t="n">
         <v>1</v>
       </c>
+      <c r="BJ65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="66" spans="1:61">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" t="s">
-        <v>66</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>7.5</v>
@@ -12816,16 +13502,28 @@
       <c r="BI66" t="n">
         <v>4.5</v>
       </c>
+      <c r="BJ66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="67" spans="1:61">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" t="s">
-        <v>66</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>7</v>
@@ -13001,16 +13699,28 @@
       <c r="BI67" t="n">
         <v>2</v>
       </c>
+      <c r="BJ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:61">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>6.5</v>
@@ -13186,16 +13896,28 @@
       <c r="BI68" t="n">
         <v>1</v>
       </c>
+      <c r="BJ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="69" spans="1:61">
-      <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" t="s">
-        <v>66</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>11.5</v>
@@ -13371,16 +14093,28 @@
       <c r="BI69" t="n">
         <v>3.5</v>
       </c>
+      <c r="BJ69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="70" spans="1:61">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>66</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>7.5</v>
@@ -13556,16 +14290,28 @@
       <c r="BI70" t="n">
         <v>2</v>
       </c>
+      <c r="BJ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:61">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>66</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>7</v>
@@ -13741,16 +14487,28 @@
       <c r="BI71" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="72" spans="1:61">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>66</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>7</v>
@@ -13926,16 +14684,28 @@
       <c r="BI72" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="73" spans="1:61">
-      <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" t="s">
-        <v>66</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>6.5</v>
@@ -14111,16 +14881,28 @@
       <c r="BI73" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="74" spans="1:61">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" t="s">
-        <v>66</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>7</v>
@@ -14296,16 +15078,28 @@
       <c r="BI74" t="n">
         <v>2.5</v>
       </c>
+      <c r="BJ74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="75" spans="1:61">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" t="s">
-        <v>66</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>7</v>
@@ -14481,16 +15275,28 @@
       <c r="BI75" t="n">
         <v>3</v>
       </c>
+      <c r="BJ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="76" spans="1:61">
-      <c r="A76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>66</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>6.5</v>
@@ -14666,16 +15472,28 @@
       <c r="BI76" t="n">
         <v>3</v>
       </c>
+      <c r="BJ76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="1:61">
-      <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>66</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="D77" t="n">
         <v>6.5</v>
@@ -14851,16 +15669,28 @@
       <c r="BI77" t="n">
         <v>1.5</v>
       </c>
+      <c r="BJ77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:61">
-      <c r="A78" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
-        <v>66</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="F78" t="n">
         <v>5</v>
@@ -15030,16 +15860,28 @@
       <c r="BI78" t="n">
         <v>3.5</v>
       </c>
+      <c r="BJ78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="79" spans="1:61">
-      <c r="A79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" t="s">
-        <v>66</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="F79" t="n">
         <v>4.5</v>
@@ -15209,16 +16051,28 @@
       <c r="BI79" t="n">
         <v>1.5</v>
       </c>
+      <c r="BJ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:61">
-      <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" t="s">
-        <v>66</v>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="F80" t="n">
         <v>4</v>
@@ -15388,16 +16242,28 @@
       <c r="BI80" t="n">
         <v>1.5</v>
       </c>
+      <c r="BJ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="81" spans="1:61">
-      <c r="A81" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" t="s">
-        <v>66</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+        </is>
       </c>
       <c r="F81" t="n">
         <v>3.5</v>
@@ -15567,14 +16433,22 @@
       <c r="BI81" t="n">
         <v>1</v>
       </c>
+      <c r="BJ81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="82" spans="1:61">
-      <c r="A82" t="s">
-        <v>92</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15584,7 +16458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH22"/>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15592,194 +16466,328 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:60">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>60</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>2.–8. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>9.–15. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>16.–22. 3. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>23.–29. 3. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3.–5. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>6.–12. 4. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>13.–19. 4. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>20.–26. 4. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>27. 4.–3. 5. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>4.–10. 5. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>11.–17. 5. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>18.–24. 5. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>25.–31. 5. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>1.–7. 6. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 6. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 6. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>6.–12. 7. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>13.–19. 7. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>27. 7.–2. 8. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>3.–9. 8. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>17.–23. 8. 2020</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>24.–30. 8. 2020</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>31. 8.–6. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>21.–27. 9. 2020</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9.–4. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>5.–11. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>12.–18. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>19.–25. 10. 2020</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>26. 10.–1. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>2.–8. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>9.–15. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>16.–22. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>23.–29. 11. 2020</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11.–6. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>21.–27. 12. 2020</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12.–3. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>11.–17. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>18.–24. 1. 2021</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>1.–7. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>8.–14. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 2. 2021</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>1.–7. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>8.–14. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 3. 2021</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>29. 3.–4. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>5.–11. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>19.–25. 4. 2021</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>26. 4.–2. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>10.–16. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>17.–23. 5. 2021</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 6. 2021</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>5.–11. 7. 2021</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>12.–18. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:60">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1986</v>
@@ -15955,13 +16963,23 @@
       <c r="BH2" t="n">
         <v>1689</v>
       </c>
+      <c r="BI2" t="n">
+        <v>1533</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1526</v>
+      </c>
     </row>
-    <row r="3" spans="1:60">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>457</v>
@@ -16137,13 +17155,23 @@
       <c r="BH3" t="n">
         <v>394</v>
       </c>
+      <c r="BI3" t="n">
+        <v>355</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>349</v>
+      </c>
     </row>
-    <row r="4" spans="1:60">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>712</v>
@@ -16319,13 +17347,23 @@
       <c r="BH4" t="n">
         <v>602</v>
       </c>
+      <c r="BI4" t="n">
+        <v>532</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>527</v>
+      </c>
     </row>
-    <row r="5" spans="1:60">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>817</v>
@@ -16501,13 +17539,23 @@
       <c r="BH5" t="n">
         <v>693</v>
       </c>
+      <c r="BI5" t="n">
+        <v>646</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>650</v>
+      </c>
     </row>
-    <row r="6" spans="1:60">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>433</v>
@@ -16683,13 +17731,23 @@
       <c r="BH6" t="n">
         <v>522</v>
       </c>
+      <c r="BI6" t="n">
+        <v>413</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>406</v>
+      </c>
     </row>
-    <row r="7" spans="1:60">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>550</v>
@@ -16865,13 +17923,23 @@
       <c r="BH7" t="n">
         <v>699</v>
       </c>
+      <c r="BI7" t="n">
+        <v>635</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>636</v>
+      </c>
     </row>
-    <row r="8" spans="1:60">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>1003</v>
@@ -17047,13 +18115,23 @@
       <c r="BH8" t="n">
         <v>468</v>
       </c>
+      <c r="BI8" t="n">
+        <v>485</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>484</v>
+      </c>
     </row>
-    <row r="9" spans="1:60">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -17229,13 +18307,23 @@
       <c r="BH9" t="n">
         <v>338</v>
       </c>
+      <c r="BI9" t="n">
+        <v>278</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>272</v>
+      </c>
     </row>
-    <row r="10" spans="1:60">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>58</v>
@@ -17411,13 +18499,23 @@
       <c r="BH10" t="n">
         <v>386</v>
       </c>
+      <c r="BI10" t="n">
+        <v>319</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>318</v>
+      </c>
     </row>
-    <row r="11" spans="1:60">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>1922</v>
@@ -17593,13 +18691,23 @@
       <c r="BH11" t="n">
         <v>965</v>
       </c>
+      <c r="BI11" t="n">
+        <v>936</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>936</v>
+      </c>
     </row>
-    <row r="12" spans="1:60">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>971</v>
@@ -17775,13 +18883,23 @@
       <c r="BH12" t="n">
         <v>847</v>
       </c>
+      <c r="BI12" t="n">
+        <v>768</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>760</v>
+      </c>
     </row>
-    <row r="13" spans="1:60">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>1015</v>
@@ -17957,13 +19075,23 @@
       <c r="BH13" t="n">
         <v>842</v>
       </c>
+      <c r="BI13" t="n">
+        <v>765</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>766</v>
+      </c>
     </row>
-    <row r="14" spans="1:60">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>1038</v>
@@ -18139,13 +19267,23 @@
       <c r="BH14" t="n">
         <v>879</v>
       </c>
+      <c r="BI14" t="n">
+        <v>787</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>787</v>
+      </c>
     </row>
-    <row r="15" spans="1:60">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>452</v>
@@ -18321,13 +19459,23 @@
       <c r="BH15" t="n">
         <v>386</v>
       </c>
+      <c r="BI15" t="n">
+        <v>354</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>354</v>
+      </c>
     </row>
-    <row r="16" spans="1:60">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>227</v>
@@ -18503,13 +19651,23 @@
       <c r="BH16" t="n">
         <v>197</v>
       </c>
+      <c r="BI16" t="n">
+        <v>186</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>183</v>
+      </c>
     </row>
-    <row r="17" spans="1:60">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>269</v>
@@ -18685,16 +19843,26 @@
       <c r="BH17" t="n">
         <v>227</v>
       </c>
+      <c r="BI17" t="n">
+        <v>206</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>202</v>
+      </c>
     </row>
-    <row r="18" spans="1:60">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s"/>
-      <c r="D18" t="s"/>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>556</v>
       </c>
@@ -18863,16 +20031,26 @@
       <c r="BH18" t="n">
         <v>719</v>
       </c>
+      <c r="BI18" t="n">
+        <v>562</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>550</v>
+      </c>
     </row>
-    <row r="19" spans="1:60">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s"/>
-      <c r="D19" t="s"/>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>138</v>
       </c>
@@ -19041,16 +20219,26 @@
       <c r="BH19" t="n">
         <v>84</v>
       </c>
+      <c r="BI19" t="n">
+        <v>78</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row r="20" spans="1:60">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s"/>
-      <c r="D20" t="s"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>300</v>
       </c>
@@ -19219,16 +20407,26 @@
       <c r="BH20" t="n">
         <v>84</v>
       </c>
+      <c r="BI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="21" spans="1:60">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>299</v>
       </c>
@@ -19397,72 +20595,82 @@
       <c r="BH21" t="n">
         <v>54</v>
       </c>
+      <c r="BI21" t="n">
+        <v>162</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>163</v>
+      </c>
     </row>
-    <row r="22" spans="1:60">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
-      <c r="D22" t="s"/>
-      <c r="E22" t="s"/>
-      <c r="F22" t="s"/>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
-      <c r="M22" t="s"/>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
-      <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
-      <c r="V22" t="s"/>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
-      <c r="Z22" t="s"/>
-      <c r="AA22" t="s"/>
-      <c r="AB22" t="s"/>
-      <c r="AC22" t="s"/>
-      <c r="AD22" t="s"/>
-      <c r="AE22" t="s"/>
-      <c r="AF22" t="s"/>
-      <c r="AG22" t="s"/>
-      <c r="AH22" t="s"/>
-      <c r="AI22" t="s"/>
-      <c r="AJ22" t="s"/>
-      <c r="AK22" t="s"/>
-      <c r="AL22" t="s"/>
-      <c r="AM22" t="s"/>
-      <c r="AN22" t="s"/>
-      <c r="AO22" t="s"/>
-      <c r="AP22" t="s"/>
-      <c r="AQ22" t="s"/>
-      <c r="AR22" t="s"/>
-      <c r="AS22" t="s"/>
-      <c r="AT22" t="s"/>
-      <c r="AU22" t="s"/>
-      <c r="AV22" t="s"/>
-      <c r="AW22" t="s"/>
-      <c r="AX22" t="s"/>
-      <c r="AY22" t="s"/>
-      <c r="AZ22" t="s"/>
-      <c r="BA22" t="s"/>
-      <c r="BB22" t="s"/>
-      <c r="BC22" t="s"/>
-      <c r="BD22" t="s"/>
-      <c r="BE22" t="s"/>
-      <c r="BF22" t="s"/>
-      <c r="BG22" t="s"/>
-      <c r="BH22" t="s"/>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BM82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,16 @@
           <t>12.–18. 7. 2021</t>
         </is>
       </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>9.–15. 8. 2021</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>16.–22. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -972,6 +982,12 @@
       <c r="BK2" t="n">
         <v>19</v>
       </c>
+      <c r="BL2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1169,6 +1185,12 @@
       <c r="BK3" t="n">
         <v>4</v>
       </c>
+      <c r="BL3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1187,13 +1209,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
         <v>3.5</v>
@@ -1205,82 +1227,82 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF4" t="n">
         <v>6.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9</v>
-      </c>
-      <c r="T4" t="n">
-        <v>10</v>
-      </c>
-      <c r="U4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>5</v>
@@ -1331,7 +1353,7 @@
         <v>4.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BA4" t="n">
         <v>4.5</v>
@@ -1352,7 +1374,7 @@
         <v>7.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BH4" t="n">
         <v>11.5</v>
@@ -1365,6 +1387,12 @@
       </c>
       <c r="BK4" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
@@ -1384,13 +1412,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
         <v>3.5</v>
@@ -1402,82 +1430,82 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="P5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>11</v>
+      </c>
+      <c r="T5" t="n">
+        <v>12</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
         <v>8</v>
       </c>
-      <c r="R5" t="n">
-        <v>9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>9</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7</v>
-      </c>
       <c r="AF5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="n">
         <v>4.5</v>
@@ -1561,6 +1589,12 @@
         <v>2.5</v>
       </c>
       <c r="BK5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM5" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -1760,6 +1794,12 @@
       <c r="BK6" t="n">
         <v>24</v>
       </c>
+      <c r="BL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1957,6 +1997,12 @@
       <c r="BK7" t="n">
         <v>24</v>
       </c>
+      <c r="BL7" t="n">
+        <v>25</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2154,6 +2200,12 @@
       <c r="BK8" t="n">
         <v>12</v>
       </c>
+      <c r="BL8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2351,6 +2403,12 @@
       <c r="BK9" t="n">
         <v>23.5</v>
       </c>
+      <c r="BL9" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2548,6 +2606,12 @@
       <c r="BK10" t="n">
         <v>18</v>
       </c>
+      <c r="BL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2745,6 +2809,12 @@
       <c r="BK11" t="n">
         <v>16.5</v>
       </c>
+      <c r="BL11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2942,6 +3012,12 @@
       <c r="BK12" t="n">
         <v>25.5</v>
       </c>
+      <c r="BL12" t="n">
+        <v>25</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3139,6 +3215,12 @@
       <c r="BK13" t="n">
         <v>16</v>
       </c>
+      <c r="BL13" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3336,6 +3418,12 @@
       <c r="BK14" t="n">
         <v>18</v>
       </c>
+      <c r="BL14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3533,6 +3621,12 @@
       <c r="BK15" t="n">
         <v>21</v>
       </c>
+      <c r="BL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3730,6 +3824,12 @@
       <c r="BK16" t="n">
         <v>17</v>
       </c>
+      <c r="BL16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3927,6 +4027,12 @@
       <c r="BK17" t="n">
         <v>18</v>
       </c>
+      <c r="BL17" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4124,6 +4230,12 @@
       <c r="BK18" t="n">
         <v>21.5</v>
       </c>
+      <c r="BL18" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4321,6 +4433,12 @@
       <c r="BK19" t="n">
         <v>20</v>
       </c>
+      <c r="BL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4518,6 +4636,12 @@
       <c r="BK20" t="n">
         <v>17</v>
       </c>
+      <c r="BL20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4709,6 +4833,12 @@
       <c r="BK21" t="n">
         <v>26.5</v>
       </c>
+      <c r="BL21" t="n">
+        <v>27</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4900,6 +5030,12 @@
       <c r="BK22" t="n">
         <v>19.5</v>
       </c>
+      <c r="BL22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5091,6 +5227,12 @@
       <c r="BK23" t="n">
         <v>15</v>
       </c>
+      <c r="BL23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5282,6 +5424,12 @@
       <c r="BK24" t="n">
         <v>20.5</v>
       </c>
+      <c r="BL24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5479,6 +5627,12 @@
       <c r="BK25" t="n">
         <v>7</v>
       </c>
+      <c r="BL25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5676,6 +5830,12 @@
       <c r="BK26" t="n">
         <v>4.5</v>
       </c>
+      <c r="BL26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5873,6 +6033,12 @@
       <c r="BK27" t="n">
         <v>1.5</v>
       </c>
+      <c r="BL27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6070,6 +6236,12 @@
       <c r="BK28" t="n">
         <v>6.5</v>
       </c>
+      <c r="BL28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6267,6 +6439,12 @@
       <c r="BK29" t="n">
         <v>3</v>
       </c>
+      <c r="BL29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6464,6 +6642,12 @@
       <c r="BK30" t="n">
         <v>2.5</v>
       </c>
+      <c r="BL30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6661,6 +6845,12 @@
       <c r="BK31" t="n">
         <v>4</v>
       </c>
+      <c r="BL31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6858,6 +7048,12 @@
       <c r="BK32" t="n">
         <v>3</v>
       </c>
+      <c r="BL32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7055,6 +7251,12 @@
       <c r="BK33" t="n">
         <v>4</v>
       </c>
+      <c r="BL33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7252,6 +7454,12 @@
       <c r="BK34" t="n">
         <v>3.5</v>
       </c>
+      <c r="BL34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7449,6 +7657,12 @@
       <c r="BK35" t="n">
         <v>4</v>
       </c>
+      <c r="BL35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7646,6 +7860,12 @@
       <c r="BK36" t="n">
         <v>3.5</v>
       </c>
+      <c r="BL36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7843,6 +8063,12 @@
       <c r="BK37" t="n">
         <v>4.5</v>
       </c>
+      <c r="BL37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8040,6 +8266,12 @@
       <c r="BK38" t="n">
         <v>5</v>
       </c>
+      <c r="BL38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8237,6 +8469,12 @@
       <c r="BK39" t="n">
         <v>2</v>
       </c>
+      <c r="BL39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8428,6 +8666,12 @@
       <c r="BK40" t="n">
         <v>5</v>
       </c>
+      <c r="BL40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8619,6 +8863,12 @@
       <c r="BK41" t="n">
         <v>2</v>
       </c>
+      <c r="BL41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8810,6 +9060,12 @@
       <c r="BK42" t="n">
         <v>4.5</v>
       </c>
+      <c r="BL42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9001,6 +9257,12 @@
       <c r="BK43" t="n">
         <v>5</v>
       </c>
+      <c r="BL43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9019,16 +9281,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="E44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H44" t="n">
         <v>5.5</v>
@@ -9046,67 +9308,67 @@
         <v>7.5</v>
       </c>
       <c r="M44" t="n">
+        <v>8</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>12</v>
+      </c>
+      <c r="R44" t="n">
+        <v>14</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>15</v>
+      </c>
+      <c r="U44" t="n">
+        <v>15</v>
+      </c>
+      <c r="V44" t="n">
+        <v>15</v>
+      </c>
+      <c r="W44" t="n">
+        <v>15</v>
+      </c>
+      <c r="X44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG44" t="n">
         <v>7.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="P44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="U44" t="n">
-        <v>12</v>
-      </c>
-      <c r="V44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>7</v>
       </c>
       <c r="AH44" t="n">
         <v>7</v>
@@ -9169,7 +9431,7 @@
         <v>6.5</v>
       </c>
       <c r="BB44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BC44" t="n">
         <v>7.5</v>
@@ -9197,6 +9459,12 @@
       </c>
       <c r="BK44" t="n">
         <v>13.5</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>15</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="45">
@@ -9216,10 +9484,10 @@
         </is>
       </c>
       <c r="D45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E45" t="n">
         <v>8.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>4.5</v>
@@ -9240,76 +9508,76 @@
         <v>5.5</v>
       </c>
       <c r="L45" t="n">
+        <v>7</v>
+      </c>
+      <c r="M45" t="n">
+        <v>7</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>11</v>
+      </c>
+      <c r="R45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>14</v>
+      </c>
+      <c r="U45" t="n">
+        <v>14</v>
+      </c>
+      <c r="V45" t="n">
+        <v>14</v>
+      </c>
+      <c r="W45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI45" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P45" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>9</v>
-      </c>
-      <c r="R45" t="n">
-        <v>10</v>
-      </c>
-      <c r="S45" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" t="n">
-        <v>11</v>
-      </c>
-      <c r="U45" t="n">
-        <v>11</v>
-      </c>
-      <c r="V45" t="n">
-        <v>11</v>
-      </c>
-      <c r="W45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>6</v>
       </c>
       <c r="AJ45" t="n">
         <v>5.5</v>
@@ -9372,7 +9640,7 @@
         <v>6</v>
       </c>
       <c r="BD45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BE45" t="n">
         <v>7.5</v>
@@ -9394,6 +9662,12 @@
       </c>
       <c r="BK45" t="n">
         <v>14</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>15</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -9413,10 +9687,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E46" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -9431,7 +9705,7 @@
         <v>2.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>3</v>
@@ -9440,73 +9714,73 @@
         <v>3.5</v>
       </c>
       <c r="M46" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>8</v>
+      </c>
+      <c r="T46" t="n">
+        <v>9</v>
+      </c>
+      <c r="U46" t="n">
+        <v>9</v>
+      </c>
+      <c r="V46" t="n">
+        <v>9</v>
+      </c>
+      <c r="W46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF46" t="n">
         <v>4</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>6</v>
-      </c>
-      <c r="S46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T46" t="n">
-        <v>7</v>
-      </c>
-      <c r="U46" t="n">
-        <v>7</v>
-      </c>
-      <c r="V46" t="n">
-        <v>7</v>
-      </c>
-      <c r="W46" t="n">
-        <v>7</v>
-      </c>
-      <c r="X46" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>3.5</v>
       </c>
       <c r="AG46" t="n">
         <v>3.5</v>
       </c>
       <c r="AH46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI46" t="n">
         <v>3.5</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>3</v>
       </c>
       <c r="AJ46" t="n">
         <v>3.5</v>
@@ -9591,6 +9865,12 @@
       </c>
       <c r="BK46" t="n">
         <v>8</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -9610,100 +9890,100 @@
         </is>
       </c>
       <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7</v>
+      </c>
+      <c r="M47" t="n">
         <v>7.5</v>
       </c>
-      <c r="E47" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
+        <v>8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>11</v>
+      </c>
+      <c r="R47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>14</v>
+      </c>
+      <c r="U47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>14</v>
+      </c>
+      <c r="W47" t="n">
+        <v>14</v>
+      </c>
+      <c r="X47" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH47" t="n">
         <v>7</v>
       </c>
-      <c r="N47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P47" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="T47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U47" t="n">
-        <v>11</v>
-      </c>
-      <c r="V47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W47" t="n">
-        <v>11</v>
-      </c>
-      <c r="X47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AI47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ47" t="n">
         <v>6</v>
@@ -9769,7 +10049,7 @@
         <v>9.5</v>
       </c>
       <c r="BE47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF47" t="n">
         <v>9.5</v>
@@ -9788,6 +10068,12 @@
       </c>
       <c r="BK47" t="n">
         <v>14</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="48">
@@ -9807,10 +10093,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F48" t="n">
         <v>4</v>
@@ -9828,76 +10114,76 @@
         <v>4.5</v>
       </c>
       <c r="K48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>7</v>
+      </c>
+      <c r="P48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG48" t="n">
         <v>6</v>
       </c>
-      <c r="O48" t="n">
-        <v>6</v>
-      </c>
-      <c r="P48" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>7</v>
-      </c>
-      <c r="R48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T48" t="n">
-        <v>9</v>
-      </c>
-      <c r="U48" t="n">
-        <v>9</v>
-      </c>
-      <c r="V48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W48" t="n">
-        <v>9</v>
-      </c>
-      <c r="X48" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AH48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI48" t="n">
         <v>5</v>
@@ -9927,7 +10213,7 @@
         <v>6.5</v>
       </c>
       <c r="AR48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AS48" t="n">
         <v>5</v>
@@ -9985,6 +10271,12 @@
       </c>
       <c r="BK48" t="n">
         <v>11</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="49">
@@ -10004,10 +10296,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>3.5</v>
@@ -10028,76 +10320,76 @@
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N49" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O49" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P49" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="R49" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S49" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T49" t="n">
+        <v>11</v>
+      </c>
+      <c r="U49" t="n">
+        <v>11</v>
+      </c>
+      <c r="V49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>10</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z49" t="n">
         <v>9</v>
       </c>
-      <c r="U49" t="n">
+      <c r="AA49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB49" t="n">
         <v>9</v>
       </c>
-      <c r="V49" t="n">
+      <c r="AC49" t="n">
         <v>8.5</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AD49" t="n">
         <v>8</v>
       </c>
-      <c r="X49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA49" t="n">
+      <c r="AE49" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>6</v>
-      </c>
       <c r="AF49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ49" t="n">
         <v>4</v>
@@ -10124,7 +10416,7 @@
         <v>6.5</v>
       </c>
       <c r="AR49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AS49" t="n">
         <v>4.5</v>
@@ -10182,6 +10474,12 @@
       </c>
       <c r="BK49" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -10201,94 +10499,94 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="E50" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
         <v>4.5</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I50" t="n">
         <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9</v>
+      </c>
+      <c r="O50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15</v>
+      </c>
+      <c r="T50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>16</v>
+      </c>
+      <c r="X50" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG50" t="n">
         <v>7</v>
-      </c>
-      <c r="M50" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>8</v>
-      </c>
-      <c r="O50" t="n">
-        <v>8</v>
-      </c>
-      <c r="P50" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>11</v>
-      </c>
-      <c r="R50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T50" t="n">
-        <v>12</v>
-      </c>
-      <c r="U50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="V50" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W50" t="n">
-        <v>12</v>
-      </c>
-      <c r="X50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>6</v>
       </c>
       <c r="AH50" t="n">
         <v>6</v>
@@ -10321,7 +10619,7 @@
         <v>8.5</v>
       </c>
       <c r="AR50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AS50" t="n">
         <v>6.5</v>
@@ -10379,6 +10677,12 @@
       </c>
       <c r="BK50" t="n">
         <v>15</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="51">
@@ -10398,16 +10702,16 @@
         </is>
       </c>
       <c r="D51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E51" t="n">
         <v>7.5</v>
       </c>
-      <c r="E51" t="n">
-        <v>6.5</v>
-      </c>
       <c r="F51" t="n">
         <v>4.5</v>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
         <v>5</v>
@@ -10416,82 +10720,82 @@
         <v>4.5</v>
       </c>
       <c r="J51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O51" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="P51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>12</v>
+      </c>
+      <c r="S51" t="n">
+        <v>12</v>
+      </c>
+      <c r="T51" t="n">
+        <v>15</v>
+      </c>
+      <c r="U51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE51" t="n">
         <v>9</v>
       </c>
-      <c r="Q51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="T51" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U51" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="V51" t="n">
-        <v>11</v>
-      </c>
-      <c r="W51" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X51" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AF51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>4</v>
@@ -10576,6 +10880,12 @@
       </c>
       <c r="BK51" t="n">
         <v>9</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -10595,16 +10905,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E52" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F52" t="n">
         <v>3.5</v>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
@@ -10625,91 +10935,91 @@
         <v>5.5</v>
       </c>
       <c r="N52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
+        <v>7</v>
+      </c>
+      <c r="P52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>9</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP52" t="n">
         <v>6.5</v>
-      </c>
-      <c r="P52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W52" t="n">
-        <v>9</v>
-      </c>
-      <c r="X52" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>6</v>
       </c>
       <c r="AQ52" t="n">
         <v>6</v>
@@ -10718,13 +11028,13 @@
         <v>5</v>
       </c>
       <c r="AS52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AT52" t="n">
         <v>4</v>
       </c>
       <c r="AU52" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AV52" t="n">
         <v>4</v>
@@ -10757,7 +11067,7 @@
         <v>6.5</v>
       </c>
       <c r="BF52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BG52" t="n">
         <v>7.5</v>
@@ -10773,6 +11083,12 @@
       </c>
       <c r="BK52" t="n">
         <v>11</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -10792,10 +11108,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="F53" t="n">
         <v>4</v>
@@ -10810,82 +11126,82 @@
         <v>4.5</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>8</v>
+      </c>
+      <c r="P53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>10</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>12</v>
+      </c>
+      <c r="T53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>13</v>
+      </c>
+      <c r="W53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG53" t="n">
         <v>6</v>
       </c>
-      <c r="N53" t="n">
-        <v>7</v>
-      </c>
-      <c r="O53" t="n">
-        <v>7</v>
-      </c>
-      <c r="P53" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="T53" t="n">
-        <v>10</v>
-      </c>
-      <c r="U53" t="n">
-        <v>10</v>
-      </c>
-      <c r="V53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W53" t="n">
-        <v>10</v>
-      </c>
-      <c r="X53" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF53" t="n">
+      <c r="AH53" t="n">
         <v>6</v>
       </c>
-      <c r="AG53" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AI53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ53" t="n">
         <v>5</v>
@@ -10924,10 +11240,10 @@
         <v>6</v>
       </c>
       <c r="AV53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX53" t="n">
         <v>5.5</v>
@@ -10970,6 +11286,12 @@
       </c>
       <c r="BK53" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>14</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -10989,19 +11311,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F54" t="n">
         <v>3.5</v>
       </c>
       <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
       </c>
       <c r="I54" t="n">
         <v>3.5</v>
@@ -11013,73 +11335,73 @@
         <v>4.5</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M54" t="n">
         <v>5.5</v>
       </c>
       <c r="N54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7</v>
+      </c>
+      <c r="P54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>10</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>11</v>
+      </c>
+      <c r="W54" t="n">
+        <v>11</v>
+      </c>
+      <c r="X54" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF54" t="n">
         <v>6</v>
       </c>
-      <c r="O54" t="n">
-        <v>6</v>
-      </c>
-      <c r="P54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>8</v>
-      </c>
-      <c r="S54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T54" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U54" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V54" t="n">
-        <v>9</v>
-      </c>
-      <c r="W54" t="n">
-        <v>9</v>
-      </c>
-      <c r="X54" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI54" t="n">
         <v>5</v>
@@ -11094,7 +11416,7 @@
         <v>5.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AN54" t="n">
         <v>5.5</v>
@@ -11115,7 +11437,7 @@
         <v>5</v>
       </c>
       <c r="AT54" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU54" t="n">
         <v>5</v>
@@ -11167,6 +11489,12 @@
       </c>
       <c r="BK54" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -11186,16 +11514,16 @@
         </is>
       </c>
       <c r="D55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E55" t="n">
         <v>7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>4.5</v>
@@ -11216,70 +11544,70 @@
         <v>6</v>
       </c>
       <c r="N55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>11</v>
+      </c>
+      <c r="S55" t="n">
+        <v>11</v>
+      </c>
+      <c r="T55" t="n">
+        <v>12</v>
+      </c>
+      <c r="U55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>12</v>
+      </c>
+      <c r="W55" t="n">
+        <v>12</v>
+      </c>
+      <c r="X55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF55" t="n">
         <v>6.5</v>
       </c>
-      <c r="O55" t="n">
-        <v>7</v>
-      </c>
-      <c r="P55" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>8</v>
-      </c>
-      <c r="R55" t="n">
-        <v>9</v>
-      </c>
-      <c r="S55" t="n">
-        <v>9</v>
-      </c>
-      <c r="T55" t="n">
-        <v>10</v>
-      </c>
-      <c r="U55" t="n">
-        <v>10</v>
-      </c>
-      <c r="V55" t="n">
-        <v>10</v>
-      </c>
-      <c r="W55" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X55" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF55" t="n">
+      <c r="AG55" t="n">
         <v>6</v>
       </c>
-      <c r="AG55" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AH55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ55" t="n">
         <v>5</v>
@@ -11364,6 +11692,12 @@
       </c>
       <c r="BK55" t="n">
         <v>11</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="56">
@@ -11383,10 +11717,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E56" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F56" t="n">
         <v>3.5</v>
@@ -11407,91 +11741,91 @@
         <v>4.5</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>9</v>
+      </c>
+      <c r="R56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>12</v>
+      </c>
+      <c r="U56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF56" t="n">
         <v>6</v>
       </c>
-      <c r="O56" t="n">
+      <c r="AG56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN56" t="n">
         <v>6</v>
-      </c>
-      <c r="P56" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T56" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U56" t="n">
-        <v>9</v>
-      </c>
-      <c r="V56" t="n">
-        <v>9</v>
-      </c>
-      <c r="W56" t="n">
-        <v>9</v>
-      </c>
-      <c r="X56" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>5.5</v>
       </c>
       <c r="AO56" t="n">
         <v>5.5</v>
@@ -11509,7 +11843,7 @@
         <v>5.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AU56" t="n">
         <v>4</v>
@@ -11521,7 +11855,7 @@
         <v>4.5</v>
       </c>
       <c r="AX56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AY56" t="n">
         <v>4</v>
@@ -11557,10 +11891,16 @@
         <v>11.5</v>
       </c>
       <c r="BJ56" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BK56" t="n">
-        <v>13</v>
+        <v>13.5</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="57">
@@ -11580,10 +11920,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>3.5</v>
@@ -11598,82 +11938,82 @@
         <v>3.5</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N57" t="n">
+        <v>7</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>12</v>
+      </c>
+      <c r="V57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>12</v>
+      </c>
+      <c r="X57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF57" t="n">
         <v>6</v>
       </c>
-      <c r="O57" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ57" t="n">
         <v>5</v>
@@ -11724,7 +12064,7 @@
         <v>5</v>
       </c>
       <c r="AZ57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BA57" t="n">
         <v>5.5</v>
@@ -11748,7 +12088,7 @@
         <v>8</v>
       </c>
       <c r="BH57" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BI57" t="n">
         <v>12.5</v>
@@ -11758,6 +12098,12 @@
       </c>
       <c r="BK57" t="n">
         <v>12</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="58">
@@ -11777,16 +12123,16 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
@@ -11798,82 +12144,82 @@
         <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M58" t="n">
         <v>5.5</v>
       </c>
       <c r="N58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P58" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="R58" t="n">
+        <v>11</v>
+      </c>
+      <c r="S58" t="n">
+        <v>11</v>
+      </c>
+      <c r="T58" t="n">
+        <v>12</v>
+      </c>
+      <c r="U58" t="n">
+        <v>12</v>
+      </c>
+      <c r="V58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD58" t="n">
         <v>9</v>
       </c>
-      <c r="S58" t="n">
-        <v>9</v>
-      </c>
-      <c r="T58" t="n">
-        <v>10</v>
-      </c>
-      <c r="U58" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V58" t="n">
-        <v>10</v>
-      </c>
-      <c r="W58" t="n">
-        <v>10</v>
-      </c>
-      <c r="X58" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA58" t="n">
+      <c r="AE58" t="n">
         <v>8</v>
       </c>
-      <c r="AB58" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>7</v>
-      </c>
       <c r="AF58" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AK58" t="n">
         <v>5</v>
@@ -11897,7 +12243,7 @@
         <v>7</v>
       </c>
       <c r="AR58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AS58" t="n">
         <v>5</v>
@@ -11927,7 +12273,7 @@
         <v>4</v>
       </c>
       <c r="BB58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BC58" t="n">
         <v>4.5</v>
@@ -11955,6 +12301,12 @@
       </c>
       <c r="BK58" t="n">
         <v>9</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -11974,106 +12326,106 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J59" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K59" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L59" t="n">
+        <v>8</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>10</v>
+      </c>
+      <c r="P59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>14</v>
+      </c>
+      <c r="U59" t="n">
+        <v>14</v>
+      </c>
+      <c r="V59" t="n">
+        <v>14</v>
+      </c>
+      <c r="W59" t="n">
+        <v>14</v>
+      </c>
+      <c r="X59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>7</v>
-      </c>
-      <c r="M59" t="n">
-        <v>7</v>
-      </c>
-      <c r="N59" t="n">
-        <v>8</v>
-      </c>
-      <c r="O59" t="n">
-        <v>8</v>
-      </c>
-      <c r="P59" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="T59" t="n">
-        <v>11</v>
-      </c>
-      <c r="U59" t="n">
-        <v>11</v>
-      </c>
-      <c r="V59" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W59" t="n">
-        <v>11</v>
-      </c>
-      <c r="X59" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>6.5</v>
       </c>
       <c r="AK59" t="n">
         <v>6.5</v>
       </c>
       <c r="AL59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN59" t="n">
         <v>8</v>
@@ -12112,7 +12464,7 @@
         <v>7</v>
       </c>
       <c r="AZ59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BA59" t="n">
         <v>6.5</v>
@@ -12136,7 +12488,7 @@
         <v>10</v>
       </c>
       <c r="BH59" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BI59" t="n">
         <v>15</v>
@@ -12146,6 +12498,12 @@
       </c>
       <c r="BK59" t="n">
         <v>13.5</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="60">
@@ -12168,88 +12526,88 @@
         <v>4.5</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
         <v>5</v>
       </c>
       <c r="L60" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O60" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="P60" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="Q60" t="n">
+        <v>12</v>
+      </c>
+      <c r="R60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>12</v>
+      </c>
+      <c r="V60" t="n">
+        <v>14</v>
+      </c>
+      <c r="W60" t="n">
+        <v>12</v>
+      </c>
+      <c r="X60" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE60" t="n">
         <v>10</v>
       </c>
-      <c r="R60" t="n">
-        <v>9</v>
-      </c>
-      <c r="S60" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="T60" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U60" t="n">
-        <v>10</v>
-      </c>
-      <c r="V60" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W60" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X60" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>8</v>
-      </c>
       <c r="AF60" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH60" t="n">
         <v>6</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>5.5</v>
       </c>
       <c r="AI60" t="n">
         <v>5</v>
@@ -12337,6 +12695,12 @@
       </c>
       <c r="BK60" t="n">
         <v>11</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>14</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="61">
@@ -12356,16 +12720,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>4</v>
-      </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J61" t="n">
         <v>4.5</v>
@@ -12380,58 +12744,58 @@
         <v>5.5</v>
       </c>
       <c r="N61" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O61" t="n">
         <v>6.5</v>
       </c>
       <c r="P61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q61" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="R61" t="n">
+        <v>10</v>
+      </c>
+      <c r="S61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>11</v>
+      </c>
+      <c r="V61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD61" t="n">
         <v>8.5</v>
       </c>
-      <c r="S61" t="n">
-        <v>8</v>
-      </c>
-      <c r="T61" t="n">
-        <v>9</v>
-      </c>
-      <c r="U61" t="n">
-        <v>9</v>
-      </c>
-      <c r="V61" t="n">
-        <v>10</v>
-      </c>
-      <c r="W61" t="n">
-        <v>10</v>
-      </c>
-      <c r="X61" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF61" t="n">
         <v>5</v>
@@ -12461,7 +12825,7 @@
         <v>5.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP61" t="n">
         <v>7.5</v>
@@ -12528,6 +12892,12 @@
       </c>
       <c r="BK61" t="n">
         <v>11</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>14</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="62">
@@ -12550,16 +12920,16 @@
         <v>3.5</v>
       </c>
       <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
       </c>
       <c r="I62" t="n">
         <v>3.5</v>
       </c>
       <c r="J62" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>4.5</v>
@@ -12571,61 +12941,61 @@
         <v>5</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>7</v>
+      </c>
+      <c r="R62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>14</v>
+      </c>
+      <c r="X62" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE62" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q62" t="n">
-        <v>6</v>
-      </c>
-      <c r="R62" t="n">
-        <v>8</v>
-      </c>
-      <c r="S62" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T62" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U62" t="n">
-        <v>11</v>
-      </c>
-      <c r="V62" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W62" t="n">
-        <v>11</v>
-      </c>
-      <c r="X62" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>6</v>
-      </c>
       <c r="AF62" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG62" t="n">
         <v>4</v>
@@ -12706,7 +13076,7 @@
         <v>5</v>
       </c>
       <c r="BG62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BH62" t="n">
         <v>7.5</v>
@@ -12719,6 +13089,12 @@
       </c>
       <c r="BK62" t="n">
         <v>14</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>14</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="63">
@@ -12738,16 +13114,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="E63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>5.5</v>
@@ -12765,64 +13141,64 @@
         <v>7.5</v>
       </c>
       <c r="M63" t="n">
+        <v>8</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>12</v>
+      </c>
+      <c r="R63" t="n">
+        <v>14</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T63" t="n">
+        <v>15</v>
+      </c>
+      <c r="U63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>15</v>
+      </c>
+      <c r="W63" t="n">
+        <v>15</v>
+      </c>
+      <c r="X63" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF63" t="n">
         <v>7.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="P63" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="U63" t="n">
-        <v>12</v>
-      </c>
-      <c r="V63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W63" t="n">
-        <v>12</v>
-      </c>
-      <c r="X63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>7</v>
       </c>
       <c r="AG63" t="n">
         <v>7</v>
@@ -12888,7 +13264,7 @@
         <v>4.5</v>
       </c>
       <c r="BB63" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BC63" t="n">
         <v>5</v>
@@ -12916,6 +13292,12 @@
       </c>
       <c r="BK63" t="n">
         <v>4</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -12935,10 +13317,10 @@
         </is>
       </c>
       <c r="D64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E64" t="n">
         <v>8.5</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>4.5</v>
@@ -12959,76 +13341,76 @@
         <v>5.5</v>
       </c>
       <c r="L64" t="n">
+        <v>7</v>
+      </c>
+      <c r="M64" t="n">
+        <v>7</v>
+      </c>
+      <c r="N64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>11</v>
+      </c>
+      <c r="R64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>14</v>
+      </c>
+      <c r="U64" t="n">
+        <v>14</v>
+      </c>
+      <c r="V64" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH64" t="n">
         <v>6.5</v>
       </c>
-      <c r="M64" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O64" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P64" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>9</v>
-      </c>
-      <c r="R64" t="n">
-        <v>10</v>
-      </c>
-      <c r="S64" t="n">
-        <v>10</v>
-      </c>
-      <c r="T64" t="n">
-        <v>11</v>
-      </c>
-      <c r="U64" t="n">
-        <v>11</v>
-      </c>
-      <c r="V64" t="n">
-        <v>11</v>
-      </c>
-      <c r="W64" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X64" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG64" t="n">
+      <c r="AI64" t="n">
         <v>6</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>5.5</v>
       </c>
       <c r="AJ64" t="n">
         <v>5</v>
@@ -13052,7 +13434,7 @@
         <v>6</v>
       </c>
       <c r="AQ64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AR64" t="n">
         <v>5</v>
@@ -13109,10 +13491,16 @@
         <v>2.5</v>
       </c>
       <c r="BJ64" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BK64" t="n">
         <v>3</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="65">
@@ -13132,10 +13520,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E65" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
@@ -13150,7 +13538,7 @@
         <v>2.5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
         <v>3</v>
@@ -13159,73 +13547,73 @@
         <v>3.5</v>
       </c>
       <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>8</v>
+      </c>
+      <c r="T65" t="n">
+        <v>9</v>
+      </c>
+      <c r="U65" t="n">
+        <v>9</v>
+      </c>
+      <c r="V65" t="n">
+        <v>9</v>
+      </c>
+      <c r="W65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG65" t="n">
         <v>3.5</v>
       </c>
-      <c r="N65" t="n">
-        <v>4</v>
-      </c>
-      <c r="O65" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
-      <c r="R65" t="n">
-        <v>6</v>
-      </c>
-      <c r="S65" t="n">
-        <v>6</v>
-      </c>
-      <c r="T65" t="n">
-        <v>7</v>
-      </c>
-      <c r="U65" t="n">
-        <v>7</v>
-      </c>
-      <c r="V65" t="n">
-        <v>7</v>
-      </c>
-      <c r="W65" t="n">
-        <v>7</v>
-      </c>
-      <c r="X65" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF65" t="n">
+      <c r="AH65" t="n">
         <v>3.5</v>
       </c>
-      <c r="AG65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>3</v>
-      </c>
       <c r="AI65" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ65" t="n">
         <v>3.5</v>
@@ -13310,6 +13698,12 @@
       </c>
       <c r="BK65" t="n">
         <v>1.5</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -13329,94 +13723,94 @@
         </is>
       </c>
       <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7</v>
+      </c>
+      <c r="M66" t="n">
         <v>7.5</v>
       </c>
-      <c r="E66" t="n">
-        <v>6</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M66" t="n">
-        <v>7</v>
-      </c>
       <c r="N66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O66" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="P66" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="R66" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="S66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>14</v>
+      </c>
+      <c r="U66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>14</v>
+      </c>
+      <c r="W66" t="n">
+        <v>14</v>
+      </c>
+      <c r="X66" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE66" t="n">
         <v>10.5</v>
       </c>
-      <c r="T66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U66" t="n">
-        <v>11</v>
-      </c>
-      <c r="V66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W66" t="n">
-        <v>11</v>
-      </c>
-      <c r="X66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>9</v>
-      </c>
       <c r="AF66" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH66" t="n">
         <v>6.5</v>
@@ -13507,6 +13901,12 @@
       </c>
       <c r="BK66" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -13526,10 +13926,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F67" t="n">
         <v>4</v>
@@ -13547,79 +13947,79 @@
         <v>4.5</v>
       </c>
       <c r="K67" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q67" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="R67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD67" t="n">
         <v>8.5</v>
       </c>
-      <c r="S67" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T67" t="n">
-        <v>9</v>
-      </c>
-      <c r="U67" t="n">
-        <v>9</v>
-      </c>
-      <c r="V67" t="n">
-        <v>9</v>
-      </c>
-      <c r="W67" t="n">
-        <v>9</v>
-      </c>
-      <c r="X67" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z67" t="n">
+      <c r="AE67" t="n">
         <v>8</v>
       </c>
-      <c r="AA67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE67" t="n">
+      <c r="AF67" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF67" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG67" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH67" t="n">
         <v>5</v>
       </c>
       <c r="AI67" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ67" t="n">
         <v>4.5</v>
@@ -13703,6 +14103,12 @@
         <v>2</v>
       </c>
       <c r="BK67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13723,10 +14129,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>3.5</v>
@@ -13747,76 +14153,76 @@
         <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O68" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P68" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="R68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T68" t="n">
+        <v>11</v>
+      </c>
+      <c r="U68" t="n">
+        <v>11</v>
+      </c>
+      <c r="V68" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>10</v>
+      </c>
+      <c r="X68" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z68" t="n">
         <v>9</v>
       </c>
-      <c r="U68" t="n">
+      <c r="AA68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB68" t="n">
         <v>9</v>
       </c>
-      <c r="V68" t="n">
+      <c r="AC68" t="n">
         <v>8.5</v>
       </c>
-      <c r="W68" t="n">
+      <c r="AD68" t="n">
         <v>8</v>
       </c>
-      <c r="X68" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA68" t="n">
+      <c r="AE68" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>6</v>
-      </c>
       <c r="AF68" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI68" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ68" t="n">
         <v>3.5</v>
@@ -13837,7 +14243,7 @@
         <v>4.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AQ68" t="n">
         <v>5.5</v>
@@ -13900,6 +14306,12 @@
         <v>2</v>
       </c>
       <c r="BK68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM68" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -13920,103 +14332,103 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
         <v>4.5</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I69" t="n">
         <v>6</v>
       </c>
       <c r="J69" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K69" t="n">
+        <v>7</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7</v>
+      </c>
+      <c r="M69" t="n">
+        <v>7</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>9</v>
+      </c>
+      <c r="P69" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>13</v>
+      </c>
+      <c r="R69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>15</v>
+      </c>
+      <c r="T69" t="n">
+        <v>15</v>
+      </c>
+      <c r="U69" t="n">
+        <v>16</v>
+      </c>
+      <c r="V69" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>16</v>
+      </c>
+      <c r="X69" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG69" t="n">
         <v>6.5</v>
       </c>
-      <c r="L69" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M69" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N69" t="n">
-        <v>8</v>
-      </c>
-      <c r="O69" t="n">
-        <v>8</v>
-      </c>
-      <c r="P69" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="R69" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T69" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U69" t="n">
-        <v>12</v>
-      </c>
-      <c r="V69" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W69" t="n">
-        <v>12</v>
-      </c>
-      <c r="X69" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>6</v>
-      </c>
       <c r="AH69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AK69" t="n">
         <v>5.5</v>
@@ -14097,6 +14509,12 @@
         <v>3.5</v>
       </c>
       <c r="BK69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14117,97 +14535,97 @@
         </is>
       </c>
       <c r="D70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E70" t="n">
         <v>7.5</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6</v>
+      </c>
+      <c r="L70" t="n">
         <v>6.5</v>
       </c>
-      <c r="F70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8</v>
+      </c>
+      <c r="O70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P70" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>12</v>
+      </c>
+      <c r="S70" t="n">
+        <v>12</v>
+      </c>
+      <c r="T70" t="n">
+        <v>15</v>
+      </c>
+      <c r="U70" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>13</v>
+      </c>
+      <c r="X70" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF70" t="n">
         <v>6</v>
       </c>
-      <c r="M70" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N70" t="n">
-        <v>7</v>
-      </c>
-      <c r="O70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P70" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="R70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="S70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="T70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="V70" t="n">
-        <v>11</v>
-      </c>
-      <c r="W70" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X70" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI70" t="n">
         <v>5</v>
@@ -14294,6 +14712,12 @@
         <v>2</v>
       </c>
       <c r="BK70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14314,16 +14738,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E71" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F71" t="n">
         <v>3.5</v>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>4</v>
@@ -14344,73 +14768,73 @@
         <v>5.5</v>
       </c>
       <c r="N71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>9</v>
+      </c>
+      <c r="R71" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X71" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD71" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R71" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W71" t="n">
-        <v>9</v>
-      </c>
-      <c r="X71" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI71" t="n">
         <v>4.5</v>
       </c>
       <c r="AJ71" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AK71" t="n">
         <v>4</v>
@@ -14458,7 +14882,7 @@
         <v>3</v>
       </c>
       <c r="AZ71" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BA71" t="n">
         <v>3</v>
@@ -14491,6 +14915,12 @@
         <v>2.5</v>
       </c>
       <c r="BK71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM71" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -14511,10 +14941,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="F72" t="n">
         <v>4</v>
@@ -14529,82 +14959,82 @@
         <v>4.5</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L72" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O72" t="n">
+        <v>8</v>
+      </c>
+      <c r="P72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>12</v>
+      </c>
+      <c r="T72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>13</v>
+      </c>
+      <c r="W72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG72" t="n">
         <v>6</v>
       </c>
-      <c r="N72" t="n">
-        <v>7</v>
-      </c>
-      <c r="O72" t="n">
-        <v>7</v>
-      </c>
-      <c r="P72" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="R72" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="S72" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="T72" t="n">
-        <v>10</v>
-      </c>
-      <c r="U72" t="n">
-        <v>10</v>
-      </c>
-      <c r="V72" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W72" t="n">
-        <v>10</v>
-      </c>
-      <c r="X72" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AH72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ72" t="n">
         <v>4.5</v>
@@ -14689,6 +15119,12 @@
       </c>
       <c r="BK72" t="n">
         <v>2</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="73">
@@ -14708,19 +15144,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F73" t="n">
         <v>3.5</v>
       </c>
       <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4</v>
       </c>
       <c r="I73" t="n">
         <v>3.5</v>
@@ -14732,76 +15168,76 @@
         <v>4.5</v>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N73" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O73" t="n">
+        <v>7</v>
+      </c>
+      <c r="P73" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>10</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>11</v>
+      </c>
+      <c r="W73" t="n">
+        <v>11</v>
+      </c>
+      <c r="X73" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF73" t="n">
         <v>6</v>
       </c>
-      <c r="O73" t="n">
-        <v>6</v>
-      </c>
-      <c r="P73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R73" t="n">
-        <v>8</v>
-      </c>
-      <c r="S73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T73" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U73" t="n">
-        <v>9</v>
-      </c>
-      <c r="V73" t="n">
-        <v>9</v>
-      </c>
-      <c r="W73" t="n">
-        <v>9</v>
-      </c>
-      <c r="X73" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG73" t="n">
         <v>5</v>
       </c>
       <c r="AH73" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI73" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ73" t="n">
         <v>4.5</v>
@@ -14886,6 +15322,12 @@
       </c>
       <c r="BK73" t="n">
         <v>3</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="74">
@@ -14905,16 +15347,16 @@
         </is>
       </c>
       <c r="D74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E74" t="n">
         <v>7</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>4.5</v>
@@ -14935,73 +15377,73 @@
         <v>6</v>
       </c>
       <c r="N74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P74" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>11</v>
+      </c>
+      <c r="S74" t="n">
+        <v>11</v>
+      </c>
+      <c r="T74" t="n">
+        <v>12</v>
+      </c>
+      <c r="U74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>12</v>
+      </c>
+      <c r="W74" t="n">
+        <v>12</v>
+      </c>
+      <c r="X74" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF74" t="n">
         <v>6.5</v>
       </c>
-      <c r="O74" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P74" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>8</v>
-      </c>
-      <c r="R74" t="n">
-        <v>9</v>
-      </c>
-      <c r="S74" t="n">
-        <v>9</v>
-      </c>
-      <c r="T74" t="n">
-        <v>10</v>
-      </c>
-      <c r="U74" t="n">
-        <v>10</v>
-      </c>
-      <c r="V74" t="n">
-        <v>10</v>
-      </c>
-      <c r="W74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF74" t="n">
+      <c r="AG74" t="n">
         <v>6</v>
       </c>
-      <c r="AG74" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AH74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ74" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AK74" t="n">
         <v>4.5</v>
@@ -15028,7 +15470,7 @@
         <v>5</v>
       </c>
       <c r="AS74" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AT74" t="n">
         <v>5</v>
@@ -15064,7 +15506,7 @@
         <v>4</v>
       </c>
       <c r="BE74" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BF74" t="n">
         <v>3</v>
@@ -15082,6 +15524,12 @@
         <v>2.5</v>
       </c>
       <c r="BK74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM74" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -15102,10 +15550,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E75" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F75" t="n">
         <v>3.5</v>
@@ -15126,76 +15574,76 @@
         <v>4.5</v>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P75" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="R75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>12</v>
+      </c>
+      <c r="U75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X75" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD75" t="n">
         <v>8.5</v>
       </c>
-      <c r="S75" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T75" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U75" t="n">
-        <v>9</v>
-      </c>
-      <c r="V75" t="n">
-        <v>9</v>
-      </c>
-      <c r="W75" t="n">
-        <v>9</v>
-      </c>
-      <c r="X75" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z75" t="n">
+      <c r="AE75" t="n">
         <v>8</v>
       </c>
-      <c r="AA75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AF75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI75" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ75" t="n">
         <v>4</v>
@@ -15207,7 +15655,7 @@
         <v>4.5</v>
       </c>
       <c r="AM75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AN75" t="n">
         <v>5</v>
@@ -15280,6 +15728,12 @@
       </c>
       <c r="BK75" t="n">
         <v>3</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="76">
@@ -15299,10 +15753,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>3.5</v>
@@ -15317,88 +15771,88 @@
         <v>3.5</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N76" t="n">
+        <v>7</v>
+      </c>
+      <c r="O76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P76" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>12</v>
+      </c>
+      <c r="V76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W76" t="n">
+        <v>12</v>
+      </c>
+      <c r="X76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF76" t="n">
         <v>6</v>
       </c>
-      <c r="O76" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R76" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S76" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T76" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U76" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V76" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W76" t="n">
-        <v>9</v>
-      </c>
-      <c r="X76" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>5</v>
-      </c>
       <c r="AG76" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ76" t="n">
         <v>4.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AL76" t="n">
         <v>5.5</v>
@@ -15477,6 +15931,12 @@
       </c>
       <c r="BK76" t="n">
         <v>3</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="77">
@@ -15496,16 +15956,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F77" t="n">
         <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>3.5</v>
@@ -15517,71 +15977,71 @@
         <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M77" t="n">
         <v>5.5</v>
       </c>
       <c r="N77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7</v>
+      </c>
+      <c r="P77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>9</v>
+      </c>
+      <c r="R77" t="n">
+        <v>11</v>
+      </c>
+      <c r="S77" t="n">
+        <v>11</v>
+      </c>
+      <c r="T77" t="n">
+        <v>12</v>
+      </c>
+      <c r="U77" t="n">
+        <v>12</v>
+      </c>
+      <c r="V77" t="n">
+        <v>12</v>
+      </c>
+      <c r="W77" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X77" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF77" t="n">
         <v>6</v>
       </c>
-      <c r="O77" t="n">
-        <v>6</v>
-      </c>
-      <c r="P77" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R77" t="n">
-        <v>9</v>
-      </c>
-      <c r="S77" t="n">
-        <v>9</v>
-      </c>
-      <c r="T77" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U77" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V77" t="n">
-        <v>10</v>
-      </c>
-      <c r="W77" t="n">
-        <v>10</v>
-      </c>
-      <c r="X77" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG77" t="n">
         <v>5</v>
       </c>
@@ -15589,7 +16049,7 @@
         <v>5</v>
       </c>
       <c r="AI77" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ77" t="n">
         <v>4.5</v>
@@ -15673,6 +16133,12 @@
         <v>1</v>
       </c>
       <c r="BK77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15693,94 +16159,94 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J78" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K78" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>10</v>
+      </c>
+      <c r="P78" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T78" t="n">
+        <v>14</v>
+      </c>
+      <c r="U78" t="n">
+        <v>14</v>
+      </c>
+      <c r="V78" t="n">
+        <v>14</v>
+      </c>
+      <c r="W78" t="n">
+        <v>14</v>
+      </c>
+      <c r="X78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG78" t="n">
         <v>8</v>
       </c>
-      <c r="O78" t="n">
-        <v>8</v>
-      </c>
-      <c r="P78" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="R78" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="S78" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="T78" t="n">
-        <v>11</v>
-      </c>
-      <c r="U78" t="n">
-        <v>11</v>
-      </c>
-      <c r="V78" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W78" t="n">
-        <v>11</v>
-      </c>
-      <c r="X78" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>7</v>
-      </c>
       <c r="AH78" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ78" t="n">
         <v>6</v>
@@ -15789,22 +16255,22 @@
         <v>6</v>
       </c>
       <c r="AL78" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM78" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AN78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP78" t="n">
         <v>7</v>
       </c>
       <c r="AQ78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AR78" t="n">
         <v>6</v>
@@ -15813,7 +16279,7 @@
         <v>6</v>
       </c>
       <c r="AT78" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AU78" t="n">
         <v>6</v>
@@ -15855,7 +16321,7 @@
         <v>3.5</v>
       </c>
       <c r="BH78" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BI78" t="n">
         <v>3.5</v>
@@ -15865,6 +16331,12 @@
       </c>
       <c r="BK78" t="n">
         <v>3</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79">
@@ -15887,85 +16359,85 @@
         <v>4.5</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
         <v>5</v>
       </c>
       <c r="L79" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N79" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O79" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="P79" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>12</v>
+      </c>
+      <c r="R79" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U79" t="n">
+        <v>12</v>
+      </c>
+      <c r="V79" t="n">
+        <v>14</v>
+      </c>
+      <c r="W79" t="n">
+        <v>12</v>
+      </c>
+      <c r="X79" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE79" t="n">
         <v>9.5</v>
       </c>
-      <c r="Q79" t="n">
-        <v>10</v>
-      </c>
-      <c r="R79" t="n">
-        <v>9</v>
-      </c>
-      <c r="S79" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="T79" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U79" t="n">
-        <v>10</v>
-      </c>
-      <c r="V79" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W79" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X79" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>8</v>
-      </c>
       <c r="AF79" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH79" t="n">
         <v>5.5</v>
@@ -16056,6 +16528,12 @@
       </c>
       <c r="BK79" t="n">
         <v>2</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="80">
@@ -16075,16 +16553,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.5</v>
       </c>
-      <c r="H80" t="n">
-        <v>4</v>
-      </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J80" t="n">
         <v>4.5</v>
@@ -16099,58 +16577,58 @@
         <v>5.5</v>
       </c>
       <c r="N80" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O80" t="n">
         <v>6.5</v>
       </c>
       <c r="P80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q80" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="R80" t="n">
+        <v>10</v>
+      </c>
+      <c r="S80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U80" t="n">
+        <v>11</v>
+      </c>
+      <c r="V80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X80" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA80" t="n">
         <v>8.5</v>
       </c>
-      <c r="S80" t="n">
-        <v>8</v>
-      </c>
-      <c r="T80" t="n">
+      <c r="AB80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD80" t="n">
         <v>8.5</v>
       </c>
-      <c r="U80" t="n">
-        <v>9</v>
-      </c>
-      <c r="V80" t="n">
-        <v>10</v>
-      </c>
-      <c r="W80" t="n">
-        <v>10</v>
-      </c>
-      <c r="X80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA80" t="n">
+      <c r="AE80" t="n">
         <v>7</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>6.5</v>
       </c>
       <c r="AF80" t="n">
         <v>4.5</v>
@@ -16177,7 +16655,7 @@
         <v>5</v>
       </c>
       <c r="AN80" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO80" t="n">
         <v>5.5</v>
@@ -16231,7 +16709,7 @@
         <v>3</v>
       </c>
       <c r="BF80" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BG80" t="n">
         <v>2.5</v>
@@ -16247,6 +16725,12 @@
       </c>
       <c r="BK80" t="n">
         <v>3.5</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -16269,16 +16753,16 @@
         <v>3.5</v>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
       </c>
       <c r="I81" t="n">
         <v>3.5</v>
       </c>
       <c r="J81" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
         <v>4.5</v>
@@ -16290,61 +16774,61 @@
         <v>5</v>
       </c>
       <c r="N81" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O81" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>7</v>
+      </c>
+      <c r="R81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T81" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W81" t="n">
+        <v>14</v>
+      </c>
+      <c r="X81" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE81" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q81" t="n">
-        <v>6</v>
-      </c>
-      <c r="R81" t="n">
-        <v>8</v>
-      </c>
-      <c r="S81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T81" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U81" t="n">
-        <v>11</v>
-      </c>
-      <c r="V81" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W81" t="n">
-        <v>11</v>
-      </c>
-      <c r="X81" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AF81" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG81" t="n">
         <v>4</v>
@@ -16437,13 +16921,19 @@
         <v>2.5</v>
       </c>
       <c r="BK81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM81" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -16458,7 +16948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ22"/>
+  <dimension ref="A1:BL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16777,6 +17267,16 @@
           <t>12.–18. 7. 2021</t>
         </is>
       </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>9.–15. 8. 2021</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>16.–22. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16969,6 +17469,12 @@
       <c r="BJ2" t="n">
         <v>1526</v>
       </c>
+      <c r="BK2" t="n">
+        <v>1641</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1638</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17161,6 +17667,12 @@
       <c r="BJ3" t="n">
         <v>349</v>
       </c>
+      <c r="BK3" t="n">
+        <v>379</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17353,6 +17865,12 @@
       <c r="BJ4" t="n">
         <v>527</v>
       </c>
+      <c r="BK4" t="n">
+        <v>584</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>584</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17545,6 +18063,12 @@
       <c r="BJ5" t="n">
         <v>650</v>
       </c>
+      <c r="BK5" t="n">
+        <v>678</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17737,6 +18261,12 @@
       <c r="BJ6" t="n">
         <v>406</v>
       </c>
+      <c r="BK6" t="n">
+        <v>459</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>463</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17929,6 +18459,12 @@
       <c r="BJ7" t="n">
         <v>636</v>
       </c>
+      <c r="BK7" t="n">
+        <v>716</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>708</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18121,6 +18657,12 @@
       <c r="BJ8" t="n">
         <v>484</v>
       </c>
+      <c r="BK8" t="n">
+        <v>463</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>464</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18313,6 +18855,12 @@
       <c r="BJ9" t="n">
         <v>272</v>
       </c>
+      <c r="BK9" t="n">
+        <v>270</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18505,6 +19053,12 @@
       <c r="BJ10" t="n">
         <v>318</v>
       </c>
+      <c r="BK10" t="n">
+        <v>318</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18697,6 +19251,12 @@
       <c r="BJ11" t="n">
         <v>936</v>
       </c>
+      <c r="BK11" t="n">
+        <v>1053</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1055</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18889,6 +19449,12 @@
       <c r="BJ12" t="n">
         <v>760</v>
       </c>
+      <c r="BK12" t="n">
+        <v>824</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>827</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19081,6 +19647,12 @@
       <c r="BJ13" t="n">
         <v>766</v>
       </c>
+      <c r="BK13" t="n">
+        <v>817</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>811</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19273,6 +19845,12 @@
       <c r="BJ14" t="n">
         <v>787</v>
       </c>
+      <c r="BK14" t="n">
+        <v>840</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>839</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19465,6 +20043,12 @@
       <c r="BJ15" t="n">
         <v>354</v>
       </c>
+      <c r="BK15" t="n">
+        <v>389</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19657,6 +20241,12 @@
       <c r="BJ16" t="n">
         <v>183</v>
       </c>
+      <c r="BK16" t="n">
+        <v>194</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19848,6 +20438,12 @@
       </c>
       <c r="BJ17" t="n">
         <v>202</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>218</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="18">
@@ -20037,6 +20633,12 @@
       <c r="BJ18" t="n">
         <v>550</v>
       </c>
+      <c r="BK18" t="n">
+        <v>569</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>572</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20225,6 +20827,12 @@
       <c r="BJ19" t="n">
         <v>80</v>
       </c>
+      <c r="BK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -20413,6 +21021,12 @@
       <c r="BJ20" t="n">
         <v>55</v>
       </c>
+      <c r="BK20" t="n">
+        <v>52</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20601,11 +21215,17 @@
       <c r="BJ21" t="n">
         <v>163</v>
       </c>
+      <c r="BK21" t="n">
+        <v>229</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -20669,6 +21289,8 @@
       <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM82"/>
+  <dimension ref="A1:BO82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,6 +785,16 @@
           <t>16.–22. 8. 2021</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>13.–19. 9. 2021</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>20.–26. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -988,6 +998,12 @@
       <c r="BM2" t="n">
         <v>20</v>
       </c>
+      <c r="BN2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1191,6 +1207,12 @@
       <c r="BM3" t="n">
         <v>3.5</v>
       </c>
+      <c r="BN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1394,6 +1416,12 @@
       <c r="BM4" t="n">
         <v>12.5</v>
       </c>
+      <c r="BN4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1597,6 +1625,12 @@
       <c r="BM5" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1800,6 +1834,12 @@
       <c r="BM6" t="n">
         <v>24</v>
       </c>
+      <c r="BN6" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2003,6 +2043,12 @@
       <c r="BM7" t="n">
         <v>24</v>
       </c>
+      <c r="BN7" t="n">
+        <v>28</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2206,6 +2252,12 @@
       <c r="BM8" t="n">
         <v>14.5</v>
       </c>
+      <c r="BN8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2409,6 +2461,12 @@
       <c r="BM9" t="n">
         <v>23</v>
       </c>
+      <c r="BN9" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2612,6 +2670,12 @@
       <c r="BM10" t="n">
         <v>19.5</v>
       </c>
+      <c r="BN10" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2815,6 +2879,12 @@
       <c r="BM11" t="n">
         <v>18</v>
       </c>
+      <c r="BN11" t="n">
+        <v>22</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3018,6 +3088,12 @@
       <c r="BM12" t="n">
         <v>26</v>
       </c>
+      <c r="BN12" t="n">
+        <v>28</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3221,6 +3297,12 @@
       <c r="BM13" t="n">
         <v>19.5</v>
       </c>
+      <c r="BN13" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3424,6 +3506,12 @@
       <c r="BM14" t="n">
         <v>18.5</v>
       </c>
+      <c r="BN14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3627,6 +3715,12 @@
       <c r="BM15" t="n">
         <v>22.5</v>
       </c>
+      <c r="BN15" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3830,6 +3924,12 @@
       <c r="BM16" t="n">
         <v>17.5</v>
       </c>
+      <c r="BN16" t="n">
+        <v>22</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4033,6 +4133,12 @@
       <c r="BM17" t="n">
         <v>20</v>
       </c>
+      <c r="BN17" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4236,6 +4342,12 @@
       <c r="BM18" t="n">
         <v>21.5</v>
       </c>
+      <c r="BN18" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4439,6 +4551,12 @@
       <c r="BM19" t="n">
         <v>20</v>
       </c>
+      <c r="BN19" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4642,6 +4760,12 @@
       <c r="BM20" t="n">
         <v>18</v>
       </c>
+      <c r="BN20" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4839,6 +4963,12 @@
       <c r="BM21" t="n">
         <v>26</v>
       </c>
+      <c r="BN21" t="n">
+        <v>32</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5036,6 +5166,12 @@
       <c r="BM22" t="n">
         <v>22</v>
       </c>
+      <c r="BN22" t="n">
+        <v>25</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5233,6 +5369,12 @@
       <c r="BM23" t="n">
         <v>19</v>
       </c>
+      <c r="BN23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5430,6 +5572,12 @@
       <c r="BM24" t="n">
         <v>19</v>
       </c>
+      <c r="BN24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5633,6 +5781,12 @@
       <c r="BM25" t="n">
         <v>5</v>
       </c>
+      <c r="BN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5836,6 +5990,12 @@
       <c r="BM26" t="n">
         <v>4.5</v>
       </c>
+      <c r="BN26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6039,6 +6199,12 @@
       <c r="BM27" t="n">
         <v>1.5</v>
       </c>
+      <c r="BN27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6242,6 +6408,12 @@
       <c r="BM28" t="n">
         <v>5.5</v>
       </c>
+      <c r="BN28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6445,6 +6617,12 @@
       <c r="BM29" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6648,6 +6826,12 @@
       <c r="BM30" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6851,6 +7035,12 @@
       <c r="BM31" t="n">
         <v>4</v>
       </c>
+      <c r="BN31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7054,6 +7244,12 @@
       <c r="BM32" t="n">
         <v>3</v>
       </c>
+      <c r="BN32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7257,6 +7453,12 @@
       <c r="BM33" t="n">
         <v>3.5</v>
       </c>
+      <c r="BN33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7460,6 +7662,12 @@
       <c r="BM34" t="n">
         <v>3.5</v>
       </c>
+      <c r="BN34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7663,6 +7871,12 @@
       <c r="BM35" t="n">
         <v>3</v>
       </c>
+      <c r="BN35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7866,6 +8080,12 @@
       <c r="BM36" t="n">
         <v>3.5</v>
       </c>
+      <c r="BN36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8069,6 +8289,12 @@
       <c r="BM37" t="n">
         <v>4</v>
       </c>
+      <c r="BN37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8272,6 +8498,12 @@
       <c r="BM38" t="n">
         <v>4</v>
       </c>
+      <c r="BN38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8475,6 +8707,12 @@
       <c r="BM39" t="n">
         <v>1.5</v>
       </c>
+      <c r="BN39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8672,6 +8910,12 @@
       <c r="BM40" t="n">
         <v>4</v>
       </c>
+      <c r="BN40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8869,6 +9113,12 @@
       <c r="BM41" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9066,6 +9316,12 @@
       <c r="BM42" t="n">
         <v>5.5</v>
       </c>
+      <c r="BN42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9263,6 +9519,12 @@
       <c r="BM43" t="n">
         <v>3.5</v>
       </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9466,6 +9728,12 @@
       <c r="BM44" t="n">
         <v>15.5</v>
       </c>
+      <c r="BN44" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9669,6 +9937,12 @@
       <c r="BM45" t="n">
         <v>15</v>
       </c>
+      <c r="BN45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9872,6 +10146,12 @@
       <c r="BM46" t="n">
         <v>9</v>
       </c>
+      <c r="BN46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10075,6 +10355,12 @@
       <c r="BM47" t="n">
         <v>16.5</v>
       </c>
+      <c r="BN47" t="n">
+        <v>17</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10278,6 +10564,12 @@
       <c r="BM48" t="n">
         <v>11.5</v>
       </c>
+      <c r="BN48" t="n">
+        <v>14</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10481,6 +10773,12 @@
       <c r="BM49" t="n">
         <v>11</v>
       </c>
+      <c r="BN49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10684,6 +10982,12 @@
       <c r="BM50" t="n">
         <v>16.5</v>
       </c>
+      <c r="BN50" t="n">
+        <v>18</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10887,6 +11191,12 @@
       <c r="BM51" t="n">
         <v>11</v>
       </c>
+      <c r="BN51" t="n">
+        <v>14</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11090,6 +11400,12 @@
       <c r="BM52" t="n">
         <v>12</v>
       </c>
+      <c r="BN52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11293,6 +11609,12 @@
       <c r="BM53" t="n">
         <v>14</v>
       </c>
+      <c r="BN53" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11496,6 +11818,12 @@
       <c r="BM54" t="n">
         <v>11</v>
       </c>
+      <c r="BN54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11699,6 +12027,12 @@
       <c r="BM55" t="n">
         <v>12.5</v>
       </c>
+      <c r="BN55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11902,6 +12236,12 @@
       <c r="BM56" t="n">
         <v>13.5</v>
       </c>
+      <c r="BN56" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12105,6 +12445,12 @@
       <c r="BM57" t="n">
         <v>13.5</v>
       </c>
+      <c r="BN57" t="n">
+        <v>16</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12308,6 +12654,12 @@
       <c r="BM58" t="n">
         <v>11</v>
       </c>
+      <c r="BN58" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12505,6 +12857,12 @@
       <c r="BM59" t="n">
         <v>14.5</v>
       </c>
+      <c r="BN59" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12702,6 +13060,12 @@
       <c r="BM60" t="n">
         <v>13.5</v>
       </c>
+      <c r="BN60" t="n">
+        <v>17</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12899,6 +13263,12 @@
       <c r="BM61" t="n">
         <v>14.5</v>
       </c>
+      <c r="BN61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13096,6 +13466,12 @@
       <c r="BM62" t="n">
         <v>13.5</v>
       </c>
+      <c r="BN62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13299,6 +13675,12 @@
       <c r="BM63" t="n">
         <v>3</v>
       </c>
+      <c r="BN63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13502,6 +13884,12 @@
       <c r="BM64" t="n">
         <v>3.5</v>
       </c>
+      <c r="BN64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13705,6 +14093,12 @@
       <c r="BM65" t="n">
         <v>1</v>
       </c>
+      <c r="BN65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13908,6 +14302,12 @@
       <c r="BM66" t="n">
         <v>4</v>
       </c>
+      <c r="BN66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14111,6 +14511,12 @@
       <c r="BM67" t="n">
         <v>2</v>
       </c>
+      <c r="BN67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14314,6 +14720,12 @@
       <c r="BM68" t="n">
         <v>1.5</v>
       </c>
+      <c r="BN68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14517,6 +14929,12 @@
       <c r="BM69" t="n">
         <v>3</v>
       </c>
+      <c r="BN69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14720,6 +15138,12 @@
       <c r="BM70" t="n">
         <v>2</v>
       </c>
+      <c r="BN70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14923,6 +15347,12 @@
       <c r="BM71" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15126,6 +15556,12 @@
       <c r="BM72" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15329,6 +15765,12 @@
       <c r="BM73" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15532,6 +15974,12 @@
       <c r="BM74" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15735,6 +16183,12 @@
       <c r="BM75" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15938,6 +16392,12 @@
       <c r="BM76" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16141,6 +16601,12 @@
       <c r="BM77" t="n">
         <v>1</v>
       </c>
+      <c r="BN77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16338,6 +16804,12 @@
       <c r="BM78" t="n">
         <v>2.5</v>
       </c>
+      <c r="BN78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16535,6 +17007,12 @@
       <c r="BM79" t="n">
         <v>1.5</v>
       </c>
+      <c r="BN79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16732,6 +17210,12 @@
       <c r="BM80" t="n">
         <v>4</v>
       </c>
+      <c r="BN80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16929,11 +17413,17 @@
       <c r="BM81" t="n">
         <v>3</v>
       </c>
+      <c r="BN81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -16948,7 +17438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL22"/>
+  <dimension ref="A1:BN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17277,6 +17767,16 @@
           <t>16.–22. 8. 2021</t>
         </is>
       </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>13.–19. 9. 2021</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>20.–26. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17475,6 +17975,12 @@
       <c r="BL2" t="n">
         <v>1638</v>
       </c>
+      <c r="BM2" t="n">
+        <v>1584</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17673,6 +18179,12 @@
       <c r="BL3" t="n">
         <v>374</v>
       </c>
+      <c r="BM3" t="n">
+        <v>363</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17871,6 +18383,12 @@
       <c r="BL4" t="n">
         <v>584</v>
       </c>
+      <c r="BM4" t="n">
+        <v>561</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>558</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18069,6 +18587,12 @@
       <c r="BL5" t="n">
         <v>680</v>
       </c>
+      <c r="BM5" t="n">
+        <v>660</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18267,6 +18791,12 @@
       <c r="BL6" t="n">
         <v>463</v>
       </c>
+      <c r="BM6" t="n">
+        <v>476</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>482</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18465,6 +18995,12 @@
       <c r="BL7" t="n">
         <v>708</v>
       </c>
+      <c r="BM7" t="n">
+        <v>668</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>667</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18663,6 +19199,12 @@
       <c r="BL8" t="n">
         <v>464</v>
       </c>
+      <c r="BM8" t="n">
+        <v>440</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18861,6 +19403,12 @@
       <c r="BL9" t="n">
         <v>267</v>
       </c>
+      <c r="BM9" t="n">
+        <v>280</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19059,6 +19607,12 @@
       <c r="BL10" t="n">
         <v>316</v>
       </c>
+      <c r="BM10" t="n">
+        <v>291</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19257,6 +19811,12 @@
       <c r="BL11" t="n">
         <v>1055</v>
       </c>
+      <c r="BM11" t="n">
+        <v>1013</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19455,6 +20015,12 @@
       <c r="BL12" t="n">
         <v>827</v>
       </c>
+      <c r="BM12" t="n">
+        <v>795</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>794</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19653,6 +20219,12 @@
       <c r="BL13" t="n">
         <v>811</v>
       </c>
+      <c r="BM13" t="n">
+        <v>789</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>789</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19851,6 +20423,12 @@
       <c r="BL14" t="n">
         <v>839</v>
       </c>
+      <c r="BM14" t="n">
+        <v>823</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20049,6 +20627,12 @@
       <c r="BL15" t="n">
         <v>388</v>
       </c>
+      <c r="BM15" t="n">
+        <v>365</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20247,6 +20831,12 @@
       <c r="BL16" t="n">
         <v>193</v>
       </c>
+      <c r="BM16" t="n">
+        <v>192</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20444,6 +21034,12 @@
       </c>
       <c r="BL17" t="n">
         <v>218</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>204</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="18">
@@ -20639,6 +21235,12 @@
       <c r="BL18" t="n">
         <v>572</v>
       </c>
+      <c r="BM18" t="n">
+        <v>712</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20833,6 +21435,12 @@
       <c r="BL19" t="n">
         <v>70</v>
       </c>
+      <c r="BM19" t="n">
+        <v>62</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -21027,6 +21635,12 @@
       <c r="BL20" t="n">
         <v>49</v>
       </c>
+      <c r="BM20" t="n">
+        <v>59</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21221,11 +21835,17 @@
       <c r="BL21" t="n">
         <v>229</v>
       </c>
+      <c r="BM21" t="n">
+        <v>59</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -21291,6 +21911,8 @@
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO82"/>
+  <dimension ref="A1:BQ82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,16 @@
           <t>20.–26. 9. 2021</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>4.–10. 10. 2021</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>11.–17. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1004,6 +1014,12 @@
       <c r="BO2" t="n">
         <v>23</v>
       </c>
+      <c r="BP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1018,7 +1034,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1097,10 +1113,10 @@
         <v>22.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AD3" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>19.5</v>
@@ -1130,10 +1146,10 @@
         <v>14.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>12</v>
@@ -1142,76 +1158,82 @@
         <v>8</v>
       </c>
       <c r="AR3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT3" t="n">
         <v>11.5</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AU3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE3" t="n">
         <v>11</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="BF3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH3" t="n">
         <v>10.5</v>
       </c>
-      <c r="AU3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY3" t="n">
+      <c r="BI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BK3" t="n">
         <v>7</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BA3" t="n">
+      <c r="BL3" t="n">
         <v>7</v>
       </c>
-      <c r="BB3" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="BM3" t="n">
         <v>6.5</v>
       </c>
-      <c r="BE3" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BN3" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="BO3" t="n">
-        <v>3.5</v>
+        <v>8</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1422,6 +1444,12 @@
       <c r="BO4" t="n">
         <v>14.5</v>
       </c>
+      <c r="BP4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1436,7 +1464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1554,82 +1582,88 @@
         <v>5.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AV5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>4</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AY5" t="n">
         <v>4</v>
       </c>
-      <c r="AX5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>3</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -1840,6 +1874,12 @@
       <c r="BO6" t="n">
         <v>29.5</v>
       </c>
+      <c r="BP6" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2049,6 +2089,12 @@
       <c r="BO7" t="n">
         <v>29</v>
       </c>
+      <c r="BP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2258,6 +2304,12 @@
       <c r="BO8" t="n">
         <v>15</v>
       </c>
+      <c r="BP8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2467,6 +2519,12 @@
       <c r="BO9" t="n">
         <v>27</v>
       </c>
+      <c r="BP9" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2676,6 +2734,12 @@
       <c r="BO10" t="n">
         <v>21</v>
       </c>
+      <c r="BP10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2885,6 +2949,12 @@
       <c r="BO11" t="n">
         <v>22.5</v>
       </c>
+      <c r="BP11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3094,6 +3164,12 @@
       <c r="BO12" t="n">
         <v>28.5</v>
       </c>
+      <c r="BP12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3303,6 +3379,12 @@
       <c r="BO13" t="n">
         <v>24.5</v>
       </c>
+      <c r="BP13" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3512,6 +3594,12 @@
       <c r="BO14" t="n">
         <v>21.5</v>
       </c>
+      <c r="BP14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3721,6 +3809,12 @@
       <c r="BO15" t="n">
         <v>24.5</v>
       </c>
+      <c r="BP15" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3930,6 +4024,12 @@
       <c r="BO16" t="n">
         <v>22</v>
       </c>
+      <c r="BP16" t="n">
+        <v>20</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4139,6 +4239,12 @@
       <c r="BO17" t="n">
         <v>22</v>
       </c>
+      <c r="BP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4348,6 +4454,12 @@
       <c r="BO18" t="n">
         <v>24.5</v>
       </c>
+      <c r="BP18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4557,6 +4669,12 @@
       <c r="BO19" t="n">
         <v>25</v>
       </c>
+      <c r="BP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4766,6 +4884,12 @@
       <c r="BO20" t="n">
         <v>24.5</v>
       </c>
+      <c r="BP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4969,6 +5093,12 @@
       <c r="BO21" t="n">
         <v>31.5</v>
       </c>
+      <c r="BP21" t="n">
+        <v>28</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>30.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5172,6 +5302,12 @@
       <c r="BO22" t="n">
         <v>25.5</v>
       </c>
+      <c r="BP22" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5375,6 +5511,12 @@
       <c r="BO23" t="n">
         <v>17</v>
       </c>
+      <c r="BP23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5578,6 +5720,12 @@
       <c r="BO24" t="n">
         <v>15</v>
       </c>
+      <c r="BP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5592,7 +5740,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -5650,7 +5798,7 @@
         <v>26.5</v>
       </c>
       <c r="V25" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="W25" t="n">
         <v>27</v>
@@ -5668,16 +5816,16 @@
         <v>28</v>
       </c>
       <c r="AB25" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="AC25" t="n">
         <v>26.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
         <v>17</v>
@@ -5698,7 +5846,7 @@
         <v>15.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>18</v>
@@ -5716,76 +5864,82 @@
         <v>11</v>
       </c>
       <c r="AR25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AS25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AT25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BE25" t="n">
         <v>15</v>
       </c>
-      <c r="AT25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AV25" t="n">
+      <c r="BF25" t="n">
+        <v>17</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ25" t="n">
         <v>11</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="BK25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BL25" t="n">
         <v>10.5</v>
       </c>
-      <c r="AX25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ25" t="n">
+      <c r="BM25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BO25" t="n">
         <v>11</v>
       </c>
-      <c r="BA25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>7</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>6</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>5</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>5.5</v>
+      <c r="BP25" t="n">
+        <v>11</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -5801,7 +5955,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -5871,7 +6025,7 @@
         <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="n">
         <v>29.5</v>
@@ -5901,7 +6055,7 @@
         <v>16.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK26" t="n">
         <v>17.5</v>
@@ -5910,91 +6064,97 @@
         <v>18</v>
       </c>
       <c r="AM26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>18.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>9.5</v>
       </c>
       <c r="AR26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AU26" t="n">
         <v>14</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AV26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF26" t="n">
         <v>14</v>
       </c>
-      <c r="AT26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX26" t="n">
+      <c r="BG26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BK26" t="n">
         <v>9</v>
       </c>
-      <c r="AY26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ26" t="n">
+      <c r="BL26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BM26" t="n">
         <v>9</v>
       </c>
-      <c r="BA26" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>8</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BN26" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="BO26" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -6010,7 +6170,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -6080,7 +6240,7 @@
         <v>16.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA27" t="n">
         <v>16</v>
@@ -6119,7 +6279,7 @@
         <v>9</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN27" t="n">
         <v>9.5</v>
@@ -6128,82 +6288,88 @@
         <v>9.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
         <v>5.5</v>
       </c>
       <c r="AR27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW27" t="n">
         <v>6.5</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AX27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD27" t="n">
         <v>6.5</v>
       </c>
-      <c r="AT27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB27" t="n">
+      <c r="BE27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BQ27" t="n">
         <v>4</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="28">
@@ -6219,7 +6385,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -6325,7 +6491,7 @@
         <v>15</v>
       </c>
       <c r="AL28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM28" t="n">
         <v>17.5</v>
@@ -6334,85 +6500,91 @@
         <v>18</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP28" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AR28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS28" t="n">
+      <c r="AZ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BE28" t="n">
         <v>14.5</v>
       </c>
-      <c r="AT28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV28" t="n">
+      <c r="BF28" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BQ28" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>5.5</v>
       </c>
     </row>
     <row r="29">
@@ -6428,7 +6600,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -6510,10 +6682,10 @@
         <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF29" t="n">
         <v>16.5</v>
@@ -6543,85 +6715,91 @@
         <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
         <v>11</v>
       </c>
       <c r="AQ29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP29" t="n">
         <v>7.5</v>
       </c>
-      <c r="AR29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ29" t="n">
+      <c r="BQ29" t="n">
         <v>7.5</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -6637,7 +6815,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -6701,7 +6879,7 @@
         <v>18</v>
       </c>
       <c r="X30" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="Y30" t="n">
         <v>21</v>
@@ -6713,10 +6891,10 @@
         <v>22</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="n">
         <v>20</v>
@@ -6749,88 +6927,94 @@
         <v>14</v>
       </c>
       <c r="AN30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
         <v>7.5</v>
       </c>
       <c r="AR30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU30" t="n">
         <v>10.5</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AV30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE30" t="n">
         <v>10.5</v>
       </c>
-      <c r="AT30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX30" t="n">
+      <c r="BF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BN30" t="n">
         <v>6.5</v>
       </c>
-      <c r="AY30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BA30" t="n">
+      <c r="BO30" t="n">
         <v>7</v>
       </c>
-      <c r="BB30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>2.5</v>
+      <c r="BP30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="31">
@@ -6846,7 +7030,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -6913,7 +7097,7 @@
         <v>32.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="Z31" t="n">
         <v>34</v>
@@ -6964,82 +7148,88 @@
         <v>18</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>9</v>
       </c>
       <c r="AR31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS31" t="n">
         <v>13</v>
       </c>
-      <c r="AS31" t="n">
+      <c r="AT31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>12</v>
       </c>
-      <c r="AT31" t="n">
+      <c r="BA31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB31" t="n">
         <v>11</v>
       </c>
-      <c r="AU31" t="n">
+      <c r="BC31" t="n">
         <v>11</v>
       </c>
-      <c r="AV31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX31" t="n">
+      <c r="BD31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BJ31" t="n">
         <v>8.5</v>
       </c>
-      <c r="AY31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ31" t="n">
+      <c r="BK31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP31" t="n">
         <v>9.5</v>
       </c>
-      <c r="BA31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>4</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>4</v>
+      <c r="BQ31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -7055,7 +7245,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -7119,10 +7309,10 @@
         <v>25.5</v>
       </c>
       <c r="X32" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="Z32" t="n">
         <v>26</v>
@@ -7161,10 +7351,10 @@
         <v>12.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN32" t="n">
         <v>13.5</v>
@@ -7173,82 +7363,88 @@
         <v>14</v>
       </c>
       <c r="AP32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG32" t="n">
         <v>11</v>
       </c>
-      <c r="AQ32" t="n">
+      <c r="BH32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP32" t="n">
         <v>7.5</v>
       </c>
-      <c r="AR32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AV32" t="n">
+      <c r="BQ32" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="33">
@@ -7264,7 +7460,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -7346,7 +7542,7 @@
         <v>20.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
         <v>17</v>
@@ -7370,7 +7566,7 @@
         <v>12</v>
       </c>
       <c r="AL33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM33" t="n">
         <v>12</v>
@@ -7388,76 +7584,82 @@
         <v>8</v>
       </c>
       <c r="AR33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS33" t="n">
         <v>10.5</v>
       </c>
-      <c r="AS33" t="n">
+      <c r="AT33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU33" t="n">
         <v>9.5</v>
       </c>
-      <c r="AT33" t="n">
+      <c r="AV33" t="n">
         <v>8.5</v>
       </c>
-      <c r="AU33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV33" t="n">
+      <c r="AW33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX33" t="n">
         <v>7.5</v>
       </c>
-      <c r="AW33" t="n">
+      <c r="AY33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ33" t="n">
         <v>8</v>
       </c>
-      <c r="AX33" t="n">
+      <c r="BA33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BL33" t="n">
         <v>6.5</v>
       </c>
-      <c r="AY33" t="n">
+      <c r="BM33" t="n">
         <v>6.5</v>
       </c>
-      <c r="AZ33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BN33" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="BO33" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -7473,7 +7675,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -7585,10 +7787,10 @@
         <v>16</v>
       </c>
       <c r="AN34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP34" t="n">
         <v>12.5</v>
@@ -7597,76 +7799,82 @@
         <v>9.5</v>
       </c>
       <c r="AR34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BE34" t="n">
         <v>13</v>
       </c>
-      <c r="AS34" t="n">
+      <c r="BF34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG34" t="n">
         <v>13</v>
       </c>
-      <c r="AT34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX34" t="n">
+      <c r="BH34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BP34" t="n">
         <v>8</v>
       </c>
-      <c r="AY34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA34" t="n">
+      <c r="BQ34" t="n">
         <v>8.5</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="35">
@@ -7682,7 +7890,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -7749,7 +7957,7 @@
         <v>20.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="Z35" t="n">
         <v>21</v>
@@ -7767,7 +7975,7 @@
         <v>19</v>
       </c>
       <c r="AE35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF35" t="n">
         <v>14</v>
@@ -7797,7 +8005,7 @@
         <v>13.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP35" t="n">
         <v>11.5</v>
@@ -7806,76 +8014,82 @@
         <v>7</v>
       </c>
       <c r="AR35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BI35" t="n">
         <v>10</v>
       </c>
-      <c r="AS35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV35" t="n">
+      <c r="BJ35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP35" t="n">
         <v>8</v>
       </c>
-      <c r="AW35" t="n">
+      <c r="BQ35" t="n">
         <v>8</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -7891,7 +8105,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -7955,7 +8169,7 @@
         <v>21.5</v>
       </c>
       <c r="X36" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
         <v>23.5</v>
@@ -7970,13 +8184,13 @@
         <v>22</v>
       </c>
       <c r="AC36" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="AD36" t="n">
         <v>20.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="n">
         <v>15.5</v>
@@ -8012,79 +8226,85 @@
         <v>12.5</v>
       </c>
       <c r="AQ36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BO36" t="n">
         <v>8</v>
       </c>
-      <c r="AR36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ36" t="n">
+      <c r="BP36" t="n">
         <v>8</v>
       </c>
-      <c r="BA36" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>4</v>
+      <c r="BQ36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -8100,7 +8320,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -8185,7 +8405,7 @@
         <v>20.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF37" t="n">
         <v>15</v>
@@ -8227,73 +8447,79 @@
         <v>11</v>
       </c>
       <c r="AS37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AT37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV37" t="n">
+      <c r="BE37" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BN37" t="n">
         <v>8.5</v>
       </c>
-      <c r="AW37" t="n">
+      <c r="BO37" t="n">
         <v>9</v>
       </c>
-      <c r="AX37" t="n">
+      <c r="BP37" t="n">
         <v>7</v>
       </c>
-      <c r="AY37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ37" t="n">
+      <c r="BQ37" t="n">
         <v>7</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BM37" t="n">
-        <v>4</v>
-      </c>
-      <c r="BN37" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>4.5</v>
       </c>
     </row>
     <row r="38">
@@ -8309,7 +8535,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -8433,76 +8659,82 @@
         <v>8</v>
       </c>
       <c r="AR38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT38" t="n">
         <v>11</v>
       </c>
-      <c r="AS38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AU38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV38" t="n">
         <v>10</v>
       </c>
-      <c r="AV38" t="n">
+      <c r="AW38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX38" t="n">
         <v>9</v>
       </c>
-      <c r="AW38" t="n">
+      <c r="AY38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BB38" t="n">
         <v>8.5</v>
       </c>
-      <c r="AX38" t="n">
+      <c r="BC38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BL38" t="n">
         <v>7.5</v>
       </c>
-      <c r="AY38" t="n">
+      <c r="BM38" t="n">
         <v>7</v>
       </c>
-      <c r="AZ38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BA38" t="n">
+      <c r="BN38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP38" t="n">
         <v>8</v>
       </c>
-      <c r="BB38" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>5</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>4</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>4</v>
-      </c>
-      <c r="BN38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BO38" t="n">
-        <v>5</v>
+      <c r="BQ38" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="39">
@@ -8518,7 +8750,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -8633,85 +8865,91 @@
         <v>16</v>
       </c>
       <c r="AO39" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX39" t="n">
         <v>9</v>
       </c>
-      <c r="AR39" t="n">
+      <c r="AY39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF39" t="n">
         <v>11</v>
       </c>
-      <c r="AS39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AT39" t="n">
+      <c r="BG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH39" t="n">
         <v>9.5</v>
       </c>
-      <c r="AU39" t="n">
+      <c r="BI39" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX39" t="n">
+      <c r="BJ39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BN39" t="n">
         <v>7</v>
       </c>
-      <c r="AY39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BA39" t="n">
+      <c r="BO39" t="n">
         <v>7</v>
       </c>
-      <c r="BB39" t="n">
+      <c r="BP39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BQ39" t="n">
         <v>7</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BN39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="40">
@@ -8727,7 +8965,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -8821,13 +9059,13 @@
         <v>23</v>
       </c>
       <c r="AJ40" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="AK40" t="n">
         <v>23.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AM40" t="n">
         <v>22.5</v>
@@ -8842,79 +9080,85 @@
         <v>20.5</v>
       </c>
       <c r="AQ40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA40" t="n">
         <v>16.5</v>
       </c>
-      <c r="AR40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT40" t="n">
+      <c r="BB40" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>17</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BG40" t="n">
         <v>18</v>
       </c>
-      <c r="AU40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BB40" t="n">
+      <c r="BH40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BN40" t="n">
         <v>12</v>
       </c>
-      <c r="BC40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BD40" t="n">
+      <c r="BO40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BP40" t="n">
         <v>10.5</v>
       </c>
-      <c r="BE40" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>5</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>4</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>5.5</v>
+      <c r="BQ40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -8930,7 +9174,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -9045,79 +9289,85 @@
         <v>16</v>
       </c>
       <c r="AQ41" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AR41" t="n">
         <v>11</v>
       </c>
       <c r="AS41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW41" t="n">
         <v>11</v>
       </c>
-      <c r="AT41" t="n">
+      <c r="AX41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BD41" t="n">
         <v>11.5</v>
       </c>
-      <c r="AU41" t="n">
+      <c r="BE41" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG41" t="n">
         <v>10</v>
       </c>
-      <c r="AV41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AW41" t="n">
+      <c r="BH41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BI41" t="n">
         <v>10</v>
       </c>
-      <c r="AX41" t="n">
+      <c r="BJ41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK41" t="n">
         <v>6</v>
       </c>
-      <c r="AY41" t="n">
+      <c r="BL41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BO41" t="n">
         <v>7</v>
       </c>
-      <c r="AZ41" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>2.5</v>
+      <c r="BP41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -9133,7 +9383,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -9230,7 +9480,7 @@
         <v>8</v>
       </c>
       <c r="AK42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL42" t="n">
         <v>8.5</v>
@@ -9239,7 +9489,7 @@
         <v>9</v>
       </c>
       <c r="AN42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO42" t="n">
         <v>11</v>
@@ -9254,73 +9504,79 @@
         <v>7.5</v>
       </c>
       <c r="AS42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE42" t="n">
         <v>8</v>
       </c>
-      <c r="AT42" t="n">
+      <c r="BF42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK42" t="n">
         <v>6</v>
       </c>
-      <c r="AU42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BL42" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="BM42" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="BN42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BO42" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -9336,7 +9592,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Průměrný počet kontaktů, kde ani jeden není ani částečně imunní</t>
+          <t>Průměrný počet kontaktů, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -9409,7 +9665,7 @@
         <v>14</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD43" t="n">
         <v>15.5</v>
@@ -9433,19 +9689,19 @@
         <v>8</v>
       </c>
       <c r="AK43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM43" t="n">
         <v>10.5</v>
       </c>
       <c r="AN43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP43" t="n">
         <v>9</v>
@@ -9466,64 +9722,70 @@
         <v>4.5</v>
       </c>
       <c r="AV43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW43" t="n">
         <v>7</v>
       </c>
-      <c r="AW43" t="n">
+      <c r="AX43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE43" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA43" t="n">
+      <c r="BF43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN43" t="n">
         <v>3</v>
       </c>
-      <c r="BB43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>5</v>
-      </c>
-      <c r="BL43" t="n">
-        <v>4</v>
-      </c>
-      <c r="BM43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BN43" t="n">
-        <v>1</v>
-      </c>
       <c r="BO43" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -9734,6 +9996,12 @@
       <c r="BO44" t="n">
         <v>19</v>
       </c>
+      <c r="BP44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9943,6 +10211,12 @@
       <c r="BO45" t="n">
         <v>18</v>
       </c>
+      <c r="BP45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10152,6 +10426,12 @@
       <c r="BO46" t="n">
         <v>9.5</v>
       </c>
+      <c r="BP46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10361,6 +10641,12 @@
       <c r="BO47" t="n">
         <v>17</v>
       </c>
+      <c r="BP47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10570,6 +10856,12 @@
       <c r="BO48" t="n">
         <v>14</v>
       </c>
+      <c r="BP48" t="n">
+        <v>13</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10779,6 +11071,12 @@
       <c r="BO49" t="n">
         <v>13</v>
       </c>
+      <c r="BP49" t="n">
+        <v>11</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10988,6 +11286,12 @@
       <c r="BO50" t="n">
         <v>18</v>
       </c>
+      <c r="BP50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11197,6 +11501,12 @@
       <c r="BO51" t="n">
         <v>14</v>
       </c>
+      <c r="BP51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11406,6 +11716,12 @@
       <c r="BO52" t="n">
         <v>14</v>
       </c>
+      <c r="BP52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11615,6 +11931,12 @@
       <c r="BO53" t="n">
         <v>14.5</v>
       </c>
+      <c r="BP53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11824,6 +12146,12 @@
       <c r="BO54" t="n">
         <v>14.5</v>
       </c>
+      <c r="BP54" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12033,6 +12361,12 @@
       <c r="BO55" t="n">
         <v>14.5</v>
       </c>
+      <c r="BP55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12242,6 +12576,12 @@
       <c r="BO56" t="n">
         <v>15</v>
       </c>
+      <c r="BP56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12451,6 +12791,12 @@
       <c r="BO57" t="n">
         <v>16.5</v>
       </c>
+      <c r="BP57" t="n">
+        <v>14</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12660,6 +13006,12 @@
       <c r="BO58" t="n">
         <v>13.5</v>
       </c>
+      <c r="BP58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12863,6 +13215,12 @@
       <c r="BO59" t="n">
         <v>18.5</v>
       </c>
+      <c r="BP59" t="n">
+        <v>17</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13066,6 +13424,12 @@
       <c r="BO60" t="n">
         <v>17.5</v>
       </c>
+      <c r="BP60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13269,6 +13633,12 @@
       <c r="BO61" t="n">
         <v>13</v>
       </c>
+      <c r="BP61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13472,6 +13842,12 @@
       <c r="BO62" t="n">
         <v>12</v>
       </c>
+      <c r="BP62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13486,7 +13862,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -13550,10 +13926,10 @@
         <v>15</v>
       </c>
       <c r="X63" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y63" t="n">
         <v>15</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>14.5</v>
       </c>
       <c r="Z63" t="n">
         <v>14</v>
@@ -13598,88 +13974,94 @@
         <v>7</v>
       </c>
       <c r="AN63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP63" t="n">
         <v>9</v>
       </c>
       <c r="AQ63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AR63" t="n">
         <v>7.5</v>
       </c>
       <c r="AS63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AT63" t="n">
         <v>7</v>
       </c>
-      <c r="AT63" t="n">
+      <c r="AU63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV63" t="n">
         <v>6.5</v>
       </c>
-      <c r="AU63" t="n">
+      <c r="AW63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB63" t="n">
         <v>6.5</v>
       </c>
-      <c r="AV63" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BC63" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="BD63" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="BE63" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF63" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="BG63" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="BH63" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI63" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ63" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="BK63" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="BL63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BM63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BN63" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="BO63" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="64">
@@ -13695,7 +14077,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -13753,7 +14135,7 @@
         <v>14</v>
       </c>
       <c r="V64" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W64" t="n">
         <v>13.5</v>
@@ -13774,7 +14156,7 @@
         <v>11.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD64" t="n">
         <v>10.5</v>
@@ -13813,82 +14195,88 @@
         <v>6.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AQ64" t="n">
         <v>6.5</v>
       </c>
       <c r="AR64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AV64" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AW64" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX64" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY64" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AZ64" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BA64" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BB64" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BC64" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BD64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BE64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF64" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG64" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH64" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="BI64" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="BJ64" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="BK64" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="BL64" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="BM64" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="BN64" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="BO64" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -13904,7 +14292,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -13986,7 +14374,7 @@
         <v>6.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE65" t="n">
         <v>5.5</v>
@@ -14031,7 +14419,7 @@
         <v>3</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AT65" t="n">
         <v>3</v>
@@ -14052,52 +14440,58 @@
         <v>2</v>
       </c>
       <c r="AZ65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ65" t="n">
         <v>2</v>
       </c>
-      <c r="BA65" t="n">
+      <c r="BK65" t="n">
         <v>2</v>
       </c>
-      <c r="BB65" t="n">
+      <c r="BL65" t="n">
         <v>2</v>
       </c>
-      <c r="BC65" t="n">
+      <c r="BM65" t="n">
         <v>2</v>
       </c>
-      <c r="BD65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>1</v>
-      </c>
       <c r="BN65" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="BO65" t="n">
-        <v>1</v>
+        <v>2.5</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="66">
@@ -14113,7 +14507,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -14237,76 +14631,82 @@
         <v>8</v>
       </c>
       <c r="AR66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BJ66" t="n">
         <v>6.5</v>
       </c>
-      <c r="AS66" t="n">
+      <c r="BK66" t="n">
         <v>6.5</v>
       </c>
-      <c r="AT66" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BL66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BM66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BN66" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="BO66" t="n">
-        <v>3.5</v>
+        <v>7</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -14322,7 +14722,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -14440,7 +14840,7 @@
         <v>5</v>
       </c>
       <c r="AP67" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AQ67" t="n">
         <v>5.5</v>
@@ -14449,73 +14849,79 @@
         <v>4.5</v>
       </c>
       <c r="AS67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV67" t="n">
         <v>4</v>
       </c>
-      <c r="AT67" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AV67" t="n">
+      <c r="AW67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA67" t="n">
         <v>3.5</v>
       </c>
-      <c r="AW67" t="n">
+      <c r="BB67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL67" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>2</v>
-      </c>
       <c r="BM67" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="BN67" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BO67" t="n">
-        <v>2.5</v>
+        <v>5</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -14531,7 +14937,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -14643,7 +15049,7 @@
         <v>5</v>
       </c>
       <c r="AN68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO68" t="n">
         <v>4.5</v>
@@ -14652,79 +15058,85 @@
         <v>6</v>
       </c>
       <c r="AQ68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AR68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT68" t="n">
         <v>4</v>
       </c>
-      <c r="AS68" t="n">
+      <c r="AU68" t="n">
         <v>4</v>
       </c>
-      <c r="AT68" t="n">
+      <c r="AV68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX68" t="n">
         <v>3.5</v>
       </c>
-      <c r="AU68" t="n">
+      <c r="AY68" t="n">
         <v>3.5</v>
       </c>
-      <c r="AV68" t="n">
+      <c r="AZ68" t="n">
         <v>3.5</v>
       </c>
-      <c r="AW68" t="n">
+      <c r="BA68" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX68" t="n">
+      <c r="BB68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BJ68" t="n">
         <v>3</v>
       </c>
-      <c r="AY68" t="n">
+      <c r="BK68" t="n">
         <v>3</v>
       </c>
-      <c r="AZ68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>2</v>
-      </c>
       <c r="BL68" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="BM68" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="BN68" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="BO68" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="69">
@@ -14740,7 +15152,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -14819,7 +15231,7 @@
         <v>13</v>
       </c>
       <c r="AC69" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD69" t="n">
         <v>10.5</v>
@@ -14864,76 +15276,82 @@
         <v>7.5</v>
       </c>
       <c r="AR69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AS69" t="n">
         <v>5.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AU69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AV69" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AW69" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX69" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY69" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AZ69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB69" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="BC69" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="BD69" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="BE69" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="BF69" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG69" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH69" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="BI69" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="BJ69" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="BK69" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="BL69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BM69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BN69" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="BO69" t="n">
-        <v>3</v>
+        <v>6.5</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="70">
@@ -14949,7 +15367,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -15016,7 +15434,7 @@
         <v>13.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z70" t="n">
         <v>12</v>
@@ -15061,10 +15479,10 @@
         <v>5</v>
       </c>
       <c r="AN70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP70" t="n">
         <v>5.5</v>
@@ -15079,70 +15497,76 @@
         <v>4.5</v>
       </c>
       <c r="AT70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV70" t="n">
         <v>4</v>
       </c>
-      <c r="AU70" t="n">
+      <c r="AW70" t="n">
         <v>4</v>
       </c>
-      <c r="AV70" t="n">
+      <c r="AX70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ70" t="n">
         <v>3.5</v>
       </c>
-      <c r="AW70" t="n">
+      <c r="BA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB70" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BB70" t="n">
+      <c r="BC70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BJ70" t="n">
         <v>3</v>
       </c>
-      <c r="BC70" t="n">
+      <c r="BK70" t="n">
         <v>3</v>
       </c>
-      <c r="BD70" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>2</v>
-      </c>
       <c r="BL70" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="BM70" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="BN70" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BO70" t="n">
-        <v>2.5</v>
+        <v>5</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="71">
@@ -15158,7 +15582,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -15222,7 +15646,7 @@
         <v>11.5</v>
       </c>
       <c r="X71" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y71" t="n">
         <v>11.5</v>
@@ -15234,7 +15658,7 @@
         <v>10</v>
       </c>
       <c r="AB71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC71" t="n">
         <v>9</v>
@@ -15243,7 +15667,7 @@
         <v>7.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF71" t="n">
         <v>5.5</v>
@@ -15276,82 +15700,88 @@
         <v>5</v>
       </c>
       <c r="AP71" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AQ71" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AR71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT71" t="n">
         <v>4</v>
       </c>
-      <c r="AS71" t="n">
+      <c r="AU71" t="n">
         <v>4</v>
       </c>
-      <c r="AT71" t="n">
+      <c r="AV71" t="n">
         <v>3.5</v>
       </c>
-      <c r="AU71" t="n">
+      <c r="AW71" t="n">
         <v>3.5</v>
       </c>
-      <c r="AV71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>3</v>
-      </c>
       <c r="AX71" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AY71" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AZ71" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BA71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB71" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BC71" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BD71" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="BE71" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="BF71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH71" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BI71" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BJ71" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK71" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BL71" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BM71" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BN71" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BO71" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -15367,7 +15797,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -15485,82 +15915,88 @@
         <v>6</v>
       </c>
       <c r="AP72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD72" t="n">
         <v>6</v>
       </c>
-      <c r="AQ72" t="n">
+      <c r="BE72" t="n">
         <v>6</v>
       </c>
-      <c r="AR72" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV72" t="n">
+      <c r="BF72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ72" t="n">
         <v>4</v>
       </c>
-      <c r="AW72" t="n">
+      <c r="BK72" t="n">
         <v>4</v>
       </c>
-      <c r="AX72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>2</v>
-      </c>
       <c r="BL72" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BM72" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BN72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BO72" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -15576,7 +16012,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -15643,7 +16079,7 @@
         <v>11</v>
       </c>
       <c r="Y73" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z73" t="n">
         <v>9.5</v>
@@ -15655,7 +16091,7 @@
         <v>9</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD73" t="n">
         <v>8</v>
@@ -15700,76 +16136,82 @@
         <v>6</v>
       </c>
       <c r="AR73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV73" t="n">
         <v>4</v>
       </c>
-      <c r="AS73" t="n">
+      <c r="AW73" t="n">
         <v>4</v>
       </c>
-      <c r="AT73" t="n">
+      <c r="AX73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB73" t="n">
         <v>4</v>
       </c>
-      <c r="AU73" t="n">
+      <c r="BC73" t="n">
         <v>4</v>
       </c>
-      <c r="AV73" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>3</v>
-      </c>
       <c r="BD73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BE73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF73" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="BG73" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BH73" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BI73" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BJ73" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BK73" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BL73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BM73" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BN73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BO73" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -15785,7 +16227,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -15849,7 +16291,7 @@
         <v>12</v>
       </c>
       <c r="X74" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y74" t="n">
         <v>12</v>
@@ -15903,10 +16345,10 @@
         <v>5.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AQ74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AR74" t="n">
         <v>5</v>
@@ -15915,70 +16357,76 @@
         <v>5</v>
       </c>
       <c r="AT74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AU74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AV74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX74" t="n">
         <v>4</v>
       </c>
-      <c r="AW74" t="n">
+      <c r="AY74" t="n">
         <v>4</v>
       </c>
-      <c r="AX74" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>3</v>
-      </c>
       <c r="AZ74" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BA74" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BB74" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BC74" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="BD74" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="BE74" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="BF74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH74" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="BI74" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="BJ74" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK74" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BL74" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BM74" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BN74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BO74" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -15994,7 +16442,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -16112,7 +16560,7 @@
         <v>5</v>
       </c>
       <c r="AP75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>5</v>
@@ -16130,64 +16578,70 @@
         <v>3.5</v>
       </c>
       <c r="AV75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX75" t="n">
         <v>3.5</v>
       </c>
-      <c r="AW75" t="n">
+      <c r="AY75" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX75" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>3</v>
-      </c>
       <c r="AZ75" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BA75" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="BB75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD75" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BE75" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BF75" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="BG75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH75" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="BI75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ75" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="BK75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL75" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BM75" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BN75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BO75" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="76">
@@ -16203,7 +16657,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -16303,7 +16757,7 @@
         <v>5</v>
       </c>
       <c r="AJ76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AK76" t="n">
         <v>5</v>
@@ -16327,16 +16781,16 @@
         <v>5.5</v>
       </c>
       <c r="AR76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AS76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AT76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AV76" t="n">
         <v>4</v>
@@ -16345,58 +16799,64 @@
         <v>4</v>
       </c>
       <c r="AX76" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY76" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AZ76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA76" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BB76" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BC76" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BD76" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="BE76" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="BF76" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="BG76" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="BH76" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI76" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ76" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BK76" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BL76" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BM76" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BN76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BO76" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="77">
@@ -16412,7 +16872,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -16503,7 +16963,7 @@
         <v>6</v>
       </c>
       <c r="AG77" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH77" t="n">
         <v>5</v>
@@ -16518,94 +16978,100 @@
         <v>4.5</v>
       </c>
       <c r="AL77" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM77" t="n">
         <v>5</v>
       </c>
       <c r="AN77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO77" t="n">
         <v>5.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AR77" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AS77" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AT77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV77" t="n">
         <v>4</v>
       </c>
-      <c r="AU77" t="n">
+      <c r="AW77" t="n">
         <v>4</v>
       </c>
-      <c r="AV77" t="n">
+      <c r="AX77" t="n">
         <v>3.5</v>
       </c>
-      <c r="AW77" t="n">
+      <c r="AY77" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX77" t="n">
+      <c r="AZ77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK77" t="n">
         <v>2.5</v>
       </c>
-      <c r="AY77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BB77" t="n">
+      <c r="BL77" t="n">
         <v>3</v>
       </c>
-      <c r="BC77" t="n">
+      <c r="BM77" t="n">
         <v>3</v>
       </c>
-      <c r="BD77" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL77" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>1</v>
-      </c>
       <c r="BN77" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="BO77" t="n">
-        <v>1</v>
+        <v>3.5</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -16621,7 +17087,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -16715,7 +17181,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK78" t="n">
         <v>6</v>
@@ -16733,82 +17199,88 @@
         <v>7.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>7.5</v>
       </c>
       <c r="AR78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV78" t="n">
         <v>6</v>
       </c>
-      <c r="AS78" t="n">
+      <c r="AW78" t="n">
         <v>6</v>
       </c>
-      <c r="AT78" t="n">
+      <c r="AX78" t="n">
         <v>6</v>
       </c>
-      <c r="AU78" t="n">
+      <c r="AY78" t="n">
         <v>6</v>
       </c>
-      <c r="AV78" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ78" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BA78" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BB78" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BC78" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BD78" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="BE78" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="BF78" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="BG78" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="BH78" t="n">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="BI78" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="BJ78" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="BK78" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="BL78" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BM78" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BN78" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="BO78" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -16824,7 +17296,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -16912,7 +17384,7 @@
         <v>7</v>
       </c>
       <c r="AH79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI79" t="n">
         <v>5</v>
@@ -16924,7 +17396,7 @@
         <v>4.5</v>
       </c>
       <c r="AL79" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AM79" t="n">
         <v>5.5</v>
@@ -16948,7 +17420,7 @@
         <v>4.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU79" t="n">
         <v>5</v>
@@ -16957,61 +17429,67 @@
         <v>3.5</v>
       </c>
       <c r="AW79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX79" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX79" t="n">
+      <c r="AY79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM79" t="n">
         <v>3</v>
       </c>
-      <c r="AY79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>1.5</v>
-      </c>
       <c r="BN79" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="BO79" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -17027,7 +17505,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -17124,7 +17602,7 @@
         <v>5</v>
       </c>
       <c r="AK80" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AL80" t="n">
         <v>5</v>
@@ -17145,76 +17623,82 @@
         <v>6.5</v>
       </c>
       <c r="AR80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AS80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AT80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AV80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH80" t="n">
         <v>4</v>
       </c>
-      <c r="AW80" t="n">
+      <c r="BI80" t="n">
         <v>4</v>
       </c>
-      <c r="AX80" t="n">
+      <c r="BJ80" t="n">
         <v>3</v>
       </c>
-      <c r="AY80" t="n">
+      <c r="BK80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO80" t="n">
         <v>3</v>
       </c>
-      <c r="AZ80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BH80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BI80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BL80" t="n">
+      <c r="BP80" t="n">
         <v>4</v>
       </c>
-      <c r="BM80" t="n">
-        <v>4</v>
-      </c>
-      <c r="BN80" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO80" t="n">
-        <v>1.5</v>
+      <c r="BQ80" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -17230,7 +17714,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není částečně imunní</t>
+          <t>Průměrný počet delších kontaktů bez roušky, kde ani jeden není imunní</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -17303,7 +17787,7 @@
         <v>7.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD81" t="n">
         <v>7</v>
@@ -17354,76 +17838,82 @@
         <v>3.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU81" t="n">
         <v>3.5</v>
       </c>
       <c r="AV81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW81" t="n">
         <v>3.5</v>
       </c>
-      <c r="AW81" t="n">
+      <c r="AX81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI81" t="n">
         <v>3</v>
       </c>
-      <c r="AX81" t="n">
+      <c r="BJ81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BQ81" t="n">
         <v>2</v>
-      </c>
-      <c r="AY81" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD81" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BF81" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG81" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH81" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI81" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BK81" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BM81" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN81" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO81" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -17438,7 +17928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN22"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17777,6 +18267,16 @@
           <t>20.–26. 9. 2021</t>
         </is>
       </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>4.–10. 10. 2021</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>11.–17. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17981,6 +18481,12 @@
       <c r="BN2" t="n">
         <v>1583</v>
       </c>
+      <c r="BO2" t="n">
+        <v>1587</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1574</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18185,6 +18691,12 @@
       <c r="BN3" t="n">
         <v>366</v>
       </c>
+      <c r="BO3" t="n">
+        <v>374</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18389,6 +18901,12 @@
       <c r="BN4" t="n">
         <v>558</v>
       </c>
+      <c r="BO4" t="n">
+        <v>557</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>554</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18593,6 +19111,12 @@
       <c r="BN5" t="n">
         <v>659</v>
       </c>
+      <c r="BO5" t="n">
+        <v>656</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>658</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18797,6 +19321,12 @@
       <c r="BN6" t="n">
         <v>482</v>
       </c>
+      <c r="BO6" t="n">
+        <v>459</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19001,6 +19531,12 @@
       <c r="BN7" t="n">
         <v>667</v>
       </c>
+      <c r="BO7" t="n">
+        <v>691</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19205,6 +19741,12 @@
       <c r="BN8" t="n">
         <v>434</v>
       </c>
+      <c r="BO8" t="n">
+        <v>437</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19409,6 +19951,12 @@
       <c r="BN9" t="n">
         <v>281</v>
       </c>
+      <c r="BO9" t="n">
+        <v>256</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19613,6 +20161,12 @@
       <c r="BN10" t="n">
         <v>288</v>
       </c>
+      <c r="BO10" t="n">
+        <v>279</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19817,6 +20371,12 @@
       <c r="BN11" t="n">
         <v>1014</v>
       </c>
+      <c r="BO11" t="n">
+        <v>1052</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1044</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -20021,6 +20581,12 @@
       <c r="BN12" t="n">
         <v>794</v>
       </c>
+      <c r="BO12" t="n">
+        <v>796</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>790</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -20225,6 +20791,12 @@
       <c r="BN13" t="n">
         <v>789</v>
       </c>
+      <c r="BO13" t="n">
+        <v>791</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -20429,6 +21001,12 @@
       <c r="BN14" t="n">
         <v>821</v>
       </c>
+      <c r="BO14" t="n">
+        <v>815</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>803</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20633,6 +21211,12 @@
       <c r="BN15" t="n">
         <v>367</v>
       </c>
+      <c r="BO15" t="n">
+        <v>361</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20837,6 +21421,12 @@
       <c r="BN16" t="n">
         <v>191</v>
       </c>
+      <c r="BO16" t="n">
+        <v>194</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -21040,6 +21630,12 @@
       </c>
       <c r="BN17" t="n">
         <v>204</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>217</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="18">
@@ -21241,6 +21837,12 @@
       <c r="BN18" t="n">
         <v>710</v>
       </c>
+      <c r="BO18" t="n">
+        <v>695</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -21441,6 +22043,12 @@
       <c r="BN19" t="n">
         <v>61</v>
       </c>
+      <c r="BO19" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -21641,6 +22249,12 @@
       <c r="BN20" t="n">
         <v>62</v>
       </c>
+      <c r="BO20" t="n">
+        <v>66</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21841,11 +22455,17 @@
       <c r="BN21" t="n">
         <v>54</v>
       </c>
+      <c r="BO21" t="n">
+        <v>68</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -21913,6 +22533,8 @@
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS106"/>
+  <dimension ref="A1:BU106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,6 +815,16 @@
           <t>1.–7. 11. 2021</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>15.–21. 11. 2021</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>22.–28. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1036,6 +1046,12 @@
       <c r="BS2" t="n">
         <v>19</v>
       </c>
+      <c r="BT2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1129,10 +1145,10 @@
         <v>22.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19.5</v>
@@ -1162,10 +1178,10 @@
         <v>14.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP3" t="n">
         <v>12</v>
@@ -1174,79 +1190,79 @@
         <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AV3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG3" t="n">
         <v>10.5</v>
       </c>
-      <c r="AW3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX3" t="n">
+      <c r="BH3" t="n">
         <v>9</v>
       </c>
-      <c r="AY3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BI3" t="n">
         <v>9.5</v>
       </c>
-      <c r="BA3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>11</v>
-      </c>
       <c r="BJ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>7</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>7</v>
       </c>
       <c r="BM3" t="n">
         <v>6.5</v>
       </c>
       <c r="BN3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BO3" t="n">
         <v>8</v>
       </c>
       <c r="BP3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BQ3" t="n">
         <v>8</v>
@@ -1255,6 +1271,12 @@
         <v>7</v>
       </c>
       <c r="BS3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BU3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1478,6 +1500,12 @@
       <c r="BS4" t="n">
         <v>12</v>
       </c>
+      <c r="BT4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1610,7 +1638,7 @@
         <v>5.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
@@ -1619,67 +1647,67 @@
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BB5" t="n">
         <v>4</v>
       </c>
       <c r="BC5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>4</v>
       </c>
-      <c r="BD5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BK5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BL5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BM5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BN5" t="n">
         <v>5.5</v>
@@ -1698,6 +1726,12 @@
       </c>
       <c r="BS5" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1920,6 +1954,12 @@
       <c r="BS6" t="n">
         <v>18.5</v>
       </c>
+      <c r="BT6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2021,6 +2061,12 @@
       <c r="BS7" t="n">
         <v>19</v>
       </c>
+      <c r="BT7" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2242,6 +2288,12 @@
       <c r="BS8" t="n">
         <v>22</v>
       </c>
+      <c r="BT8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2343,6 +2395,12 @@
       <c r="BS9" t="n">
         <v>25</v>
       </c>
+      <c r="BT9" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2564,6 +2622,12 @@
       <c r="BS10" t="n">
         <v>11</v>
       </c>
+      <c r="BT10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2665,6 +2729,12 @@
       <c r="BS11" t="n">
         <v>12.5</v>
       </c>
+      <c r="BT11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2886,6 +2956,12 @@
       <c r="BS12" t="n">
         <v>25.5</v>
       </c>
+      <c r="BT12" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3107,6 +3183,12 @@
       <c r="BS13" t="n">
         <v>23.5</v>
       </c>
+      <c r="BT13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3328,6 +3410,12 @@
       <c r="BS14" t="n">
         <v>11.5</v>
       </c>
+      <c r="BT14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3549,6 +3637,12 @@
       <c r="BS15" t="n">
         <v>21</v>
       </c>
+      <c r="BT15" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3770,6 +3864,12 @@
       <c r="BS16" t="n">
         <v>18</v>
       </c>
+      <c r="BT16" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3991,6 +4091,12 @@
       <c r="BS17" t="n">
         <v>18.5</v>
       </c>
+      <c r="BT17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4212,6 +4318,12 @@
       <c r="BS18" t="n">
         <v>24</v>
       </c>
+      <c r="BT18" t="n">
+        <v>23</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4433,6 +4545,12 @@
       <c r="BS19" t="n">
         <v>19</v>
       </c>
+      <c r="BT19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4654,6 +4772,12 @@
       <c r="BS20" t="n">
         <v>17</v>
       </c>
+      <c r="BT20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4875,6 +4999,12 @@
       <c r="BS21" t="n">
         <v>20</v>
       </c>
+      <c r="BT21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5096,6 +5226,12 @@
       <c r="BS22" t="n">
         <v>18</v>
       </c>
+      <c r="BT22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5317,6 +5453,12 @@
       <c r="BS23" t="n">
         <v>18.5</v>
       </c>
+      <c r="BT23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5538,6 +5680,12 @@
       <c r="BS24" t="n">
         <v>18</v>
       </c>
+      <c r="BT24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5759,6 +5907,12 @@
       <c r="BS25" t="n">
         <v>21.5</v>
       </c>
+      <c r="BT25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5980,6 +6134,12 @@
       <c r="BS26" t="n">
         <v>21</v>
       </c>
+      <c r="BT26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6195,6 +6355,12 @@
       <c r="BS27" t="n">
         <v>27.5</v>
       </c>
+      <c r="BT27" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6410,6 +6576,12 @@
       <c r="BS28" t="n">
         <v>14.5</v>
       </c>
+      <c r="BT28" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6625,6 +6797,12 @@
       <c r="BS29" t="n">
         <v>16</v>
       </c>
+      <c r="BT29" t="n">
+        <v>15</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6840,6 +7018,12 @@
       <c r="BS30" t="n">
         <v>7.5</v>
       </c>
+      <c r="BT30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6933,10 +7117,10 @@
         <v>22.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AE31" t="n">
         <v>19.5</v>
@@ -6966,10 +7150,10 @@
         <v>14.5</v>
       </c>
       <c r="AN31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP31" t="n">
         <v>12</v>
@@ -6978,88 +7162,94 @@
         <v>8</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE31" t="n">
         <v>11.5</v>
       </c>
-      <c r="AU31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BD31" t="n">
+      <c r="BF31" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BJ31" t="n">
         <v>12.5</v>
       </c>
-      <c r="BE31" t="n">
+      <c r="BK31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BM31" t="n">
         <v>13</v>
       </c>
-      <c r="BF31" t="n">
+      <c r="BN31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>16</v>
+      </c>
+      <c r="BP31" t="n">
         <v>15</v>
       </c>
-      <c r="BG31" t="n">
-        <v>15</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>16</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>14</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>16</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BP31" t="n">
+      <c r="BQ31" t="n">
         <v>15.5</v>
-      </c>
-      <c r="BQ31" t="n">
-        <v>16</v>
       </c>
       <c r="BR31" t="n">
         <v>12</v>
       </c>
       <c r="BS31" t="n">
         <v>12</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="32">
@@ -7079,70 +7269,70 @@
         </is>
       </c>
       <c r="AR32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS32" t="n">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="AT32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY32" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BA32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BB32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BC32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BD32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BE32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BF32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG32" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BH32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BI32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BK32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BL32" t="n">
         <v>3.5</v>
       </c>
       <c r="BM32" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BN32" t="n">
         <v>5</v>
@@ -7161,6 +7351,12 @@
       </c>
       <c r="BS32" t="n">
         <v>5</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="33">
@@ -7234,7 +7430,7 @@
         <v>27.5</v>
       </c>
       <c r="V33" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="W33" t="n">
         <v>27</v>
@@ -7243,7 +7439,7 @@
         <v>26.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="Z33" t="n">
         <v>28.5</v>
@@ -7258,16 +7454,16 @@
         <v>26.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="AE33" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="AF33" t="n">
         <v>19</v>
       </c>
       <c r="AG33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH33" t="n">
         <v>15.5</v>
@@ -7294,94 +7490,100 @@
         <v>18.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ33" t="n">
         <v>10</v>
       </c>
       <c r="AR33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI33" t="n">
         <v>15.5</v>
       </c>
-      <c r="AS33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT33" t="n">
+      <c r="BJ33" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK33" t="n">
         <v>14.5</v>
       </c>
-      <c r="AU33" t="n">
+      <c r="BL33" t="n">
+        <v>16</v>
+      </c>
+      <c r="BM33" t="n">
         <v>14.5</v>
       </c>
-      <c r="AV33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>14</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BG33" t="n">
+      <c r="BN33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BP33" t="n">
         <v>17</v>
       </c>
-      <c r="BH33" t="n">
+      <c r="BQ33" t="n">
         <v>17.5</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>18</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>17</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>15</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>19</v>
-      </c>
-      <c r="BO33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BP33" t="n">
-        <v>18</v>
-      </c>
-      <c r="BQ33" t="n">
-        <v>18</v>
       </c>
       <c r="BR33" t="n">
         <v>14</v>
       </c>
       <c r="BS33" t="n">
         <v>14</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -7401,67 +7603,67 @@
         </is>
       </c>
       <c r="AR34" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AS34" t="n">
-        <v>30.5</v>
+        <v>28</v>
       </c>
       <c r="AT34" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="AV34" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AW34" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AZ34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF34" t="n">
         <v>10</v>
       </c>
-      <c r="BA34" t="n">
+      <c r="BG34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BI34" t="n">
         <v>11</v>
       </c>
-      <c r="BB34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BJ34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BM34" t="n">
         <v>5</v>
@@ -7483,6 +7685,12 @@
       </c>
       <c r="BS34" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -7619,70 +7827,70 @@
         <v>8.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AR35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AT35" t="n">
         <v>6.5</v>
       </c>
       <c r="AU35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV35" t="n">
         <v>6</v>
       </c>
       <c r="AW35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BA35" t="n">
         <v>6</v>
       </c>
       <c r="BB35" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="BC35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BD35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE35" t="n">
         <v>9</v>
       </c>
-      <c r="BE35" t="n">
-        <v>10</v>
-      </c>
       <c r="BF35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BK35" t="n">
         <v>8</v>
       </c>
-      <c r="BI35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>9</v>
-      </c>
       <c r="BL35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BM35" t="n">
         <v>10.5</v>
@@ -7704,6 +7912,12 @@
       </c>
       <c r="BS35" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="36">
@@ -7729,7 +7943,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>2</v>
@@ -7744,19 +7958,19 @@
         <v>4.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BA36" t="n">
         <v>3.5</v>
       </c>
       <c r="BB36" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BC36" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BD36" t="n">
         <v>4.5</v>
@@ -7765,22 +7979,22 @@
         <v>4.5</v>
       </c>
       <c r="BF36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BH36" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="BI36" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BJ36" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK36" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BL36" t="n">
         <v>1</v>
@@ -7805,6 +8019,12 @@
       </c>
       <c r="BS36" t="n">
         <v>2.5</v>
+      </c>
+      <c r="BT36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -7878,7 +8098,7 @@
         <v>26.5</v>
       </c>
       <c r="V37" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="W37" t="n">
         <v>27</v>
@@ -7896,22 +8116,22 @@
         <v>28</v>
       </c>
       <c r="AB37" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AC37" t="n">
         <v>26.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="AE37" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
         <v>12.5</v>
@@ -7926,7 +8146,7 @@
         <v>15.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM37" t="n">
         <v>18</v>
@@ -7944,73 +8164,73 @@
         <v>11</v>
       </c>
       <c r="AR37" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AT37" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AX37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC37" t="n">
         <v>11.5</v>
       </c>
-      <c r="AY37" t="n">
+      <c r="BD37" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK37" t="n">
         <v>11</v>
       </c>
-      <c r="AZ37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>17</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>18</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>17</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>18</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>12</v>
-      </c>
       <c r="BL37" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BM37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BN37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BO37" t="n">
         <v>11</v>
@@ -8026,6 +8246,12 @@
       </c>
       <c r="BS37" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -8111,7 +8337,7 @@
         <v>28</v>
       </c>
       <c r="Z38" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="AA38" t="n">
         <v>29.5</v>
@@ -8141,7 +8367,7 @@
         <v>16.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK38" t="n">
         <v>17.5</v>
@@ -8150,85 +8376,85 @@
         <v>18</v>
       </c>
       <c r="AM38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO38" t="n">
         <v>18.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ38" t="n">
         <v>9.5</v>
       </c>
       <c r="AR38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AS38" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AU38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV38" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AW38" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AX38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE38" t="n">
         <v>11.5</v>
       </c>
-      <c r="AY38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ38" t="n">
+      <c r="BF38" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BH38" t="n">
         <v>11</v>
       </c>
-      <c r="BA38" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>13</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>14</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BI38" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="BJ38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM38" t="n">
         <v>8.5</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>9</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>9</v>
       </c>
       <c r="BN38" t="n">
         <v>11.5</v>
@@ -8237,16 +8463,22 @@
         <v>11.5</v>
       </c>
       <c r="BP38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ38" t="n">
         <v>10.5</v>
-      </c>
-      <c r="BQ38" t="n">
-        <v>11</v>
       </c>
       <c r="BR38" t="n">
         <v>10</v>
       </c>
       <c r="BS38" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -8332,7 +8564,7 @@
         <v>16.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA39" t="n">
         <v>16</v>
@@ -8371,7 +8603,7 @@
         <v>9</v>
       </c>
       <c r="AM39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN39" t="n">
         <v>9.5</v>
@@ -8380,7 +8612,7 @@
         <v>9.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>5.5</v>
@@ -8389,58 +8621,58 @@
         <v>7</v>
       </c>
       <c r="AS39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AU39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV39" t="n">
         <v>6</v>
       </c>
       <c r="AW39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE39" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA39" t="n">
+      <c r="BF39" t="n">
         <v>6</v>
       </c>
-      <c r="BB39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>7</v>
-      </c>
       <c r="BG39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH39" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BI39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ39" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BK39" t="n">
         <v>2.5</v>
@@ -8468,6 +8700,12 @@
       </c>
       <c r="BS39" t="n">
         <v>3</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="40">
@@ -8589,7 +8827,7 @@
         <v>15</v>
       </c>
       <c r="AL40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM40" t="n">
         <v>17.5</v>
@@ -8598,73 +8836,73 @@
         <v>18</v>
       </c>
       <c r="AO40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP40" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS40" t="n">
         <v>14.5</v>
       </c>
-      <c r="AS40" t="n">
-        <v>15</v>
-      </c>
       <c r="AT40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE40" t="n">
         <v>13</v>
       </c>
-      <c r="AU40" t="n">
+      <c r="BF40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BG40" t="n">
         <v>13</v>
       </c>
-      <c r="AV40" t="n">
+      <c r="BH40" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI40" t="n">
         <v>13.5</v>
       </c>
-      <c r="AW40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>13</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>15</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>15.5</v>
-      </c>
       <c r="BJ40" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BK40" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="BL40" t="n">
         <v>9</v>
@@ -8673,7 +8911,7 @@
         <v>8.5</v>
       </c>
       <c r="BN40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BO40" t="n">
         <v>10.5</v>
@@ -8689,6 +8927,12 @@
       </c>
       <c r="BS40" t="n">
         <v>9</v>
+      </c>
+      <c r="BT40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="41">
@@ -8786,10 +9030,10 @@
         <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AE41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
         <v>16.5</v>
@@ -8819,13 +9063,13 @@
         <v>14</v>
       </c>
       <c r="AO41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP41" t="n">
         <v>11</v>
       </c>
       <c r="AQ41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AR41" t="n">
         <v>11.5</v>
@@ -8834,58 +9078,58 @@
         <v>11</v>
       </c>
       <c r="AT41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU41" t="n">
         <v>11</v>
       </c>
-      <c r="AU41" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AV41" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AW41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF41" t="n">
         <v>10</v>
       </c>
-      <c r="AX41" t="n">
+      <c r="BG41" t="n">
         <v>10</v>
       </c>
-      <c r="AY41" t="n">
+      <c r="BH41" t="n">
         <v>8.5</v>
       </c>
-      <c r="AZ41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BA41" t="n">
+      <c r="BI41" t="n">
         <v>8.5</v>
       </c>
-      <c r="BB41" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BJ41" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BK41" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BL41" t="n">
         <v>6</v>
@@ -8900,16 +9144,22 @@
         <v>7</v>
       </c>
       <c r="BP41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BQ41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BR41" t="n">
         <v>6.5</v>
       </c>
       <c r="BS41" t="n">
         <v>6</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="42">
@@ -8989,7 +9239,7 @@
         <v>18</v>
       </c>
       <c r="X42" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="n">
         <v>21</v>
@@ -9001,10 +9251,10 @@
         <v>22</v>
       </c>
       <c r="AB42" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD42" t="n">
         <v>20</v>
@@ -9037,82 +9287,82 @@
         <v>14</v>
       </c>
       <c r="AN42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO42" t="n">
         <v>14</v>
       </c>
       <c r="AP42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ42" t="n">
         <v>7.5</v>
       </c>
       <c r="AR42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AS42" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU42" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG42" t="n">
         <v>9.5</v>
       </c>
-      <c r="AW42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>11</v>
-      </c>
       <c r="BH42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI42" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BJ42" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BK42" t="n">
         <v>4.5</v>
       </c>
       <c r="BL42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BM42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BN42" t="n">
         <v>6.5</v>
@@ -9131,6 +9381,12 @@
       </c>
       <c r="BS42" t="n">
         <v>6.5</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -9213,7 +9469,7 @@
         <v>32.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="Z43" t="n">
         <v>34</v>
@@ -9264,79 +9520,79 @@
         <v>18</v>
       </c>
       <c r="AP43" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ43" t="n">
         <v>9</v>
       </c>
       <c r="AR43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AS43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AT43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF43" t="n">
         <v>12.5</v>
       </c>
-      <c r="AU43" t="n">
+      <c r="BG43" t="n">
         <v>12.5</v>
       </c>
-      <c r="AV43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BB43" t="n">
+      <c r="BH43" t="n">
         <v>11</v>
       </c>
-      <c r="BC43" t="n">
+      <c r="BI43" t="n">
         <v>11</v>
       </c>
-      <c r="BD43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>14</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BJ43" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BK43" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BL43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BM43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BN43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BO43" t="n">
         <v>10</v>
@@ -9352,6 +9608,12 @@
       </c>
       <c r="BS43" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="44">
@@ -9431,10 +9693,10 @@
         <v>25.5</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="Z44" t="n">
         <v>26</v>
@@ -9473,10 +9735,10 @@
         <v>12.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN44" t="n">
         <v>13.5</v>
@@ -9485,70 +9747,70 @@
         <v>14</v>
       </c>
       <c r="AP44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AQ44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AR44" t="n">
         <v>11.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AT44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AU44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AV44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG44" t="n">
         <v>10</v>
       </c>
-      <c r="AW44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ44" t="n">
+      <c r="BH44" t="n">
         <v>8.5</v>
       </c>
-      <c r="BA44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>10</v>
-      </c>
       <c r="BI44" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="BJ44" t="n">
         <v>4.5</v>
       </c>
       <c r="BK44" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BL44" t="n">
         <v>6.5</v>
@@ -9573,6 +9835,12 @@
       </c>
       <c r="BS44" t="n">
         <v>6.5</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -9670,7 +9938,7 @@
         <v>20.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE45" t="n">
         <v>17</v>
@@ -9679,7 +9947,7 @@
         <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
         <v>11</v>
@@ -9694,7 +9962,7 @@
         <v>12</v>
       </c>
       <c r="AL45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM45" t="n">
         <v>12</v>
@@ -9712,70 +9980,70 @@
         <v>8</v>
       </c>
       <c r="AR45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AT45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU45" t="n">
         <v>9</v>
       </c>
-      <c r="AU45" t="n">
+      <c r="AV45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE45" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV45" t="n">
+      <c r="BF45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH45" t="n">
         <v>8.5</v>
       </c>
-      <c r="AW45" t="n">
+      <c r="BI45" t="n">
         <v>9</v>
       </c>
-      <c r="AX45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BJ45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BL45" t="n">
         <v>6.5</v>
       </c>
       <c r="BM45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="BN45" t="n">
         <v>7.5</v>
@@ -9787,13 +10055,19 @@
         <v>7.5</v>
       </c>
       <c r="BQ45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BR45" t="n">
         <v>6.5</v>
       </c>
       <c r="BS45" t="n">
         <v>6</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="46">
@@ -9921,10 +10195,10 @@
         <v>16</v>
       </c>
       <c r="AN46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP46" t="n">
         <v>12.5</v>
@@ -9933,87 +10207,93 @@
         <v>9.5</v>
       </c>
       <c r="AR46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AS46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AT46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE46" t="n">
         <v>11.5</v>
       </c>
-      <c r="AW46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AX46" t="n">
+      <c r="BF46" t="n">
         <v>10.5</v>
       </c>
-      <c r="AY46" t="n">
+      <c r="BG46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH46" t="n">
         <v>10</v>
       </c>
-      <c r="AZ46" t="n">
+      <c r="BI46" t="n">
         <v>10.5</v>
       </c>
-      <c r="BA46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>12</v>
-      </c>
       <c r="BJ46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BL46" t="n">
         <v>7</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>7.5</v>
       </c>
       <c r="BM46" t="n">
         <v>7</v>
       </c>
       <c r="BN46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP46" t="n">
         <v>7.5</v>
       </c>
-      <c r="BO46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BP46" t="n">
+      <c r="BQ46" t="n">
         <v>8</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>8.5</v>
       </c>
       <c r="BR46" t="n">
         <v>7</v>
       </c>
       <c r="BS46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU46" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10097,7 +10377,7 @@
         <v>20.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="n">
         <v>21</v>
@@ -10115,7 +10395,7 @@
         <v>19</v>
       </c>
       <c r="AE47" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF47" t="n">
         <v>14</v>
@@ -10145,7 +10425,7 @@
         <v>13.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP47" t="n">
         <v>11.5</v>
@@ -10154,64 +10434,64 @@
         <v>7</v>
       </c>
       <c r="AR47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AT47" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AU47" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH47" t="n">
         <v>8</v>
       </c>
-      <c r="AY47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ47" t="n">
+      <c r="BI47" t="n">
         <v>8.5</v>
       </c>
-      <c r="BA47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ47" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="BK47" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="BL47" t="n">
         <v>6.5</v>
@@ -10236,6 +10516,12 @@
       </c>
       <c r="BS47" t="n">
         <v>7</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="48">
@@ -10315,7 +10601,7 @@
         <v>21.5</v>
       </c>
       <c r="X48" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="Y48" t="n">
         <v>23.5</v>
@@ -10330,19 +10616,19 @@
         <v>22</v>
       </c>
       <c r="AC48" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AD48" t="n">
         <v>20.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF48" t="n">
         <v>15.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
         <v>12.5</v>
@@ -10372,67 +10658,67 @@
         <v>12.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AR48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AS48" t="n">
         <v>12</v>
       </c>
       <c r="AT48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AU48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF48" t="n">
         <v>10.5</v>
       </c>
-      <c r="AW48" t="n">
+      <c r="BG48" t="n">
         <v>10.5</v>
       </c>
-      <c r="AX48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BA48" t="n">
+      <c r="BH48" t="n">
         <v>9</v>
       </c>
-      <c r="BB48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BC48" t="n">
+      <c r="BI48" t="n">
         <v>9</v>
       </c>
-      <c r="BD48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>11</v>
-      </c>
       <c r="BJ48" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="BK48" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="BL48" t="n">
         <v>7</v>
@@ -10441,21 +10727,27 @@
         <v>6.5</v>
       </c>
       <c r="BN48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BO48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BP48" t="n">
         <v>8</v>
       </c>
       <c r="BQ48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BR48" t="n">
         <v>7.5</v>
       </c>
       <c r="BS48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BU48" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10557,7 +10849,7 @@
         <v>20.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="n">
         <v>15</v>
@@ -10602,82 +10894,88 @@
         <v>11</v>
       </c>
       <c r="AT49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI49" t="n">
         <v>11</v>
       </c>
-      <c r="AU49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BJ49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK49" t="n">
         <v>7.5</v>
       </c>
-      <c r="BK49" t="n">
-        <v>8</v>
-      </c>
       <c r="BL49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BM49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BN49" t="n">
         <v>8.5</v>
       </c>
       <c r="BO49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BP49" t="n">
         <v>7</v>
       </c>
       <c r="BQ49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BR49" t="n">
         <v>7</v>
       </c>
       <c r="BS49" t="n">
         <v>6.5</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -10817,73 +11115,73 @@
         <v>8</v>
       </c>
       <c r="AR50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AT50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF50" t="n">
         <v>11</v>
       </c>
-      <c r="AU50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV50" t="n">
+      <c r="BG50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BI50" t="n">
         <v>10</v>
       </c>
-      <c r="AW50" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>14</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>11.5</v>
-      </c>
       <c r="BJ50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BL50" t="n">
         <v>7</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>7</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>7.5</v>
       </c>
       <c r="BM50" t="n">
         <v>7</v>
       </c>
       <c r="BN50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BO50" t="n">
         <v>9</v>
@@ -10899,6 +11197,12 @@
       </c>
       <c r="BS50" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
@@ -11029,79 +11333,79 @@
         <v>16</v>
       </c>
       <c r="AO51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT51" t="n">
         <v>9.5</v>
       </c>
-      <c r="AR51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AU51" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV51" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AW51" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AX51" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AY51" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA51" t="n">
         <v>8</v>
       </c>
-      <c r="BA51" t="n">
-        <v>9</v>
-      </c>
       <c r="BB51" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BC51" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BD51" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="BE51" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF51" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="BG51" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="BH51" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BI51" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BJ51" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL51" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BM51" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BN51" t="n">
         <v>7</v>
@@ -11119,6 +11423,12 @@
         <v>7</v>
       </c>
       <c r="BS51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BU51" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -11217,7 +11527,7 @@
         <v>29.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="AG52" t="n">
         <v>24.5</v>
@@ -11229,13 +11539,13 @@
         <v>23</v>
       </c>
       <c r="AJ52" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="AK52" t="n">
         <v>23.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="AM52" t="n">
         <v>22.5</v>
@@ -11250,79 +11560,79 @@
         <v>20.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AR52" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AU52" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV52" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AW52" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AX52" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY52" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AZ52" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BA52" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD52" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="BE52" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="BF52" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="BG52" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="BH52" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="BI52" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="BJ52" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BK52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BL52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BM52" t="n">
         <v>8.5</v>
       </c>
       <c r="BN52" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BO52" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BP52" t="n">
         <v>10.5</v>
@@ -11334,6 +11644,12 @@
         <v>10</v>
       </c>
       <c r="BS52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BU52" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11465,7 +11781,7 @@
         <v>16</v>
       </c>
       <c r="AQ53" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AR53" t="n">
         <v>11</v>
@@ -11474,55 +11790,55 @@
         <v>11.5</v>
       </c>
       <c r="AT53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF53" t="n">
         <v>12</v>
       </c>
-      <c r="AU53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX53" t="n">
+      <c r="BG53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH53" t="n">
         <v>8</v>
       </c>
-      <c r="AY53" t="n">
+      <c r="BI53" t="n">
         <v>8.5</v>
       </c>
-      <c r="AZ53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>13</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>10</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ53" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BK53" t="n">
         <v>6</v>
@@ -11550,6 +11866,12 @@
       </c>
       <c r="BS53" t="n">
         <v>3.5</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -11662,7 +11984,7 @@
         <v>8</v>
       </c>
       <c r="AK54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL54" t="n">
         <v>8.5</v>
@@ -11671,7 +11993,7 @@
         <v>9</v>
       </c>
       <c r="AN54" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO54" t="n">
         <v>11</v>
@@ -11686,55 +12008,55 @@
         <v>7.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AT54" t="n">
         <v>6.5</v>
       </c>
       <c r="AU54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD54" t="n">
         <v>7</v>
       </c>
-      <c r="AV54" t="n">
+      <c r="BE54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH54" t="n">
         <v>7</v>
       </c>
-      <c r="AW54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD54" t="n">
+      <c r="BI54" t="n">
         <v>7.5</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>8.5</v>
       </c>
       <c r="BJ54" t="n">
         <v>4</v>
@@ -11743,7 +12065,7 @@
         <v>6</v>
       </c>
       <c r="BL54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BM54" t="n">
         <v>9</v>
@@ -11765,6 +12087,12 @@
       </c>
       <c r="BS54" t="n">
         <v>5</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -11853,7 +12181,7 @@
         <v>14</v>
       </c>
       <c r="AC55" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD55" t="n">
         <v>15.5</v>
@@ -11877,19 +12205,19 @@
         <v>8</v>
       </c>
       <c r="AK55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM55" t="n">
         <v>10.5</v>
       </c>
       <c r="AN55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP55" t="n">
         <v>9</v>
@@ -11910,58 +12238,58 @@
         <v>4.5</v>
       </c>
       <c r="AV55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AW55" t="n">
         <v>7</v>
       </c>
       <c r="AX55" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY55" t="n">
         <v>3</v>
       </c>
       <c r="AZ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA55" t="n">
         <v>3.5</v>
       </c>
-      <c r="BA55" t="n">
+      <c r="BB55" t="n">
         <v>4</v>
       </c>
-      <c r="BB55" t="n">
-        <v>5</v>
-      </c>
       <c r="BC55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BE55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK55" t="n">
         <v>6.5</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI55" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>7.5</v>
       </c>
       <c r="BL55" t="n">
         <v>6</v>
       </c>
       <c r="BM55" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BN55" t="n">
         <v>3</v>
@@ -11970,7 +12298,7 @@
         <v>5.5</v>
       </c>
       <c r="BP55" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BQ55" t="n">
         <v>3</v>
@@ -11979,6 +12307,12 @@
         <v>4.5</v>
       </c>
       <c r="BS55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BU55" t="n">
         <v>3</v>
       </c>
     </row>
@@ -12202,6 +12536,12 @@
       <c r="BS56" t="n">
         <v>12.5</v>
       </c>
+      <c r="BT56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12303,6 +12643,12 @@
       <c r="BS57" t="n">
         <v>12</v>
       </c>
+      <c r="BT57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12524,6 +12870,12 @@
       <c r="BS58" t="n">
         <v>14.5</v>
       </c>
+      <c r="BT58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12625,6 +12977,12 @@
       <c r="BS59" t="n">
         <v>15.5</v>
       </c>
+      <c r="BT59" t="n">
+        <v>13</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12846,6 +13204,12 @@
       <c r="BS60" t="n">
         <v>8</v>
       </c>
+      <c r="BT60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12947,6 +13311,12 @@
       <c r="BS61" t="n">
         <v>7.5</v>
       </c>
+      <c r="BT61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12965,7 +13335,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -12995,7 +13365,7 @@
         <v>8</v>
       </c>
       <c r="N62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
         <v>9.5</v>
@@ -13167,6 +13537,12 @@
       </c>
       <c r="BS62" t="n">
         <v>16.5</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="63">
@@ -13186,10 +13562,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
         <v>4.5</v>
@@ -13204,7 +13580,7 @@
         <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K63" t="n">
         <v>5.5</v>
@@ -13388,6 +13764,12 @@
       </c>
       <c r="BS63" t="n">
         <v>14</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="64">
@@ -13610,6 +13992,12 @@
       <c r="BS64" t="n">
         <v>7.5</v>
       </c>
+      <c r="BT64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13831,6 +14219,12 @@
       <c r="BS65" t="n">
         <v>14</v>
       </c>
+      <c r="BT65" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13867,7 +14261,7 @@
         <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
         <v>5</v>
@@ -14051,6 +14445,12 @@
       </c>
       <c r="BS66" t="n">
         <v>12</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="67">
@@ -14273,6 +14673,12 @@
       <c r="BS67" t="n">
         <v>11</v>
       </c>
+      <c r="BT67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14291,10 +14697,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F68" t="n">
         <v>6</v>
@@ -14493,6 +14899,12 @@
       </c>
       <c r="BS68" t="n">
         <v>15</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>13</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -14512,7 +14924,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="E69" t="n">
         <v>7.5</v>
@@ -14714,6 +15126,12 @@
       </c>
       <c r="BS69" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -14936,6 +15354,12 @@
       <c r="BS70" t="n">
         <v>11</v>
       </c>
+      <c r="BT70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14957,7 +15381,7 @@
         <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>4</v>
@@ -15156,6 +15580,12 @@
       </c>
       <c r="BS71" t="n">
         <v>12.5</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="72">
@@ -15178,7 +15608,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>3.5</v>
@@ -15193,7 +15623,7 @@
         <v>3.5</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K72" t="n">
         <v>4.5</v>
@@ -15377,6 +15807,12 @@
       </c>
       <c r="BS72" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="73">
@@ -15399,7 +15835,7 @@
         <v>8.5</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F73" t="n">
         <v>4</v>
@@ -15598,6 +16034,12 @@
       </c>
       <c r="BS73" t="n">
         <v>12</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="74">
@@ -15820,6 +16262,12 @@
       <c r="BS74" t="n">
         <v>11.5</v>
       </c>
+      <c r="BT74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15838,10 +16286,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F75" t="n">
         <v>3.5</v>
@@ -16040,6 +16488,12 @@
       </c>
       <c r="BS75" t="n">
         <v>12.5</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -16262,6 +16716,12 @@
       <c r="BS76" t="n">
         <v>13</v>
       </c>
+      <c r="BT76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16477,6 +16937,12 @@
       <c r="BS77" t="n">
         <v>15.5</v>
       </c>
+      <c r="BT77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16692,6 +17158,12 @@
       <c r="BS78" t="n">
         <v>12</v>
       </c>
+      <c r="BT78" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16907,6 +17379,12 @@
       <c r="BS79" t="n">
         <v>11</v>
       </c>
+      <c r="BT79" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17122,6 +17600,12 @@
       <c r="BS80" t="n">
         <v>8</v>
       </c>
+      <c r="BT80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17254,7 +17738,7 @@
         <v>5.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AQ81" t="n">
         <v>6</v>
@@ -17263,25 +17747,25 @@
         <v>5</v>
       </c>
       <c r="AS81" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU81" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AV81" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX81" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AZ81" t="n">
         <v>4</v>
@@ -17290,37 +17774,37 @@
         <v>4</v>
       </c>
       <c r="BB81" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BC81" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BD81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF81" t="n">
         <v>6.5</v>
       </c>
-      <c r="BE81" t="n">
+      <c r="BG81" t="n">
         <v>6.5</v>
       </c>
-      <c r="BF81" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BG81" t="n">
-        <v>7.5</v>
-      </c>
       <c r="BH81" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BI81" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BJ81" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BK81" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BL81" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BM81" t="n">
         <v>9.5</v>
@@ -17332,16 +17816,22 @@
         <v>11</v>
       </c>
       <c r="BP81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BQ81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BR81" t="n">
         <v>8</v>
       </c>
       <c r="BS81" t="n">
         <v>8</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -17361,25 +17851,25 @@
         </is>
       </c>
       <c r="AR82" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AS82" t="n">
         <v>3.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU82" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AV82" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AW82" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AX82" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AY82" t="n">
         <v>2.5</v>
@@ -17403,22 +17893,22 @@
         <v>2.5</v>
       </c>
       <c r="BF82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BH82" t="n">
         <v>4</v>
       </c>
-      <c r="BG82" t="n">
+      <c r="BI82" t="n">
         <v>4</v>
       </c>
-      <c r="BH82" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI82" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BJ82" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BK82" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BL82" t="n">
         <v>2</v>
@@ -17433,7 +17923,7 @@
         <v>3</v>
       </c>
       <c r="BP82" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BQ82" t="n">
         <v>3</v>
@@ -17443,6 +17933,12 @@
       </c>
       <c r="BS82" t="n">
         <v>3</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="83">
@@ -17576,82 +18072,82 @@
         <v>7</v>
       </c>
       <c r="AP83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF83" t="n">
         <v>7.5</v>
       </c>
-      <c r="AQ83" t="n">
+      <c r="BG83" t="n">
         <v>7.5</v>
       </c>
-      <c r="AR83" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BC83" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE83" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF83" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BG83" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BH83" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BI83" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BJ83" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BL83" t="n">
         <v>10</v>
       </c>
-      <c r="BK83" t="n">
+      <c r="BM83" t="n">
         <v>10</v>
       </c>
-      <c r="BL83" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BM83" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BN83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BO83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BP83" t="n">
         <v>12.5</v>
@@ -17664,6 +18160,12 @@
       </c>
       <c r="BS83" t="n">
         <v>9</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -17689,22 +18191,22 @@
         <v>5</v>
       </c>
       <c r="AT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV84" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU84" t="n">
+      <c r="AW84" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>2.5</v>
       </c>
       <c r="AX84" t="n">
         <v>4</v>
       </c>
       <c r="AY84" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AZ84" t="n">
         <v>2.5</v>
@@ -17713,34 +18215,34 @@
         <v>2.5</v>
       </c>
       <c r="BB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD84" t="n">
         <v>3.5</v>
       </c>
-      <c r="BC84" t="n">
+      <c r="BE84" t="n">
         <v>3.5</v>
       </c>
-      <c r="BD84" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE84" t="n">
-        <v>4</v>
-      </c>
       <c r="BF84" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BG84" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BH84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ84" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BK84" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BL84" t="n">
         <v>3</v>
@@ -17764,6 +18266,12 @@
         <v>4.5</v>
       </c>
       <c r="BS84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU84" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -17928,16 +18436,16 @@
         <v>2</v>
       </c>
       <c r="AZ85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BA85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BB85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BC85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BD85" t="n">
         <v>4</v>
@@ -17952,16 +18460,16 @@
         <v>4.5</v>
       </c>
       <c r="BH85" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BI85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BK85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BL85" t="n">
         <v>7</v>
@@ -17970,7 +18478,7 @@
         <v>7.5</v>
       </c>
       <c r="BN85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BO85" t="n">
         <v>7</v>
@@ -17979,13 +18487,19 @@
         <v>6.5</v>
       </c>
       <c r="BQ85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BR85" t="n">
         <v>5.5</v>
       </c>
       <c r="BS85" t="n">
         <v>5.5</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -18017,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="AV86" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AW86" t="n">
         <v>1.5</v>
@@ -18047,16 +18561,16 @@
         <v>2</v>
       </c>
       <c r="BF86" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BG86" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BH86" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BI86" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BJ86" t="n">
         <v>0.5</v>
@@ -18087,6 +18601,12 @@
       </c>
       <c r="BS86" t="n">
         <v>2</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="87">
@@ -18106,7 +18626,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -18166,10 +18686,10 @@
         <v>15</v>
       </c>
       <c r="X87" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z87" t="n">
         <v>14</v>
@@ -18214,16 +18734,16 @@
         <v>7</v>
       </c>
       <c r="AN87" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO87" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP87" t="n">
         <v>9</v>
       </c>
       <c r="AQ87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AR87" t="n">
         <v>7.5</v>
@@ -18232,64 +18752,64 @@
         <v>7.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AU87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ87" t="n">
         <v>6.5</v>
       </c>
-      <c r="AW87" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA87" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BB87" t="n">
+      <c r="BK87" t="n">
         <v>6.5</v>
       </c>
-      <c r="BC87" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BD87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BE87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF87" t="n">
-        <v>9</v>
-      </c>
-      <c r="BG87" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH87" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI87" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ87" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BK87" t="n">
-        <v>7.5</v>
-      </c>
       <c r="BL87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BM87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BN87" t="n">
         <v>7.5</v>
@@ -18308,6 +18828,12 @@
       </c>
       <c r="BS87" t="n">
         <v>6</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="88">
@@ -18327,10 +18853,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
         <v>4.5</v>
@@ -18381,7 +18907,7 @@
         <v>14</v>
       </c>
       <c r="V88" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="W88" t="n">
         <v>13.5</v>
@@ -18402,7 +18928,7 @@
         <v>11.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD88" t="n">
         <v>10.5</v>
@@ -18441,7 +18967,7 @@
         <v>6.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AQ88" t="n">
         <v>6.5</v>
@@ -18453,58 +18979,58 @@
         <v>5.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AU88" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AV88" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AW88" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX88" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY88" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AZ88" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BA88" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BB88" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BC88" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BD88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF88" t="n">
         <v>6</v>
       </c>
-      <c r="BE88" t="n">
+      <c r="BG88" t="n">
         <v>6</v>
       </c>
-      <c r="BF88" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG88" t="n">
-        <v>7</v>
-      </c>
       <c r="BH88" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BI88" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BJ88" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK88" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BL88" t="n">
         <v>6</v>
@@ -18513,7 +19039,7 @@
         <v>6</v>
       </c>
       <c r="BN88" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BO88" t="n">
         <v>7.5</v>
@@ -18522,13 +19048,19 @@
         <v>7</v>
       </c>
       <c r="BQ88" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BR88" t="n">
         <v>6</v>
       </c>
       <c r="BS88" t="n">
         <v>6</v>
+      </c>
+      <c r="BT88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -18626,7 +19158,7 @@
         <v>6.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE89" t="n">
         <v>5.5</v>
@@ -18716,16 +19248,16 @@
         <v>3.5</v>
       </c>
       <c r="BH89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI89" t="n">
         <v>2.5</v>
       </c>
-      <c r="BI89" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ89" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BK89" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BL89" t="n">
         <v>2</v>
@@ -18750,6 +19282,12 @@
       </c>
       <c r="BS89" t="n">
         <v>2.5</v>
+      </c>
+      <c r="BT89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -18889,64 +19427,64 @@
         <v>8</v>
       </c>
       <c r="AR90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD90" t="n">
         <v>7</v>
       </c>
-      <c r="AS90" t="n">
+      <c r="BE90" t="n">
         <v>7</v>
       </c>
-      <c r="AT90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU90" t="n">
+      <c r="BF90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BJ90" t="n">
         <v>6</v>
       </c>
-      <c r="AV90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BB90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BC90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BD90" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BE90" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF90" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG90" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH90" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BI90" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BJ90" t="n">
-        <v>6.5</v>
-      </c>
       <c r="BK90" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="BL90" t="n">
         <v>6</v>
@@ -18971,6 +19509,12 @@
       </c>
       <c r="BS90" t="n">
         <v>6</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -19104,7 +19648,7 @@
         <v>5</v>
       </c>
       <c r="AP91" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>5.5</v>
@@ -19116,58 +19660,58 @@
         <v>4.5</v>
       </c>
       <c r="AT91" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU91" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AV91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AZ91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BA91" t="n">
         <v>3.5</v>
       </c>
       <c r="BB91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD91" t="n">
         <v>4</v>
       </c>
-      <c r="BC91" t="n">
+      <c r="BE91" t="n">
         <v>4</v>
       </c>
-      <c r="BD91" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BE91" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BF91" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BG91" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BH91" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BI91" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BJ91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BK91" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BL91" t="n">
         <v>3.5</v>
@@ -19192,6 +19736,12 @@
       </c>
       <c r="BS91" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -19319,7 +19869,7 @@
         <v>5</v>
       </c>
       <c r="AN92" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO92" t="n">
         <v>4.5</v>
@@ -19328,13 +19878,13 @@
         <v>6</v>
       </c>
       <c r="AQ92" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AR92" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AS92" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AT92" t="n">
         <v>4</v>
@@ -19349,16 +19899,16 @@
         <v>4</v>
       </c>
       <c r="AX92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AY92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AZ92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BA92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BB92" t="n">
         <v>3.5</v>
@@ -19367,34 +19917,34 @@
         <v>3.5</v>
       </c>
       <c r="BD92" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BE92" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BF92" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BG92" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BH92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BI92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BJ92" t="n">
         <v>3</v>
       </c>
       <c r="BK92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL92" t="n">
         <v>3</v>
       </c>
-      <c r="BL92" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BM92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BN92" t="n">
         <v>4.5</v>
@@ -19413,6 +19963,12 @@
       </c>
       <c r="BS92" t="n">
         <v>4</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="93">
@@ -19432,10 +19988,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F93" t="n">
         <v>6</v>
@@ -19507,7 +20063,7 @@
         <v>13</v>
       </c>
       <c r="AC93" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD93" t="n">
         <v>10.5</v>
@@ -19552,70 +20108,70 @@
         <v>7.5</v>
       </c>
       <c r="AR93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF93" t="n">
         <v>6</v>
       </c>
-      <c r="AS93" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AT93" t="n">
+      <c r="BG93" t="n">
         <v>6</v>
       </c>
-      <c r="AU93" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ93" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA93" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB93" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC93" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD93" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BE93" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF93" t="n">
+      <c r="BH93" t="n">
         <v>7</v>
       </c>
-      <c r="BG93" t="n">
+      <c r="BI93" t="n">
         <v>7</v>
       </c>
-      <c r="BH93" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI93" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK93" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BL93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BM93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BN93" t="n">
         <v>6.5</v>
@@ -19634,6 +20190,12 @@
       </c>
       <c r="BS93" t="n">
         <v>6</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -19653,7 +20215,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="E94" t="n">
         <v>7.5</v>
@@ -19716,7 +20278,7 @@
         <v>13.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z94" t="n">
         <v>12</v>
@@ -19761,10 +20323,10 @@
         <v>5</v>
       </c>
       <c r="AN94" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO94" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP94" t="n">
         <v>5.5</v>
@@ -19779,10 +20341,10 @@
         <v>4.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AU94" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AV94" t="n">
         <v>4</v>
@@ -19797,7 +20359,7 @@
         <v>3</v>
       </c>
       <c r="AZ94" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BA94" t="n">
         <v>3</v>
@@ -19815,22 +20377,22 @@
         <v>4.5</v>
       </c>
       <c r="BF94" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BG94" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BH94" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BI94" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BJ94" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BK94" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BL94" t="n">
         <v>3.5</v>
@@ -19855,6 +20417,12 @@
       </c>
       <c r="BS94" t="n">
         <v>4</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="95">
@@ -19934,7 +20502,7 @@
         <v>11.5</v>
       </c>
       <c r="X95" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y95" t="n">
         <v>11.5</v>
@@ -19946,7 +20514,7 @@
         <v>10</v>
       </c>
       <c r="AB95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC95" t="n">
         <v>9</v>
@@ -19955,7 +20523,7 @@
         <v>7.5</v>
       </c>
       <c r="AE95" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF95" t="n">
         <v>5.5</v>
@@ -19988,22 +20556,22 @@
         <v>5</v>
       </c>
       <c r="AP95" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AQ95" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AR95" t="n">
         <v>4.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AT95" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU95" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AV95" t="n">
         <v>3.5</v>
@@ -20018,40 +20586,40 @@
         <v>3.5</v>
       </c>
       <c r="AZ95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB95" t="n">
         <v>4</v>
       </c>
-      <c r="BA95" t="n">
+      <c r="BC95" t="n">
         <v>4</v>
       </c>
-      <c r="BB95" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BC95" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BD95" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BE95" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BF95" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BG95" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BH95" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BI95" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BJ95" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BK95" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BL95" t="n">
         <v>4</v>
@@ -20063,7 +20631,7 @@
         <v>5</v>
       </c>
       <c r="BO95" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BP95" t="n">
         <v>5</v>
@@ -20076,6 +20644,12 @@
       </c>
       <c r="BS95" t="n">
         <v>4</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="96">
@@ -20098,7 +20672,7 @@
         <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>4</v>
@@ -20209,94 +20783,100 @@
         <v>6</v>
       </c>
       <c r="AP96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AQ96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AR96" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AS96" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AT96" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AU96" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AV96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AW96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AZ96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BA96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BB96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BC96" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BD96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BH96" t="n">
         <v>6</v>
       </c>
-      <c r="BE96" t="n">
+      <c r="BI96" t="n">
         <v>6</v>
       </c>
-      <c r="BF96" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BG96" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BH96" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI96" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BT96" t="n">
         <v>4</v>
       </c>
-      <c r="BK96" t="n">
+      <c r="BU96" t="n">
         <v>4</v>
-      </c>
-      <c r="BL96" t="n">
-        <v>5</v>
-      </c>
-      <c r="BM96" t="n">
-        <v>5</v>
-      </c>
-      <c r="BN96" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO96" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP96" t="n">
-        <v>5</v>
-      </c>
-      <c r="BQ96" t="n">
-        <v>5</v>
-      </c>
-      <c r="BR96" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BS96" t="n">
-        <v>4.5</v>
       </c>
     </row>
     <row r="97">
@@ -20319,7 +20899,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>3.5</v>
@@ -20334,7 +20914,7 @@
         <v>3.5</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K97" t="n">
         <v>4.5</v>
@@ -20379,7 +20959,7 @@
         <v>11</v>
       </c>
       <c r="Y97" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z97" t="n">
         <v>9.5</v>
@@ -20391,7 +20971,7 @@
         <v>9</v>
       </c>
       <c r="AC97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD97" t="n">
         <v>8</v>
@@ -20442,16 +21022,16 @@
         <v>4.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AU97" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AV97" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW97" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX97" t="n">
         <v>3</v>
@@ -20466,34 +21046,34 @@
         <v>3.5</v>
       </c>
       <c r="BB97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ97" t="n">
         <v>4</v>
       </c>
-      <c r="BC97" t="n">
+      <c r="BK97" t="n">
         <v>4</v>
-      </c>
-      <c r="BD97" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE97" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF97" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG97" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH97" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI97" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ97" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BK97" t="n">
-        <v>4.5</v>
       </c>
       <c r="BL97" t="n">
         <v>4</v>
@@ -20518,6 +21098,12 @@
       </c>
       <c r="BS97" t="n">
         <v>5</v>
+      </c>
+      <c r="BT97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="98">
@@ -20540,7 +21126,7 @@
         <v>8.5</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F98" t="n">
         <v>4</v>
@@ -20597,7 +21183,7 @@
         <v>12</v>
       </c>
       <c r="X98" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y98" t="n">
         <v>12</v>
@@ -20651,10 +21237,10 @@
         <v>5.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AQ98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AR98" t="n">
         <v>5</v>
@@ -20663,59 +21249,59 @@
         <v>5</v>
       </c>
       <c r="AT98" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AU98" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AV98" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AW98" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB98" t="n">
         <v>4</v>
       </c>
-      <c r="AY98" t="n">
+      <c r="BC98" t="n">
         <v>4</v>
       </c>
-      <c r="AZ98" t="n">
+      <c r="BD98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK98" t="n">
         <v>4</v>
       </c>
-      <c r="BA98" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BC98" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD98" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BE98" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF98" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG98" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH98" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI98" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ98" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BK98" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BL98" t="n">
         <v>4.5</v>
       </c>
@@ -20723,22 +21309,28 @@
         <v>4.5</v>
       </c>
       <c r="BN98" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BO98" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BP98" t="n">
         <v>6</v>
       </c>
       <c r="BQ98" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BR98" t="n">
         <v>5</v>
       </c>
       <c r="BS98" t="n">
         <v>5</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="99">
@@ -20872,7 +21464,7 @@
         <v>5</v>
       </c>
       <c r="AP99" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AQ99" t="n">
         <v>5</v>
@@ -20890,49 +21482,49 @@
         <v>3.5</v>
       </c>
       <c r="AV99" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW99" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX99" t="n">
         <v>3.5</v>
       </c>
       <c r="AY99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
         <v>3.5</v>
       </c>
-      <c r="AZ99" t="n">
+      <c r="BC99" t="n">
         <v>3.5</v>
       </c>
-      <c r="BA99" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BB99" t="n">
+      <c r="BD99" t="n">
         <v>4</v>
       </c>
-      <c r="BC99" t="n">
+      <c r="BE99" t="n">
         <v>4</v>
       </c>
-      <c r="BD99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BE99" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BF99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH99" t="n">
         <v>6</v>
       </c>
-      <c r="BG99" t="n">
+      <c r="BI99" t="n">
         <v>6</v>
       </c>
-      <c r="BH99" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI99" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ99" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BK99" t="n">
         <v>5</v>
@@ -20959,6 +21551,12 @@
         <v>4</v>
       </c>
       <c r="BS99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU99" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20979,10 +21577,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F100" t="n">
         <v>3.5</v>
@@ -21075,7 +21673,7 @@
         <v>5</v>
       </c>
       <c r="AJ100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AK100" t="n">
         <v>5</v>
@@ -21105,10 +21703,10 @@
         <v>5</v>
       </c>
       <c r="AT100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AV100" t="n">
         <v>4</v>
@@ -21117,13 +21715,13 @@
         <v>4</v>
       </c>
       <c r="AX100" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY100" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AZ100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA100" t="n">
         <v>4.5</v>
@@ -21135,28 +21733,28 @@
         <v>4.5</v>
       </c>
       <c r="BD100" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BE100" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BF100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH100" t="n">
         <v>6.5</v>
       </c>
-      <c r="BG100" t="n">
+      <c r="BI100" t="n">
         <v>6.5</v>
       </c>
-      <c r="BH100" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI100" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ100" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BK100" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BL100" t="n">
         <v>4.5</v>
@@ -21180,6 +21778,12 @@
         <v>4.5</v>
       </c>
       <c r="BS100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BT100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BU100" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -21287,7 +21891,7 @@
         <v>6</v>
       </c>
       <c r="AG101" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH101" t="n">
         <v>5</v>
@@ -21302,88 +21906,88 @@
         <v>4.5</v>
       </c>
       <c r="AL101" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM101" t="n">
         <v>5</v>
       </c>
       <c r="AN101" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP101" t="n">
         <v>6</v>
       </c>
-      <c r="AO101" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP101" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AQ101" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AR101" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AT101" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AU101" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AV101" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW101" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB101" t="n">
         <v>3.5</v>
-      </c>
-      <c r="AY101" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AZ101" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA101" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BB101" t="n">
-        <v>4</v>
       </c>
       <c r="BC101" t="n">
         <v>3.5</v>
       </c>
       <c r="BD101" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BE101" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BF101" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BG101" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BH101" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BI101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ101" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BK101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL101" t="n">
         <v>2.5</v>
       </c>
-      <c r="BL101" t="n">
-        <v>3</v>
-      </c>
       <c r="BM101" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BN101" t="n">
         <v>3.5</v>
@@ -21401,6 +22005,12 @@
         <v>4.5</v>
       </c>
       <c r="BS101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21511,7 +22121,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ102" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK102" t="n">
         <v>6</v>
@@ -21523,100 +22133,106 @@
         <v>7</v>
       </c>
       <c r="AN102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO102" t="n">
         <v>7.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AQ102" t="n">
         <v>7.5</v>
       </c>
       <c r="AR102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF102" t="n">
         <v>6.5</v>
       </c>
-      <c r="AS102" t="n">
+      <c r="BG102" t="n">
         <v>6.5</v>
       </c>
-      <c r="AT102" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU102" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV102" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW102" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX102" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY102" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BB102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BC102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BD102" t="n">
+      <c r="BH102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN102" t="n">
         <v>7</v>
-      </c>
-      <c r="BE102" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF102" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BG102" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH102" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BI102" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BK102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BL102" t="n">
-        <v>5</v>
-      </c>
-      <c r="BM102" t="n">
-        <v>5</v>
-      </c>
-      <c r="BN102" t="n">
-        <v>7.5</v>
       </c>
       <c r="BO102" t="n">
         <v>7</v>
       </c>
       <c r="BP102" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BQ102" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BR102" t="n">
         <v>6</v>
       </c>
       <c r="BS102" t="n">
         <v>6</v>
+      </c>
+      <c r="BT102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -21720,7 +22336,7 @@
         <v>7</v>
       </c>
       <c r="AH103" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI103" t="n">
         <v>5</v>
@@ -21732,7 +22348,7 @@
         <v>4.5</v>
       </c>
       <c r="AL103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AM103" t="n">
         <v>5.5</v>
@@ -21756,7 +22372,7 @@
         <v>4.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU103" t="n">
         <v>5</v>
@@ -21768,46 +22384,46 @@
         <v>4</v>
       </c>
       <c r="AX103" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AY103" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AZ103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA103" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BB103" t="n">
         <v>4</v>
       </c>
       <c r="BC103" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BD103" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BE103" t="n">
         <v>6.5</v>
       </c>
       <c r="BF103" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BG103" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BH103" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BI103" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BJ103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BK103" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BL103" t="n">
         <v>4.5</v>
@@ -21819,7 +22435,7 @@
         <v>5.5</v>
       </c>
       <c r="BO103" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BP103" t="n">
         <v>8.5</v>
@@ -21832,6 +22448,12 @@
       </c>
       <c r="BS103" t="n">
         <v>3</v>
+      </c>
+      <c r="BT103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="104">
@@ -21944,7 +22566,7 @@
         <v>5</v>
       </c>
       <c r="AK104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AL104" t="n">
         <v>5</v>
@@ -21971,25 +22593,25 @@
         <v>5</v>
       </c>
       <c r="AT104" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU104" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AV104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AW104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX104" t="n">
         <v>3.5</v>
       </c>
       <c r="AY104" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AZ104" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BA104" t="n">
         <v>3.5</v>
@@ -22001,16 +22623,16 @@
         <v>3.5</v>
       </c>
       <c r="BD104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BE104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BF104" t="n">
         <v>4.5</v>
       </c>
       <c r="BG104" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BH104" t="n">
         <v>4</v>
@@ -22040,13 +22662,19 @@
         <v>4</v>
       </c>
       <c r="BQ104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BR104" t="n">
         <v>4</v>
       </c>
       <c r="BS104" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BT104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -22135,7 +22763,7 @@
         <v>7.5</v>
       </c>
       <c r="AC105" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD105" t="n">
         <v>7</v>
@@ -22186,64 +22814,64 @@
         <v>3.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU105" t="n">
         <v>3.5</v>
       </c>
       <c r="AV105" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW105" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AX105" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AY105" t="n">
         <v>2.5</v>
       </c>
       <c r="AZ105" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BA105" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BB105" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BC105" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BD105" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BE105" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BF105" t="n">
         <v>4</v>
       </c>
       <c r="BG105" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BH105" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BI105" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BJ105" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BK105" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BL105" t="n">
         <v>4.5</v>
       </c>
       <c r="BM105" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BN105" t="n">
         <v>2.5</v>
@@ -22262,12 +22890,18 @@
       </c>
       <c r="BS105" t="n">
         <v>2.5</v>
+      </c>
+      <c r="BT105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -22282,7 +22916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR28"/>
+  <dimension ref="A1:BT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22641,6 +23275,16 @@
           <t>1.–7. 11. 2021</t>
         </is>
       </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>15.–21. 11. 2021</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>22.–28. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -22654,10 +23298,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1986</v>
+        <v>2347</v>
       </c>
       <c r="D2" t="n">
-        <v>2034</v>
+        <v>2404</v>
       </c>
       <c r="E2" t="n">
         <v>2263</v>
@@ -22672,10 +23316,10 @@
         <v>2415</v>
       </c>
       <c r="I2" t="n">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="J2" t="n">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="K2" t="n">
         <v>2295</v>
@@ -22684,10 +23328,10 @@
         <v>2316</v>
       </c>
       <c r="M2" t="n">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="N2" t="n">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="O2" t="n">
         <v>2249</v>
@@ -22856,6 +23500,12 @@
       </c>
       <c r="BR2" t="n">
         <v>1479</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1547</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1553</v>
       </c>
     </row>
     <row r="3">
@@ -22870,10 +23520,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1986</v>
+        <v>2347</v>
       </c>
       <c r="D3" t="n">
-        <v>2034</v>
+        <v>2404</v>
       </c>
       <c r="E3" t="n">
         <v>2263</v>
@@ -22888,10 +23538,10 @@
         <v>2415</v>
       </c>
       <c r="I3" t="n">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="J3" t="n">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="K3" t="n">
         <v>2295</v>
@@ -22900,10 +23550,10 @@
         <v>2316</v>
       </c>
       <c r="M3" t="n">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="N3" t="n">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="O3" t="n">
         <v>2249</v>
@@ -23072,6 +23722,12 @@
       </c>
       <c r="BR3" t="n">
         <v>398</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>325</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="4">
@@ -23209,6 +23865,12 @@
       <c r="BR4" t="n">
         <v>1081</v>
       </c>
+      <c r="BS4" t="n">
+        <v>1222</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -23222,10 +23884,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1180</v>
+        <v>1457</v>
       </c>
       <c r="D5" t="n">
-        <v>1200</v>
+        <v>1480</v>
       </c>
       <c r="E5" t="n">
         <v>1403</v>
@@ -23240,10 +23902,10 @@
         <v>1500</v>
       </c>
       <c r="I5" t="n">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="J5" t="n">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="K5" t="n">
         <v>1422</v>
@@ -23252,10 +23914,10 @@
         <v>1428</v>
       </c>
       <c r="M5" t="n">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="N5" t="n">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="O5" t="n">
         <v>1378</v>
@@ -23424,6 +24086,12 @@
       </c>
       <c r="BR5" t="n">
         <v>274</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>235</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="6">
@@ -23561,6 +24229,12 @@
       <c r="BR6" t="n">
         <v>578</v>
       </c>
+      <c r="BS6" t="n">
+        <v>660</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -23574,10 +24248,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>805</v>
+        <v>890</v>
       </c>
       <c r="D7" t="n">
-        <v>834</v>
+        <v>924</v>
       </c>
       <c r="E7" t="n">
         <v>860</v>
@@ -23776,6 +24450,12 @@
       </c>
       <c r="BR7" t="n">
         <v>124</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>91</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -23913,6 +24593,12 @@
       <c r="BR8" t="n">
         <v>503</v>
       </c>
+      <c r="BS8" t="n">
+        <v>561</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>570</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -23926,10 +24612,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>457</v>
+        <v>590</v>
       </c>
       <c r="D9" t="n">
-        <v>456</v>
+        <v>587</v>
       </c>
       <c r="E9" t="n">
         <v>559</v>
@@ -23956,10 +24642,10 @@
         <v>560</v>
       </c>
       <c r="M9" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="N9" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="O9" t="n">
         <v>531</v>
@@ -24128,6 +24814,12 @@
       </c>
       <c r="BR9" t="n">
         <v>342</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>372</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="10">
@@ -24142,10 +24834,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>712</v>
+        <v>850</v>
       </c>
       <c r="D10" t="n">
-        <v>731</v>
+        <v>874</v>
       </c>
       <c r="E10" t="n">
         <v>827</v>
@@ -24160,10 +24852,10 @@
         <v>890</v>
       </c>
       <c r="I10" t="n">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="J10" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="K10" t="n">
         <v>836</v>
@@ -24344,6 +25036,12 @@
       </c>
       <c r="BR10" t="n">
         <v>522</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>535</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>536</v>
       </c>
     </row>
     <row r="11">
@@ -24358,10 +25056,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>817</v>
+        <v>907</v>
       </c>
       <c r="D11" t="n">
-        <v>847</v>
+        <v>943</v>
       </c>
       <c r="E11" t="n">
         <v>877</v>
@@ -24388,7 +25086,7 @@
         <v>918</v>
       </c>
       <c r="M11" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N11" t="n">
         <v>919</v>
@@ -24560,6 +25258,12 @@
       </c>
       <c r="BR11" t="n">
         <v>615</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>640</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>647</v>
       </c>
     </row>
     <row r="12">
@@ -24574,10 +25278,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>433</v>
+        <v>528</v>
       </c>
       <c r="D12" t="n">
-        <v>446</v>
+        <v>542</v>
       </c>
       <c r="E12" t="n">
         <v>368</v>
@@ -24595,7 +25299,7 @@
         <v>566</v>
       </c>
       <c r="J12" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K12" t="n">
         <v>670</v>
@@ -24604,10 +25308,10 @@
         <v>673</v>
       </c>
       <c r="M12" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="N12" t="n">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="O12" t="n">
         <v>849</v>
@@ -24776,6 +25480,12 @@
       </c>
       <c r="BR12" t="n">
         <v>354</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>302</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="13">
@@ -24790,10 +25500,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>550</v>
+        <v>670</v>
       </c>
       <c r="D13" t="n">
-        <v>550</v>
+        <v>669</v>
       </c>
       <c r="E13" t="n">
         <v>749</v>
@@ -24808,10 +25518,10 @@
         <v>1002</v>
       </c>
       <c r="I13" t="n">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="J13" t="n">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="K13" t="n">
         <v>1032</v>
@@ -24820,7 +25530,7 @@
         <v>1039</v>
       </c>
       <c r="M13" t="n">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="N13" t="n">
         <v>964</v>
@@ -24992,6 +25702,12 @@
       </c>
       <c r="BR13" t="n">
         <v>534</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>528</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>523</v>
       </c>
     </row>
     <row r="14">
@@ -25006,10 +25722,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1003</v>
+        <v>1149</v>
       </c>
       <c r="D14" t="n">
-        <v>1038</v>
+        <v>1193</v>
       </c>
       <c r="E14" t="n">
         <v>1146</v>
@@ -25039,7 +25755,7 @@
         <v>588</v>
       </c>
       <c r="N14" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O14" t="n">
         <v>456</v>
@@ -25208,6 +25924,12 @@
       </c>
       <c r="BR14" t="n">
         <v>591</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>717</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>728</v>
       </c>
     </row>
     <row r="15">
@@ -25222,10 +25944,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>28</v>
@@ -25424,6 +26146,12 @@
       </c>
       <c r="BR15" t="n">
         <v>332</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>456</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>465</v>
       </c>
     </row>
     <row r="16">
@@ -25438,10 +26166,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
         <v>205</v>
@@ -25640,6 +26368,12 @@
       </c>
       <c r="BR16" t="n">
         <v>426</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>536</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>531</v>
       </c>
     </row>
     <row r="17">
@@ -25654,10 +26388,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1922</v>
+        <v>2257</v>
       </c>
       <c r="D17" t="n">
-        <v>1965</v>
+        <v>2313</v>
       </c>
       <c r="E17" t="n">
         <v>2030</v>
@@ -25672,10 +26406,10 @@
         <v>2119</v>
       </c>
       <c r="I17" t="n">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="J17" t="n">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="K17" t="n">
         <v>1964</v>
@@ -25684,10 +26418,10 @@
         <v>1979</v>
       </c>
       <c r="M17" t="n">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="N17" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="O17" t="n">
         <v>1923</v>
@@ -25856,6 +26590,12 @@
       </c>
       <c r="BR17" t="n">
         <v>721</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>555</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>557</v>
       </c>
     </row>
     <row r="18">
@@ -25870,10 +26610,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>971</v>
+        <v>1198</v>
       </c>
       <c r="D18" t="n">
-        <v>982</v>
+        <v>1210</v>
       </c>
       <c r="E18" t="n">
         <v>1126</v>
@@ -25891,7 +26631,7 @@
         <v>1185</v>
       </c>
       <c r="J18" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="K18" t="n">
         <v>1114</v>
@@ -25900,10 +26640,10 @@
         <v>1129</v>
       </c>
       <c r="M18" t="n">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="N18" t="n">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="O18" t="n">
         <v>1092</v>
@@ -26072,6 +26812,12 @@
       </c>
       <c r="BR18" t="n">
         <v>733</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>769</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>770</v>
       </c>
     </row>
     <row r="19">
@@ -26086,10 +26832,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1015</v>
+        <v>1149</v>
       </c>
       <c r="D19" t="n">
-        <v>1052</v>
+        <v>1194</v>
       </c>
       <c r="E19" t="n">
         <v>1137</v>
@@ -26104,10 +26850,10 @@
         <v>1241</v>
       </c>
       <c r="I19" t="n">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="J19" t="n">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="K19" t="n">
         <v>1181</v>
@@ -26119,7 +26865,7 @@
         <v>1184</v>
       </c>
       <c r="N19" t="n">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="O19" t="n">
         <v>1157</v>
@@ -26288,6 +27034,12 @@
       </c>
       <c r="BR19" t="n">
         <v>746</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>778</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>783</v>
       </c>
     </row>
     <row r="20">
@@ -26302,10 +27054,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1038</v>
+        <v>1267</v>
       </c>
       <c r="D20" t="n">
-        <v>1080</v>
+        <v>1316</v>
       </c>
       <c r="E20" t="n">
         <v>1247</v>
@@ -26504,6 +27256,12 @@
       </c>
       <c r="BR20" t="n">
         <v>774</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>804</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>808</v>
       </c>
     </row>
     <row r="21">
@@ -26518,10 +27276,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="D21" t="n">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="E21" t="n">
         <v>478</v>
@@ -26536,10 +27294,10 @@
         <v>515</v>
       </c>
       <c r="I21" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="J21" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K21" t="n">
         <v>489</v>
@@ -26548,10 +27306,10 @@
         <v>493</v>
       </c>
       <c r="M21" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N21" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O21" t="n">
         <v>524</v>
@@ -26720,6 +27478,12 @@
       </c>
       <c r="BR21" t="n">
         <v>338</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>359</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="22">
@@ -26734,10 +27498,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="D22" t="n">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="E22" t="n">
         <v>254</v>
@@ -26767,7 +27531,7 @@
         <v>263</v>
       </c>
       <c r="N22" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O22" t="n">
         <v>250</v>
@@ -26936,6 +27700,12 @@
       </c>
       <c r="BR22" t="n">
         <v>174</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>181</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -26950,10 +27720,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="D23" t="n">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="E23" t="n">
         <v>284</v>
@@ -26980,7 +27750,7 @@
         <v>282</v>
       </c>
       <c r="M23" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N23" t="n">
         <v>275</v>
@@ -27152,6 +27922,12 @@
       </c>
       <c r="BR23" t="n">
         <v>193</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>203</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="24">
@@ -27183,7 +27959,7 @@
         <v>638</v>
       </c>
       <c r="J24" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K24" t="n">
         <v>767</v>
@@ -27192,7 +27968,7 @@
         <v>770</v>
       </c>
       <c r="M24" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N24" t="n">
         <v>843</v>
@@ -27364,6 +28140,12 @@
       </c>
       <c r="BR24" t="n">
         <v>619</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>667</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>657</v>
       </c>
     </row>
     <row r="25">
@@ -27577,6 +28359,12 @@
       <c r="BR25" t="n">
         <v>63</v>
       </c>
+      <c r="BS25" t="n">
+        <v>57</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -27604,7 +28392,7 @@
         <v>321</v>
       </c>
       <c r="I26" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J26" t="n">
         <v>273</v>
@@ -27616,10 +28404,10 @@
         <v>203</v>
       </c>
       <c r="M26" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N26" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O26" t="n">
         <v>124</v>
@@ -27788,6 +28576,12 @@
       </c>
       <c r="BR26" t="n">
         <v>59</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>80</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -28001,11 +28795,17 @@
       <c r="BR27" t="n">
         <v>72</v>
       </c>
+      <c r="BS27" t="n">
+        <v>79</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -28077,6 +28877,8 @@
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -1154,7 +1154,7 @@
         <v>19.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
@@ -1163,10 +1163,10 @@
         <v>12.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>13.5</v>
@@ -1184,7 +1184,7 @@
         <v>14.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
@@ -1193,19 +1193,19 @@
         <v>11.5</v>
       </c>
       <c r="AS3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>8</v>
@@ -1214,70 +1214,70 @@
         <v>7.5</v>
       </c>
       <c r="AZ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD3" t="n">
         <v>8.5</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BE3" t="n">
         <v>8.5</v>
       </c>
-      <c r="BB3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="BF3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG3" t="n">
         <v>9.5</v>
       </c>
-      <c r="BE3" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BH3" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="BI3" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="BJ3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL3" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BM3" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BN3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BO3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BP3" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BQ3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BS3" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BT3" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="BU3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1614,7 +1614,7 @@
         <v>5.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AS5" t="n">
         <v>4.5</v>
@@ -1674,64 +1674,64 @@
         <v>3.5</v>
       </c>
       <c r="BB5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BC5" t="n">
         <v>3.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BH5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BI5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BJ5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL5" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BN5" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BO5" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BP5" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BQ5" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BR5" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BS5" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BT5" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BU5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7126,7 +7126,7 @@
         <v>19.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>14</v>
@@ -7135,10 +7135,10 @@
         <v>12.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>13.5</v>
@@ -7156,7 +7156,7 @@
         <v>14.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>8</v>
@@ -7165,19 +7165,19 @@
         <v>11.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AT31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>10.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>8</v>
@@ -7186,70 +7186,70 @@
         <v>7.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BB31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BC31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BD31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="BE31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF31" t="n">
         <v>11.5</v>
       </c>
-      <c r="BF31" t="n">
-        <v>13</v>
-      </c>
       <c r="BG31" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="BH31" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="BI31" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="BJ31" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="BK31" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="BL31" t="n">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="BM31" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BN31" t="n">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="BO31" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="BP31" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="BQ31" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="BR31" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BS31" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BT31" t="n">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
       <c r="BU31" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -7272,7 +7272,7 @@
         <v>20</v>
       </c>
       <c r="AS32" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AT32" t="n">
         <v>1.5</v>
@@ -7281,82 +7281,82 @@
         <v>1.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY32" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF32" t="n">
         <v>5.5</v>
       </c>
-      <c r="BA32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BB32" t="n">
+      <c r="BG32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH32" t="n">
         <v>4.5</v>
       </c>
-      <c r="BC32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>6.5</v>
-      </c>
       <c r="BI32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ32" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BK32" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BL32" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="BM32" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BN32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BO32" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="BP32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BQ32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BR32" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BS32" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BT32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU32" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -7436,7 +7436,7 @@
         <v>27</v>
       </c>
       <c r="X33" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
         <v>27.5</v>
@@ -7469,13 +7469,13 @@
         <v>15.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ33" t="n">
         <v>16.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL33" t="n">
         <v>17</v>
@@ -7487,7 +7487,7 @@
         <v>18.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP33" t="n">
         <v>14</v>
@@ -7502,88 +7502,88 @@
         <v>14.5</v>
       </c>
       <c r="AT33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AU33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ33" t="n">
+      <c r="BH33" t="n">
         <v>11</v>
       </c>
-      <c r="BA33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>15</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>15</v>
-      </c>
       <c r="BI33" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="BJ33" t="n">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="BK33" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="BL33" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="BM33" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="BN33" t="n">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="BO33" t="n">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="BP33" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BQ33" t="n">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="BR33" t="n">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="BS33" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BT33" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="BU33" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="34">
@@ -7603,10 +7603,10 @@
         </is>
       </c>
       <c r="AR34" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7615,82 +7615,82 @@
         <v>1</v>
       </c>
       <c r="AV34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY34" t="n">
         <v>13</v>
       </c>
-      <c r="AW34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ34" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="BA34" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="BB34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF34" t="n">
         <v>8</v>
       </c>
-      <c r="BC34" t="n">
+      <c r="BG34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BH34" t="n">
         <v>7.5</v>
       </c>
-      <c r="BD34" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BI34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BJ34" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BK34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN34" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="BO34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BP34" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="BQ34" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="BR34" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="BS34" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="BT34" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="BU34" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35">
@@ -7794,7 +7794,7 @@
         <v>12.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG35" t="n">
         <v>9</v>
@@ -7806,7 +7806,7 @@
         <v>8</v>
       </c>
       <c r="AJ35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK35" t="n">
         <v>8.5</v>
@@ -7815,13 +7815,13 @@
         <v>8.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN35" t="n">
         <v>9</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
         <v>8.5</v>
@@ -7836,13 +7836,13 @@
         <v>6.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AU35" t="n">
         <v>6.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AW35" t="n">
         <v>6</v>
@@ -7857,67 +7857,67 @@
         <v>5.5</v>
       </c>
       <c r="BA35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BB35" t="n">
         <v>5.5</v>
       </c>
       <c r="BC35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BQ35" t="n">
         <v>5.5</v>
       </c>
-      <c r="BD35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>8</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BQ35" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BR35" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="BS35" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="BT35" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="BU35" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="AR36" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AS36" t="n">
         <v>1.5</v>
@@ -7949,13 +7949,13 @@
         <v>2</v>
       </c>
       <c r="AV36" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AW36" t="n">
         <v>5</v>
       </c>
       <c r="AX36" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY36" t="n">
         <v>3.5</v>
@@ -7964,7 +7964,7 @@
         <v>3.5</v>
       </c>
       <c r="BA36" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BB36" t="n">
         <v>3</v>
@@ -7973,58 +7973,58 @@
         <v>3</v>
       </c>
       <c r="BD36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF36" t="n">
         <v>4.5</v>
       </c>
-      <c r="BE36" t="n">
+      <c r="BG36" t="n">
         <v>4.5</v>
       </c>
-      <c r="BF36" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BH36" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BI36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL36" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK36" t="n">
+      <c r="BM36" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL36" t="n">
+      <c r="BN36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BP36" t="n">
         <v>1</v>
       </c>
-      <c r="BM36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP36" t="n">
-        <v>2.5</v>
-      </c>
       <c r="BQ36" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="BR36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS36" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BT36" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="BU36" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
@@ -8104,10 +8104,10 @@
         <v>27</v>
       </c>
       <c r="X37" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="Z37" t="n">
         <v>28.5</v>
@@ -8119,7 +8119,7 @@
         <v>27.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="AD37" t="n">
         <v>22</v>
@@ -8131,7 +8131,7 @@
         <v>16.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH37" t="n">
         <v>12.5</v>
@@ -8152,13 +8152,13 @@
         <v>18</v>
       </c>
       <c r="AN37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO37" t="n">
         <v>18</v>
       </c>
       <c r="AP37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ37" t="n">
         <v>11</v>
@@ -8170,88 +8170,88 @@
         <v>15</v>
       </c>
       <c r="AT37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AU37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AV37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AW37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY37" t="n">
         <v>9.5</v>
       </c>
       <c r="AZ37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI37" t="n">
         <v>12</v>
       </c>
-      <c r="BA37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>13</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>15</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>16</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>16</v>
-      </c>
       <c r="BJ37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BK37" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BL37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BM37" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="BN37" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="BO37" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="BP37" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BQ37" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="BR37" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BS37" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="BT37" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="BU37" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -8319,7 +8319,7 @@
         <v>29</v>
       </c>
       <c r="T38" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="U38" t="n">
         <v>28</v>
@@ -8355,10 +8355,10 @@
         <v>26</v>
       </c>
       <c r="AF38" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH38" t="n">
         <v>17</v>
@@ -8373,7 +8373,7 @@
         <v>17.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM38" t="n">
         <v>18.5</v>
@@ -8388,97 +8388,97 @@
         <v>13</v>
       </c>
       <c r="AQ38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AR38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AS38" t="n">
         <v>14.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AW38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AX38" t="n">
         <v>10</v>
       </c>
       <c r="AY38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ38" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>10</v>
       </c>
       <c r="BA38" t="n">
         <v>10</v>
       </c>
       <c r="BB38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BD38" t="n">
         <v>9.5</v>
       </c>
-      <c r="BC38" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD38" t="n">
+      <c r="BE38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG38" t="n">
         <v>11</v>
       </c>
-      <c r="BE38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BH38" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI38" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="BJ38" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BK38" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="BL38" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BM38" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="BN38" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="BO38" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="BP38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BQ38" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="BR38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BS38" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="BT38" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="BU38" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39">
@@ -8576,7 +8576,7 @@
         <v>15</v>
       </c>
       <c r="AD39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE39" t="n">
         <v>13</v>
@@ -8597,16 +8597,16 @@
         <v>8.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM39" t="n">
         <v>9</v>
       </c>
       <c r="AN39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO39" t="n">
         <v>9.5</v>
@@ -8615,22 +8615,22 @@
         <v>8.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AR39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AS39" t="n">
         <v>6.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AU39" t="n">
         <v>6.5</v>
       </c>
       <c r="AV39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AW39" t="n">
         <v>6</v>
@@ -8645,67 +8645,67 @@
         <v>5</v>
       </c>
       <c r="BA39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD39" t="n">
         <v>5.5</v>
       </c>
-      <c r="BB39" t="n">
+      <c r="BE39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF39" t="n">
         <v>5</v>
       </c>
-      <c r="BC39" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>6</v>
-      </c>
       <c r="BG39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BH39" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BI39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ39" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="BK39" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BL39" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BM39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN39" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="BO39" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="BP39" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BQ39" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BR39" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BS39" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BT39" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BU39" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -8770,7 +8770,7 @@
         <v>25</v>
       </c>
       <c r="S40" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="T40" t="n">
         <v>25</v>
@@ -8809,7 +8809,7 @@
         <v>22.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
         <v>17.5</v>
@@ -8830,7 +8830,7 @@
         <v>16</v>
       </c>
       <c r="AM40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN40" t="n">
         <v>18</v>
@@ -8839,7 +8839,7 @@
         <v>18</v>
       </c>
       <c r="AP40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ40" t="n">
         <v>10.5</v>
@@ -8851,22 +8851,22 @@
         <v>14.5</v>
       </c>
       <c r="AT40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV40" t="n">
         <v>12</v>
       </c>
-      <c r="AU40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AW40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ40" t="n">
         <v>9</v>
@@ -8875,64 +8875,64 @@
         <v>9.5</v>
       </c>
       <c r="BB40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI40" t="n">
         <v>9.5</v>
       </c>
-      <c r="BC40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>12</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>13</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BJ40" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK40" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BL40" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BM40" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="BN40" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="BO40" t="n">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="BP40" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="BQ40" t="n">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="BR40" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="BS40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BT40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BU40" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -9027,7 +9027,7 @@
         <v>21.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AD41" t="n">
         <v>20</v>
@@ -9036,10 +9036,10 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH41" t="n">
         <v>11.5</v>
@@ -9054,10 +9054,10 @@
         <v>13</v>
       </c>
       <c r="AL41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM41" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>14</v>
       </c>
       <c r="AN41" t="n">
         <v>14</v>
@@ -9072,94 +9072,94 @@
         <v>7.5</v>
       </c>
       <c r="AR41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AS41" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AT41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU41" t="n">
         <v>10.5</v>
       </c>
-      <c r="AU41" t="n">
-        <v>11</v>
-      </c>
       <c r="AV41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW41" t="n">
         <v>8.5</v>
       </c>
-      <c r="AW41" t="n">
-        <v>9</v>
-      </c>
       <c r="AX41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA41" t="n">
         <v>7.5</v>
       </c>
-      <c r="AZ41" t="n">
+      <c r="BB41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF41" t="n">
         <v>8.5</v>
       </c>
-      <c r="BA41" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD41" t="n">
+      <c r="BG41" t="n">
         <v>8.5</v>
       </c>
-      <c r="BE41" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>10</v>
-      </c>
       <c r="BH41" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="BI41" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="BJ41" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BK41" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BL41" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BM41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BN41" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="BO41" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BP41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BQ41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BR41" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BS41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BT41" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="BU41" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -9188,7 +9188,7 @@
         <v>7.5</v>
       </c>
       <c r="G42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>8.5</v>
@@ -9233,7 +9233,7 @@
         <v>23</v>
       </c>
       <c r="V42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="W42" t="n">
         <v>18</v>
@@ -9242,7 +9242,7 @@
         <v>20</v>
       </c>
       <c r="Y42" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="Z42" t="n">
         <v>20.5</v>
@@ -9257,7 +9257,7 @@
         <v>19.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE42" t="n">
         <v>18.5</v>
@@ -9272,7 +9272,7 @@
         <v>12</v>
       </c>
       <c r="AI42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ42" t="n">
         <v>13</v>
@@ -9284,19 +9284,19 @@
         <v>12.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AN42" t="n">
         <v>13.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP42" t="n">
         <v>11.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AR42" t="n">
         <v>11</v>
@@ -9305,16 +9305,16 @@
         <v>10.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AU42" t="n">
         <v>9.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AW42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX42" t="n">
         <v>7</v>
@@ -9323,70 +9323,70 @@
         <v>7</v>
       </c>
       <c r="AZ42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BA42" t="n">
         <v>8</v>
       </c>
       <c r="BB42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE42" t="n">
         <v>8</v>
       </c>
-      <c r="BC42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>9</v>
-      </c>
       <c r="BF42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG42" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BH42" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="BI42" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="BJ42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK42" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="BL42" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BM42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BN42" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BO42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BP42" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BQ42" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="BR42" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BS42" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BT42" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="BU42" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43">
@@ -9448,10 +9448,10 @@
         <v>31.5</v>
       </c>
       <c r="R43" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="S43" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="T43" t="n">
         <v>30</v>
@@ -9466,7 +9466,7 @@
         <v>31</v>
       </c>
       <c r="X43" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="Y43" t="n">
         <v>31</v>
@@ -9484,28 +9484,28 @@
         <v>27</v>
       </c>
       <c r="AD43" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="AE43" t="n">
         <v>22.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH43" t="n">
         <v>13.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>15.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL43" t="n">
         <v>17.5</v>
@@ -9517,103 +9517,103 @@
         <v>18.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP43" t="n">
         <v>14</v>
       </c>
       <c r="AQ43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AR43" t="n">
         <v>13</v>
       </c>
       <c r="AS43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AT43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AU43" t="n">
         <v>11</v>
       </c>
       <c r="AV43" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AW43" t="n">
         <v>11</v>
       </c>
       <c r="AX43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ43" t="n">
         <v>10</v>
       </c>
-      <c r="AY43" t="n">
+      <c r="BA43" t="n">
         <v>9</v>
       </c>
-      <c r="AZ43" t="n">
+      <c r="BB43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF43" t="n">
         <v>10.5</v>
       </c>
-      <c r="BA43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BD43" t="n">
+      <c r="BG43" t="n">
         <v>11</v>
       </c>
-      <c r="BE43" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BH43" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI43" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BJ43" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BK43" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BL43" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="BM43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BN43" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="BO43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BP43" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="BQ43" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BR43" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="BS43" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="BT43" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BU43" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="44">
@@ -9711,19 +9711,19 @@
         <v>22.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="AE44" t="n">
         <v>22.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG44" t="n">
         <v>14</v>
       </c>
       <c r="AH44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI44" t="n">
         <v>13</v>
@@ -9732,7 +9732,7 @@
         <v>12</v>
       </c>
       <c r="AK44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL44" t="n">
         <v>13</v>
@@ -9744,7 +9744,7 @@
         <v>13.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP44" t="n">
         <v>11</v>
@@ -9753,7 +9753,7 @@
         <v>7.5</v>
       </c>
       <c r="AR44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AS44" t="n">
         <v>12</v>
@@ -9762,7 +9762,7 @@
         <v>11.5</v>
       </c>
       <c r="AU44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AV44" t="n">
         <v>9</v>
@@ -9771,7 +9771,7 @@
         <v>9</v>
       </c>
       <c r="AX44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY44" t="n">
         <v>7</v>
@@ -9780,67 +9780,67 @@
         <v>7.5</v>
       </c>
       <c r="BA44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD44" t="n">
         <v>8</v>
       </c>
-      <c r="BB44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>9</v>
-      </c>
       <c r="BE44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG44" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BH44" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="BI44" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="BJ44" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="BK44" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="BL44" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BM44" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BN44" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BO44" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BP44" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BQ44" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="BR44" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BS44" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BT44" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BU44" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45">
@@ -9908,7 +9908,7 @@
         <v>23</v>
       </c>
       <c r="T45" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="U45" t="n">
         <v>21.5</v>
@@ -9923,7 +9923,7 @@
         <v>21</v>
       </c>
       <c r="Y45" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="Z45" t="n">
         <v>21.5</v>
@@ -9947,7 +9947,7 @@
         <v>13</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
         <v>11</v>
@@ -9965,7 +9965,7 @@
         <v>10.5</v>
       </c>
       <c r="AM45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN45" t="n">
         <v>12.5</v>
@@ -9974,10 +9974,10 @@
         <v>13</v>
       </c>
       <c r="AP45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AR45" t="n">
         <v>10.5</v>
@@ -9989,7 +9989,7 @@
         <v>8.5</v>
       </c>
       <c r="AU45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV45" t="n">
         <v>7.5</v>
@@ -10001,73 +10001,73 @@
         <v>7</v>
       </c>
       <c r="AY45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ45" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>7.5</v>
       </c>
       <c r="BA45" t="n">
         <v>7.5</v>
       </c>
       <c r="BB45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BC45" t="n">
         <v>7</v>
       </c>
       <c r="BD45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BG45" t="n">
         <v>9</v>
       </c>
-      <c r="BE45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>10</v>
-      </c>
       <c r="BH45" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="BI45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BJ45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK45" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="BL45" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BM45" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BN45" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="BO45" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="BP45" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BQ45" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BR45" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BS45" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BT45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BU45" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -10135,7 +10135,7 @@
         <v>26.5</v>
       </c>
       <c r="T46" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="U46" t="n">
         <v>24.5</v>
@@ -10159,13 +10159,13 @@
         <v>26.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="AC46" t="n">
         <v>24</v>
       </c>
       <c r="AD46" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AE46" t="n">
         <v>21</v>
@@ -10183,10 +10183,10 @@
         <v>13.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL46" t="n">
         <v>14.5</v>
@@ -10207,10 +10207,10 @@
         <v>9.5</v>
       </c>
       <c r="AR46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AT46" t="n">
         <v>11</v>
@@ -10219,82 +10219,82 @@
         <v>11</v>
       </c>
       <c r="AV46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AW46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ46" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>9.5</v>
       </c>
       <c r="BA46" t="n">
         <v>9.5</v>
       </c>
       <c r="BB46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BC46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BD46" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="BE46" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF46" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="BG46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH46" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI46" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="BJ46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK46" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="BL46" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BM46" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BN46" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BO46" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BP46" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BQ46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BR46" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BS46" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BT46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BU46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -10326,7 +10326,7 @@
         <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I47" t="n">
         <v>7</v>
@@ -10386,13 +10386,13 @@
         <v>21</v>
       </c>
       <c r="AB47" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC47" t="n">
         <v>19.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE47" t="n">
         <v>18</v>
@@ -10428,10 +10428,10 @@
         <v>13.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AQ47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AR47" t="n">
         <v>10.5</v>
@@ -10458,70 +10458,70 @@
         <v>6.5</v>
       </c>
       <c r="AZ47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD47" t="n">
         <v>7.5</v>
       </c>
-      <c r="BA47" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BD47" t="n">
+      <c r="BE47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF47" t="n">
         <v>8.5</v>
       </c>
-      <c r="BE47" t="n">
+      <c r="BG47" t="n">
         <v>8.5</v>
       </c>
-      <c r="BF47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>10</v>
-      </c>
       <c r="BH47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI47" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="BJ47" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="BK47" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="BL47" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BM47" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BN47" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BO47" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BP47" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BQ47" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BR47" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BS47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BT47" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="BU47" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -10580,7 +10580,7 @@
         <v>19.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="R48" t="n">
         <v>22</v>
@@ -10607,7 +10607,7 @@
         <v>23.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="AA48" t="n">
         <v>23.5</v>
@@ -10634,22 +10634,22 @@
         <v>12.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL48" t="n">
         <v>14</v>
       </c>
       <c r="AM48" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO48" t="n">
         <v>14.5</v>
@@ -10664,91 +10664,91 @@
         <v>12</v>
       </c>
       <c r="AS48" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AU48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AV48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AW48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AX48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ48" t="n">
         <v>8.5</v>
       </c>
-      <c r="AY48" t="n">
+      <c r="BA48" t="n">
         <v>8</v>
       </c>
-      <c r="AZ48" t="n">
+      <c r="BB48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BE48" t="n">
         <v>9</v>
       </c>
-      <c r="BA48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD48" t="n">
+      <c r="BF48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG48" t="n">
         <v>9.5</v>
       </c>
-      <c r="BE48" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BH48" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="BI48" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="BJ48" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="BK48" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="BL48" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BM48" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BN48" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BO48" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BP48" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="BQ48" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="BR48" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="BS48" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BT48" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="BU48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -10792,7 +10792,7 @@
         <v>11</v>
       </c>
       <c r="L49" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="M49" t="n">
         <v>12.5</v>
@@ -10879,103 +10879,103 @@
         <v>14</v>
       </c>
       <c r="AO49" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP49" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AR49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AU49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AW49" t="n">
         <v>9</v>
       </c>
       <c r="AX49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ49" t="n">
         <v>8</v>
       </c>
       <c r="BA49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD49" t="n">
         <v>8</v>
       </c>
-      <c r="BB49" t="n">
+      <c r="BE49" t="n">
         <v>8</v>
       </c>
-      <c r="BC49" t="n">
+      <c r="BF49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI49" t="n">
         <v>8</v>
       </c>
-      <c r="BD49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>11</v>
-      </c>
       <c r="BJ49" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BK49" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="BL49" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BM49" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BN49" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="BO49" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="BP49" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BQ49" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BR49" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BS49" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BT49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BU49" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50">
@@ -11064,7 +11064,7 @@
         <v>24.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="AB50" t="n">
         <v>24.5</v>
@@ -11076,7 +11076,7 @@
         <v>22</v>
       </c>
       <c r="AE50" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AF50" t="n">
         <v>14.5</v>
@@ -11088,13 +11088,13 @@
         <v>14</v>
       </c>
       <c r="AI50" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ50" t="n">
         <v>13</v>
       </c>
       <c r="AK50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL50" t="n">
         <v>13.5</v>
@@ -11103,25 +11103,25 @@
         <v>14.5</v>
       </c>
       <c r="AN50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AR50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AS50" t="n">
         <v>10.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU50" t="n">
         <v>10</v>
@@ -11130,79 +11130,79 @@
         <v>9</v>
       </c>
       <c r="AW50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BD50" t="n">
         <v>9</v>
       </c>
-      <c r="AX50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BE50" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG50" t="n">
         <v>11</v>
       </c>
-      <c r="BG50" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BH50" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="BI50" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BJ50" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BK50" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BL50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BM50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BN50" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BO50" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="BP50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BQ50" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="BR50" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="BS50" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="BT50" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BU50" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="E51" t="n">
         <v>15</v>
@@ -11282,10 +11282,10 @@
         <v>23.5</v>
       </c>
       <c r="X51" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="Z51" t="n">
         <v>23</v>
@@ -11300,16 +11300,16 @@
         <v>21</v>
       </c>
       <c r="AD51" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AE51" t="n">
         <v>18.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH51" t="n">
         <v>13</v>
@@ -11318,7 +11318,7 @@
         <v>13</v>
       </c>
       <c r="AJ51" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK51" t="n">
         <v>13.5</v>
@@ -11330,7 +11330,7 @@
         <v>14.5</v>
       </c>
       <c r="AN51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO51" t="n">
         <v>16</v>
@@ -11342,10 +11342,10 @@
         <v>9</v>
       </c>
       <c r="AR51" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT51" t="n">
         <v>9.5</v>
@@ -11363,73 +11363,73 @@
         <v>7.5</v>
       </c>
       <c r="AY51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BA51" t="n">
         <v>8</v>
       </c>
       <c r="BB51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF51" t="n">
         <v>7.5</v>
       </c>
-      <c r="BC51" t="n">
+      <c r="BG51" t="n">
         <v>7.5</v>
       </c>
-      <c r="BD51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>9.5</v>
-      </c>
       <c r="BH51" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="BI51" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="BJ51" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BK51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL51" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BM51" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BN51" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="BO51" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BP51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BQ51" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BR51" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS51" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BT51" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="BU51" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52">
@@ -11497,7 +11497,7 @@
         <v>31.5</v>
       </c>
       <c r="V52" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="W52" t="n">
         <v>31.5</v>
@@ -11518,7 +11518,7 @@
         <v>31</v>
       </c>
       <c r="AC52" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="AD52" t="n">
         <v>29.5</v>
@@ -11527,28 +11527,28 @@
         <v>29.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="AH52" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AJ52" t="n">
         <v>23.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="AL52" t="n">
         <v>21.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="AN52" t="n">
         <v>23.5</v>
@@ -11557,100 +11557,100 @@
         <v>23.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AQ52" t="n">
         <v>16.5</v>
       </c>
       <c r="AR52" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AS52" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AT52" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AU52" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AV52" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AW52" t="n">
         <v>16</v>
       </c>
-      <c r="AW52" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AX52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ52" t="n">
         <v>15.5</v>
       </c>
-      <c r="AY52" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>16</v>
-      </c>
       <c r="BA52" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BB52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC52" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BD52" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE52" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="BF52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BG52" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="BH52" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="BI52" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="BJ52" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK52" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="BL52" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="BM52" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="BN52" t="n">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="BO52" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BP52" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="BQ52" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="BR52" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="BS52" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BT52" t="n">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="BU52" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -11727,7 +11727,7 @@
         <v>27.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="Z53" t="n">
         <v>30.5</v>
@@ -11751,10 +11751,10 @@
         <v>21</v>
       </c>
       <c r="AG53" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI53" t="n">
         <v>12</v>
@@ -11772,7 +11772,7 @@
         <v>18.5</v>
       </c>
       <c r="AN53" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO53" t="n">
         <v>15</v>
@@ -11781,16 +11781,16 @@
         <v>16</v>
       </c>
       <c r="AQ53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AR53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS53" t="n">
         <v>11</v>
       </c>
-      <c r="AS53" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AT53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AU53" t="n">
         <v>10</v>
@@ -11802,76 +11802,76 @@
         <v>10</v>
       </c>
       <c r="AX53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY53" t="n">
         <v>7</v>
       </c>
-      <c r="AY53" t="n">
+      <c r="AZ53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC53" t="n">
         <v>7.5</v>
       </c>
-      <c r="AZ53" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA53" t="n">
+      <c r="BD53" t="n">
         <v>9.5</v>
       </c>
-      <c r="BB53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BC53" t="n">
+      <c r="BE53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG53" t="n">
         <v>8</v>
       </c>
-      <c r="BD53" t="n">
-        <v>11</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>9</v>
-      </c>
       <c r="BH53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI53" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="BJ53" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BK53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL53" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="BM53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BN53" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="BO53" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BP53" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BQ53" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="BR53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BS53" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BT53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BU53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -11960,7 +11960,7 @@
         <v>16.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD54" t="n">
         <v>13.5</v>
@@ -11969,7 +11969,7 @@
         <v>11.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG54" t="n">
         <v>8</v>
@@ -11999,37 +11999,37 @@
         <v>11</v>
       </c>
       <c r="AP54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ54" t="n">
         <v>7</v>
       </c>
       <c r="AR54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AS54" t="n">
         <v>8</v>
       </c>
       <c r="AT54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AU54" t="n">
         <v>6.5</v>
       </c>
       <c r="AV54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AW54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX54" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY54" t="n">
         <v>4</v>
       </c>
       <c r="AZ54" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA54" t="n">
         <v>4.5</v>
@@ -12038,61 +12038,61 @@
         <v>5.5</v>
       </c>
       <c r="BC54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF54" t="n">
         <v>5.5</v>
       </c>
-      <c r="BD54" t="n">
+      <c r="BG54" t="n">
         <v>7</v>
       </c>
-      <c r="BE54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>8</v>
-      </c>
       <c r="BH54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI54" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="BJ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL54" t="n">
         <v>4</v>
       </c>
-      <c r="BK54" t="n">
-        <v>6</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BM54" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BN54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BO54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP54" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="BQ54" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="BR54" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BS54" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BT54" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BU54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -12196,7 +12196,7 @@
         <v>6.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI55" t="n">
         <v>6</v>
@@ -12223,13 +12223,13 @@
         <v>9</v>
       </c>
       <c r="AQ55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AR55" t="n">
         <v>5.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AT55" t="n">
         <v>4</v>
@@ -12238,10 +12238,10 @@
         <v>4.5</v>
       </c>
       <c r="AV55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AW55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX55" t="n">
         <v>3.5</v>
@@ -12250,10 +12250,10 @@
         <v>3</v>
       </c>
       <c r="AZ55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA55" t="n">
         <v>3</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>3.5</v>
       </c>
       <c r="BB55" t="n">
         <v>4</v>
@@ -12262,58 +12262,58 @@
         <v>4</v>
       </c>
       <c r="BD55" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BE55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF55" t="n">
         <v>6</v>
       </c>
-      <c r="BF55" t="n">
-        <v>7</v>
-      </c>
       <c r="BG55" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BH55" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BI55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK55" t="n">
         <v>3.5</v>
       </c>
-      <c r="BJ55" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>6.5</v>
-      </c>
       <c r="BL55" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BM55" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BN55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO55" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BP55" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="BQ55" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BR55" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BS55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT55" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BU55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -17714,7 +17714,7 @@
         <v>5.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI81" t="n">
         <v>5</v>
@@ -17744,7 +17744,7 @@
         <v>6</v>
       </c>
       <c r="AR81" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AS81" t="n">
         <v>4.5</v>
@@ -17768,10 +17768,10 @@
         <v>3.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BA81" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BB81" t="n">
         <v>4</v>
@@ -17780,58 +17780,58 @@
         <v>4</v>
       </c>
       <c r="BD81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO81" t="n">
         <v>5.5</v>
       </c>
-      <c r="BE81" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF81" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BG81" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BH81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BI81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BJ81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BK81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BL81" t="n">
-        <v>9</v>
-      </c>
-      <c r="BM81" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BN81" t="n">
-        <v>11</v>
-      </c>
-      <c r="BO81" t="n">
-        <v>11</v>
-      </c>
       <c r="BP81" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="BQ81" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="BR81" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BS81" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BT81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BU81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -17878,67 +17878,67 @@
         <v>2</v>
       </c>
       <c r="BA82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD82" t="n">
         <v>2</v>
       </c>
-      <c r="BB82" t="n">
+      <c r="BE82" t="n">
         <v>2</v>
       </c>
-      <c r="BC82" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD82" t="n">
+      <c r="BF82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH82" t="n">
         <v>2.5</v>
       </c>
-      <c r="BE82" t="n">
+      <c r="BI82" t="n">
         <v>2.5</v>
       </c>
-      <c r="BF82" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BG82" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BH82" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI82" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ82" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BK82" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BL82" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="BM82" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="BN82" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BO82" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BP82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BQ82" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BR82" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="BS82" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BT82" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="BU82" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
@@ -18096,7 +18096,7 @@
         <v>5</v>
       </c>
       <c r="AX83" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY83" t="n">
         <v>4.5</v>
@@ -18108,64 +18108,64 @@
         <v>4.5</v>
       </c>
       <c r="BB83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ83" t="n">
         <v>5</v>
       </c>
-      <c r="BC83" t="n">
+      <c r="BK83" t="n">
         <v>5</v>
       </c>
-      <c r="BD83" t="n">
+      <c r="BL83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP83" t="n">
         <v>6.5</v>
       </c>
-      <c r="BE83" t="n">
+      <c r="BQ83" t="n">
         <v>6.5</v>
       </c>
-      <c r="BF83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BG83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BH83" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BI83" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BJ83" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BK83" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BL83" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM83" t="n">
-        <v>10</v>
-      </c>
-      <c r="BN83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BO83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BP83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BQ83" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BR83" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="BS83" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="BT83" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BU83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -18185,10 +18185,10 @@
         </is>
       </c>
       <c r="AR84" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AT84" t="n">
         <v>0</v>
@@ -18203,7 +18203,7 @@
         <v>1.5</v>
       </c>
       <c r="AX84" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY84" t="n">
         <v>4</v>
@@ -18215,64 +18215,64 @@
         <v>2.5</v>
       </c>
       <c r="BB84" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BC84" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BD84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF84" t="n">
         <v>3.5</v>
       </c>
-      <c r="BE84" t="n">
+      <c r="BG84" t="n">
         <v>3.5</v>
       </c>
-      <c r="BF84" t="n">
+      <c r="BH84" t="n">
         <v>4.5</v>
       </c>
-      <c r="BG84" t="n">
+      <c r="BI84" t="n">
         <v>4.5</v>
       </c>
-      <c r="BH84" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI84" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ84" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BK84" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BL84" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BM84" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BN84" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="BO84" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="BP84" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BQ84" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BR84" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BS84" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BT84" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BU84" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -18412,16 +18412,16 @@
         <v>4.5</v>
       </c>
       <c r="AR85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AV85" t="n">
         <v>2.5</v>
@@ -18448,58 +18448,58 @@
         <v>2.5</v>
       </c>
       <c r="BD85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF85" t="n">
         <v>4</v>
       </c>
-      <c r="BE85" t="n">
+      <c r="BG85" t="n">
         <v>4</v>
       </c>
-      <c r="BF85" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BG85" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BH85" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BI85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ85" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BK85" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BL85" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BM85" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="BN85" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BO85" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BP85" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BQ85" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BR85" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="BS85" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="BT85" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="BU85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -18519,7 +18519,7 @@
         </is>
       </c>
       <c r="AR86" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS86" t="n">
         <v>1</v>
@@ -18555,58 +18555,58 @@
         <v>1.5</v>
       </c>
       <c r="BD86" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BE86" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BF86" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BG86" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BH86" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BI86" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN86" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK86" t="n">
+      <c r="BO86" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL86" t="n">
+      <c r="BP86" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM86" t="n">
+      <c r="BQ86" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BP86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BQ86" t="n">
-        <v>1.5</v>
-      </c>
       <c r="BR86" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="BS86" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="BT86" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="BU86" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
@@ -18704,7 +18704,7 @@
         <v>12</v>
       </c>
       <c r="AD87" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE87" t="n">
         <v>10</v>
@@ -18740,7 +18740,7 @@
         <v>7.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>8.5</v>
@@ -18749,7 +18749,7 @@
         <v>7.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AT87" t="n">
         <v>6.5</v>
@@ -18764,10 +18764,10 @@
         <v>5.5</v>
       </c>
       <c r="AX87" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY87" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AZ87" t="n">
         <v>5</v>
@@ -18782,58 +18782,58 @@
         <v>5.5</v>
       </c>
       <c r="BD87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH87" t="n">
         <v>7.5</v>
       </c>
-      <c r="BE87" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF87" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG87" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH87" t="n">
-        <v>10</v>
-      </c>
       <c r="BI87" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BJ87" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BK87" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BL87" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BM87" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BN87" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="BO87" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="BP87" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="BQ87" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="BR87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BS87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BT87" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="BU87" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88">
@@ -18895,7 +18895,7 @@
         <v>11</v>
       </c>
       <c r="R88" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="S88" t="n">
         <v>12.5</v>
@@ -18904,7 +18904,7 @@
         <v>14</v>
       </c>
       <c r="U88" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V88" t="n">
         <v>13.5</v>
@@ -18970,13 +18970,13 @@
         <v>6</v>
       </c>
       <c r="AQ88" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AR88" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AS88" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AT88" t="n">
         <v>5</v>
@@ -19009,58 +19009,58 @@
         <v>4</v>
       </c>
       <c r="BD88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF88" t="n">
         <v>5</v>
       </c>
-      <c r="BE88" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF88" t="n">
-        <v>6</v>
-      </c>
       <c r="BG88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH88" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="BI88" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="BJ88" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="BK88" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BL88" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BM88" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BN88" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BO88" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="BP88" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BQ88" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BR88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BS88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BT88" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BU88" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89">
@@ -19200,16 +19200,16 @@
         <v>4.5</v>
       </c>
       <c r="AR89" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU89" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AV89" t="n">
         <v>2.5</v>
@@ -19230,64 +19230,64 @@
         <v>2.5</v>
       </c>
       <c r="BB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD89" t="n">
         <v>2.5</v>
       </c>
-      <c r="BC89" t="n">
+      <c r="BE89" t="n">
         <v>2.5</v>
       </c>
-      <c r="BD89" t="n">
+      <c r="BF89" t="n">
         <v>3</v>
       </c>
-      <c r="BE89" t="n">
+      <c r="BG89" t="n">
         <v>3</v>
       </c>
-      <c r="BF89" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BG89" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BH89" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BI89" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="BJ89" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BK89" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BL89" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="BM89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN89" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BO89" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BP89" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BQ89" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BR89" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BS89" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BT89" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="BU89" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90">
@@ -19403,7 +19403,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ90" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK90" t="n">
         <v>5.5</v>
@@ -19415,7 +19415,7 @@
         <v>7</v>
       </c>
       <c r="AN90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO90" t="n">
         <v>8</v>
@@ -19445,10 +19445,10 @@
         <v>5</v>
       </c>
       <c r="AX90" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY90" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AZ90" t="n">
         <v>5</v>
@@ -19463,58 +19463,58 @@
         <v>5</v>
       </c>
       <c r="BD90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH90" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="BI90" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="BJ90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL90" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BM90" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BN90" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BO90" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BP90" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BQ90" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BR90" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BS90" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BT90" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BU90" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -19582,7 +19582,7 @@
         <v>10.5</v>
       </c>
       <c r="T91" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U91" t="n">
         <v>11.5</v>
@@ -19600,7 +19600,7 @@
         <v>11</v>
       </c>
       <c r="Z91" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA91" t="n">
         <v>10</v>
@@ -19618,7 +19618,7 @@
         <v>8</v>
       </c>
       <c r="AF91" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG91" t="n">
         <v>5.5</v>
@@ -19627,7 +19627,7 @@
         <v>5</v>
       </c>
       <c r="AI91" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AJ91" t="n">
         <v>4.5</v>
@@ -19672,16 +19672,16 @@
         <v>3.5</v>
       </c>
       <c r="AX91" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AY91" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AZ91" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BA91" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BB91" t="n">
         <v>3.5</v>
@@ -19690,58 +19690,58 @@
         <v>3.5</v>
       </c>
       <c r="BD91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF91" t="n">
         <v>4</v>
       </c>
-      <c r="BE91" t="n">
+      <c r="BG91" t="n">
         <v>4</v>
       </c>
-      <c r="BF91" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG91" t="n">
-        <v>5</v>
-      </c>
       <c r="BH91" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BI91" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BJ91" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BK91" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BL91" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BM91" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BN91" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BO91" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BP91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BQ91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BR91" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BS91" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BT91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -19845,13 +19845,13 @@
         <v>7.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AG92" t="n">
         <v>5</v>
       </c>
       <c r="AH92" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AI92" t="n">
         <v>4.5</v>
@@ -19875,7 +19875,7 @@
         <v>4.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AQ92" t="n">
         <v>5.5</v>
@@ -19887,16 +19887,16 @@
         <v>4</v>
       </c>
       <c r="AT92" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU92" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AV92" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW92" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX92" t="n">
         <v>3</v>
@@ -19911,64 +19911,64 @@
         <v>3</v>
       </c>
       <c r="BB92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BC92" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BD92" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BE92" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BF92" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BG92" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BH92" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BI92" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BJ92" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BK92" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="BL92" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BM92" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BN92" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BO92" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BP92" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BQ92" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BR92" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BS92" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BT92" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="BU92" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -20051,7 +20051,7 @@
         <v>16</v>
       </c>
       <c r="Y93" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z93" t="n">
         <v>14.5</v>
@@ -20063,7 +20063,7 @@
         <v>13</v>
       </c>
       <c r="AC93" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD93" t="n">
         <v>10.5</v>
@@ -20072,7 +20072,7 @@
         <v>9.5</v>
       </c>
       <c r="AF93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG93" t="n">
         <v>6.5</v>
@@ -20084,7 +20084,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK93" t="n">
         <v>5.5</v>
@@ -20132,10 +20132,10 @@
         <v>4</v>
       </c>
       <c r="AZ93" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BA93" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BB93" t="n">
         <v>4</v>
@@ -20144,58 +20144,58 @@
         <v>4</v>
       </c>
       <c r="BD93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BE93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BF93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ93" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BK93" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="BL93" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BM93" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BN93" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BO93" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BP93" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BQ93" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="BR93" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="BS93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BT93" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BU93" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="94">
@@ -20347,10 +20347,10 @@
         <v>4</v>
       </c>
       <c r="AV94" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW94" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX94" t="n">
         <v>3</v>
@@ -20365,64 +20365,64 @@
         <v>3</v>
       </c>
       <c r="BB94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD94" t="n">
         <v>3.5</v>
       </c>
-      <c r="BC94" t="n">
+      <c r="BE94" t="n">
         <v>3.5</v>
       </c>
-      <c r="BD94" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BE94" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BF94" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BG94" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BH94" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BI94" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BJ94" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="BK94" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="BL94" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BM94" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BN94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BO94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP94" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BQ94" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BR94" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BS94" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BT94" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="BU94" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -20562,7 +20562,7 @@
         <v>5.5</v>
       </c>
       <c r="AR95" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AS95" t="n">
         <v>4</v>
@@ -20574,16 +20574,16 @@
         <v>3.5</v>
       </c>
       <c r="AV95" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AW95" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AX95" t="n">
         <v>3.5</v>
       </c>
       <c r="AY95" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AZ95" t="n">
         <v>3.5</v>
@@ -20592,64 +20592,64 @@
         <v>3.5</v>
       </c>
       <c r="BB95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD95" t="n">
         <v>4</v>
       </c>
-      <c r="BC95" t="n">
+      <c r="BE95" t="n">
         <v>4</v>
       </c>
-      <c r="BD95" t="n">
+      <c r="BF95" t="n">
         <v>4.5</v>
       </c>
-      <c r="BE95" t="n">
+      <c r="BG95" t="n">
         <v>4.5</v>
       </c>
-      <c r="BF95" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG95" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BH95" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BI95" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BJ95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL95" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BM95" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BN95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BO95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BQ95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BR95" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BS95" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BT95" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BU95" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -20816,7 +20816,7 @@
         <v>4</v>
       </c>
       <c r="BA96" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BB96" t="n">
         <v>4</v>
@@ -20825,58 +20825,58 @@
         <v>4</v>
       </c>
       <c r="BD96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF96" t="n">
         <v>5</v>
       </c>
-      <c r="BE96" t="n">
+      <c r="BG96" t="n">
         <v>5</v>
       </c>
-      <c r="BF96" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG96" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BH96" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="BI96" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="BJ96" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="BK96" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="BL96" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BM96" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BN96" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BO96" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BP96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BQ96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BR96" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BS96" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BT96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -20980,7 +20980,7 @@
         <v>7.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG97" t="n">
         <v>5</v>
@@ -21019,7 +21019,7 @@
         <v>4.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AT97" t="n">
         <v>4</v>
@@ -21034,76 +21034,76 @@
         <v>3.5</v>
       </c>
       <c r="AX97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AZ97" t="n">
         <v>3</v>
       </c>
-      <c r="AY97" t="n">
+      <c r="BA97" t="n">
         <v>3</v>
       </c>
-      <c r="AZ97" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BB97" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BC97" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BD97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF97" t="n">
         <v>4.5</v>
       </c>
-      <c r="BE97" t="n">
+      <c r="BG97" t="n">
         <v>4.5</v>
       </c>
-      <c r="BF97" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG97" t="n">
-        <v>5</v>
-      </c>
       <c r="BH97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ97" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BK97" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BL97" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BM97" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BN97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BO97" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BP97" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BQ97" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BR97" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BS97" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BT97" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BU97" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98">
@@ -21165,7 +21165,7 @@
         <v>9.5</v>
       </c>
       <c r="R98" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="S98" t="n">
         <v>11</v>
@@ -21189,7 +21189,7 @@
         <v>12</v>
       </c>
       <c r="Z98" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA98" t="n">
         <v>10.5</v>
@@ -21219,7 +21219,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ98" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AK98" t="n">
         <v>4.5</v>
@@ -21246,7 +21246,7 @@
         <v>5</v>
       </c>
       <c r="AS98" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AT98" t="n">
         <v>5</v>
@@ -21273,64 +21273,64 @@
         <v>3.5</v>
       </c>
       <c r="BB98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BH98" t="n">
         <v>4</v>
       </c>
-      <c r="BC98" t="n">
+      <c r="BI98" t="n">
         <v>4</v>
       </c>
-      <c r="BD98" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE98" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF98" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG98" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BH98" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BI98" t="n">
-        <v>5.5</v>
-      </c>
       <c r="BJ98" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="BK98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL98" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BM98" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BN98" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BO98" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BP98" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BQ98" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="BR98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BS98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BT98" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BU98" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="99">
@@ -21416,13 +21416,13 @@
         <v>11.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA99" t="n">
         <v>10.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC99" t="n">
         <v>9.5</v>
@@ -21440,7 +21440,7 @@
         <v>5</v>
       </c>
       <c r="AH99" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AI99" t="n">
         <v>4.5</v>
@@ -21476,10 +21476,10 @@
         <v>4.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU99" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AV99" t="n">
         <v>3.5</v>
@@ -21488,7 +21488,7 @@
         <v>3.5</v>
       </c>
       <c r="AX99" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AY99" t="n">
         <v>3</v>
@@ -21500,64 +21500,64 @@
         <v>3</v>
       </c>
       <c r="BB99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD99" t="n">
         <v>3.5</v>
       </c>
-      <c r="BC99" t="n">
+      <c r="BE99" t="n">
         <v>3.5</v>
       </c>
-      <c r="BD99" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE99" t="n">
-        <v>4</v>
-      </c>
       <c r="BF99" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BG99" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BH99" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="BI99" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="BJ99" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BK99" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BL99" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BM99" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BN99" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BO99" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BP99" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BQ99" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BR99" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BS99" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BT99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -21676,7 +21676,7 @@
         <v>4.5</v>
       </c>
       <c r="AK100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AL100" t="n">
         <v>5.5</v>
@@ -21724,67 +21724,67 @@
         <v>4.5</v>
       </c>
       <c r="BA100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD100" t="n">
         <v>4.5</v>
       </c>
-      <c r="BB100" t="n">
+      <c r="BE100" t="n">
         <v>4.5</v>
       </c>
-      <c r="BC100" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD100" t="n">
+      <c r="BF100" t="n">
         <v>5</v>
       </c>
-      <c r="BE100" t="n">
+      <c r="BG100" t="n">
         <v>5</v>
       </c>
-      <c r="BF100" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG100" t="n">
-        <v>6</v>
-      </c>
       <c r="BH100" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BI100" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BJ100" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BK100" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BL100" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BM100" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BN100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BO100" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="BP100" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="BQ100" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="BR100" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BS100" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BT100" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="BU100" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="101">
@@ -21954,64 +21954,64 @@
         <v>3</v>
       </c>
       <c r="BB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD101" t="n">
         <v>3.5</v>
       </c>
-      <c r="BC101" t="n">
+      <c r="BE101" t="n">
         <v>3.5</v>
       </c>
-      <c r="BD101" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BE101" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BF101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH101" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="BI101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ101" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BK101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL101" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BM101" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BN101" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="BO101" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="BP101" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BQ101" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BR101" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BS101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -22037,7 +22037,7 @@
         <v>5</v>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I102" t="n">
         <v>6.5</v>
@@ -22109,7 +22109,7 @@
         <v>10.5</v>
       </c>
       <c r="AF102" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG102" t="n">
         <v>8</v>
@@ -22127,22 +22127,22 @@
         <v>6</v>
       </c>
       <c r="AL102" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM102" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN102" t="n">
         <v>7</v>
       </c>
       <c r="AO102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP102" t="n">
         <v>7</v>
       </c>
       <c r="AQ102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AR102" t="n">
         <v>6</v>
@@ -22151,22 +22151,22 @@
         <v>6</v>
       </c>
       <c r="AT102" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AU102" t="n">
         <v>6</v>
       </c>
       <c r="AV102" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AW102" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX102" t="n">
         <v>5</v>
       </c>
       <c r="AY102" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ102" t="n">
         <v>5</v>
@@ -22181,58 +22181,58 @@
         <v>5</v>
       </c>
       <c r="BD102" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BE102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF102" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="BG102" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="BH102" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="BI102" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="BJ102" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BK102" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="BL102" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BM102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BN102" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BO102" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="BP102" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="BQ102" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="BR102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BS102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BT102" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BU102" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103">
@@ -22348,7 +22348,7 @@
         <v>4.5</v>
       </c>
       <c r="AL103" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AM103" t="n">
         <v>5.5</v>
@@ -22363,7 +22363,7 @@
         <v>8</v>
       </c>
       <c r="AQ103" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AR103" t="n">
         <v>4.5</v>
@@ -22375,13 +22375,13 @@
         <v>4.5</v>
       </c>
       <c r="AU103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AV103" t="n">
         <v>3.5</v>
       </c>
       <c r="AW103" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX103" t="n">
         <v>3</v>
@@ -22390,70 +22390,70 @@
         <v>3</v>
       </c>
       <c r="AZ103" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BA103" t="n">
         <v>3</v>
       </c>
       <c r="BB103" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BC103" t="n">
         <v>4</v>
       </c>
       <c r="BD103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE103" t="n">
         <v>5.5</v>
       </c>
-      <c r="BE103" t="n">
-        <v>6.5</v>
-      </c>
       <c r="BF103" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BG103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BH103" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BI103" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BJ103" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="BK103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL103" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BM103" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BN103" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="BO103" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP103" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="BQ103" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="BR103" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BS103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU103" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -22566,7 +22566,7 @@
         <v>5</v>
       </c>
       <c r="AK104" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AL104" t="n">
         <v>5</v>
@@ -22575,22 +22575,22 @@
         <v>5</v>
       </c>
       <c r="AN104" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO104" t="n">
         <v>5.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>6.5</v>
       </c>
       <c r="AR104" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AT104" t="n">
         <v>4.5</v>
@@ -22599,13 +22599,13 @@
         <v>4.5</v>
       </c>
       <c r="AV104" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW104" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AX104" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AY104" t="n">
         <v>3</v>
@@ -22614,13 +22614,13 @@
         <v>3</v>
       </c>
       <c r="BA104" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BB104" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BC104" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BD104" t="n">
         <v>4</v>
@@ -22629,52 +22629,52 @@
         <v>4</v>
       </c>
       <c r="BF104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BG104" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BH104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BQ104" t="n">
         <v>4</v>
       </c>
-      <c r="BI104" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK104" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BL104" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BM104" t="n">
-        <v>7</v>
-      </c>
-      <c r="BN104" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP104" t="n">
-        <v>4</v>
-      </c>
-      <c r="BQ104" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BR104" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="BS104" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BT104" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="BU104" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="105">
@@ -22763,7 +22763,7 @@
         <v>7.5</v>
       </c>
       <c r="AC105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD105" t="n">
         <v>7</v>
@@ -22790,13 +22790,13 @@
         <v>4.5</v>
       </c>
       <c r="AL105" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN105" t="n">
         <v>5</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>5.5</v>
       </c>
       <c r="AO105" t="n">
         <v>5</v>
@@ -22829,7 +22829,7 @@
         <v>2</v>
       </c>
       <c r="AY105" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AZ105" t="n">
         <v>2</v>
@@ -22838,7 +22838,7 @@
         <v>3</v>
       </c>
       <c r="BB105" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BC105" t="n">
         <v>3</v>
@@ -22847,55 +22847,55 @@
         <v>3</v>
       </c>
       <c r="BE105" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BF105" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BG105" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BH105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI105" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="BJ105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK105" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BL105" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BM105" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BN105" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BO105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP105" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="BQ105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR105" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BS105" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="BT105" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BU105" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW158"/>
+  <dimension ref="A1:BY158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +835,16 @@
           <t>20.–26. 12. 2021</t>
         </is>
       </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>10.–16. 1. 2022</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>17.–23. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1068,6 +1078,12 @@
       <c r="BW2" t="n">
         <v>17.5</v>
       </c>
+      <c r="BX2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1301,6 +1317,12 @@
       <c r="BW3" t="n">
         <v>15</v>
       </c>
+      <c r="BX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1532,7 +1554,13 @@
         <v>9.5</v>
       </c>
       <c r="BW4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX4" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1567,7 +1595,7 @@
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1594,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>12</v>
@@ -1618,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>11.5</v>
@@ -1633,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>7</v>
@@ -1654,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM5" t="n">
         <v>5.5</v>
@@ -1766,6 +1794,12 @@
       </c>
       <c r="BW5" t="n">
         <v>11</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1800,7 +1834,7 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -1827,7 +1861,7 @@
         <v>10</v>
       </c>
       <c r="R6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
         <v>12</v>
@@ -1851,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>11.5</v>
@@ -1866,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
@@ -1887,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM6" t="n">
         <v>5.5</v>
@@ -1999,6 +2033,12 @@
       </c>
       <c r="BW6" t="n">
         <v>9</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
@@ -2033,7 +2073,7 @@
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -2060,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="R7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S7" t="n">
         <v>12</v>
@@ -2084,7 +2124,7 @@
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>11.5</v>
@@ -2099,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -2228,10 +2268,16 @@
         <v>5</v>
       </c>
       <c r="BV7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BW7" t="n">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
@@ -2466,6 +2512,12 @@
       <c r="BW8" t="n">
         <v>17.5</v>
       </c>
+      <c r="BX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2579,6 +2631,12 @@
       <c r="BW9" t="n">
         <v>17.5</v>
       </c>
+      <c r="BX9" t="n">
+        <v>18</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2812,6 +2870,12 @@
       <c r="BW10" t="n">
         <v>20.5</v>
       </c>
+      <c r="BX10" t="n">
+        <v>22</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2925,6 +2989,12 @@
       <c r="BW11" t="n">
         <v>22.5</v>
       </c>
+      <c r="BX11" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3158,6 +3228,12 @@
       <c r="BW12" t="n">
         <v>11.5</v>
       </c>
+      <c r="BX12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3271,6 +3347,12 @@
       <c r="BW13" t="n">
         <v>12</v>
       </c>
+      <c r="BX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3504,6 +3586,12 @@
       <c r="BW14" t="n">
         <v>25.5</v>
       </c>
+      <c r="BX14" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3737,6 +3825,12 @@
       <c r="BW15" t="n">
         <v>19.5</v>
       </c>
+      <c r="BX15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3970,6 +4064,12 @@
       <c r="BW16" t="n">
         <v>11.5</v>
       </c>
+      <c r="BX16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4203,6 +4303,12 @@
       <c r="BW17" t="n">
         <v>20.5</v>
       </c>
+      <c r="BX17" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4436,6 +4542,12 @@
       <c r="BW18" t="n">
         <v>16.5</v>
       </c>
+      <c r="BX18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4669,6 +4781,12 @@
       <c r="BW19" t="n">
         <v>17</v>
       </c>
+      <c r="BX19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4902,6 +5020,12 @@
       <c r="BW20" t="n">
         <v>21</v>
       </c>
+      <c r="BX20" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5135,6 +5259,12 @@
       <c r="BW21" t="n">
         <v>16.5</v>
       </c>
+      <c r="BX21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5368,6 +5498,12 @@
       <c r="BW22" t="n">
         <v>15.5</v>
       </c>
+      <c r="BX22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5601,6 +5737,12 @@
       <c r="BW23" t="n">
         <v>19</v>
       </c>
+      <c r="BX23" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5834,6 +5976,12 @@
       <c r="BW24" t="n">
         <v>16.5</v>
       </c>
+      <c r="BX24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6067,6 +6215,12 @@
       <c r="BW25" t="n">
         <v>16.5</v>
       </c>
+      <c r="BX25" t="n">
+        <v>18</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6300,6 +6454,12 @@
       <c r="BW26" t="n">
         <v>21</v>
       </c>
+      <c r="BX26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6533,6 +6693,12 @@
       <c r="BW27" t="n">
         <v>15</v>
       </c>
+      <c r="BX27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6766,6 +6932,12 @@
       <c r="BW28" t="n">
         <v>19.5</v>
       </c>
+      <c r="BX28" t="n">
+        <v>19</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6993,6 +7165,12 @@
       <c r="BW29" t="n">
         <v>24.5</v>
       </c>
+      <c r="BX29" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7220,6 +7398,12 @@
       <c r="BW30" t="n">
         <v>21.5</v>
       </c>
+      <c r="BX30" t="n">
+        <v>19</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7447,6 +7631,12 @@
       <c r="BW31" t="n">
         <v>17.5</v>
       </c>
+      <c r="BX31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7674,6 +7864,12 @@
       <c r="BW32" t="n">
         <v>14</v>
       </c>
+      <c r="BX32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7907,6 +8103,12 @@
       <c r="BW33" t="n">
         <v>17.5</v>
       </c>
+      <c r="BX33" t="n">
+        <v>19</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8020,6 +8222,12 @@
       <c r="BW34" t="n">
         <v>14</v>
       </c>
+      <c r="BX34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8253,6 +8461,12 @@
       <c r="BW35" t="n">
         <v>20.5</v>
       </c>
+      <c r="BX35" t="n">
+        <v>22</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8366,6 +8580,12 @@
       <c r="BW36" t="n">
         <v>19</v>
       </c>
+      <c r="BX36" t="n">
+        <v>16</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8599,6 +8819,12 @@
       <c r="BW37" t="n">
         <v>11.5</v>
       </c>
+      <c r="BX37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8707,10 +8933,16 @@
         <v>10</v>
       </c>
       <c r="BV38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BW38" t="n">
         <v>8.5</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="39">
@@ -8945,6 +9177,12 @@
       <c r="BW39" t="n">
         <v>23.5</v>
       </c>
+      <c r="BX39" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9178,6 +9416,12 @@
       <c r="BW40" t="n">
         <v>16.5</v>
       </c>
+      <c r="BX40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9411,6 +9655,12 @@
       <c r="BW41" t="n">
         <v>8.5</v>
       </c>
+      <c r="BX41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9639,10 +9889,16 @@
         <v>19</v>
       </c>
       <c r="BV42" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BW42" t="n">
         <v>17</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>17</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="43">
@@ -9872,10 +10128,16 @@
         <v>15.5</v>
       </c>
       <c r="BV43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BW43" t="n">
         <v>14.5</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="44">
@@ -10110,6 +10372,12 @@
       <c r="BW44" t="n">
         <v>14</v>
       </c>
+      <c r="BX44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10338,10 +10606,16 @@
         <v>20</v>
       </c>
       <c r="BV45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BW45" t="n">
-        <v>17.5</v>
+        <v>17</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>16</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="46">
@@ -10571,10 +10845,16 @@
         <v>15.5</v>
       </c>
       <c r="BV46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BW46" t="n">
         <v>14</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -10809,6 +11089,12 @@
       <c r="BW47" t="n">
         <v>13.5</v>
       </c>
+      <c r="BX47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11037,10 +11323,16 @@
         <v>17.5</v>
       </c>
       <c r="BV48" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BW48" t="n">
         <v>15.5</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="49">
@@ -11273,7 +11565,13 @@
         <v>13.5</v>
       </c>
       <c r="BW49" t="n">
-        <v>14.5</v>
+        <v>14</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -11508,6 +11806,12 @@
       <c r="BW50" t="n">
         <v>13.5</v>
       </c>
+      <c r="BX50" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11741,6 +12045,12 @@
       <c r="BW51" t="n">
         <v>18.5</v>
       </c>
+      <c r="BX51" t="n">
+        <v>15</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11969,10 +12279,16 @@
         <v>16</v>
       </c>
       <c r="BV52" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BW52" t="n">
         <v>13</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="53">
@@ -12207,6 +12523,12 @@
       <c r="BW53" t="n">
         <v>15.5</v>
       </c>
+      <c r="BX53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12434,6 +12756,12 @@
       <c r="BW54" t="n">
         <v>21</v>
       </c>
+      <c r="BX54" t="n">
+        <v>19</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12656,10 +12984,16 @@
         <v>16.5</v>
       </c>
       <c r="BV55" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BW55" t="n">
         <v>16.5</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -12888,6 +13222,12 @@
       <c r="BW56" t="n">
         <v>16</v>
       </c>
+      <c r="BX56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13115,6 +13455,12 @@
       <c r="BW57" t="n">
         <v>11.5</v>
       </c>
+      <c r="BX57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13348,6 +13694,12 @@
       <c r="BW58" t="n">
         <v>15</v>
       </c>
+      <c r="BX58" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13456,10 +13808,16 @@
         <v>7</v>
       </c>
       <c r="BV59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BW59" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="60">
@@ -13689,9 +14047,15 @@
         <v>17.5</v>
       </c>
       <c r="BV60" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BW60" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>17</v>
+      </c>
+      <c r="BY60" t="n">
         <v>16.5</v>
       </c>
     </row>
@@ -13802,10 +14166,16 @@
         <v>9.5</v>
       </c>
       <c r="BV61" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BW61" t="n">
-        <v>10</v>
+        <v>9.5</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="62">
@@ -14038,7 +14408,13 @@
         <v>11</v>
       </c>
       <c r="BW62" t="n">
-        <v>11.5</v>
+        <v>11</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="63">
@@ -14148,10 +14524,16 @@
         <v>4</v>
       </c>
       <c r="BV63" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BW63" t="n">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="64">
@@ -14381,10 +14763,16 @@
         <v>12.5</v>
       </c>
       <c r="BV64" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BW64" t="n">
         <v>12</v>
       </c>
-      <c r="BW64" t="n">
-        <v>12.5</v>
+      <c r="BX64" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -14614,10 +15002,16 @@
         <v>11</v>
       </c>
       <c r="BV65" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BW65" t="n">
-        <v>11.5</v>
+        <v>11</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -14850,7 +15244,13 @@
         <v>5.5</v>
       </c>
       <c r="BW66" t="n">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="67">
@@ -15085,6 +15485,12 @@
       <c r="BW67" t="n">
         <v>11.5</v>
       </c>
+      <c r="BX67" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15316,7 +15722,13 @@
         <v>9</v>
       </c>
       <c r="BW68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BX68" t="n">
         <v>9</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="69">
@@ -15546,9 +15958,15 @@
         <v>7.5</v>
       </c>
       <c r="BV69" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BW69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BY69" t="n">
         <v>8</v>
       </c>
     </row>
@@ -15779,10 +16197,16 @@
         <v>11</v>
       </c>
       <c r="BV70" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BW70" t="n">
-        <v>10.5</v>
+        <v>10</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="71">
@@ -16017,6 +16441,12 @@
       <c r="BW71" t="n">
         <v>8</v>
       </c>
+      <c r="BX71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16250,6 +16680,12 @@
       <c r="BW72" t="n">
         <v>9</v>
       </c>
+      <c r="BX72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16478,10 +16914,16 @@
         <v>9.5</v>
       </c>
       <c r="BV73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BX73" t="n">
         <v>11</v>
       </c>
-      <c r="BW73" t="n">
-        <v>10</v>
+      <c r="BY73" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -16711,10 +17153,16 @@
         <v>8.5</v>
       </c>
       <c r="BV74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW74" t="n">
         <v>8.5</v>
       </c>
-      <c r="BW74" t="n">
-        <v>9</v>
+      <c r="BX74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="75">
@@ -16947,7 +17395,13 @@
         <v>8.5</v>
       </c>
       <c r="BW75" t="n">
-        <v>9</v>
+        <v>8.5</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -17182,6 +17636,12 @@
       <c r="BW76" t="n">
         <v>11</v>
       </c>
+      <c r="BX76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17410,10 +17870,16 @@
         <v>8</v>
       </c>
       <c r="BV77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BX77" t="n">
         <v>9</v>
       </c>
-      <c r="BW77" t="n">
-        <v>8.5</v>
+      <c r="BY77" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="78">
@@ -17646,7 +18112,13 @@
         <v>9.5</v>
       </c>
       <c r="BW78" t="n">
-        <v>9</v>
+        <v>8.5</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -17870,10 +18342,16 @@
         <v>13</v>
       </c>
       <c r="BV79" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BW79" t="n">
-        <v>13</v>
+        <v>12.5</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BY79" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -18097,10 +18575,16 @@
         <v>9</v>
       </c>
       <c r="BV80" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BW80" t="n">
-        <v>10</v>
+        <v>9.5</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY80" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="81">
@@ -18329,6 +18813,12 @@
       <c r="BW81" t="n">
         <v>11.5</v>
       </c>
+      <c r="BX81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18556,6 +19046,12 @@
       <c r="BW82" t="n">
         <v>8</v>
       </c>
+      <c r="BX82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18589,7 +19085,7 @@
         <v>4.5</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J83" t="n">
         <v>5</v>
@@ -18616,7 +19112,7 @@
         <v>10</v>
       </c>
       <c r="R83" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S83" t="n">
         <v>12</v>
@@ -18640,7 +19136,7 @@
         <v>13</v>
       </c>
       <c r="Z83" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA83" t="n">
         <v>11.5</v>
@@ -18655,7 +19151,7 @@
         <v>10</v>
       </c>
       <c r="AE83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF83" t="n">
         <v>7</v>
@@ -18676,7 +19172,7 @@
         <v>5</v>
       </c>
       <c r="AL83" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM83" t="n">
         <v>5.5</v>
@@ -18760,7 +19256,7 @@
         <v>15.5</v>
       </c>
       <c r="BN83" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BO83" t="n">
         <v>17.5</v>
@@ -18788,6 +19284,12 @@
       </c>
       <c r="BW83" t="n">
         <v>12</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -18902,6 +19404,12 @@
       <c r="BW84" t="n">
         <v>10.5</v>
       </c>
+      <c r="BX84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18923,7 +19431,7 @@
         <v>11.5</v>
       </c>
       <c r="E85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>4.5</v>
@@ -18980,13 +19488,13 @@
         <v>15.5</v>
       </c>
       <c r="X85" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y85" t="n">
         <v>15.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA85" t="n">
         <v>14</v>
@@ -19001,7 +19509,7 @@
         <v>12</v>
       </c>
       <c r="AE85" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF85" t="n">
         <v>8.5</v>
@@ -19134,6 +19642,12 @@
       </c>
       <c r="BW85" t="n">
         <v>13</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="86">
@@ -19248,6 +19762,12 @@
       <c r="BW86" t="n">
         <v>14</v>
       </c>
+      <c r="BX86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19449,7 +19969,7 @@
         <v>11.5</v>
       </c>
       <c r="BM87" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BN87" t="n">
         <v>10.5</v>
@@ -19461,10 +19981,10 @@
         <v>9.5</v>
       </c>
       <c r="BQ87" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BR87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BS87" t="n">
         <v>8</v>
@@ -19480,6 +20000,12 @@
       </c>
       <c r="BW87" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -19594,6 +20120,12 @@
       <c r="BW88" t="n">
         <v>7</v>
       </c>
+      <c r="BX88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19642,7 +20174,7 @@
         <v>8</v>
       </c>
       <c r="N89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O89" t="n">
         <v>10</v>
@@ -19657,7 +20189,7 @@
         <v>15</v>
       </c>
       <c r="S89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="T89" t="n">
         <v>16</v>
@@ -19669,7 +20201,7 @@
         <v>16.5</v>
       </c>
       <c r="W89" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X89" t="n">
         <v>16.5</v>
@@ -19826,6 +20358,12 @@
       </c>
       <c r="BW89" t="n">
         <v>15.5</v>
+      </c>
+      <c r="BX89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="90">
@@ -19890,13 +20428,13 @@
         <v>13.5</v>
       </c>
       <c r="S90" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="T90" t="n">
         <v>15.5</v>
       </c>
       <c r="U90" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V90" t="n">
         <v>15</v>
@@ -20058,6 +20596,12 @@
         <v>12.5</v>
       </c>
       <c r="BW90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY90" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -20117,10 +20661,10 @@
         <v>6.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S91" t="n">
         <v>8.5</v>
@@ -20171,7 +20715,7 @@
         <v>4</v>
       </c>
       <c r="AI91" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AJ91" t="n">
         <v>3.5</v>
@@ -20291,6 +20835,12 @@
         <v>7</v>
       </c>
       <c r="BW91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY91" t="n">
         <v>7</v>
       </c>
     </row>
@@ -20335,10 +20885,10 @@
         <v>6</v>
       </c>
       <c r="L92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N92" t="n">
         <v>9</v>
@@ -20374,10 +20924,10 @@
         <v>15.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z92" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA92" t="n">
         <v>14.5</v>
@@ -20386,10 +20936,10 @@
         <v>13.5</v>
       </c>
       <c r="AC92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD92" t="n">
         <v>13</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>12.5</v>
       </c>
       <c r="AE92" t="n">
         <v>11.5</v>
@@ -20398,13 +20948,13 @@
         <v>9.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ92" t="n">
         <v>6.5</v>
@@ -20525,6 +21075,12 @@
       </c>
       <c r="BW92" t="n">
         <v>14</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -20547,7 +21103,7 @@
         <v>9.5</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F93" t="n">
         <v>4</v>
@@ -20758,6 +21314,12 @@
       </c>
       <c r="BW93" t="n">
         <v>10</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="94">
@@ -20870,7 +21432,7 @@
         <v>5.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ94" t="n">
         <v>4</v>
@@ -20879,7 +21441,7 @@
         <v>4</v>
       </c>
       <c r="AL94" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM94" t="n">
         <v>5.5</v>
@@ -20990,6 +21552,12 @@
         <v>10</v>
       </c>
       <c r="BW94" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY94" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -21040,7 +21608,7 @@
         <v>8</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O95" t="n">
         <v>10</v>
@@ -21061,7 +21629,7 @@
         <v>17.5</v>
       </c>
       <c r="U95" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V95" t="n">
         <v>19</v>
@@ -21196,7 +21764,7 @@
         <v>16.5</v>
       </c>
       <c r="BN95" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BO95" t="n">
         <v>18.5</v>
@@ -21223,6 +21791,12 @@
         <v>13.5</v>
       </c>
       <c r="BW95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BY95" t="n">
         <v>13.5</v>
       </c>
     </row>
@@ -21261,7 +21835,7 @@
         <v>4.5</v>
       </c>
       <c r="J96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K96" t="n">
         <v>6</v>
@@ -21285,7 +21859,7 @@
         <v>12.5</v>
       </c>
       <c r="R96" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="S96" t="n">
         <v>13.5</v>
@@ -21456,6 +22030,12 @@
         <v>8.5</v>
       </c>
       <c r="BW96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY96" t="n">
         <v>9</v>
       </c>
     </row>
@@ -21548,7 +22128,7 @@
         <v>11</v>
       </c>
       <c r="AB97" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC97" t="n">
         <v>10</v>
@@ -21690,6 +22270,12 @@
       </c>
       <c r="BW97" t="n">
         <v>10</v>
+      </c>
+      <c r="BX97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -21757,10 +22343,10 @@
         <v>13</v>
       </c>
       <c r="T98" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U98" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V98" t="n">
         <v>14</v>
@@ -21772,7 +22358,7 @@
         <v>14</v>
       </c>
       <c r="Y98" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z98" t="n">
         <v>13</v>
@@ -21787,7 +22373,7 @@
         <v>11.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE98" t="n">
         <v>10</v>
@@ -21796,7 +22382,7 @@
         <v>7.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH98" t="n">
         <v>6.5</v>
@@ -21923,6 +22509,12 @@
       </c>
       <c r="BW98" t="n">
         <v>12</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="99">
@@ -21942,7 +22534,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
         <v>6.5</v>
@@ -22155,6 +22747,12 @@
         <v>9.5</v>
       </c>
       <c r="BW99" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BX99" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BY99" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -22208,7 +22806,7 @@
         <v>8</v>
       </c>
       <c r="O100" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P100" t="n">
         <v>10</v>
@@ -22217,7 +22815,7 @@
         <v>10.5</v>
       </c>
       <c r="R100" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S100" t="n">
         <v>12.5</v>
@@ -22244,7 +22842,7 @@
         <v>12</v>
       </c>
       <c r="AA100" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB100" t="n">
         <v>11</v>
@@ -22388,6 +22986,12 @@
         <v>10.5</v>
       </c>
       <c r="BW100" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BX100" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BY100" t="n">
         <v>10.5</v>
       </c>
     </row>
@@ -22570,7 +23174,7 @@
         <v>5.5</v>
       </c>
       <c r="BF101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BG101" t="n">
         <v>7.5</v>
@@ -22622,6 +23226,12 @@
       </c>
       <c r="BW101" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BX101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BY101" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="102">
@@ -22680,7 +23290,7 @@
         <v>10</v>
       </c>
       <c r="Q102" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="R102" t="n">
         <v>11.5</v>
@@ -22707,7 +23317,7 @@
         <v>13</v>
       </c>
       <c r="Z102" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA102" t="n">
         <v>12</v>
@@ -22855,6 +23465,12 @@
       </c>
       <c r="BW102" t="n">
         <v>10.5</v>
+      </c>
+      <c r="BX102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY102" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="103">
@@ -22892,7 +23508,7 @@
         <v>3.5</v>
       </c>
       <c r="J103" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K103" t="n">
         <v>4.5</v>
@@ -22922,7 +23538,7 @@
         <v>12</v>
       </c>
       <c r="T103" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U103" t="n">
         <v>13</v>
@@ -22931,7 +23547,7 @@
         <v>13.5</v>
       </c>
       <c r="W103" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X103" t="n">
         <v>13</v>
@@ -22967,7 +23583,7 @@
         <v>6</v>
       </c>
       <c r="AI103" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ103" t="n">
         <v>5</v>
@@ -23088,6 +23704,12 @@
       </c>
       <c r="BW103" t="n">
         <v>12</v>
+      </c>
+      <c r="BX103" t="n">
+        <v>11</v>
+      </c>
+      <c r="BY103" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -23122,7 +23744,7 @@
         <v>8</v>
       </c>
       <c r="K104" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L104" t="n">
         <v>9</v>
@@ -23149,10 +23771,10 @@
         <v>15</v>
       </c>
       <c r="T104" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U104" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V104" t="n">
         <v>16</v>
@@ -23194,7 +23816,7 @@
         <v>9</v>
       </c>
       <c r="AI104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ104" t="n">
         <v>7</v>
@@ -23315,6 +23937,12 @@
       </c>
       <c r="BW104" t="n">
         <v>14</v>
+      </c>
+      <c r="BX104" t="n">
+        <v>14</v>
+      </c>
+      <c r="BY104" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="105">
@@ -23355,7 +23983,7 @@
         <v>8</v>
       </c>
       <c r="M105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N105" t="n">
         <v>10</v>
@@ -23373,7 +24001,7 @@
         <v>13</v>
       </c>
       <c r="S105" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="T105" t="n">
         <v>16.5</v>
@@ -23394,7 +24022,7 @@
         <v>16</v>
       </c>
       <c r="Z105" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA105" t="n">
         <v>13.5</v>
@@ -23403,7 +24031,7 @@
         <v>16</v>
       </c>
       <c r="AC105" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD105" t="n">
         <v>12</v>
@@ -23542,6 +24170,12 @@
       </c>
       <c r="BW105" t="n">
         <v>14.5</v>
+      </c>
+      <c r="BX105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY105" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -23770,6 +24404,12 @@
       <c r="BW106" t="n">
         <v>11</v>
       </c>
+      <c r="BX106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY106" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23869,7 +24509,7 @@
         <v>5.5</v>
       </c>
       <c r="AG107" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AH107" t="n">
         <v>4.5</v>
@@ -23996,6 +24636,12 @@
       </c>
       <c r="BW107" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -24030,7 +24676,7 @@
         <v>4.5</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J108" t="n">
         <v>5</v>
@@ -24057,7 +24703,7 @@
         <v>10</v>
       </c>
       <c r="R108" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S108" t="n">
         <v>12</v>
@@ -24081,7 +24727,7 @@
         <v>13</v>
       </c>
       <c r="Z108" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA108" t="n">
         <v>11.5</v>
@@ -24096,7 +24742,7 @@
         <v>10</v>
       </c>
       <c r="AE108" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF108" t="n">
         <v>7</v>
@@ -24117,7 +24763,7 @@
         <v>5</v>
       </c>
       <c r="AL108" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM108" t="n">
         <v>5.5</v>
@@ -24201,7 +24847,7 @@
         <v>15.5</v>
       </c>
       <c r="BN108" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BO108" t="n">
         <v>17.5</v>
@@ -24229,6 +24875,12 @@
       </c>
       <c r="BW108" t="n">
         <v>12</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -24314,7 +24966,7 @@
         <v>11</v>
       </c>
       <c r="BN109" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BO109" t="n">
         <v>13.5</v>
@@ -24342,6 +24994,12 @@
       </c>
       <c r="BW109" t="n">
         <v>8.5</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -24364,7 +25022,7 @@
         <v>11.5</v>
       </c>
       <c r="E110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F110" t="n">
         <v>4.5</v>
@@ -24421,13 +25079,13 @@
         <v>15.5</v>
       </c>
       <c r="X110" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y110" t="n">
         <v>15.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA110" t="n">
         <v>14</v>
@@ -24442,7 +25100,7 @@
         <v>12</v>
       </c>
       <c r="AE110" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF110" t="n">
         <v>8.5</v>
@@ -24575,6 +25233,12 @@
       </c>
       <c r="BW110" t="n">
         <v>13</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="111">
@@ -24689,6 +25353,12 @@
       <c r="BW111" t="n">
         <v>11.5</v>
       </c>
+      <c r="BX111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24890,7 +25560,7 @@
         <v>11.5</v>
       </c>
       <c r="BM112" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BN112" t="n">
         <v>10.5</v>
@@ -24902,10 +25572,10 @@
         <v>9.5</v>
       </c>
       <c r="BQ112" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BR112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BS112" t="n">
         <v>8</v>
@@ -24921,6 +25591,12 @@
       </c>
       <c r="BW112" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -25035,6 +25711,12 @@
       <c r="BW113" t="n">
         <v>4.5</v>
       </c>
+      <c r="BX113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25083,7 +25765,7 @@
         <v>8</v>
       </c>
       <c r="N114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O114" t="n">
         <v>10</v>
@@ -25098,7 +25780,7 @@
         <v>15</v>
       </c>
       <c r="S114" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="T114" t="n">
         <v>16</v>
@@ -25110,7 +25792,7 @@
         <v>16.5</v>
       </c>
       <c r="W114" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X114" t="n">
         <v>16.5</v>
@@ -25263,10 +25945,16 @@
         <v>13</v>
       </c>
       <c r="BV114" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BW114" t="n">
         <v>14</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="115">
@@ -25331,13 +26019,13 @@
         <v>13.5</v>
       </c>
       <c r="S115" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="T115" t="n">
         <v>15.5</v>
       </c>
       <c r="U115" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V115" t="n">
         <v>15</v>
@@ -25500,6 +26188,12 @@
       </c>
       <c r="BW115" t="n">
         <v>10.5</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -25558,10 +26252,10 @@
         <v>6.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S116" t="n">
         <v>8.5</v>
@@ -25612,7 +26306,7 @@
         <v>4</v>
       </c>
       <c r="AI116" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AJ116" t="n">
         <v>3.5</v>
@@ -25732,7 +26426,13 @@
         <v>5</v>
       </c>
       <c r="BW116" t="n">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -25776,10 +26476,10 @@
         <v>6</v>
       </c>
       <c r="L117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N117" t="n">
         <v>9</v>
@@ -25815,10 +26515,10 @@
         <v>15.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z117" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA117" t="n">
         <v>14.5</v>
@@ -25827,10 +26527,10 @@
         <v>13.5</v>
       </c>
       <c r="AC117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD117" t="n">
         <v>13</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>12.5</v>
       </c>
       <c r="AE117" t="n">
         <v>11.5</v>
@@ -25839,13 +26539,13 @@
         <v>9.5</v>
       </c>
       <c r="AG117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ117" t="n">
         <v>6.5</v>
@@ -25966,6 +26666,12 @@
       </c>
       <c r="BW117" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -25988,7 +26694,7 @@
         <v>9.5</v>
       </c>
       <c r="E118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -26199,6 +26905,12 @@
       </c>
       <c r="BW118" t="n">
         <v>8.5</v>
+      </c>
+      <c r="BX118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY118" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -26311,7 +27023,7 @@
         <v>5.5</v>
       </c>
       <c r="AI119" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ119" t="n">
         <v>4</v>
@@ -26320,7 +27032,7 @@
         <v>4</v>
       </c>
       <c r="AL119" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM119" t="n">
         <v>5.5</v>
@@ -26432,6 +27144,12 @@
       </c>
       <c r="BW119" t="n">
         <v>8</v>
+      </c>
+      <c r="BX119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY119" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -26481,7 +27199,7 @@
         <v>8</v>
       </c>
       <c r="N120" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O120" t="n">
         <v>10</v>
@@ -26502,7 +27220,7 @@
         <v>17.5</v>
       </c>
       <c r="U120" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V120" t="n">
         <v>19</v>
@@ -26665,6 +27383,12 @@
       </c>
       <c r="BW120" t="n">
         <v>11</v>
+      </c>
+      <c r="BX120" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BY120" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="121">
@@ -26702,7 +27426,7 @@
         <v>4.5</v>
       </c>
       <c r="J121" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K121" t="n">
         <v>6</v>
@@ -26726,7 +27450,7 @@
         <v>12.5</v>
       </c>
       <c r="R121" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="S121" t="n">
         <v>13.5</v>
@@ -26898,6 +27622,12 @@
       </c>
       <c r="BW121" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BX121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY121" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -26989,7 +27719,7 @@
         <v>11</v>
       </c>
       <c r="AB122" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC122" t="n">
         <v>10</v>
@@ -27109,7 +27839,7 @@
         <v>14</v>
       </c>
       <c r="BP122" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BQ122" t="n">
         <v>13</v>
@@ -27131,6 +27861,12 @@
       </c>
       <c r="BW122" t="n">
         <v>8.5</v>
+      </c>
+      <c r="BX122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY122" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="123">
@@ -27198,10 +27934,10 @@
         <v>13</v>
       </c>
       <c r="T123" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U123" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V123" t="n">
         <v>14</v>
@@ -27213,7 +27949,7 @@
         <v>14</v>
       </c>
       <c r="Y123" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z123" t="n">
         <v>13</v>
@@ -27228,7 +27964,7 @@
         <v>11.5</v>
       </c>
       <c r="AD123" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE123" t="n">
         <v>10</v>
@@ -27237,7 +27973,7 @@
         <v>7.5</v>
       </c>
       <c r="AG123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH123" t="n">
         <v>6.5</v>
@@ -27364,6 +28100,12 @@
       </c>
       <c r="BW123" t="n">
         <v>10</v>
+      </c>
+      <c r="BX123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BY123" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="124">
@@ -27383,7 +28125,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="E124" t="n">
         <v>6.5</v>
@@ -27593,10 +28335,16 @@
         <v>10</v>
       </c>
       <c r="BV124" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BW124" t="n">
         <v>8.5</v>
+      </c>
+      <c r="BX124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY124" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -27649,7 +28397,7 @@
         <v>8</v>
       </c>
       <c r="O125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P125" t="n">
         <v>10</v>
@@ -27658,7 +28406,7 @@
         <v>10.5</v>
       </c>
       <c r="R125" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S125" t="n">
         <v>12.5</v>
@@ -27685,7 +28433,7 @@
         <v>12</v>
       </c>
       <c r="AA125" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB125" t="n">
         <v>11</v>
@@ -27830,6 +28578,12 @@
       </c>
       <c r="BW125" t="n">
         <v>8.5</v>
+      </c>
+      <c r="BX125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="126">
@@ -28011,7 +28765,7 @@
         <v>5.5</v>
       </c>
       <c r="BF126" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BG126" t="n">
         <v>7.5</v>
@@ -28063,6 +28817,12 @@
       </c>
       <c r="BW126" t="n">
         <v>10</v>
+      </c>
+      <c r="BX126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BY126" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="127">
@@ -28121,7 +28881,7 @@
         <v>10</v>
       </c>
       <c r="Q127" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="R127" t="n">
         <v>11.5</v>
@@ -28148,7 +28908,7 @@
         <v>13</v>
       </c>
       <c r="Z127" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA127" t="n">
         <v>12</v>
@@ -28296,6 +29056,12 @@
       </c>
       <c r="BW127" t="n">
         <v>9</v>
+      </c>
+      <c r="BX127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BY127" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="128">
@@ -28333,7 +29099,7 @@
         <v>3.5</v>
       </c>
       <c r="J128" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K128" t="n">
         <v>4.5</v>
@@ -28363,7 +29129,7 @@
         <v>12</v>
       </c>
       <c r="T128" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U128" t="n">
         <v>13</v>
@@ -28372,7 +29138,7 @@
         <v>13.5</v>
       </c>
       <c r="W128" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X128" t="n">
         <v>13</v>
@@ -28408,7 +29174,7 @@
         <v>6</v>
       </c>
       <c r="AI128" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ128" t="n">
         <v>5</v>
@@ -28529,6 +29295,12 @@
       </c>
       <c r="BW128" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BX128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BY128" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="129">
@@ -28563,7 +29335,7 @@
         <v>8</v>
       </c>
       <c r="K129" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L129" t="n">
         <v>9</v>
@@ -28590,10 +29362,10 @@
         <v>15</v>
       </c>
       <c r="T129" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U129" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V129" t="n">
         <v>16</v>
@@ -28635,7 +29407,7 @@
         <v>9</v>
       </c>
       <c r="AI129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ129" t="n">
         <v>7</v>
@@ -28756,6 +29528,12 @@
       </c>
       <c r="BW129" t="n">
         <v>12</v>
+      </c>
+      <c r="BX129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY129" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -28796,7 +29574,7 @@
         <v>8</v>
       </c>
       <c r="M130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N130" t="n">
         <v>10</v>
@@ -28814,7 +29592,7 @@
         <v>13</v>
       </c>
       <c r="S130" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="T130" t="n">
         <v>16.5</v>
@@ -28835,7 +29613,7 @@
         <v>16</v>
       </c>
       <c r="Z130" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA130" t="n">
         <v>13.5</v>
@@ -28844,7 +29622,7 @@
         <v>16</v>
       </c>
       <c r="AC130" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD130" t="n">
         <v>12</v>
@@ -28983,6 +29761,12 @@
       </c>
       <c r="BW130" t="n">
         <v>11</v>
+      </c>
+      <c r="BX130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY130" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="131">
@@ -29209,7 +29993,13 @@
         <v>8</v>
       </c>
       <c r="BW131" t="n">
-        <v>10</v>
+        <v>9.5</v>
+      </c>
+      <c r="BX131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY131" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -29310,7 +30100,7 @@
         <v>5.5</v>
       </c>
       <c r="AG132" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AH132" t="n">
         <v>4.5</v>
@@ -29433,10 +30223,16 @@
         <v>5.5</v>
       </c>
       <c r="BV132" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BW132" t="n">
         <v>8</v>
+      </c>
+      <c r="BX132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY132" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -29471,7 +30267,7 @@
         <v>4.5</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J133" t="n">
         <v>5</v>
@@ -29498,7 +30294,7 @@
         <v>10</v>
       </c>
       <c r="R133" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S133" t="n">
         <v>12</v>
@@ -29522,7 +30318,7 @@
         <v>13</v>
       </c>
       <c r="Z133" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA133" t="n">
         <v>11.5</v>
@@ -29537,7 +30333,7 @@
         <v>10</v>
       </c>
       <c r="AE133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF133" t="n">
         <v>7</v>
@@ -29670,6 +30466,12 @@
       </c>
       <c r="BW133" t="n">
         <v>10.5</v>
+      </c>
+      <c r="BX133" t="n">
+        <v>11</v>
+      </c>
+      <c r="BY133" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="134">
@@ -29740,7 +30542,7 @@
         <v>8</v>
       </c>
       <c r="BI134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BJ134" t="n">
         <v>4.5</v>
@@ -29782,6 +30584,12 @@
         <v>4.5</v>
       </c>
       <c r="BW134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BX134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BY134" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -29805,7 +30613,7 @@
         <v>11.5</v>
       </c>
       <c r="E135" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F135" t="n">
         <v>4.5</v>
@@ -29862,13 +30670,13 @@
         <v>15.5</v>
       </c>
       <c r="X135" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y135" t="n">
         <v>15.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA135" t="n">
         <v>14</v>
@@ -29883,7 +30691,7 @@
         <v>12</v>
       </c>
       <c r="AE135" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF135" t="n">
         <v>8.5</v>
@@ -29961,7 +30769,7 @@
         <v>8</v>
       </c>
       <c r="BE135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF135" t="n">
         <v>10</v>
@@ -30012,10 +30820,16 @@
         <v>10</v>
       </c>
       <c r="BV135" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BW135" t="n">
-        <v>11</v>
+        <v>10.5</v>
+      </c>
+      <c r="BX135" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY135" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="136">
@@ -30130,6 +30944,12 @@
       <c r="BW136" t="n">
         <v>6</v>
       </c>
+      <c r="BX136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY136" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30363,6 +31183,12 @@
       <c r="BW137" t="n">
         <v>9</v>
       </c>
+      <c r="BX137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY137" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30471,10 +31297,16 @@
         <v>2.5</v>
       </c>
       <c r="BV138" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BW138" t="n">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="BX138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BY138" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="139">
@@ -30524,7 +31356,7 @@
         <v>8</v>
       </c>
       <c r="N139" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O139" t="n">
         <v>10</v>
@@ -30539,7 +31371,7 @@
         <v>15</v>
       </c>
       <c r="S139" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -30551,7 +31383,7 @@
         <v>16.5</v>
       </c>
       <c r="W139" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X139" t="n">
         <v>16.5</v>
@@ -30707,6 +31539,12 @@
         <v>7</v>
       </c>
       <c r="BW139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY139" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30772,13 +31610,13 @@
         <v>13.5</v>
       </c>
       <c r="S140" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="T140" t="n">
         <v>15.5</v>
       </c>
       <c r="U140" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V140" t="n">
         <v>15</v>
@@ -30877,7 +31715,7 @@
         <v>5.5</v>
       </c>
       <c r="BB140" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BC140" t="n">
         <v>6</v>
@@ -30937,9 +31775,15 @@
         <v>6.5</v>
       </c>
       <c r="BV140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX140" t="n">
         <v>7.5</v>
       </c>
-      <c r="BW140" t="n">
+      <c r="BY140" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -30999,10 +31843,10 @@
         <v>6.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R141" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S141" t="n">
         <v>8.5</v>
@@ -31053,7 +31897,7 @@
         <v>4</v>
       </c>
       <c r="AI141" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AJ141" t="n">
         <v>3.5</v>
@@ -31173,6 +32017,12 @@
         <v>3.5</v>
       </c>
       <c r="BW141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BX141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BY141" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -31217,10 +32067,10 @@
         <v>6</v>
       </c>
       <c r="L142" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N142" t="n">
         <v>9</v>
@@ -31256,10 +32106,10 @@
         <v>15.5</v>
       </c>
       <c r="Y142" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z142" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA142" t="n">
         <v>14.5</v>
@@ -31268,10 +32118,10 @@
         <v>13.5</v>
       </c>
       <c r="AC142" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD142" t="n">
         <v>13</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>12.5</v>
       </c>
       <c r="AE142" t="n">
         <v>11.5</v>
@@ -31280,13 +32130,13 @@
         <v>9.5</v>
       </c>
       <c r="AG142" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ142" t="n">
         <v>6.5</v>
@@ -31406,6 +32256,12 @@
         <v>8</v>
       </c>
       <c r="BW142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BX142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY142" t="n">
         <v>8</v>
       </c>
     </row>
@@ -31429,7 +32285,7 @@
         <v>9.5</v>
       </c>
       <c r="E143" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F143" t="n">
         <v>4</v>
@@ -31639,7 +32495,13 @@
         <v>5</v>
       </c>
       <c r="BW143" t="n">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="BX143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY143" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -31869,10 +32731,16 @@
         <v>4</v>
       </c>
       <c r="BV144" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BW144" t="n">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="BX144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY144" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -31922,7 +32790,7 @@
         <v>8</v>
       </c>
       <c r="N145" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O145" t="n">
         <v>10</v>
@@ -31943,7 +32811,7 @@
         <v>17.5</v>
       </c>
       <c r="U145" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V145" t="n">
         <v>19</v>
@@ -32102,9 +32970,15 @@
         <v>6.5</v>
       </c>
       <c r="BV145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BW145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BX145" t="n">
         <v>7</v>
       </c>
-      <c r="BW145" t="n">
+      <c r="BY145" t="n">
         <v>7</v>
       </c>
     </row>
@@ -32143,7 +33017,7 @@
         <v>4.5</v>
       </c>
       <c r="J146" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K146" t="n">
         <v>6</v>
@@ -32167,7 +33041,7 @@
         <v>12.5</v>
       </c>
       <c r="R146" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="S146" t="n">
         <v>13.5</v>
@@ -32335,10 +33209,16 @@
         <v>4</v>
       </c>
       <c r="BV146" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BW146" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BX146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY146" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -32430,7 +33310,7 @@
         <v>11</v>
       </c>
       <c r="AB147" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC147" t="n">
         <v>10</v>
@@ -32568,10 +33448,16 @@
         <v>5</v>
       </c>
       <c r="BV147" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BW147" t="n">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="BX147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY147" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="148">
@@ -32639,10 +33525,10 @@
         <v>13</v>
       </c>
       <c r="T148" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U148" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V148" t="n">
         <v>14</v>
@@ -32654,7 +33540,7 @@
         <v>14</v>
       </c>
       <c r="Y148" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z148" t="n">
         <v>13</v>
@@ -32669,7 +33555,7 @@
         <v>11.5</v>
       </c>
       <c r="AD148" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE148" t="n">
         <v>10</v>
@@ -32678,7 +33564,7 @@
         <v>7.5</v>
       </c>
       <c r="AG148" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH148" t="n">
         <v>6.5</v>
@@ -32804,6 +33690,12 @@
         <v>6.5</v>
       </c>
       <c r="BW148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BX148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BY148" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -32824,7 +33716,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="E149" t="n">
         <v>6.5</v>
@@ -33037,6 +33929,12 @@
         <v>5</v>
       </c>
       <c r="BW149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY149" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33090,7 +33988,7 @@
         <v>8</v>
       </c>
       <c r="O150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P150" t="n">
         <v>10</v>
@@ -33099,7 +33997,7 @@
         <v>10.5</v>
       </c>
       <c r="R150" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S150" t="n">
         <v>12.5</v>
@@ -33126,7 +34024,7 @@
         <v>12</v>
       </c>
       <c r="AA150" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB150" t="n">
         <v>11</v>
@@ -33271,6 +34169,12 @@
       </c>
       <c r="BW150" t="n">
         <v>5.5</v>
+      </c>
+      <c r="BX150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY150" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="151">
@@ -33443,7 +34347,7 @@
         <v>4.5</v>
       </c>
       <c r="BC151" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BD151" t="n">
         <v>5</v>
@@ -33503,6 +34407,12 @@
         <v>6</v>
       </c>
       <c r="BW151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY151" t="n">
         <v>6</v>
       </c>
     </row>
@@ -33562,7 +34472,7 @@
         <v>10</v>
       </c>
       <c r="Q152" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="R152" t="n">
         <v>11.5</v>
@@ -33589,7 +34499,7 @@
         <v>13</v>
       </c>
       <c r="Z152" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA152" t="n">
         <v>12</v>
@@ -33733,10 +34643,16 @@
         <v>5.5</v>
       </c>
       <c r="BV152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="BW152" t="n">
-        <v>6.5</v>
+        <v>6</v>
+      </c>
+      <c r="BX152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BY152" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="153">
@@ -33774,7 +34690,7 @@
         <v>3.5</v>
       </c>
       <c r="J153" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K153" t="n">
         <v>4.5</v>
@@ -33804,7 +34720,7 @@
         <v>12</v>
       </c>
       <c r="T153" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U153" t="n">
         <v>13</v>
@@ -33813,7 +34729,7 @@
         <v>13.5</v>
       </c>
       <c r="W153" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X153" t="n">
         <v>13</v>
@@ -33849,7 +34765,7 @@
         <v>6</v>
       </c>
       <c r="AI153" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ153" t="n">
         <v>5</v>
@@ -33969,7 +34885,13 @@
         <v>5.5</v>
       </c>
       <c r="BW153" t="n">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="BX153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BY153" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="154">
@@ -34004,7 +34926,7 @@
         <v>8</v>
       </c>
       <c r="K154" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L154" t="n">
         <v>9</v>
@@ -34031,10 +34953,10 @@
         <v>15</v>
       </c>
       <c r="T154" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U154" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V154" t="n">
         <v>16</v>
@@ -34076,7 +34998,7 @@
         <v>9</v>
       </c>
       <c r="AI154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ154" t="n">
         <v>7</v>
@@ -34197,6 +35119,12 @@
       </c>
       <c r="BW154" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BX154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BY154" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -34237,7 +35165,7 @@
         <v>8</v>
       </c>
       <c r="M155" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N155" t="n">
         <v>10</v>
@@ -34255,7 +35183,7 @@
         <v>13</v>
       </c>
       <c r="S155" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="T155" t="n">
         <v>16.5</v>
@@ -34276,7 +35204,7 @@
         <v>16</v>
       </c>
       <c r="Z155" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA155" t="n">
         <v>13.5</v>
@@ -34285,7 +35213,7 @@
         <v>16</v>
       </c>
       <c r="AC155" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD155" t="n">
         <v>12</v>
@@ -34424,6 +35352,12 @@
       </c>
       <c r="BW155" t="n">
         <v>7</v>
+      </c>
+      <c r="BX155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BY155" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="156">
@@ -34623,7 +35557,7 @@
         <v>11.5</v>
       </c>
       <c r="BN156" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BO156" t="n">
         <v>6.5</v>
@@ -34650,7 +35584,13 @@
         <v>6</v>
       </c>
       <c r="BW156" t="n">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="BX156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY156" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="157">
@@ -34751,7 +35691,7 @@
         <v>5.5</v>
       </c>
       <c r="AG157" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AH157" t="n">
         <v>4.5</v>
@@ -34877,13 +35817,19 @@
         <v>4</v>
       </c>
       <c r="BW157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BY157" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -34898,7 +35844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV28"/>
+  <dimension ref="A1:BX28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35277,6 +36223,16 @@
           <t>20.–26. 12. 2021</t>
         </is>
       </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>10.–16. 1. 2022</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>17.–23. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -35505,6 +36461,12 @@
       <c r="BV2" t="n">
         <v>1526</v>
       </c>
+      <c r="BW2" t="n">
+        <v>1582</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -35731,6 +36693,12 @@
         <v>330</v>
       </c>
       <c r="BV3" t="n">
+        <v>326</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>328</v>
+      </c>
+      <c r="BX3" t="n">
         <v>326</v>
       </c>
     </row>
@@ -35881,6 +36849,12 @@
       <c r="BV4" t="n">
         <v>1200</v>
       </c>
+      <c r="BW4" t="n">
+        <v>1254</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1257</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -36108,6 +37082,12 @@
       </c>
       <c r="BV5" t="n">
         <v>229</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>232</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -36257,6 +37237,12 @@
       <c r="BV6" t="n">
         <v>649</v>
       </c>
+      <c r="BW6" t="n">
+        <v>682</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>684</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -36484,6 +37470,12 @@
       </c>
       <c r="BV7" t="n">
         <v>97</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>97</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -36633,6 +37625,12 @@
       <c r="BV8" t="n">
         <v>551</v>
       </c>
+      <c r="BW8" t="n">
+        <v>571</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>573</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -36861,6 +37859,12 @@
       <c r="BV9" t="n">
         <v>358</v>
       </c>
+      <c r="BW9" t="n">
+        <v>361</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -37089,6 +38093,12 @@
       <c r="BV10" t="n">
         <v>537</v>
       </c>
+      <c r="BW10" t="n">
+        <v>571</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>572</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -37317,6 +38327,12 @@
       <c r="BV11" t="n">
         <v>631</v>
       </c>
+      <c r="BW11" t="n">
+        <v>650</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>651</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -37545,6 +38561,12 @@
       <c r="BV12" t="n">
         <v>373</v>
       </c>
+      <c r="BW12" t="n">
+        <v>449</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -37773,6 +38795,12 @@
       <c r="BV13" t="n">
         <v>606</v>
       </c>
+      <c r="BW13" t="n">
+        <v>626</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>629</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -38001,6 +39029,12 @@
       <c r="BV14" t="n">
         <v>547</v>
       </c>
+      <c r="BW14" t="n">
+        <v>507</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>505</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -38229,6 +39263,12 @@
       <c r="BV15" t="n">
         <v>516</v>
       </c>
+      <c r="BW15" t="n">
+        <v>600</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -38457,6 +39497,12 @@
       <c r="BV16" t="n">
         <v>396</v>
       </c>
+      <c r="BW16" t="n">
+        <v>468</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>467</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -38685,6 +39731,12 @@
       <c r="BV17" t="n">
         <v>614</v>
       </c>
+      <c r="BW17" t="n">
+        <v>514</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>514</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -38913,6 +39965,12 @@
       <c r="BV18" t="n">
         <v>754</v>
       </c>
+      <c r="BW18" t="n">
+        <v>779</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>777</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -39141,6 +40199,12 @@
       <c r="BV19" t="n">
         <v>772</v>
       </c>
+      <c r="BW19" t="n">
+        <v>803</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>806</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -39369,6 +40433,12 @@
       <c r="BV20" t="n">
         <v>794</v>
       </c>
+      <c r="BW20" t="n">
+        <v>830</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>827</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39597,6 +40667,12 @@
       <c r="BV21" t="n">
         <v>351</v>
       </c>
+      <c r="BW21" t="n">
+        <v>355</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -39825,6 +40901,12 @@
       <c r="BV22" t="n">
         <v>182</v>
       </c>
+      <c r="BW22" t="n">
+        <v>190</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -40052,6 +41134,12 @@
       </c>
       <c r="BV23" t="n">
         <v>199</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>207</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="24">
@@ -40277,6 +41365,12 @@
       <c r="BV24" t="n">
         <v>471</v>
       </c>
+      <c r="BW24" t="n">
+        <v>649</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -40501,6 +41595,12 @@
       <c r="BV25" t="n">
         <v>113</v>
       </c>
+      <c r="BW25" t="n">
+        <v>80</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -40725,6 +41825,12 @@
       <c r="BV26" t="n">
         <v>71</v>
       </c>
+      <c r="BW26" t="n">
+        <v>76</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -40949,11 +42055,17 @@
       <c r="BV27" t="n">
         <v>195</v>
       </c>
+      <c r="BW27" t="n">
+        <v>78</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -41029,6 +42141,8 @@
       <c r="BT28" t="inlineStr"/>
       <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_05_kontakt_s_lidmi.xlsx
+++ b/ZBP_05_kontakt_s_lidmi.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY158"/>
+  <dimension ref="A1:CA158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,16 @@
           <t>17.–23. 1. 2022</t>
         </is>
       </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>7.–13. 2. 2022</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1082,7 +1092,13 @@
         <v>18</v>
       </c>
       <c r="BY2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1323,6 +1339,12 @@
       <c r="BY3" t="n">
         <v>13</v>
       </c>
+      <c r="BZ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1562,6 +1584,12 @@
       <c r="BY4" t="n">
         <v>10</v>
       </c>
+      <c r="BZ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1616,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
         <v>10</v>
@@ -1631,10 +1659,10 @@
         <v>13.5</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W5" t="n">
         <v>13</v>
@@ -1649,13 +1677,13 @@
         <v>12</v>
       </c>
       <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1800,6 +1828,12 @@
       </c>
       <c r="BY5" t="n">
         <v>10.5</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="6">
@@ -1855,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
         <v>10</v>
@@ -1870,10 +1904,10 @@
         <v>13.5</v>
       </c>
       <c r="U6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1888,13 +1922,13 @@
         <v>12</v>
       </c>
       <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>11</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>10</v>
@@ -2039,6 +2073,12 @@
       </c>
       <c r="BY6" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2094,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="P7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
@@ -2109,10 +2149,10 @@
         <v>13.5</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W7" t="n">
         <v>13</v>
@@ -2127,13 +2167,13 @@
         <v>12</v>
       </c>
       <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>10</v>
@@ -2278,6 +2318,12 @@
       </c>
       <c r="BY7" t="n">
         <v>5.5</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2518,6 +2564,12 @@
       <c r="BY8" t="n">
         <v>18</v>
       </c>
+      <c r="BZ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2632,10 +2684,16 @@
         <v>17.5</v>
       </c>
       <c r="BX9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BY9" t="n">
         <v>18</v>
       </c>
-      <c r="BY9" t="n">
-        <v>18.5</v>
+      <c r="BZ9" t="n">
+        <v>18</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -2876,6 +2934,12 @@
       <c r="BY10" t="n">
         <v>20.5</v>
       </c>
+      <c r="BZ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2993,7 +3057,13 @@
         <v>22.5</v>
       </c>
       <c r="BY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="BZ11" t="n">
         <v>23.5</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="12">
@@ -3229,9 +3299,15 @@
         <v>11.5</v>
       </c>
       <c r="BX12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY12" t="n">
         <v>12.5</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BZ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA12" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3351,7 +3427,13 @@
         <v>12</v>
       </c>
       <c r="BY13" t="n">
-        <v>12.5</v>
+        <v>12</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -3592,6 +3674,12 @@
       <c r="BY14" t="n">
         <v>23</v>
       </c>
+      <c r="BZ14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3826,10 +3914,16 @@
         <v>19.5</v>
       </c>
       <c r="BX15" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="BY15" t="n">
         <v>22</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="16">
@@ -4070,6 +4164,12 @@
       <c r="BY16" t="n">
         <v>12</v>
       </c>
+      <c r="BZ16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4309,6 +4409,12 @@
       <c r="BY17" t="n">
         <v>21.5</v>
       </c>
+      <c r="BZ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4543,10 +4649,16 @@
         <v>16.5</v>
       </c>
       <c r="BX18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BY18" t="n">
         <v>17</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>18</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -4787,6 +4899,12 @@
       <c r="BY19" t="n">
         <v>17</v>
       </c>
+      <c r="BZ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5021,10 +5139,16 @@
         <v>21</v>
       </c>
       <c r="BX20" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="BY20" t="n">
-        <v>22.5</v>
+        <v>22</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -5265,6 +5389,12 @@
       <c r="BY21" t="n">
         <v>17.5</v>
       </c>
+      <c r="BZ21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5504,6 +5634,12 @@
       <c r="BY22" t="n">
         <v>14</v>
       </c>
+      <c r="BZ22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5738,10 +5874,16 @@
         <v>19</v>
       </c>
       <c r="BX23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BY23" t="n">
         <v>20</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -5977,10 +6119,16 @@
         <v>16.5</v>
       </c>
       <c r="BX24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BY24" t="n">
         <v>16.5</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>18</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="25">
@@ -6219,7 +6367,13 @@
         <v>18</v>
       </c>
       <c r="BY25" t="n">
-        <v>18.5</v>
+        <v>18</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>18</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="26">
@@ -6460,6 +6614,12 @@
       <c r="BY26" t="n">
         <v>19</v>
       </c>
+      <c r="BZ26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6699,6 +6859,12 @@
       <c r="BY27" t="n">
         <v>16</v>
       </c>
+      <c r="BZ27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6938,6 +7104,12 @@
       <c r="BY28" t="n">
         <v>19</v>
       </c>
+      <c r="BZ28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7166,10 +7338,16 @@
         <v>24.5</v>
       </c>
       <c r="BX29" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="BY29" t="n">
         <v>26.5</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -7404,6 +7582,12 @@
       <c r="BY30" t="n">
         <v>23</v>
       </c>
+      <c r="BZ30" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7637,6 +7821,12 @@
       <c r="BY31" t="n">
         <v>11</v>
       </c>
+      <c r="BZ31" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7870,6 +8060,12 @@
       <c r="BY32" t="n">
         <v>13</v>
       </c>
+      <c r="BZ32" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8109,6 +8305,12 @@
       <c r="BY33" t="n">
         <v>18</v>
       </c>
+      <c r="BZ33" t="n">
+        <v>19</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8226,7 +8428,13 @@
         <v>11.5</v>
       </c>
       <c r="BY34" t="n">
-        <v>12</v>
+        <v>11.5</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -8467,6 +8675,12 @@
       <c r="BY35" t="n">
         <v>20.5</v>
       </c>
+      <c r="BZ35" t="n">
+        <v>22</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8581,10 +8795,16 @@
         <v>19</v>
       </c>
       <c r="BX36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BY36" t="n">
         <v>16.5</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>15</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="37">
@@ -8820,9 +9040,15 @@
         <v>11.5</v>
       </c>
       <c r="BX37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY37" t="n">
         <v>12.5</v>
       </c>
-      <c r="BY37" t="n">
+      <c r="BZ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA37" t="n">
         <v>13</v>
       </c>
     </row>
@@ -8944,6 +9170,12 @@
       <c r="BY38" t="n">
         <v>6.5</v>
       </c>
+      <c r="BZ38" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9183,6 +9415,12 @@
       <c r="BY39" t="n">
         <v>19.5</v>
       </c>
+      <c r="BZ39" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9420,7 +9658,13 @@
         <v>15.5</v>
       </c>
       <c r="BY40" t="n">
-        <v>16</v>
+        <v>15.5</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="41">
@@ -9661,6 +9905,12 @@
       <c r="BY41" t="n">
         <v>7</v>
       </c>
+      <c r="BZ41" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9898,7 +10148,13 @@
         <v>17</v>
       </c>
       <c r="BY42" t="n">
-        <v>16.5</v>
+        <v>17</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -10139,6 +10395,12 @@
       <c r="BY43" t="n">
         <v>12.5</v>
       </c>
+      <c r="BZ43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10376,7 +10638,13 @@
         <v>10.5</v>
       </c>
       <c r="BY44" t="n">
-        <v>11</v>
+        <v>10.5</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="45">
@@ -10617,6 +10885,12 @@
       <c r="BY45" t="n">
         <v>15.5</v>
       </c>
+      <c r="BZ45" t="n">
+        <v>13</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10856,6 +11130,12 @@
       <c r="BY46" t="n">
         <v>13</v>
       </c>
+      <c r="BZ46" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11090,10 +11370,16 @@
         <v>13.5</v>
       </c>
       <c r="BX47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BY47" t="n">
         <v>10.5</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -11329,10 +11615,16 @@
         <v>15.5</v>
       </c>
       <c r="BX48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BY48" t="n">
-        <v>14.5</v>
+        <v>14</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>13</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -11573,6 +11865,12 @@
       <c r="BY49" t="n">
         <v>12</v>
       </c>
+      <c r="BZ49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11807,9 +12105,15 @@
         <v>13.5</v>
       </c>
       <c r="BX50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY50" t="n">
         <v>13</v>
       </c>
-      <c r="BY50" t="n">
+      <c r="BZ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12049,7 +12353,13 @@
         <v>15</v>
       </c>
       <c r="BY51" t="n">
-        <v>15</v>
+        <v>14.5</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -12288,7 +12598,13 @@
         <v>12</v>
       </c>
       <c r="BY52" t="n">
-        <v>12.5</v>
+        <v>12</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -12529,6 +12845,12 @@
       <c r="BY53" t="n">
         <v>11.5</v>
       </c>
+      <c r="BZ53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12757,10 +13079,16 @@
         <v>21</v>
       </c>
       <c r="BX54" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BY54" t="n">
         <v>19</v>
       </c>
-      <c r="BY54" t="n">
-        <v>19.5</v>
+      <c r="BZ54" t="n">
+        <v>18</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="55">
@@ -12993,7 +13321,13 @@
         <v>12</v>
       </c>
       <c r="BY55" t="n">
-        <v>12</v>
+        <v>12.5</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="56">
@@ -13228,6 +13562,12 @@
       <c r="BY56" t="n">
         <v>9</v>
       </c>
+      <c r="BZ56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13461,6 +13801,12 @@
       <c r="BY57" t="n">
         <v>8.5</v>
       </c>
+      <c r="BZ57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13700,6 +14046,12 @@
       <c r="BY58" t="n">
         <v>15</v>
       </c>
+      <c r="BZ58" t="n">
+        <v>16</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13819,6 +14171,12 @@
       <c r="BY59" t="n">
         <v>8.5</v>
       </c>
+      <c r="BZ59" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14053,10 +14411,16 @@
         <v>16.5</v>
       </c>
       <c r="BX60" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BY60" t="n">
         <v>16.5</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -14177,6 +14541,12 @@
       <c r="BY61" t="n">
         <v>11.5</v>
       </c>
+      <c r="BZ61" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14411,9 +14781,15 @@
         <v>11</v>
       </c>
       <c r="BX62" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BY62" t="n">
         <v>12</v>
       </c>
-      <c r="BY62" t="n">
+      <c r="BZ62" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA62" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -14535,6 +14911,12 @@
       <c r="BY63" t="n">
         <v>4.5</v>
       </c>
+      <c r="BZ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14774,6 +15156,12 @@
       <c r="BY64" t="n">
         <v>12</v>
       </c>
+      <c r="BZ64" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15013,6 +15401,12 @@
       <c r="BY65" t="n">
         <v>13</v>
       </c>
+      <c r="BZ65" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15252,6 +15646,12 @@
       <c r="BY66" t="n">
         <v>5.5</v>
       </c>
+      <c r="BZ66" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15491,6 +15891,12 @@
       <c r="BY67" t="n">
         <v>12.5</v>
       </c>
+      <c r="BZ67" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15730,6 +16136,12 @@
       <c r="BY68" t="n">
         <v>9.5</v>
       </c>
+      <c r="BZ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15969,6 +16381,12 @@
       <c r="BY69" t="n">
         <v>8</v>
       </c>
+      <c r="BZ69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16208,6 +16626,12 @@
       <c r="BY70" t="n">
         <v>11.5</v>
       </c>
+      <c r="BZ70" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16447,6 +16871,12 @@
       <c r="BY71" t="n">
         <v>9</v>
       </c>
+      <c r="BZ71" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16686,6 +17116,12 @@
       <c r="BY72" t="n">
         <v>8.5</v>
       </c>
+      <c r="BZ72" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16925,6 +17361,12 @@
       <c r="BY73" t="n">
         <v>11</v>
       </c>
+      <c r="BZ73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17164,6 +17606,12 @@
       <c r="BY74" t="n">
         <v>8.5</v>
       </c>
+      <c r="BZ74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17403,6 +17851,12 @@
       <c r="BY75" t="n">
         <v>10</v>
       </c>
+      <c r="BZ75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17642,6 +18096,12 @@
       <c r="BY76" t="n">
         <v>10.5</v>
       </c>
+      <c r="BZ76" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17881,6 +18341,12 @@
       <c r="BY77" t="n">
         <v>9.5</v>
       </c>
+      <c r="BZ77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -18115,9 +18581,15 @@
         <v>8.5</v>
       </c>
       <c r="BX78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ78" t="n">
         <v>7.5</v>
       </c>
-      <c r="BY78" t="n">
+      <c r="CA78" t="n">
         <v>8</v>
       </c>
     </row>
@@ -18353,6 +18825,12 @@
       <c r="BY79" t="n">
         <v>15</v>
       </c>
+      <c r="BZ79" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18581,9 +19059,15 @@
         <v>9.5</v>
       </c>
       <c r="BX80" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BY80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA80" t="n">
         <v>9.5</v>
       </c>
     </row>
@@ -18819,6 +19303,12 @@
       <c r="BY81" t="n">
         <v>6</v>
       </c>
+      <c r="BZ81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -19047,10 +19537,16 @@
         <v>8</v>
       </c>
       <c r="BX82" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BY82" t="n">
         <v>7</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -19106,7 +19602,7 @@
         <v>8</v>
       </c>
       <c r="P83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q83" t="n">
         <v>10</v>
@@ -19121,10 +19617,10 @@
         <v>13.5</v>
       </c>
       <c r="U83" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V83" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W83" t="n">
         <v>13</v>
@@ -19139,13 +19635,13 @@
         <v>12</v>
       </c>
       <c r="AA83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB83" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB83" t="n">
+      <c r="AC83" t="n">
         <v>11</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD83" t="n">
         <v>10</v>
@@ -19290,6 +19786,12 @@
       </c>
       <c r="BY83" t="n">
         <v>13</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="84">
@@ -19410,6 +19912,12 @@
       <c r="BY84" t="n">
         <v>10</v>
       </c>
+      <c r="BZ84" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19446,7 +19954,7 @@
         <v>5.5</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K85" t="n">
         <v>6.5</v>
@@ -19461,7 +19969,7 @@
         <v>9.5</v>
       </c>
       <c r="O85" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="P85" t="n">
         <v>12</v>
@@ -19470,7 +19978,7 @@
         <v>12.5</v>
       </c>
       <c r="R85" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="S85" t="n">
         <v>14.5</v>
@@ -19545,7 +20053,7 @@
         <v>8.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AR85" t="n">
         <v>7</v>
@@ -19644,10 +20152,16 @@
         <v>13</v>
       </c>
       <c r="BX85" t="n">
+        <v>14</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>14</v>
+      </c>
+      <c r="BZ85" t="n">
         <v>14.5</v>
       </c>
-      <c r="BY85" t="n">
-        <v>14.5</v>
+      <c r="CA85" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -19688,7 +20202,7 @@
         <v>5.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ86" t="n">
         <v>4.5</v>
@@ -19766,7 +20280,13 @@
         <v>12.5</v>
       </c>
       <c r="BY86" t="n">
-        <v>12.5</v>
+        <v>12</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="87">
@@ -19816,7 +20336,7 @@
         <v>4</v>
       </c>
       <c r="N87" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O87" t="n">
         <v>5</v>
@@ -19855,7 +20375,7 @@
         <v>8</v>
       </c>
       <c r="AA87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB87" t="n">
         <v>7.5</v>
@@ -19867,7 +20387,7 @@
         <v>7</v>
       </c>
       <c r="AE87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF87" t="n">
         <v>4.5</v>
@@ -20006,6 +20526,12 @@
       </c>
       <c r="BY87" t="n">
         <v>10</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="88">
@@ -20126,6 +20652,12 @@
       <c r="BY88" t="n">
         <v>7</v>
       </c>
+      <c r="BZ88" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20177,7 +20709,7 @@
         <v>10</v>
       </c>
       <c r="O89" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="P89" t="n">
         <v>12.5</v>
@@ -20186,7 +20718,7 @@
         <v>13</v>
       </c>
       <c r="R89" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="S89" t="n">
         <v>16</v>
@@ -20364,6 +20896,12 @@
       </c>
       <c r="BY89" t="n">
         <v>13.5</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="90">
@@ -20449,16 +20987,16 @@
         <v>15</v>
       </c>
       <c r="Z90" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA90" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB90" t="n">
         <v>13</v>
       </c>
       <c r="AC90" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD90" t="n">
         <v>12</v>
@@ -20467,7 +21005,7 @@
         <v>11.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG90" t="n">
         <v>8</v>
@@ -20476,7 +21014,7 @@
         <v>7.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ90" t="n">
         <v>5.5</v>
@@ -20599,9 +21137,15 @@
         <v>12.5</v>
       </c>
       <c r="BX90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BZ90" t="n">
         <v>12.5</v>
       </c>
-      <c r="BY90" t="n">
+      <c r="CA90" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -20655,7 +21199,7 @@
         <v>5</v>
       </c>
       <c r="O91" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P91" t="n">
         <v>6.5</v>
@@ -20685,7 +21229,7 @@
         <v>9.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z91" t="n">
         <v>8</v>
@@ -20842,6 +21386,12 @@
       </c>
       <c r="BY91" t="n">
         <v>7</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="92">
@@ -20903,7 +21453,7 @@
         <v>12</v>
       </c>
       <c r="R92" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="S92" t="n">
         <v>14</v>
@@ -20942,7 +21492,7 @@
         <v>13</v>
       </c>
       <c r="AE92" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF92" t="n">
         <v>9.5</v>
@@ -21081,6 +21631,12 @@
       </c>
       <c r="BY92" t="n">
         <v>13</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="93">
@@ -21139,7 +21695,7 @@
         <v>9</v>
       </c>
       <c r="Q93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="R93" t="n">
         <v>11.5</v>
@@ -21160,7 +21716,7 @@
         <v>12.5</v>
       </c>
       <c r="X93" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y93" t="n">
         <v>12.5</v>
@@ -21172,10 +21728,10 @@
         <v>11</v>
       </c>
       <c r="AB93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC93" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>10</v>
       </c>
       <c r="AD93" t="n">
         <v>9.5</v>
@@ -21184,7 +21740,7 @@
         <v>9</v>
       </c>
       <c r="AF93" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG93" t="n">
         <v>6.5</v>
@@ -21316,10 +21872,16 @@
         <v>10</v>
       </c>
       <c r="BX93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BY93" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -21558,7 +22120,13 @@
         <v>9</v>
       </c>
       <c r="BY94" t="n">
-        <v>9.5</v>
+        <v>9</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -21578,7 +22146,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -21593,7 +22161,7 @@
         <v>7</v>
       </c>
       <c r="I95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J95" t="n">
         <v>7</v>
@@ -21608,7 +22176,7 @@
         <v>8</v>
       </c>
       <c r="N95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O95" t="n">
         <v>10</v>
@@ -21635,7 +22203,7 @@
         <v>19</v>
       </c>
       <c r="W95" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X95" t="n">
         <v>18</v>
@@ -21794,10 +22362,16 @@
         <v>13.5</v>
       </c>
       <c r="BX95" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BY95" t="n">
         <v>13.5</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -21838,10 +22412,10 @@
         <v>6.5</v>
       </c>
       <c r="K96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L96" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M96" t="n">
         <v>8</v>
@@ -21850,10 +22424,10 @@
         <v>8.5</v>
       </c>
       <c r="O96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="P96" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Q96" t="n">
         <v>12.5</v>
@@ -21865,7 +22439,7 @@
         <v>13.5</v>
       </c>
       <c r="T96" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="U96" t="n">
         <v>16</v>
@@ -21883,7 +22457,7 @@
         <v>15.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA96" t="n">
         <v>13.5</v>
@@ -21895,10 +22469,10 @@
         <v>11</v>
       </c>
       <c r="AD96" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF96" t="n">
         <v>7</v>
@@ -22037,6 +22611,12 @@
       </c>
       <c r="BY96" t="n">
         <v>9</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="97">
@@ -22089,7 +22669,7 @@
         <v>7.5</v>
       </c>
       <c r="O97" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P97" t="n">
         <v>9.5</v>
@@ -22101,10 +22681,10 @@
         <v>11.5</v>
       </c>
       <c r="S97" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="T97" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U97" t="n">
         <v>12.5</v>
@@ -22143,7 +22723,7 @@
         <v>6</v>
       </c>
       <c r="AG97" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH97" t="n">
         <v>5.5</v>
@@ -22276,6 +22856,12 @@
       </c>
       <c r="BY97" t="n">
         <v>8</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -22322,10 +22908,10 @@
         <v>6.5</v>
       </c>
       <c r="M98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N98" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O98" t="n">
         <v>8.5</v>
@@ -22337,10 +22923,10 @@
         <v>11</v>
       </c>
       <c r="R98" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="S98" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="T98" t="n">
         <v>14</v>
@@ -22515,6 +23101,12 @@
       </c>
       <c r="BY98" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -22585,7 +23177,7 @@
         <v>13</v>
       </c>
       <c r="U99" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V99" t="n">
         <v>12.5</v>
@@ -22612,7 +23204,7 @@
         <v>10</v>
       </c>
       <c r="AD99" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE99" t="n">
         <v>8.5</v>
@@ -22754,6 +23346,12 @@
       </c>
       <c r="BY99" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BZ99" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA99" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -22782,7 +23380,7 @@
         <v>4</v>
       </c>
       <c r="G100" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
         <v>5</v>
@@ -22848,7 +23446,7 @@
         <v>11</v>
       </c>
       <c r="AC100" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD100" t="n">
         <v>10</v>
@@ -22993,6 +23591,12 @@
       </c>
       <c r="BY100" t="n">
         <v>10.5</v>
+      </c>
+      <c r="BZ100" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA100" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="101">
@@ -23012,7 +23616,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -23039,7 +23643,7 @@
         <v>5.5</v>
       </c>
       <c r="M101" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N101" t="n">
         <v>7</v>
@@ -23054,7 +23658,7 @@
         <v>9.5</v>
       </c>
       <c r="R101" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S101" t="n">
         <v>11.5</v>
@@ -23075,7 +23679,7 @@
         <v>13</v>
       </c>
       <c r="Y101" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z101" t="n">
         <v>11.5</v>
@@ -23228,10 +23832,16 @@
         <v>11.5</v>
       </c>
       <c r="BX101" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BY101" t="n">
         <v>10.5</v>
+      </c>
+      <c r="BZ101" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA101" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="102">
@@ -23293,7 +23903,7 @@
         <v>10.5</v>
       </c>
       <c r="R102" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S102" t="n">
         <v>11.5</v>
@@ -23320,7 +23930,7 @@
         <v>12.5</v>
       </c>
       <c r="AA102" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB102" t="n">
         <v>12</v>
@@ -23470,7 +24080,13 @@
         <v>9</v>
       </c>
       <c r="BY102" t="n">
-        <v>9.5</v>
+        <v>9</v>
+      </c>
+      <c r="BZ102" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -23493,7 +24109,7 @@
         <v>8.5</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F103" t="n">
         <v>2.5</v>
@@ -23710,6 +24326,12 @@
       </c>
       <c r="BY103" t="n">
         <v>11</v>
+      </c>
+      <c r="BZ103" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA103" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -23741,7 +24363,7 @@
         <v>7.5</v>
       </c>
       <c r="J104" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K104" t="n">
         <v>8.5</v>
@@ -23783,7 +24405,7 @@
         <v>15.5</v>
       </c>
       <c r="X104" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y104" t="n">
         <v>15.5</v>
@@ -23804,13 +24426,13 @@
         <v>12.5</v>
       </c>
       <c r="AE104" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG104" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>9</v>
       </c>
       <c r="AH104" t="n">
         <v>9</v>
@@ -23939,10 +24561,16 @@
         <v>14</v>
       </c>
       <c r="BX104" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BY104" t="n">
         <v>13.5</v>
+      </c>
+      <c r="BZ104" t="n">
+        <v>15</v>
+      </c>
+      <c r="CA104" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -23986,7 +24614,7 @@
         <v>8</v>
       </c>
       <c r="N105" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O105" t="n">
         <v>10.5</v>
@@ -24016,7 +24644,7 @@
         <v>13</v>
       </c>
       <c r="X105" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y105" t="n">
         <v>16</v>
@@ -24176,6 +24804,12 @@
       </c>
       <c r="BY105" t="n">
         <v>11</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -24399,7 +25033,7 @@
         <v>12</v>
       </c>
       <c r="BV106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BW106" t="n">
         <v>11</v>
@@ -24409,6 +25043,12 @@
       </c>
       <c r="BY106" t="n">
         <v>10</v>
+      </c>
+      <c r="BZ106" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA106" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -24449,7 +25089,7 @@
         <v>5</v>
       </c>
       <c r="M107" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N107" t="n">
         <v>6.5</v>
@@ -24464,7 +25104,7 @@
         <v>7</v>
       </c>
       <c r="R107" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="S107" t="n">
         <v>11.5</v>
@@ -24485,7 +25125,7 @@
         <v>15</v>
       </c>
       <c r="Y107" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z107" t="n">
         <v>11</v>
@@ -24494,13 +25134,13 @@
         <v>9.5</v>
       </c>
       <c r="AB107" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC107" t="n">
         <v>8.5</v>
       </c>
       <c r="AD107" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE107" t="n">
         <v>7</v>
@@ -24641,6 +25281,12 @@
         <v>5</v>
       </c>
       <c r="BY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CA107" t="n">
         <v>8</v>
       </c>
     </row>
@@ -24697,7 +25343,7 @@
         <v>8</v>
       </c>
       <c r="P108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q108" t="n">
         <v>10</v>
@@ -24712,10 +25358,10 @@
         <v>13.5</v>
       </c>
       <c r="U108" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V108" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W108" t="n">
         <v>13</v>
@@ -24730,13 +25376,13 @@
         <v>12</v>
       </c>
       <c r="AA108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB108" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB108" t="n">
+      <c r="AC108" t="n">
         <v>11</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD108" t="n">
         <v>10</v>
@@ -24881,6 +25527,12 @@
       </c>
       <c r="BY108" t="n">
         <v>13</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="109">
@@ -25001,6 +25653,12 @@
       <c r="BY109" t="n">
         <v>6</v>
       </c>
+      <c r="BZ109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -25037,7 +25695,7 @@
         <v>5.5</v>
       </c>
       <c r="J110" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K110" t="n">
         <v>6.5</v>
@@ -25052,7 +25710,7 @@
         <v>9.5</v>
       </c>
       <c r="O110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="P110" t="n">
         <v>12</v>
@@ -25061,7 +25719,7 @@
         <v>12.5</v>
       </c>
       <c r="R110" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="S110" t="n">
         <v>14.5</v>
@@ -25136,7 +25794,7 @@
         <v>8.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AR110" t="n">
         <v>7</v>
@@ -25235,10 +25893,16 @@
         <v>13</v>
       </c>
       <c r="BX110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BZ110" t="n">
         <v>14.5</v>
       </c>
-      <c r="BY110" t="n">
-        <v>14.5</v>
+      <c r="CA110" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -25279,7 +25943,7 @@
         <v>5.5</v>
       </c>
       <c r="AY111" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ111" t="n">
         <v>4.5</v>
@@ -25330,7 +25994,7 @@
         <v>17</v>
       </c>
       <c r="BP111" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BQ111" t="n">
         <v>16</v>
@@ -25358,6 +26022,12 @@
       </c>
       <c r="BY111" t="n">
         <v>8.5</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="112">
@@ -25407,7 +26077,7 @@
         <v>4</v>
       </c>
       <c r="N112" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O112" t="n">
         <v>5</v>
@@ -25446,7 +26116,7 @@
         <v>8</v>
       </c>
       <c r="AA112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB112" t="n">
         <v>7.5</v>
@@ -25458,7 +26128,7 @@
         <v>7</v>
       </c>
       <c r="AE112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF112" t="n">
         <v>4.5</v>
@@ -25597,6 +26267,12 @@
       </c>
       <c r="BY112" t="n">
         <v>10</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="113">
@@ -25717,6 +26393,12 @@
       <c r="BY113" t="n">
         <v>3.5</v>
       </c>
+      <c r="BZ113" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25768,7 +26450,7 @@
         <v>10</v>
       </c>
       <c r="O114" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="P114" t="n">
         <v>12.5</v>
@@ -25777,7 +26459,7 @@
         <v>13</v>
       </c>
       <c r="R114" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="S114" t="n">
         <v>16</v>
@@ -25955,6 +26637,12 @@
       </c>
       <c r="BY114" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -26040,16 +26728,16 @@
         <v>15</v>
       </c>
       <c r="Z115" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA115" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB115" t="n">
         <v>13</v>
       </c>
       <c r="AC115" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD115" t="n">
         <v>12</v>
@@ -26058,7 +26746,7 @@
         <v>11.5</v>
       </c>
       <c r="AF115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG115" t="n">
         <v>8</v>
@@ -26067,7 +26755,7 @@
         <v>7.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ115" t="n">
         <v>5.5</v>
@@ -26194,6 +26882,12 @@
       </c>
       <c r="BY115" t="n">
         <v>9</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="116">
@@ -26246,7 +26940,7 @@
         <v>5</v>
       </c>
       <c r="O116" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P116" t="n">
         <v>6.5</v>
@@ -26276,7 +26970,7 @@
         <v>9.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z116" t="n">
         <v>8</v>
@@ -26432,6 +27126,12 @@
         <v>4</v>
       </c>
       <c r="BY116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26494,7 +27194,7 @@
         <v>12</v>
       </c>
       <c r="R117" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="S117" t="n">
         <v>14</v>
@@ -26533,7 +27233,7 @@
         <v>13</v>
       </c>
       <c r="AE117" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF117" t="n">
         <v>9.5</v>
@@ -26672,6 +27372,12 @@
       </c>
       <c r="BY117" t="n">
         <v>10</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -26730,7 +27436,7 @@
         <v>9</v>
       </c>
       <c r="Q118" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="R118" t="n">
         <v>11.5</v>
@@ -26751,7 +27457,7 @@
         <v>12.5</v>
       </c>
       <c r="X118" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y118" t="n">
         <v>12.5</v>
@@ -26763,10 +27469,10 @@
         <v>11</v>
       </c>
       <c r="AB118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC118" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>10</v>
       </c>
       <c r="AD118" t="n">
         <v>9.5</v>
@@ -26775,7 +27481,7 @@
         <v>9</v>
       </c>
       <c r="AF118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG118" t="n">
         <v>6.5</v>
@@ -26910,6 +27616,12 @@
         <v>7</v>
       </c>
       <c r="BY118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ118" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA118" t="n">
         <v>7</v>
       </c>
     </row>
@@ -27151,6 +27863,12 @@
       <c r="BY119" t="n">
         <v>6</v>
       </c>
+      <c r="BZ119" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -27169,7 +27887,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -27184,7 +27902,7 @@
         <v>7</v>
       </c>
       <c r="I120" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J120" t="n">
         <v>7</v>
@@ -27199,7 +27917,7 @@
         <v>8</v>
       </c>
       <c r="N120" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O120" t="n">
         <v>10</v>
@@ -27226,7 +27944,7 @@
         <v>19</v>
       </c>
       <c r="W120" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X120" t="n">
         <v>18</v>
@@ -27389,6 +28107,12 @@
       </c>
       <c r="BY120" t="n">
         <v>9.5</v>
+      </c>
+      <c r="BZ120" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA120" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="121">
@@ -27429,10 +28153,10 @@
         <v>6.5</v>
       </c>
       <c r="K121" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L121" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M121" t="n">
         <v>8</v>
@@ -27441,10 +28165,10 @@
         <v>8.5</v>
       </c>
       <c r="O121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="P121" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Q121" t="n">
         <v>12.5</v>
@@ -27456,7 +28180,7 @@
         <v>13.5</v>
       </c>
       <c r="T121" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="U121" t="n">
         <v>16</v>
@@ -27474,7 +28198,7 @@
         <v>15.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA121" t="n">
         <v>13.5</v>
@@ -27486,10 +28210,10 @@
         <v>11</v>
       </c>
       <c r="AD121" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE121" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF121" t="n">
         <v>7</v>
@@ -27628,6 +28352,12 @@
       </c>
       <c r="BY121" t="n">
         <v>7</v>
+      </c>
+      <c r="BZ121" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -27680,7 +28410,7 @@
         <v>7.5</v>
       </c>
       <c r="O122" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P122" t="n">
         <v>9.5</v>
@@ -27692,10 +28422,10 @@
         <v>11.5</v>
       </c>
       <c r="S122" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="T122" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U122" t="n">
         <v>12.5</v>
@@ -27734,7 +28464,7 @@
         <v>6</v>
       </c>
       <c r="AG122" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH122" t="n">
         <v>5.5</v>
@@ -27863,10 +28593,16 @@
         <v>8.5</v>
       </c>
       <c r="BX122" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="BY122" t="n">
         <v>6.5</v>
+      </c>
+      <c r="BZ122" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="123">
@@ -27913,10 +28649,10 @@
         <v>6.5</v>
       </c>
       <c r="M123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N123" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O123" t="n">
         <v>8.5</v>
@@ -27928,10 +28664,10 @@
         <v>11</v>
       </c>
       <c r="R123" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="S123" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="T123" t="n">
         <v>14</v>
@@ -28105,6 +28841,12 @@
         <v>8.5</v>
       </c>
       <c r="BY123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BZ123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA123" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -28176,7 +28918,7 @@
         <v>13</v>
       </c>
       <c r="U124" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V124" t="n">
         <v>12.5</v>
@@ -28203,7 +28945,7 @@
         <v>10</v>
       </c>
       <c r="AD124" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE124" t="n">
         <v>8.5</v>
@@ -28345,6 +29087,12 @@
       </c>
       <c r="BY124" t="n">
         <v>7</v>
+      </c>
+      <c r="BZ124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="125">
@@ -28373,7 +29121,7 @@
         <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
         <v>5</v>
@@ -28439,7 +29187,7 @@
         <v>11</v>
       </c>
       <c r="AC125" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD125" t="n">
         <v>10</v>
@@ -28584,6 +29332,12 @@
       </c>
       <c r="BY125" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BZ125" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -28603,7 +29357,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -28630,7 +29384,7 @@
         <v>5.5</v>
       </c>
       <c r="M126" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N126" t="n">
         <v>7</v>
@@ -28645,7 +29399,7 @@
         <v>9.5</v>
       </c>
       <c r="R126" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S126" t="n">
         <v>11.5</v>
@@ -28666,7 +29420,7 @@
         <v>13</v>
       </c>
       <c r="Y126" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z126" t="n">
         <v>11.5</v>
@@ -28822,7 +29576,13 @@
         <v>8.5</v>
       </c>
       <c r="BY126" t="n">
-        <v>8.5</v>
+        <v>8</v>
+      </c>
+      <c r="BZ126" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA126" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -28884,7 +29644,7 @@
         <v>10.5</v>
       </c>
       <c r="R127" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S127" t="n">
         <v>11.5</v>
@@ -28911,7 +29671,7 @@
         <v>12.5</v>
       </c>
       <c r="AA127" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB127" t="n">
         <v>12</v>
@@ -29062,6 +29822,12 @@
       </c>
       <c r="BY127" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BZ127" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA127" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -29084,7 +29850,7 @@
         <v>8.5</v>
       </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F128" t="n">
         <v>2.5</v>
@@ -29301,6 +30067,12 @@
       </c>
       <c r="BY128" t="n">
         <v>6.5</v>
+      </c>
+      <c r="BZ128" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA128" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -29332,7 +30104,7 @@
         <v>7.5</v>
       </c>
       <c r="J129" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K129" t="n">
         <v>8.5</v>
@@ -29374,7 +30146,7 @@
         <v>15.5</v>
       </c>
       <c r="X129" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y129" t="n">
         <v>15.5</v>
@@ -29395,13 +30167,13 @@
         <v>12.5</v>
       </c>
       <c r="AE129" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG129" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>9</v>
       </c>
       <c r="AH129" t="n">
         <v>9</v>
@@ -29534,6 +30306,12 @@
       </c>
       <c r="BY129" t="n">
         <v>10</v>
+      </c>
+      <c r="BZ129" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CA129" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="130">
@@ -29577,7 +30355,7 @@
         <v>8</v>
       </c>
       <c r="N130" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O130" t="n">
         <v>10.5</v>
@@ -29607,7 +30385,7 @@
         <v>13</v>
       </c>
       <c r="X130" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y130" t="n">
         <v>16</v>
@@ -29763,10 +30541,16 @@
         <v>11</v>
       </c>
       <c r="BX130" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BY130" t="n">
-        <v>5.5</v>
+        <v>6</v>
+      </c>
+      <c r="BZ130" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA130" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -30001,6 +30785,12 @@
       <c r="BY131" t="n">
         <v>8</v>
       </c>
+      <c r="BZ131" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA131" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -30040,7 +30830,7 @@
         <v>5</v>
       </c>
       <c r="M132" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N132" t="n">
         <v>6.5</v>
@@ -30055,7 +30845,7 @@
         <v>7</v>
       </c>
       <c r="R132" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="S132" t="n">
         <v>11.5</v>
@@ -30076,7 +30866,7 @@
         <v>15</v>
       </c>
       <c r="Y132" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z132" t="n">
         <v>11</v>
@@ -30085,13 +30875,13 @@
         <v>9.5</v>
       </c>
       <c r="AB132" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC132" t="n">
         <v>8.5</v>
       </c>
       <c r="AD132" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE132" t="n">
         <v>7</v>
@@ -30232,7 +31022,13 @@
         <v>4</v>
       </c>
       <c r="BY132" t="n">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="BZ132" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA132" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -30288,7 +31084,7 @@
         <v>8</v>
       </c>
       <c r="P133" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q133" t="n">
         <v>10</v>
@@ -30303,10 +31099,10 @@
         <v>13.5</v>
       </c>
       <c r="U133" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V133" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W133" t="n">
         <v>13</v>
@@ -30321,13 +31117,13 @@
         <v>12</v>
       </c>
       <c r="AA133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB133" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB133" t="n">
+      <c r="AC133" t="n">
         <v>11</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD133" t="n">
         <v>10</v>
@@ -30472,6 +31268,12 @@
       </c>
       <c r="BY133" t="n">
         <v>11</v>
+      </c>
+      <c r="BZ133" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA133" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="134">
@@ -30592,6 +31394,12 @@
       <c r="BY134" t="n">
         <v>4.5</v>
       </c>
+      <c r="BZ134" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA134" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30628,7 +31436,7 @@
         <v>5.5</v>
       </c>
       <c r="J135" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K135" t="n">
         <v>6.5</v>
@@ -30643,7 +31451,7 @@
         <v>9.5</v>
       </c>
       <c r="O135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="P135" t="n">
         <v>12</v>
@@ -30652,7 +31460,7 @@
         <v>12.5</v>
       </c>
       <c r="R135" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="S135" t="n">
         <v>14.5</v>
@@ -30721,7 +31529,7 @@
         <v>8</v>
       </c>
       <c r="AO135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP135" t="n">
         <v>8</v>
@@ -30823,13 +31631,19 @@
         <v>10.5</v>
       </c>
       <c r="BW135" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BX135" t="n">
         <v>11.5</v>
       </c>
       <c r="BY135" t="n">
         <v>11.5</v>
+      </c>
+      <c r="BZ135" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="CA135" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -30950,6 +31764,12 @@
       <c r="BY136" t="n">
         <v>6</v>
       </c>
+      <c r="BZ136" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA136" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30998,7 +31818,7 @@
         <v>4</v>
       </c>
       <c r="N137" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O137" t="n">
         <v>5</v>
@@ -31037,7 +31857,7 @@
         <v>8</v>
       </c>
       <c r="AA137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB137" t="n">
         <v>7.5</v>
@@ -31049,7 +31869,7 @@
         <v>7</v>
       </c>
       <c r="AE137" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF137" t="n">
         <v>4.5</v>
@@ -31181,12 +32001,18 @@
         <v>9</v>
       </c>
       <c r="BW137" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BX137" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BY137" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BZ137" t="n">
         <v>10</v>
       </c>
-      <c r="BY137" t="n">
+      <c r="CA137" t="n">
         <v>10</v>
       </c>
     </row>
@@ -31308,6 +32134,12 @@
       <c r="BY138" t="n">
         <v>2.5</v>
       </c>
+      <c r="BZ138" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA138" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -31359,7 +32191,7 @@
         <v>10</v>
       </c>
       <c r="O139" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="P139" t="n">
         <v>12.5</v>
@@ -31368,7 +32200,7 @@
         <v>13</v>
       </c>
       <c r="R139" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="S139" t="n">
         <v>16</v>
@@ -31546,6 +32378,12 @@
       </c>
       <c r="BY139" t="n">
         <v>7</v>
+      </c>
+      <c r="BZ139" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA139" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -31631,16 +32469,16 @@
         <v>15</v>
       </c>
       <c r="Z140" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA140" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB140" t="n">
         <v>13</v>
       </c>
       <c r="AC140" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD140" t="n">
         <v>12</v>
@@ -31649,7 +32487,7 @@
         <v>11.5</v>
       </c>
       <c r="AF140" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG140" t="n">
         <v>8</v>
@@ -31658,7 +32496,7 @@
         <v>7.5</v>
       </c>
       <c r="AI140" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ140" t="n">
         <v>5.5</v>
@@ -31676,7 +32514,7 @@
         <v>7</v>
       </c>
       <c r="AO140" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP140" t="n">
         <v>7</v>
@@ -31700,7 +32538,7 @@
         <v>6</v>
       </c>
       <c r="AW140" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX140" t="n">
         <v>5.5</v>
@@ -31785,6 +32623,12 @@
       </c>
       <c r="BY140" t="n">
         <v>7.5</v>
+      </c>
+      <c r="BZ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA140" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -31837,7 +32681,7 @@
         <v>5</v>
       </c>
       <c r="O141" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P141" t="n">
         <v>6.5</v>
@@ -31867,7 +32711,7 @@
         <v>9.5</v>
       </c>
       <c r="Y141" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z141" t="n">
         <v>8</v>
@@ -32024,6 +32868,12 @@
       </c>
       <c r="BY141" t="n">
         <v>3.5</v>
+      </c>
+      <c r="BZ141" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA141" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -32085,7 +32935,7 @@
         <v>12</v>
       </c>
       <c r="R142" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="S142" t="n">
         <v>14</v>
@@ -32124,7 +32974,7 @@
         <v>13</v>
       </c>
       <c r="AE142" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF142" t="n">
         <v>9.5</v>
@@ -32263,6 +33113,12 @@
       </c>
       <c r="BY142" t="n">
         <v>8</v>
+      </c>
+      <c r="BZ142" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA142" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="143">
@@ -32321,7 +33177,7 @@
         <v>9</v>
       </c>
       <c r="Q143" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="R143" t="n">
         <v>11.5</v>
@@ -32342,7 +33198,7 @@
         <v>12.5</v>
       </c>
       <c r="X143" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y143" t="n">
         <v>12.5</v>
@@ -32354,10 +33210,10 @@
         <v>11</v>
       </c>
       <c r="AB143" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC143" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>10</v>
       </c>
       <c r="AD143" t="n">
         <v>9.5</v>
@@ -32384,7 +33240,7 @@
         <v>5</v>
       </c>
       <c r="AL143" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AM143" t="n">
         <v>5</v>
@@ -32502,6 +33358,12 @@
       </c>
       <c r="BY143" t="n">
         <v>5</v>
+      </c>
+      <c r="BZ143" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CA143" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="144">
@@ -32614,7 +33476,7 @@
         <v>5.5</v>
       </c>
       <c r="AI144" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ144" t="n">
         <v>4</v>
@@ -32641,7 +33503,7 @@
         <v>6.5</v>
       </c>
       <c r="AR144" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AS144" t="n">
         <v>4.5</v>
@@ -32740,6 +33602,12 @@
         <v>4</v>
       </c>
       <c r="BY144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ144" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA144" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32760,7 +33628,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -32775,7 +33643,7 @@
         <v>7</v>
       </c>
       <c r="I145" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J145" t="n">
         <v>7</v>
@@ -32790,7 +33658,7 @@
         <v>8</v>
       </c>
       <c r="N145" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O145" t="n">
         <v>10</v>
@@ -32817,7 +33685,7 @@
         <v>19</v>
       </c>
       <c r="W145" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X145" t="n">
         <v>18</v>
@@ -32895,7 +33763,7 @@
         <v>6.5</v>
       </c>
       <c r="AW145" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX145" t="n">
         <v>5.5</v>
@@ -32979,6 +33847,12 @@
         <v>7</v>
       </c>
       <c r="BY145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BZ145" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA145" t="n">
         <v>7</v>
       </c>
     </row>
@@ -33020,10 +33894,10 @@
         <v>6.5</v>
       </c>
       <c r="K146" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L146" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M146" t="n">
         <v>8</v>
@@ -33032,10 +33906,10 @@
         <v>8.5</v>
       </c>
       <c r="O146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="P146" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Q146" t="n">
         <v>12.5</v>
@@ -33047,7 +33921,7 @@
         <v>13.5</v>
       </c>
       <c r="T146" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="U146" t="n">
         <v>16</v>
@@ -33065,7 +33939,7 @@
         <v>15.5</v>
       </c>
       <c r="Z146" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA146" t="n">
         <v>13.5</v>
@@ -33077,10 +33951,10 @@
         <v>11</v>
       </c>
       <c r="AD146" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE146" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF146" t="n">
         <v>7</v>
@@ -33219,6 +34093,12 @@
       </c>
       <c r="BY146" t="n">
         <v>5</v>
+      </c>
+      <c r="BZ146" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA146" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="147">
@@ -33271,7 +34151,7 @@
         <v>7.5</v>
       </c>
       <c r="O147" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P147" t="n">
         <v>9.5</v>
@@ -33283,10 +34163,10 @@
         <v>11.5</v>
       </c>
       <c r="S147" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="T147" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U147" t="n">
         <v>12.5</v>
@@ -33325,7 +34205,7 @@
         <v>6</v>
       </c>
       <c r="AG147" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH147" t="n">
         <v>5.5</v>
@@ -33458,6 +34338,12 @@
       </c>
       <c r="BY147" t="n">
         <v>5</v>
+      </c>
+      <c r="BZ147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CA147" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -33504,10 +34390,10 @@
         <v>6.5</v>
       </c>
       <c r="M148" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N148" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O148" t="n">
         <v>8.5</v>
@@ -33519,10 +34405,10 @@
         <v>11</v>
       </c>
       <c r="R148" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="S148" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="T148" t="n">
         <v>14</v>
@@ -33697,6 +34583,12 @@
       </c>
       <c r="BY148" t="n">
         <v>6.5</v>
+      </c>
+      <c r="BZ148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CA148" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -33767,7 +34659,7 @@
         <v>13</v>
       </c>
       <c r="U149" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V149" t="n">
         <v>12.5</v>
@@ -33794,7 +34686,7 @@
         <v>10</v>
       </c>
       <c r="AD149" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE149" t="n">
         <v>8.5</v>
@@ -33936,6 +34828,12 @@
       </c>
       <c r="BY149" t="n">
         <v>5</v>
+      </c>
+      <c r="BZ149" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CA149" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="150">
@@ -33964,7 +34862,7 @@
         <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H150" t="n">
         <v>5</v>
@@ -34030,7 +34928,7 @@
         <v>11</v>
       </c>
       <c r="AC150" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD150" t="n">
         <v>10</v>
@@ -34175,6 +35073,12 @@
       </c>
       <c r="BY150" t="n">
         <v>6</v>
+      </c>
+      <c r="BZ150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CA150" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="151">
@@ -34194,7 +35098,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -34221,7 +35125,7 @@
         <v>5.5</v>
       </c>
       <c r="M151" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N151" t="n">
         <v>7</v>
@@ -34236,7 +35140,7 @@
         <v>9.5</v>
       </c>
       <c r="R151" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S151" t="n">
         <v>11.5</v>
@@ -34257,7 +35161,7 @@
         <v>13</v>
       </c>
       <c r="Y151" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z151" t="n">
         <v>11.5</v>
@@ -34414,6 +35318,12 @@
       </c>
       <c r="BY151" t="n">
         <v>6</v>
+      </c>
+      <c r="BZ151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CA151" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="152">
@@ -34475,7 +35385,7 @@
         <v>10.5</v>
       </c>
       <c r="R152" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S152" t="n">
         <v>11.5</v>
@@ -34502,7 +35412,7 @@
         <v>12.5</v>
       </c>
       <c r="AA152" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB152" t="n">
         <v>12</v>
@@ -34653,6 +35563,12 @@
       </c>
       <c r="BY152" t="n">
         <v>5.5</v>
+      </c>
+      <c r="BZ152" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA152" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="153">
@@ -34675,7 +35591,7 @@
         <v>8.5</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F153" t="n">
         <v>2.5</v>
@@ -34891,6 +35807,12 @@
         <v>4.5</v>
       </c>
       <c r="BY153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BZ153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CA153" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -34923,7 +35845,7 @@
         <v>7.5</v>
       </c>
       <c r="J154" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K154" t="n">
         <v>8.5</v>
@@ -34965,7 +35887,7 @@
         <v>15.5</v>
       </c>
       <c r="X154" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y154" t="n">
         <v>15.5</v>
@@ -34986,13 +35908,13 @@
         <v>12.5</v>
       </c>
       <c r="AE154" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF154" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG154" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AG154" t="n">
-        <v>9</v>
       </c>
       <c r="AH154" t="n">
         <v>9</v>
@@ -35125,6 +36047,12 @@
       </c>
       <c r="BY154" t="n">
         <v>8</v>
+      </c>
+      <c r="BZ154" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CA154" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="155">
@@ -35168,7 +36096,7 @@
         <v>8</v>
       </c>
       <c r="N155" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O155" t="n">
         <v>10.5</v>
@@ -35198,7 +36126,7 @@
         <v>13</v>
       </c>
       <c r="X155" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y155" t="n">
         <v>16</v>
@@ -35358,6 +36286,12 @@
       </c>
       <c r="BY155" t="n">
         <v>4.5</v>
+      </c>
+      <c r="BZ155" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA155" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="156">
@@ -35592,6 +36526,12 @@
       <c r="BY156" t="n">
         <v>6</v>
       </c>
+      <c r="BZ156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CA156" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -35631,7 +36571,7 @@
         <v>5</v>
       </c>
       <c r="M157" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N157" t="n">
         <v>6.5</v>
@@ -35646,7 +36586,7 @@
         <v>7</v>
       </c>
       <c r="R157" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="S157" t="n">
         <v>11.5</v>
@@ -35667,7 +36607,7 @@
         <v>15</v>
       </c>
       <c r="Y157" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z157" t="n">
         <v>11</v>
@@ -35676,13 +36616,13 @@
         <v>9.5</v>
       </c>
       <c r="AB157" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC157" t="n">
         <v>8.5</v>
       </c>
       <c r="AD157" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE157" t="n">
         <v>7</v>
@@ -35691,7 +36631,7 @@
         <v>5.5</v>
       </c>
       <c r="AG157" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AH157" t="n">
         <v>4.5</v>
@@ -35820,16 +36760,22 @@
         <v>5</v>
       </c>
       <c r="BX157" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BY157" t="n">
         <v>5</v>
+      </c>
+      <c r="BZ157" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA157" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Kontakt s lidmi, průměr celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -35844,7 +36790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX28"/>
+  <dimension ref="A1:BZ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36233,6 +37179,16 @@
           <t>17.–23. 1. 2022</t>
         </is>
       </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>7.–13. 2. 2022</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -36462,10 +37418,16 @@
         <v>1526</v>
       </c>
       <c r="BW2" t="n">
-        <v>1582</v>
+        <v>1609</v>
       </c>
       <c r="BX2" t="n">
-        <v>1583</v>
+        <v>1614</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1549</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1525</v>
       </c>
     </row>
     <row r="3">
@@ -36696,10 +37658,16 @@
         <v>326</v>
       </c>
       <c r="BW3" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="BX3" t="n">
-        <v>326</v>
+        <v>333</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>299</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="4">
@@ -36850,10 +37818,16 @@
         <v>1200</v>
       </c>
       <c r="BW4" t="n">
-        <v>1254</v>
+        <v>1274</v>
       </c>
       <c r="BX4" t="n">
-        <v>1257</v>
+        <v>1281</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1227</v>
       </c>
     </row>
     <row r="5">
@@ -37084,10 +38058,16 @@
         <v>229</v>
       </c>
       <c r="BW5" t="n">
+        <v>234</v>
+      </c>
+      <c r="BX5" t="n">
         <v>232</v>
       </c>
-      <c r="BX5" t="n">
-        <v>230</v>
+      <c r="BY5" t="n">
+        <v>217</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="6">
@@ -37238,10 +38218,16 @@
         <v>649</v>
       </c>
       <c r="BW6" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BX6" t="n">
-        <v>684</v>
+        <v>699</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>683</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>672</v>
       </c>
     </row>
     <row r="7">
@@ -37472,10 +38458,16 @@
         <v>97</v>
       </c>
       <c r="BW7" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BX7" t="n">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>82</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -37626,10 +38618,16 @@
         <v>551</v>
       </c>
       <c r="BW8" t="n">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="BX8" t="n">
-        <v>573</v>
+        <v>581</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>567</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>556</v>
       </c>
     </row>
     <row r="9">
@@ -37860,9 +38858,15 @@
         <v>358</v>
       </c>
       <c r="BW9" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="BX9" t="n">
+        <v>366</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>363</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>360</v>
       </c>
     </row>
@@ -38094,10 +39098,16 @@
         <v>537</v>
       </c>
       <c r="BW10" t="n">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="BX10" t="n">
-        <v>572</v>
+        <v>584</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>561</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="11">
@@ -38328,10 +39338,16 @@
         <v>631</v>
       </c>
       <c r="BW11" t="n">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BX11" t="n">
-        <v>651</v>
+        <v>664</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>625</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="12">
@@ -38562,10 +39578,16 @@
         <v>373</v>
       </c>
       <c r="BW12" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="BX12" t="n">
-        <v>449</v>
+        <v>452</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>518</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>512</v>
       </c>
     </row>
     <row r="13">
@@ -38796,10 +39818,16 @@
         <v>606</v>
       </c>
       <c r="BW13" t="n">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="BX13" t="n">
-        <v>629</v>
+        <v>643</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>643</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="14">
@@ -39030,10 +40058,16 @@
         <v>547</v>
       </c>
       <c r="BW14" t="n">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="BX14" t="n">
-        <v>505</v>
+        <v>519</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>388</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="15">
@@ -39264,10 +40298,16 @@
         <v>516</v>
       </c>
       <c r="BW15" t="n">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="BX15" t="n">
-        <v>602</v>
+        <v>617</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>604</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>592</v>
       </c>
     </row>
     <row r="16">
@@ -39498,10 +40538,16 @@
         <v>396</v>
       </c>
       <c r="BW16" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BX16" t="n">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>388</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="17">
@@ -39732,10 +40778,16 @@
         <v>614</v>
       </c>
       <c r="BW17" t="n">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="BX17" t="n">
-        <v>514</v>
+        <v>528</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>557</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>554</v>
       </c>
     </row>
     <row r="18">
@@ -39966,10 +41018,16 @@
         <v>754</v>
       </c>
       <c r="BW18" t="n">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="BX18" t="n">
-        <v>777</v>
+        <v>789</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>763</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>754</v>
       </c>
     </row>
     <row r="19">
@@ -40200,10 +41258,16 @@
         <v>772</v>
       </c>
       <c r="BW19" t="n">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="BX19" t="n">
-        <v>806</v>
+        <v>825</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>786</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>771</v>
       </c>
     </row>
     <row r="20">
@@ -40434,10 +41498,16 @@
         <v>794</v>
       </c>
       <c r="BW20" t="n">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="BX20" t="n">
-        <v>827</v>
+        <v>849</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>815</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>789</v>
       </c>
     </row>
     <row r="21">
@@ -40668,10 +41738,16 @@
         <v>351</v>
       </c>
       <c r="BW21" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BX21" t="n">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>351</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="22">
@@ -40902,10 +41978,16 @@
         <v>182</v>
       </c>
       <c r="BW22" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BX22" t="n">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>182</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -41136,10 +42218,16 @@
         <v>199</v>
       </c>
       <c r="BW23" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BX23" t="n">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -41366,10 +42454,16 @@
         <v>471</v>
       </c>
       <c r="BW24" t="n">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="BX24" t="n">
-        <v>648</v>
+        <v>663</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>617</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>616</v>
       </c>
     </row>
     <row r="25">
@@ -41596,10 +42690,16 @@
         <v>113</v>
       </c>
       <c r="BW25" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BX25" t="n">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>84</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -41826,10 +42926,16 @@
         <v>71</v>
       </c>
       <c r="BW26" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BX26" t="n">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>92</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -42061,11 +43167,17 @@
       <c r="BX27" t="n">
         <v>81</v>
       </c>
+      <c r="BY27" t="n">
+        <v>74</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Kontakt s lidmi, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -42143,6 +43255,8 @@
       <c r="BV28" t="inlineStr"/>
       <c r="BW28" t="inlineStr"/>
       <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
